--- a/Improgress/2. Artifact and Deliverable/DetailDesign & Architect/Design/DE_MessageList_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/DetailDesign & Architect/Design/DE_MessageList_Ver1.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\DetailDesign\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\DetailDesign &amp; Architect\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004E9963-0AB4-4337-806D-C6C529CDB83B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7712723A-982E-4E69-BE64-70FF4EFD14E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1380" yWindow="345" windowWidth="15405" windowHeight="11070" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="119">
   <si>
     <t>Project Name:</t>
   </si>
@@ -394,6 +394,15 @@
   </si>
   <si>
     <t>Thông báo khi admin thêm hình ảnh dưới 5MB</t>
+  </si>
+  <si>
+    <t>MS.LA.003</t>
+  </si>
+  <si>
+    <t>Thông báo đăng xuất trên android khi người sử dụng nhấn vào nút trở lại</t>
+  </si>
+  <si>
+    <t>Bạn có muốn đăng xuất không?</t>
   </si>
 </sst>
 </file>
@@ -1090,15 +1099,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1134,6 +1134,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -29540,7 +29549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -29584,16 +29593,16 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="6" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="81"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="93"/>
     </row>
     <row r="3" spans="1:9" s="6" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="49">
@@ -29637,16 +29646,16 @@
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" s="6" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="91" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="81"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="93"/>
     </row>
     <row r="6" spans="1:9" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="49">
@@ -29727,16 +29736,16 @@
       <c r="H9" s="54"/>
     </row>
     <row r="10" spans="1:9" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="80"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="81"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="93"/>
     </row>
     <row r="11" spans="1:9" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="64"/>
@@ -29857,16 +29866,16 @@
       <c r="H16" s="63"/>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="79" t="s">
+      <c r="A17" s="91" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="80"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="81"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="93"/>
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="58">
@@ -29909,16 +29918,16 @@
       <c r="H19" s="54"/>
     </row>
     <row r="20" spans="1:8" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="79" t="s">
+      <c r="A20" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="80"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="81"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="93"/>
     </row>
     <row r="21" spans="1:8" s="6" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="58">
@@ -29962,7 +29971,7 @@
     </row>
     <row r="23" spans="1:8" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
-      <c r="B23" s="90"/>
+      <c r="B23" s="87"/>
       <c r="C23" s="14"/>
       <c r="D23" s="3"/>
       <c r="E23" s="4"/>
@@ -29972,7 +29981,7 @@
     </row>
     <row r="24" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
-      <c r="B24" s="91"/>
+      <c r="B24" s="88"/>
       <c r="C24" s="14"/>
       <c r="D24" s="3"/>
       <c r="E24" s="4"/>
@@ -29982,7 +29991,7 @@
     </row>
     <row r="25" spans="1:8" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" s="91"/>
+      <c r="B25" s="88"/>
       <c r="C25" s="14"/>
       <c r="D25" s="3"/>
       <c r="E25" s="4"/>
@@ -29992,7 +30001,7 @@
     </row>
     <row r="26" spans="1:8" s="6" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
-      <c r="B26" s="92"/>
+      <c r="B26" s="89"/>
       <c r="C26" s="14"/>
       <c r="D26" s="3"/>
       <c r="E26" s="4"/>
@@ -30002,7 +30011,7 @@
     </row>
     <row r="27" spans="1:8" s="6" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="93"/>
+      <c r="B27" s="90"/>
       <c r="C27" s="15"/>
       <c r="D27" s="3"/>
       <c r="E27" s="4"/>
@@ -30012,7 +30021,7 @@
     </row>
     <row r="28" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="93"/>
+      <c r="B28" s="90"/>
       <c r="C28" s="15"/>
       <c r="D28" s="3"/>
       <c r="E28" s="4"/>
@@ -30022,7 +30031,7 @@
     </row>
     <row r="29" spans="1:8" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="B29" s="93"/>
+      <c r="B29" s="90"/>
       <c r="C29" s="15"/>
       <c r="D29" s="3"/>
       <c r="E29" s="4"/>
@@ -30032,7 +30041,7 @@
     </row>
     <row r="30" spans="1:8" s="6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="90"/>
+      <c r="B30" s="87"/>
       <c r="C30" s="15"/>
       <c r="D30" s="8"/>
       <c r="E30" s="4"/>
@@ -30042,7 +30051,7 @@
     </row>
     <row r="31" spans="1:8" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
-      <c r="B31" s="91"/>
+      <c r="B31" s="88"/>
       <c r="C31" s="15"/>
       <c r="D31" s="8"/>
       <c r="E31" s="4"/>
@@ -30052,7 +30061,7 @@
     </row>
     <row r="32" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
-      <c r="B32" s="82"/>
+      <c r="B32" s="79"/>
       <c r="C32" s="16"/>
       <c r="D32" s="17"/>
       <c r="E32" s="18"/>
@@ -30062,7 +30071,7 @@
     </row>
     <row r="33" spans="1:8" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
-      <c r="B33" s="83"/>
+      <c r="B33" s="80"/>
       <c r="C33" s="16"/>
       <c r="D33" s="17"/>
       <c r="E33" s="18"/>
@@ -30072,7 +30081,7 @@
     </row>
     <row r="34" spans="1:8" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
-      <c r="B34" s="84"/>
+      <c r="B34" s="81"/>
       <c r="C34" s="16"/>
       <c r="D34" s="17"/>
       <c r="E34" s="18"/>
@@ -30082,7 +30091,7 @@
     </row>
     <row r="35" spans="1:8" s="6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
-      <c r="B35" s="85"/>
+      <c r="B35" s="82"/>
       <c r="C35" s="16"/>
       <c r="D35" s="17"/>
       <c r="E35" s="18"/>
@@ -30092,7 +30101,7 @@
     </row>
     <row r="36" spans="1:8" s="6" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
-      <c r="B36" s="85"/>
+      <c r="B36" s="82"/>
       <c r="C36" s="16"/>
       <c r="D36" s="17"/>
       <c r="E36" s="18"/>
@@ -30102,7 +30111,7 @@
     </row>
     <row r="37" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
-      <c r="B37" s="86"/>
+      <c r="B37" s="83"/>
       <c r="C37" s="16"/>
       <c r="D37" s="17"/>
       <c r="E37" s="18"/>
@@ -30112,7 +30121,7 @@
     </row>
     <row r="38" spans="1:8" s="6" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
-      <c r="B38" s="87"/>
+      <c r="B38" s="84"/>
       <c r="C38" s="16"/>
       <c r="D38" s="17"/>
       <c r="E38" s="18"/>
@@ -30122,7 +30131,7 @@
     </row>
     <row r="39" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
-      <c r="B39" s="88"/>
+      <c r="B39" s="85"/>
       <c r="C39" s="16"/>
       <c r="D39" s="17"/>
       <c r="E39" s="18"/>
@@ -30132,7 +30141,7 @@
     </row>
     <row r="40" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
-      <c r="B40" s="88"/>
+      <c r="B40" s="85"/>
       <c r="C40" s="16"/>
       <c r="D40" s="17"/>
       <c r="E40" s="18"/>
@@ -30142,7 +30151,7 @@
     </row>
     <row r="41" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
-      <c r="B41" s="88"/>
+      <c r="B41" s="85"/>
       <c r="C41" s="16"/>
       <c r="D41" s="17"/>
       <c r="E41" s="18"/>
@@ -30152,7 +30161,7 @@
     </row>
     <row r="42" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
-      <c r="B42" s="89"/>
+      <c r="B42" s="86"/>
       <c r="C42" s="16"/>
       <c r="D42" s="17"/>
       <c r="E42" s="18"/>
@@ -30162,7 +30171,7 @@
     </row>
     <row r="43" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
-      <c r="B43" s="84"/>
+      <c r="B43" s="81"/>
       <c r="C43" s="16"/>
       <c r="D43" s="20"/>
       <c r="E43" s="18"/>
@@ -30172,7 +30181,7 @@
     </row>
     <row r="44" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
-      <c r="B44" s="85"/>
+      <c r="B44" s="82"/>
       <c r="C44" s="16"/>
       <c r="D44" s="20"/>
       <c r="E44" s="18"/>
@@ -30242,6 +30251,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A20:H20"/>
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="B34:B37"/>
     <mergeCell ref="B38:B42"/>
@@ -30249,11 +30263,6 @@
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="B26:B29"/>
     <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A20:H20"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30281,10 +30290,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10950550-2C91-40A6-B5DD-86EBF28A80EF}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -30327,16 +30336,16 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="91" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="81"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="93"/>
     </row>
     <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A3" s="49">
@@ -30378,261 +30387,271 @@
       <c r="G4" s="54"/>
       <c r="H4" s="54"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="79" t="s">
+    <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.2">
+      <c r="A5" s="49">
+        <v>3</v>
+      </c>
+      <c r="B5" s="55"/>
+      <c r="C5" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="F5" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="91" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="81"/>
-    </row>
-    <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.2">
-      <c r="A6" s="49">
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="93"/>
+    </row>
+    <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.2">
+      <c r="A7" s="49">
         <v>3</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="51" t="s">
+      <c r="B7" s="50"/>
+      <c r="C7" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D7" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E7" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="F6" s="53" t="s">
+      <c r="F7" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="79" t="s">
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="91" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="81"/>
-    </row>
-    <row r="8" spans="1:8" ht="60" x14ac:dyDescent="0.2">
-      <c r="A8" s="49">
+      <c r="B8" s="92"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="93"/>
+    </row>
+    <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.2">
+      <c r="A9" s="49">
         <v>4</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="51" t="s">
+      <c r="B9" s="50"/>
+      <c r="C9" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D9" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="53" t="s">
+      <c r="E9" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="F8" s="53" t="s">
+      <c r="F9" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="79" t="s">
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="81"/>
-    </row>
-    <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.2">
-      <c r="A10" s="49">
+      <c r="B10" s="92"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="93"/>
+    </row>
+    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+      <c r="A11" s="49">
         <v>5</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="51" t="s">
+      <c r="B11" s="50"/>
+      <c r="C11" s="51" t="s">
         <v>75</v>
-      </c>
-      <c r="D10" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" s="53" t="s">
-        <v>112</v>
-      </c>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-    </row>
-    <row r="11" spans="1:8" ht="60" x14ac:dyDescent="0.2">
-      <c r="A11" s="49">
-        <v>6</v>
-      </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="51" t="s">
-        <v>76</v>
       </c>
       <c r="D11" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="53" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F11" s="53" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="G11" s="54"/>
       <c r="H11" s="54"/>
     </row>
     <row r="12" spans="1:8" ht="60" x14ac:dyDescent="0.2">
       <c r="A12" s="49">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="55"/>
       <c r="C12" s="51" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D12" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="53" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F12" s="53" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G12" s="54"/>
       <c r="H12" s="54"/>
     </row>
-    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.2">
       <c r="A13" s="49">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="55"/>
       <c r="C13" s="51" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D13" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="53" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F13" s="53" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G13" s="54"/>
       <c r="H13" s="54"/>
     </row>
-    <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A14" s="49">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="55"/>
       <c r="C14" s="51" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="D14" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="53" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="F14" s="53" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="G14" s="54"/>
       <c r="H14" s="54"/>
     </row>
-    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="79" t="s">
+    <row r="15" spans="1:8" ht="60" x14ac:dyDescent="0.2">
+      <c r="A15" s="49">
+        <v>9</v>
+      </c>
+      <c r="B15" s="55"/>
+      <c r="C15" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="B15" s="80"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="81"/>
-    </row>
-    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.2">
-      <c r="A16" s="49">
+      <c r="B16" s="92"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="93"/>
+    </row>
+    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+      <c r="A17" s="49">
         <v>10</v>
       </c>
-      <c r="B16" s="56"/>
-      <c r="C16" s="51" t="s">
+      <c r="B17" s="56"/>
+      <c r="C17" s="51" t="s">
         <v>86</v>
-      </c>
-      <c r="D16" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="53" t="s">
-        <v>87</v>
-      </c>
-      <c r="F16" s="53" t="s">
-        <v>88</v>
-      </c>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-    </row>
-    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.2">
-      <c r="A17" s="49">
-        <v>11</v>
-      </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="51" t="s">
-        <v>89</v>
       </c>
       <c r="D17" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="53" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F17" s="53" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G17" s="54"/>
       <c r="H17" s="54"/>
     </row>
-    <row r="18" spans="1:8" ht="60" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A18" s="49">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="57"/>
       <c r="C18" s="51" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D18" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="53" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="F18" s="53" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="G18" s="54"/>
       <c r="H18" s="54"/>
     </row>
-    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="58"/>
+    <row r="19" spans="1:8" ht="60" x14ac:dyDescent="0.2">
+      <c r="A19" s="49">
+        <v>12</v>
+      </c>
       <c r="B19" s="57"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
+      <c r="C19" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="53" t="s">
+        <v>93</v>
+      </c>
       <c r="G19" s="54"/>
       <c r="H19" s="54"/>
     </row>
@@ -30658,8 +30677,8 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A22" s="58"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="49"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="51"/>
       <c r="D22" s="52"/>
       <c r="E22" s="53"/>
       <c r="F22" s="53"/>
@@ -30668,7 +30687,7 @@
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A23" s="58"/>
-      <c r="B23" s="56"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="49"/>
       <c r="D23" s="52"/>
       <c r="E23" s="53"/>
@@ -30676,13 +30695,23 @@
       <c r="G23" s="54"/>
       <c r="H23" s="54"/>
     </row>
+    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="58"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A16:H16"/>
     <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A6:H6"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30693,7 +30722,7 @@
           <x14:formula1>
             <xm:f>'C:\Users\US\Downloads\[K22T2-Team8-MessageList-ver0.1.xlsx]Sheet4'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>D8 D10:D14 D3:D4 D6 D16:D23</xm:sqref>
+          <xm:sqref>D9 D11:D15 D17:D24 D7 D3:D5</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Improgress/2. Artifact and Deliverable/DetailDesign & Architect/Design/DE_MessageList_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/DetailDesign & Architect/Design/DE_MessageList_Ver1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\DetailDesign &amp; Architect\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7712723A-982E-4E69-BE64-70FF4EFD14E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CA4315-C518-4E0F-B1CE-605BEA6DB395}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -399,10 +399,10 @@
     <t>MS.LA.003</t>
   </si>
   <si>
-    <t>Thông báo đăng xuất trên android khi người sử dụng nhấn vào nút trở lại</t>
+    <t>Bạn có muốn đăng xuất không?</t>
   </si>
   <si>
-    <t>Bạn có muốn đăng xuất không?</t>
+    <t>Thông báo đăng xuất khi người sử dụng nhấn vào nút đăng xuất trên app hoặc nút trở lại trên android.</t>
   </si>
 </sst>
 </file>
@@ -1099,6 +1099,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1134,15 +1143,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -29593,16 +29593,16 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="6" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="93"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="81"/>
     </row>
     <row r="3" spans="1:9" s="6" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="49">
@@ -29646,16 +29646,16 @@
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" s="6" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="93"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="81"/>
     </row>
     <row r="6" spans="1:9" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="49">
@@ -29736,16 +29736,16 @@
       <c r="H9" s="54"/>
     </row>
     <row r="10" spans="1:9" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="91" t="s">
+      <c r="A10" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="92"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="93"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="81"/>
     </row>
     <row r="11" spans="1:9" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="64"/>
@@ -29866,16 +29866,16 @@
       <c r="H16" s="63"/>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="91" t="s">
+      <c r="A17" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="92"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="93"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="81"/>
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="58">
@@ -29918,16 +29918,16 @@
       <c r="H19" s="54"/>
     </row>
     <row r="20" spans="1:8" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="91" t="s">
+      <c r="A20" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="92"/>
-      <c r="C20" s="92"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="92"/>
-      <c r="G20" s="92"/>
-      <c r="H20" s="93"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="81"/>
     </row>
     <row r="21" spans="1:8" s="6" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="58">
@@ -29971,7 +29971,7 @@
     </row>
     <row r="23" spans="1:8" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
-      <c r="B23" s="87"/>
+      <c r="B23" s="90"/>
       <c r="C23" s="14"/>
       <c r="D23" s="3"/>
       <c r="E23" s="4"/>
@@ -29981,7 +29981,7 @@
     </row>
     <row r="24" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
-      <c r="B24" s="88"/>
+      <c r="B24" s="91"/>
       <c r="C24" s="14"/>
       <c r="D24" s="3"/>
       <c r="E24" s="4"/>
@@ -29991,7 +29991,7 @@
     </row>
     <row r="25" spans="1:8" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" s="88"/>
+      <c r="B25" s="91"/>
       <c r="C25" s="14"/>
       <c r="D25" s="3"/>
       <c r="E25" s="4"/>
@@ -30001,7 +30001,7 @@
     </row>
     <row r="26" spans="1:8" s="6" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
-      <c r="B26" s="89"/>
+      <c r="B26" s="92"/>
       <c r="C26" s="14"/>
       <c r="D26" s="3"/>
       <c r="E26" s="4"/>
@@ -30011,7 +30011,7 @@
     </row>
     <row r="27" spans="1:8" s="6" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="90"/>
+      <c r="B27" s="93"/>
       <c r="C27" s="15"/>
       <c r="D27" s="3"/>
       <c r="E27" s="4"/>
@@ -30021,7 +30021,7 @@
     </row>
     <row r="28" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="90"/>
+      <c r="B28" s="93"/>
       <c r="C28" s="15"/>
       <c r="D28" s="3"/>
       <c r="E28" s="4"/>
@@ -30031,7 +30031,7 @@
     </row>
     <row r="29" spans="1:8" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="B29" s="90"/>
+      <c r="B29" s="93"/>
       <c r="C29" s="15"/>
       <c r="D29" s="3"/>
       <c r="E29" s="4"/>
@@ -30041,7 +30041,7 @@
     </row>
     <row r="30" spans="1:8" s="6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="87"/>
+      <c r="B30" s="90"/>
       <c r="C30" s="15"/>
       <c r="D30" s="8"/>
       <c r="E30" s="4"/>
@@ -30051,7 +30051,7 @@
     </row>
     <row r="31" spans="1:8" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
-      <c r="B31" s="88"/>
+      <c r="B31" s="91"/>
       <c r="C31" s="15"/>
       <c r="D31" s="8"/>
       <c r="E31" s="4"/>
@@ -30061,7 +30061,7 @@
     </row>
     <row r="32" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
-      <c r="B32" s="79"/>
+      <c r="B32" s="82"/>
       <c r="C32" s="16"/>
       <c r="D32" s="17"/>
       <c r="E32" s="18"/>
@@ -30071,7 +30071,7 @@
     </row>
     <row r="33" spans="1:8" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
-      <c r="B33" s="80"/>
+      <c r="B33" s="83"/>
       <c r="C33" s="16"/>
       <c r="D33" s="17"/>
       <c r="E33" s="18"/>
@@ -30081,7 +30081,7 @@
     </row>
     <row r="34" spans="1:8" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
-      <c r="B34" s="81"/>
+      <c r="B34" s="84"/>
       <c r="C34" s="16"/>
       <c r="D34" s="17"/>
       <c r="E34" s="18"/>
@@ -30091,7 +30091,7 @@
     </row>
     <row r="35" spans="1:8" s="6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
-      <c r="B35" s="82"/>
+      <c r="B35" s="85"/>
       <c r="C35" s="16"/>
       <c r="D35" s="17"/>
       <c r="E35" s="18"/>
@@ -30101,7 +30101,7 @@
     </row>
     <row r="36" spans="1:8" s="6" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
-      <c r="B36" s="82"/>
+      <c r="B36" s="85"/>
       <c r="C36" s="16"/>
       <c r="D36" s="17"/>
       <c r="E36" s="18"/>
@@ -30111,7 +30111,7 @@
     </row>
     <row r="37" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
-      <c r="B37" s="83"/>
+      <c r="B37" s="86"/>
       <c r="C37" s="16"/>
       <c r="D37" s="17"/>
       <c r="E37" s="18"/>
@@ -30121,7 +30121,7 @@
     </row>
     <row r="38" spans="1:8" s="6" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
-      <c r="B38" s="84"/>
+      <c r="B38" s="87"/>
       <c r="C38" s="16"/>
       <c r="D38" s="17"/>
       <c r="E38" s="18"/>
@@ -30131,7 +30131,7 @@
     </row>
     <row r="39" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
-      <c r="B39" s="85"/>
+      <c r="B39" s="88"/>
       <c r="C39" s="16"/>
       <c r="D39" s="17"/>
       <c r="E39" s="18"/>
@@ -30141,7 +30141,7 @@
     </row>
     <row r="40" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
-      <c r="B40" s="85"/>
+      <c r="B40" s="88"/>
       <c r="C40" s="16"/>
       <c r="D40" s="17"/>
       <c r="E40" s="18"/>
@@ -30151,7 +30151,7 @@
     </row>
     <row r="41" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
-      <c r="B41" s="85"/>
+      <c r="B41" s="88"/>
       <c r="C41" s="16"/>
       <c r="D41" s="17"/>
       <c r="E41" s="18"/>
@@ -30161,7 +30161,7 @@
     </row>
     <row r="42" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
-      <c r="B42" s="86"/>
+      <c r="B42" s="89"/>
       <c r="C42" s="16"/>
       <c r="D42" s="17"/>
       <c r="E42" s="18"/>
@@ -30171,7 +30171,7 @@
     </row>
     <row r="43" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
-      <c r="B43" s="81"/>
+      <c r="B43" s="84"/>
       <c r="C43" s="16"/>
       <c r="D43" s="20"/>
       <c r="E43" s="18"/>
@@ -30181,7 +30181,7 @@
     </row>
     <row r="44" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
-      <c r="B44" s="82"/>
+      <c r="B44" s="85"/>
       <c r="C44" s="16"/>
       <c r="D44" s="20"/>
       <c r="E44" s="18"/>
@@ -30251,11 +30251,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A20:H20"/>
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="B34:B37"/>
     <mergeCell ref="B38:B42"/>
@@ -30263,6 +30258,11 @@
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="B26:B29"/>
     <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A20:H20"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30293,7 +30293,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -30336,16 +30336,16 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="93"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="81"/>
     </row>
     <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A3" s="49">
@@ -30387,7 +30387,7 @@
       <c r="G4" s="54"/>
       <c r="H4" s="54"/>
     </row>
-    <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="75" x14ac:dyDescent="0.2">
       <c r="A5" s="49">
         <v>3</v>
       </c>
@@ -30399,25 +30399,25 @@
         <v>11</v>
       </c>
       <c r="E5" s="53" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F5" s="53" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G5" s="54"/>
       <c r="H5" s="54"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="93"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="81"/>
     </row>
     <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.2">
       <c r="A7" s="49">
@@ -30440,16 +30440,16 @@
       <c r="H7" s="54"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="91" t="s">
+      <c r="A8" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="B8" s="92"/>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="93"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="81"/>
     </row>
     <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.2">
       <c r="A9" s="49">
@@ -30472,16 +30472,16 @@
       <c r="H9" s="54"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="91" t="s">
+      <c r="A10" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="92"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="93"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="81"/>
     </row>
     <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A11" s="49">
@@ -30584,16 +30584,16 @@
       <c r="H15" s="54"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="91" t="s">
+      <c r="A16" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="B16" s="92"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="93"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="81"/>
     </row>
     <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A17" s="49">

--- a/Improgress/2. Artifact and Deliverable/DetailDesign & Architect/Design/DE_MessageList_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/DetailDesign & Architect/Design/DE_MessageList_Ver1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\DetailDesign &amp; Architect\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CA4315-C518-4E0F-B1CE-605BEA6DB395}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FC33FB-B1DC-4E1A-8AD7-1E1D169A31CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="117">
   <si>
     <t>Project Name:</t>
   </si>
@@ -165,13 +165,7 @@
     <t>Thêm tài khoản thành công.</t>
   </si>
   <si>
-    <t>Thông báo ẩn tài khoản thành công trên trang website admin</t>
-  </si>
-  <si>
     <t>Thông báo sửa tài khoản thành công trên trang website admin</t>
-  </si>
-  <si>
-    <t>Ẩn tài khoản thành công.</t>
   </si>
   <si>
     <t>Sửa tài khoản thành công.</t>
@@ -184,15 +178,6 @@
   </si>
   <si>
     <t>Thông tin Website Admin</t>
-  </si>
-  <si>
-    <t>Thông báo tải danh sách sơ đồ tổ chức</t>
-  </si>
-  <si>
-    <t>Thêm danh sách thành công</t>
-  </si>
-  <si>
-    <t>Thông báo thêm chính sách công ty</t>
   </si>
   <si>
     <t>Thông báo sửa chính sách công ty</t>
@@ -403,6 +388,15 @@
   </si>
   <si>
     <t>Thông báo đăng xuất khi người sử dụng nhấn vào nút đăng xuất trên app hoặc nút trở lại trên android.</t>
+  </si>
+  <si>
+    <t>Thêm sơ đồ tổ chức thành công</t>
+  </si>
+  <si>
+    <t>Thông báo khi admin thêm hình ảnh sơ đồ tổ chức</t>
+  </si>
+  <si>
+    <t>Thông báo khi admin thêm hình ảnh chính sách công ty</t>
   </si>
 </sst>
 </file>
@@ -865,7 +859,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1039,20 +1033,8 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1491,18 +1473,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="68"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="64"/>
       <c r="K1" s="24"/>
       <c r="L1" s="24"/>
       <c r="M1" s="24"/>
@@ -1521,16 +1503,16 @@
       <c r="Z1" s="24"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="69"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="71"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="67"/>
       <c r="K2" s="24"/>
       <c r="L2" s="25"/>
       <c r="M2" s="25"/>
@@ -1549,24 +1531,24 @@
       <c r="Z2" s="24"/>
     </row>
     <row r="3" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="69"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="71"/>
+      <c r="A3" s="65"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="67"/>
       <c r="K3" s="26"/>
       <c r="L3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="75" t="s">
+      <c r="M3" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="76"/>
+      <c r="N3" s="72"/>
       <c r="O3" s="28"/>
       <c r="P3" s="24"/>
       <c r="Q3" s="24"/>
@@ -1581,24 +1563,24 @@
       <c r="Z3" s="24"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="71"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="67"/>
       <c r="K4" s="26"/>
       <c r="L4" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="75" t="s">
+      <c r="M4" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="76"/>
+      <c r="N4" s="72"/>
       <c r="O4" s="28"/>
       <c r="P4" s="24"/>
       <c r="Q4" s="24"/>
@@ -1613,24 +1595,24 @@
       <c r="Z4" s="24"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="69"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="71"/>
+      <c r="A5" s="65"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="26"/>
       <c r="L5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="75" t="s">
+      <c r="M5" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="76"/>
+      <c r="N5" s="72"/>
       <c r="O5" s="28"/>
       <c r="P5" s="24"/>
       <c r="Q5" s="24"/>
@@ -1645,24 +1627,24 @@
       <c r="Z5" s="24"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="69"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="71"/>
+      <c r="A6" s="65"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="67"/>
       <c r="K6" s="26"/>
       <c r="L6" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="75" t="s">
+      <c r="M6" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="76"/>
+      <c r="N6" s="72"/>
       <c r="O6" s="28"/>
       <c r="P6" s="24"/>
       <c r="Q6" s="24"/>
@@ -1677,24 +1659,24 @@
       <c r="Z6" s="24"/>
     </row>
     <row r="7" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="69"/>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="71"/>
+      <c r="A7" s="65"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="67"/>
       <c r="K7" s="26"/>
       <c r="L7" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="77">
+      <c r="M7" s="73">
         <v>43508</v>
       </c>
-      <c r="N7" s="78"/>
+      <c r="N7" s="74"/>
       <c r="O7" s="28"/>
       <c r="P7" s="24"/>
       <c r="Q7" s="24"/>
@@ -1709,16 +1691,16 @@
       <c r="Z7" s="24"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="69"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="71"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="67"/>
       <c r="K8" s="24"/>
       <c r="L8" s="28"/>
       <c r="M8" s="28"/>
@@ -1737,16 +1719,16 @@
       <c r="Z8" s="24"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="69"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="71"/>
+      <c r="A9" s="65"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="67"/>
       <c r="K9" s="24"/>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -1765,16 +1747,16 @@
       <c r="Z9" s="24"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="69"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="71"/>
+      <c r="A10" s="65"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="67"/>
       <c r="K10" s="24"/>
       <c r="L10" s="30"/>
       <c r="M10" s="30"/>
@@ -1793,23 +1775,23 @@
       <c r="Z10" s="24"/>
     </row>
     <row r="11" spans="1:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="69"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="71"/>
+      <c r="A11" s="65"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="67"/>
       <c r="K11" s="26"/>
-      <c r="L11" s="72" t="s">
+      <c r="L11" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="M11" s="73"/>
-      <c r="N11" s="73"/>
-      <c r="O11" s="74"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="69"/>
+      <c r="O11" s="70"/>
       <c r="P11" s="24"/>
       <c r="Q11" s="24"/>
       <c r="R11" s="24"/>
@@ -1823,16 +1805,16 @@
       <c r="Z11" s="24"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="69"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="71"/>
+      <c r="A12" s="65"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="67"/>
       <c r="K12" s="26"/>
       <c r="L12" s="31" t="s">
         <v>1</v>
@@ -1859,16 +1841,16 @@
       <c r="Z12" s="24"/>
     </row>
     <row r="13" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="69"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="71"/>
+      <c r="A13" s="65"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="67"/>
       <c r="K13" s="26"/>
       <c r="L13" s="32" t="s">
         <v>28</v>
@@ -1895,16 +1877,16 @@
       <c r="Z13" s="24"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="69"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="71"/>
+      <c r="A14" s="65"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="67"/>
       <c r="K14" s="26"/>
       <c r="L14" s="36"/>
       <c r="M14" s="37"/>
@@ -1923,16 +1905,16 @@
       <c r="Z14" s="24"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="69"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="71"/>
+      <c r="A15" s="65"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="67"/>
       <c r="K15" s="26"/>
       <c r="L15" s="36"/>
       <c r="M15" s="37"/>
@@ -1951,16 +1933,16 @@
       <c r="Z15" s="24"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="69"/>
-      <c r="B16" s="70"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="71"/>
+      <c r="A16" s="65"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="67"/>
       <c r="K16" s="26"/>
       <c r="L16" s="38"/>
       <c r="M16" s="39"/>
@@ -1979,16 +1961,16 @@
       <c r="Z16" s="24"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="69"/>
-      <c r="B17" s="70"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="71"/>
+      <c r="A17" s="65"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="67"/>
       <c r="K17" s="26"/>
       <c r="L17" s="38"/>
       <c r="M17" s="39"/>
@@ -2007,16 +1989,16 @@
       <c r="Z17" s="24"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="69"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="71"/>
+      <c r="A18" s="65"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="67"/>
       <c r="K18" s="26"/>
       <c r="L18" s="38"/>
       <c r="M18" s="39"/>
@@ -2035,16 +2017,16 @@
       <c r="Z18" s="24"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="69"/>
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="71"/>
+      <c r="A19" s="65"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="67"/>
       <c r="K19" s="26"/>
       <c r="L19" s="38"/>
       <c r="M19" s="39"/>
@@ -2063,16 +2045,16 @@
       <c r="Z19" s="24"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="69"/>
-      <c r="B20" s="70"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="71"/>
+      <c r="A20" s="65"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="67"/>
       <c r="K20" s="26"/>
       <c r="L20" s="38"/>
       <c r="M20" s="39"/>
@@ -29549,8 +29531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29593,16 +29575,16 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="6" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
-        <v>44</v>
+      <c r="A2" s="75" t="s">
+        <v>42</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="81"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="77"/>
     </row>
     <row r="3" spans="1:9" s="6" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="49">
@@ -29639,23 +29621,23 @@
         <v>34</v>
       </c>
       <c r="F4" s="53" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G4" s="54"/>
       <c r="H4" s="54"/>
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" s="6" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79" t="s">
-        <v>43</v>
+      <c r="A5" s="75" t="s">
+        <v>41</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="81"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="77"/>
     </row>
     <row r="6" spans="1:9" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="49">
@@ -29663,7 +29645,7 @@
       </c>
       <c r="B6" s="50"/>
       <c r="C6" s="51" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D6" s="52" t="s">
         <v>11</v>
@@ -29679,11 +29661,11 @@
     </row>
     <row r="7" spans="1:9" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="49">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="55"/>
       <c r="C7" s="51" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D7" s="52" t="s">
         <v>11</v>
@@ -29692,16 +29674,14 @@
         <v>39</v>
       </c>
       <c r="F7" s="53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G7" s="54"/>
       <c r="H7" s="54"/>
     </row>
-    <row r="8" spans="1:9" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="49">
-        <v>5</v>
-      </c>
-      <c r="B8" s="55"/>
+    <row r="8" spans="1:9" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="60"/>
+      <c r="B8" s="61"/>
       <c r="C8" s="51" t="s">
         <v>36</v>
       </c>
@@ -29709,49 +29689,49 @@
         <v>11</v>
       </c>
       <c r="E8" s="53" t="s">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="F8" s="53" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="G8" s="54"/>
       <c r="H8" s="54"/>
     </row>
     <row r="9" spans="1:9" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="64"/>
-      <c r="B9" s="65"/>
+      <c r="A9" s="60"/>
+      <c r="B9" s="61"/>
       <c r="C9" s="51" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D9" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="53" t="s">
-        <v>110</v>
+      <c r="E9" s="59" t="s">
+        <v>101</v>
       </c>
-      <c r="F9" s="53" t="s">
-        <v>111</v>
+      <c r="F9" s="59" t="s">
+        <v>103</v>
       </c>
       <c r="G9" s="54"/>
       <c r="H9" s="54"/>
     </row>
     <row r="10" spans="1:9" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="79" t="s">
-        <v>45</v>
+      <c r="A10" s="75" t="s">
+        <v>43</v>
       </c>
-      <c r="B10" s="80"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="81"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="77"/>
     </row>
     <row r="11" spans="1:9" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="64"/>
-      <c r="B11" s="65"/>
+      <c r="A11" s="60"/>
+      <c r="B11" s="61"/>
       <c r="C11" s="51" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D11" s="52" t="s">
         <v>11</v>
@@ -29760,122 +29740,118 @@
         <v>115</v>
       </c>
       <c r="F11" s="53" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G11" s="54"/>
       <c r="H11" s="54"/>
     </row>
-    <row r="12" spans="1:9" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="49">
-        <v>6</v>
-      </c>
-      <c r="B12" s="56"/>
+    <row r="12" spans="1:9" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="60"/>
+      <c r="B12" s="61"/>
       <c r="C12" s="51" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D12" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="53" t="s">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="F12" s="53" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="G12" s="54"/>
       <c r="H12" s="54"/>
     </row>
-    <row r="13" spans="1:9" s="6" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="58">
-        <v>7</v>
-      </c>
-      <c r="B13" s="57"/>
+    <row r="13" spans="1:9" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="60"/>
+      <c r="B13" s="61"/>
       <c r="C13" s="51" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D13" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="53" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="F13" s="53" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G13" s="54"/>
       <c r="H13" s="54"/>
     </row>
-    <row r="14" spans="1:9" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="58">
-        <v>8</v>
+    <row r="14" spans="1:9" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="49">
+        <v>6</v>
       </c>
-      <c r="B14" s="57"/>
+      <c r="B14" s="56"/>
       <c r="C14" s="51" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D14" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="53" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F14" s="53" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G14" s="54"/>
       <c r="H14" s="54"/>
     </row>
     <row r="15" spans="1:9" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="58">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="57"/>
       <c r="C15" s="51" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D15" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="53" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F15" s="53" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G15" s="54"/>
       <c r="H15" s="54"/>
     </row>
-    <row r="16" spans="1:9" s="6" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="59">
-        <v>10</v>
+    <row r="16" spans="1:9" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="58">
+        <v>9</v>
       </c>
-      <c r="B16" s="60"/>
+      <c r="B16" s="57"/>
       <c r="C16" s="51" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D16" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="61" t="s">
-        <v>106</v>
+      <c r="E16" s="59" t="s">
+        <v>101</v>
       </c>
-      <c r="F16" s="61" t="s">
-        <v>108</v>
+      <c r="F16" s="59" t="s">
+        <v>103</v>
       </c>
-      <c r="G16" s="62"/>
-      <c r="H16" s="63"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="79" t="s">
-        <v>51</v>
+      <c r="A17" s="75" t="s">
+        <v>46</v>
       </c>
-      <c r="B17" s="80"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="81"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="77"/>
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="58">
@@ -29883,16 +29859,16 @@
       </c>
       <c r="B18" s="57"/>
       <c r="C18" s="51" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D18" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="53" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F18" s="53" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G18" s="54"/>
       <c r="H18" s="54"/>
@@ -29903,31 +29879,31 @@
       </c>
       <c r="B19" s="57"/>
       <c r="C19" s="51" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D19" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="53" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F19" s="53" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G19" s="54"/>
       <c r="H19" s="54"/>
     </row>
     <row r="20" spans="1:8" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="79" t="s">
-        <v>59</v>
+      <c r="A20" s="75" t="s">
+        <v>54</v>
       </c>
-      <c r="B20" s="80"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="81"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="77"/>
     </row>
     <row r="21" spans="1:8" s="6" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="58">
@@ -29935,16 +29911,16 @@
       </c>
       <c r="B21" s="50"/>
       <c r="C21" s="49" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D21" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E21" s="53" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F21" s="53" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G21" s="54"/>
       <c r="H21" s="54"/>
@@ -29955,23 +29931,23 @@
       </c>
       <c r="B22" s="56"/>
       <c r="C22" s="49" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D22" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="53" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F22" s="53" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G22" s="54"/>
       <c r="H22" s="54"/>
     </row>
     <row r="23" spans="1:8" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
-      <c r="B23" s="90"/>
+      <c r="B23" s="86"/>
       <c r="C23" s="14"/>
       <c r="D23" s="3"/>
       <c r="E23" s="4"/>
@@ -29981,7 +29957,7 @@
     </row>
     <row r="24" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
-      <c r="B24" s="91"/>
+      <c r="B24" s="87"/>
       <c r="C24" s="14"/>
       <c r="D24" s="3"/>
       <c r="E24" s="4"/>
@@ -29991,7 +29967,7 @@
     </row>
     <row r="25" spans="1:8" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" s="91"/>
+      <c r="B25" s="87"/>
       <c r="C25" s="14"/>
       <c r="D25" s="3"/>
       <c r="E25" s="4"/>
@@ -30001,7 +29977,7 @@
     </row>
     <row r="26" spans="1:8" s="6" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
-      <c r="B26" s="92"/>
+      <c r="B26" s="88"/>
       <c r="C26" s="14"/>
       <c r="D26" s="3"/>
       <c r="E26" s="4"/>
@@ -30011,7 +29987,7 @@
     </row>
     <row r="27" spans="1:8" s="6" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="93"/>
+      <c r="B27" s="89"/>
       <c r="C27" s="15"/>
       <c r="D27" s="3"/>
       <c r="E27" s="4"/>
@@ -30021,7 +29997,7 @@
     </row>
     <row r="28" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="93"/>
+      <c r="B28" s="89"/>
       <c r="C28" s="15"/>
       <c r="D28" s="3"/>
       <c r="E28" s="4"/>
@@ -30031,7 +30007,7 @@
     </row>
     <row r="29" spans="1:8" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="B29" s="93"/>
+      <c r="B29" s="89"/>
       <c r="C29" s="15"/>
       <c r="D29" s="3"/>
       <c r="E29" s="4"/>
@@ -30041,7 +30017,7 @@
     </row>
     <row r="30" spans="1:8" s="6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="90"/>
+      <c r="B30" s="86"/>
       <c r="C30" s="15"/>
       <c r="D30" s="8"/>
       <c r="E30" s="4"/>
@@ -30051,7 +30027,7 @@
     </row>
     <row r="31" spans="1:8" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
-      <c r="B31" s="91"/>
+      <c r="B31" s="87"/>
       <c r="C31" s="15"/>
       <c r="D31" s="8"/>
       <c r="E31" s="4"/>
@@ -30061,7 +30037,7 @@
     </row>
     <row r="32" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
-      <c r="B32" s="82"/>
+      <c r="B32" s="78"/>
       <c r="C32" s="16"/>
       <c r="D32" s="17"/>
       <c r="E32" s="18"/>
@@ -30071,7 +30047,7 @@
     </row>
     <row r="33" spans="1:8" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
-      <c r="B33" s="83"/>
+      <c r="B33" s="79"/>
       <c r="C33" s="16"/>
       <c r="D33" s="17"/>
       <c r="E33" s="18"/>
@@ -30081,7 +30057,7 @@
     </row>
     <row r="34" spans="1:8" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
-      <c r="B34" s="84"/>
+      <c r="B34" s="80"/>
       <c r="C34" s="16"/>
       <c r="D34" s="17"/>
       <c r="E34" s="18"/>
@@ -30091,7 +30067,7 @@
     </row>
     <row r="35" spans="1:8" s="6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
-      <c r="B35" s="85"/>
+      <c r="B35" s="81"/>
       <c r="C35" s="16"/>
       <c r="D35" s="17"/>
       <c r="E35" s="18"/>
@@ -30101,7 +30077,7 @@
     </row>
     <row r="36" spans="1:8" s="6" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
-      <c r="B36" s="85"/>
+      <c r="B36" s="81"/>
       <c r="C36" s="16"/>
       <c r="D36" s="17"/>
       <c r="E36" s="18"/>
@@ -30111,7 +30087,7 @@
     </row>
     <row r="37" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
-      <c r="B37" s="86"/>
+      <c r="B37" s="82"/>
       <c r="C37" s="16"/>
       <c r="D37" s="17"/>
       <c r="E37" s="18"/>
@@ -30121,7 +30097,7 @@
     </row>
     <row r="38" spans="1:8" s="6" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
-      <c r="B38" s="87"/>
+      <c r="B38" s="83"/>
       <c r="C38" s="16"/>
       <c r="D38" s="17"/>
       <c r="E38" s="18"/>
@@ -30131,7 +30107,7 @@
     </row>
     <row r="39" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
-      <c r="B39" s="88"/>
+      <c r="B39" s="84"/>
       <c r="C39" s="16"/>
       <c r="D39" s="17"/>
       <c r="E39" s="18"/>
@@ -30141,7 +30117,7 @@
     </row>
     <row r="40" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
-      <c r="B40" s="88"/>
+      <c r="B40" s="84"/>
       <c r="C40" s="16"/>
       <c r="D40" s="17"/>
       <c r="E40" s="18"/>
@@ -30151,7 +30127,7 @@
     </row>
     <row r="41" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
-      <c r="B41" s="88"/>
+      <c r="B41" s="84"/>
       <c r="C41" s="16"/>
       <c r="D41" s="17"/>
       <c r="E41" s="18"/>
@@ -30161,7 +30137,7 @@
     </row>
     <row r="42" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
-      <c r="B42" s="89"/>
+      <c r="B42" s="85"/>
       <c r="C42" s="16"/>
       <c r="D42" s="17"/>
       <c r="E42" s="18"/>
@@ -30171,7 +30147,7 @@
     </row>
     <row r="43" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
-      <c r="B43" s="84"/>
+      <c r="B43" s="80"/>
       <c r="C43" s="16"/>
       <c r="D43" s="20"/>
       <c r="E43" s="18"/>
@@ -30181,7 +30157,7 @@
     </row>
     <row r="44" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
-      <c r="B44" s="85"/>
+      <c r="B44" s="81"/>
       <c r="C44" s="16"/>
       <c r="D44" s="20"/>
       <c r="E44" s="18"/>
@@ -30292,8 +30268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10950550-2C91-40A6-B5DD-86EBF28A80EF}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -30336,16 +30312,16 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="79" t="s">
-        <v>73</v>
+      <c r="A2" s="75" t="s">
+        <v>68</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="81"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="77"/>
     </row>
     <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A3" s="49">
@@ -30353,7 +30329,7 @@
       </c>
       <c r="B3" s="50"/>
       <c r="C3" s="51" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D3" s="52" t="s">
         <v>11</v>
@@ -30373,7 +30349,7 @@
       </c>
       <c r="B4" s="55"/>
       <c r="C4" s="51" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D4" s="52" t="s">
         <v>11</v>
@@ -30382,7 +30358,7 @@
         <v>34</v>
       </c>
       <c r="F4" s="53" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G4" s="54"/>
       <c r="H4" s="54"/>
@@ -30393,31 +30369,31 @@
       </c>
       <c r="B5" s="55"/>
       <c r="C5" s="51" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D5" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="53" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F5" s="53" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G5" s="54"/>
       <c r="H5" s="54"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="79" t="s">
-        <v>91</v>
+      <c r="A6" s="75" t="s">
+        <v>86</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="81"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="77"/>
     </row>
     <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.2">
       <c r="A7" s="49">
@@ -30425,31 +30401,31 @@
       </c>
       <c r="B7" s="50"/>
       <c r="C7" s="51" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D7" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="53" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F7" s="53" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G7" s="54"/>
       <c r="H7" s="54"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="79" t="s">
-        <v>94</v>
+      <c r="A8" s="75" t="s">
+        <v>89</v>
       </c>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="81"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="77"/>
     </row>
     <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.2">
       <c r="A9" s="49">
@@ -30457,31 +30433,31 @@
       </c>
       <c r="B9" s="50"/>
       <c r="C9" s="51" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D9" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="53" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F9" s="53" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G9" s="54"/>
       <c r="H9" s="54"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="79" t="s">
-        <v>71</v>
+      <c r="A10" s="75" t="s">
+        <v>66</v>
       </c>
-      <c r="B10" s="80"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="81"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="77"/>
     </row>
     <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A11" s="49">
@@ -30489,16 +30465,16 @@
       </c>
       <c r="B11" s="50"/>
       <c r="C11" s="51" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D11" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="53" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F11" s="53" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G11" s="54"/>
       <c r="H11" s="54"/>
@@ -30509,16 +30485,16 @@
       </c>
       <c r="B12" s="55"/>
       <c r="C12" s="51" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D12" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="53" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F12" s="53" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G12" s="54"/>
       <c r="H12" s="54"/>
@@ -30529,16 +30505,16 @@
       </c>
       <c r="B13" s="55"/>
       <c r="C13" s="51" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D13" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="53" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F13" s="53" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G13" s="54"/>
       <c r="H13" s="54"/>
@@ -30549,16 +30525,16 @@
       </c>
       <c r="B14" s="55"/>
       <c r="C14" s="51" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D14" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="53" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F14" s="53" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G14" s="54"/>
       <c r="H14" s="54"/>
@@ -30569,31 +30545,31 @@
       </c>
       <c r="B15" s="55"/>
       <c r="C15" s="51" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D15" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="53" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F15" s="53" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G15" s="54"/>
       <c r="H15" s="54"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="79" t="s">
-        <v>85</v>
+      <c r="A16" s="75" t="s">
+        <v>80</v>
       </c>
-      <c r="B16" s="80"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="81"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="77"/>
     </row>
     <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A17" s="49">
@@ -30601,16 +30577,16 @@
       </c>
       <c r="B17" s="56"/>
       <c r="C17" s="51" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D17" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="53" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F17" s="53" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G17" s="54"/>
       <c r="H17" s="54"/>
@@ -30621,16 +30597,16 @@
       </c>
       <c r="B18" s="57"/>
       <c r="C18" s="51" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D18" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="53" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F18" s="53" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G18" s="54"/>
       <c r="H18" s="54"/>
@@ -30641,16 +30617,16 @@
       </c>
       <c r="B19" s="57"/>
       <c r="C19" s="51" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D19" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="53" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F19" s="53" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G19" s="54"/>
       <c r="H19" s="54"/>

--- a/Improgress/2. Artifact and Deliverable/DetailDesign & Architect/Design/DE_MessageList_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/DetailDesign & Architect/Design/DE_MessageList_Ver1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\DetailDesign &amp; Architect\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FC33FB-B1DC-4E1A-8AD7-1E1D169A31CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C6B12A-F72B-43D2-B89E-94470051C748}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="11070" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="115">
   <si>
     <t>Project Name:</t>
   </si>
@@ -186,9 +186,6 @@
     <t>Thông báo xóa chính sách công ty</t>
   </si>
   <si>
-    <t>Quản lý dự án bất động sản Website Admin</t>
-  </si>
-  <si>
     <t>Thêm chính sách công ty thành công</t>
   </si>
   <si>
@@ -196,18 +193,6 @@
   </si>
   <si>
     <t>Xóa chính sách công ty thành công</t>
-  </si>
-  <si>
-    <t>Thông báo thêm dự án bất động sản</t>
-  </si>
-  <si>
-    <t>Thông báo sửa dự án bất động sản</t>
-  </si>
-  <si>
-    <t>Thêm dự án thành công</t>
-  </si>
-  <si>
-    <t>Sửa dự án thành công</t>
   </si>
   <si>
     <t>Quản lý thống kê báo cáo Website Admin</t>
@@ -232,12 +217,6 @@
   </si>
   <si>
     <t>MS.IW.004</t>
-  </si>
-  <si>
-    <t>MS.PMW.001</t>
-  </si>
-  <si>
-    <t>MS.PMW.002</t>
   </si>
   <si>
     <t>Thông báo tải kết quả kinh doanh</t>
@@ -397,6 +376,21 @@
   </si>
   <si>
     <t>Thông báo khi admin thêm hình ảnh chính sách công ty</t>
+  </si>
+  <si>
+    <t>Quản lý dự án Website Admin</t>
+  </si>
+  <si>
+    <t>MS.PW.001</t>
+  </si>
+  <si>
+    <t>MS.PW.002</t>
+  </si>
+  <si>
+    <t>MS.PW.003</t>
+  </si>
+  <si>
+    <t>MS.PW.004</t>
   </si>
 </sst>
 </file>
@@ -1081,15 +1075,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1125,6 +1110,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -29529,10 +29523,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29575,16 +29569,16 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="6" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="77"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="89"/>
     </row>
     <row r="3" spans="1:9" s="6" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="49">
@@ -29621,23 +29615,23 @@
         <v>34</v>
       </c>
       <c r="F4" s="53" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="G4" s="54"/>
       <c r="H4" s="54"/>
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" s="6" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="77"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="89"/>
     </row>
     <row r="6" spans="1:9" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="49">
@@ -29645,7 +29639,7 @@
       </c>
       <c r="B6" s="50"/>
       <c r="C6" s="51" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D6" s="52" t="s">
         <v>11</v>
@@ -29661,11 +29655,11 @@
     </row>
     <row r="7" spans="1:9" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="49">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="55"/>
       <c r="C7" s="51" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D7" s="52" t="s">
         <v>11</v>
@@ -29680,7 +29674,9 @@
       <c r="H7" s="54"/>
     </row>
     <row r="8" spans="1:9" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="60"/>
+      <c r="A8" s="49">
+        <v>5</v>
+      </c>
       <c r="B8" s="61"/>
       <c r="C8" s="51" t="s">
         <v>36</v>
@@ -29689,105 +29685,113 @@
         <v>11</v>
       </c>
       <c r="E8" s="53" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F8" s="53" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="G8" s="54"/>
       <c r="H8" s="54"/>
     </row>
     <row r="9" spans="1:9" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="60"/>
+      <c r="A9" s="49">
+        <v>6</v>
+      </c>
       <c r="B9" s="61"/>
       <c r="C9" s="51" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D9" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="59" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F9" s="59" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G9" s="54"/>
       <c r="H9" s="54"/>
     </row>
     <row r="10" spans="1:9" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="77"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="89"/>
     </row>
     <row r="11" spans="1:9" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="60"/>
+      <c r="A11" s="60">
+        <v>7</v>
+      </c>
       <c r="B11" s="61"/>
       <c r="C11" s="51" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D11" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="53" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F11" s="53" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G11" s="54"/>
       <c r="H11" s="54"/>
     </row>
     <row r="12" spans="1:9" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="60"/>
+      <c r="A12" s="58">
+        <v>8</v>
+      </c>
       <c r="B12" s="61"/>
       <c r="C12" s="51" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D12" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="53" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F12" s="53" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G12" s="54"/>
       <c r="H12" s="54"/>
     </row>
     <row r="13" spans="1:9" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="60"/>
+      <c r="A13" s="58">
+        <v>9</v>
+      </c>
       <c r="B13" s="61"/>
       <c r="C13" s="51" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D13" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="53" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F13" s="53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G13" s="54"/>
       <c r="H13" s="54"/>
     </row>
     <row r="14" spans="1:9" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="49">
-        <v>6</v>
+      <c r="A14" s="58">
+        <v>10</v>
       </c>
       <c r="B14" s="56"/>
       <c r="C14" s="51" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D14" s="52" t="s">
         <v>11</v>
@@ -29796,18 +29800,18 @@
         <v>44</v>
       </c>
       <c r="F14" s="53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G14" s="54"/>
       <c r="H14" s="54"/>
     </row>
     <row r="15" spans="1:9" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="58">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B15" s="57"/>
       <c r="C15" s="51" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D15" s="52" t="s">
         <v>11</v>
@@ -29816,158 +29820,178 @@
         <v>45</v>
       </c>
       <c r="F15" s="53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G15" s="54"/>
       <c r="H15" s="54"/>
     </row>
     <row r="16" spans="1:9" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="58">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B16" s="57"/>
       <c r="C16" s="51" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D16" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="59" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F16" s="59" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G16" s="54"/>
       <c r="H16" s="54"/>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="75" t="s">
-        <v>46</v>
+      <c r="A17" s="87" t="s">
+        <v>110</v>
       </c>
-      <c r="B17" s="76"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="77"/>
-    </row>
-    <row r="18" spans="1:8" s="6" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="58">
-        <v>10</v>
+      <c r="B17" s="88"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="89"/>
+    </row>
+    <row r="18" spans="1:8" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="49">
+        <v>13</v>
       </c>
-      <c r="B18" s="57"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="51" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="D18" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="53" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F18" s="53" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="G18" s="54"/>
       <c r="H18" s="54"/>
     </row>
-    <row r="19" spans="1:8" s="6" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="58">
-        <v>12</v>
+    <row r="19" spans="1:8" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="49">
+        <v>14</v>
       </c>
-      <c r="B19" s="57"/>
+      <c r="B19" s="55"/>
       <c r="C19" s="51" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="D19" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="53" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F19" s="53" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="G19" s="54"/>
       <c r="H19" s="54"/>
     </row>
-    <row r="20" spans="1:8" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="75" t="s">
-        <v>54</v>
+    <row r="20" spans="1:8" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="49">
+        <v>15</v>
       </c>
-      <c r="B20" s="76"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="77"/>
-    </row>
-    <row r="21" spans="1:8" s="6" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="58">
-        <v>13</v>
+      <c r="B20" s="61"/>
+      <c r="C20" s="51" t="s">
+        <v>113</v>
       </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="49" t="s">
-        <v>55</v>
+      <c r="D20" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+    </row>
+    <row r="21" spans="1:8" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="49">
+        <v>16</v>
+      </c>
+      <c r="B21" s="61"/>
+      <c r="C21" s="51" t="s">
+        <v>114</v>
       </c>
       <c r="D21" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="53" t="s">
-        <v>64</v>
+      <c r="E21" s="59" t="s">
+        <v>94</v>
       </c>
-      <c r="F21" s="53" t="s">
-        <v>65</v>
+      <c r="F21" s="59" t="s">
+        <v>96</v>
       </c>
       <c r="G21" s="54"/>
       <c r="H21" s="54"/>
     </row>
-    <row r="22" spans="1:8" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="58">
+    <row r="22" spans="1:8" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="87" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="88"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="88"/>
+      <c r="H22" s="89"/>
+    </row>
+    <row r="23" spans="1:8" s="6" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="58">
+        <v>13</v>
+      </c>
+      <c r="B23" s="50"/>
+      <c r="C23" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+    </row>
+    <row r="24" spans="1:8" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="58">
         <v>14</v>
       </c>
-      <c r="B22" s="56"/>
-      <c r="C22" s="49" t="s">
-        <v>98</v>
+      <c r="B24" s="56"/>
+      <c r="C24" s="49" t="s">
+        <v>91</v>
       </c>
-      <c r="D22" s="52" t="s">
+      <c r="D24" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="53" t="s">
-        <v>102</v>
+      <c r="E24" s="53" t="s">
+        <v>95</v>
       </c>
-      <c r="F22" s="53" t="s">
-        <v>99</v>
+      <c r="F24" s="53" t="s">
+        <v>92</v>
       </c>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-    </row>
-    <row r="23" spans="1:8" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="87"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
     </row>
     <row r="25" spans="1:8" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" s="87"/>
+      <c r="B25" s="83"/>
       <c r="C25" s="14"/>
       <c r="D25" s="3"/>
       <c r="E25" s="4"/>
@@ -29975,9 +29999,9 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:8" s="6" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
-      <c r="B26" s="88"/>
+      <c r="B26" s="84"/>
       <c r="C26" s="14"/>
       <c r="D26" s="3"/>
       <c r="E26" s="4"/>
@@ -29985,29 +30009,29 @@
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" spans="1:8" s="6" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="89"/>
-      <c r="C27" s="15"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="14"/>
       <c r="D27" s="3"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" s="6" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="89"/>
-      <c r="C28" s="15"/>
+      <c r="B28" s="85"/>
+      <c r="C28" s="14"/>
       <c r="D28" s="3"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="1:8" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" s="6" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="B29" s="89"/>
+      <c r="B29" s="86"/>
       <c r="C29" s="15"/>
       <c r="D29" s="3"/>
       <c r="E29" s="4"/>
@@ -30015,11 +30039,11 @@
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="1:8" s="6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="86"/>
       <c r="C30" s="15"/>
-      <c r="D30" s="8"/>
+      <c r="D30" s="3"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="5"/>
@@ -30027,47 +30051,47 @@
     </row>
     <row r="31" spans="1:8" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
-      <c r="B31" s="87"/>
+      <c r="B31" s="86"/>
       <c r="C31" s="15"/>
-      <c r="D31" s="8"/>
+      <c r="D31" s="3"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" s="6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
-      <c r="B32" s="78"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="18"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-    </row>
-    <row r="33" spans="1:8" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="1:8" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
-      <c r="B33" s="79"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-    </row>
-    <row r="34" spans="1:8" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="84"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
-      <c r="B34" s="80"/>
+      <c r="B34" s="75"/>
       <c r="C34" s="16"/>
       <c r="D34" s="17"/>
       <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
+      <c r="F34" s="4"/>
       <c r="G34" s="19"/>
       <c r="H34" s="19"/>
     </row>
-    <row r="35" spans="1:8" s="6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
-      <c r="B35" s="81"/>
+      <c r="B35" s="76"/>
       <c r="C35" s="16"/>
       <c r="D35" s="17"/>
       <c r="E35" s="18"/>
@@ -30075,9 +30099,9 @@
       <c r="G35" s="19"/>
       <c r="H35" s="19"/>
     </row>
-    <row r="36" spans="1:8" s="6" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
-      <c r="B36" s="81"/>
+      <c r="B36" s="77"/>
       <c r="C36" s="16"/>
       <c r="D36" s="17"/>
       <c r="E36" s="18"/>
@@ -30085,9 +30109,9 @@
       <c r="G36" s="19"/>
       <c r="H36" s="19"/>
     </row>
-    <row r="37" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" s="6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
-      <c r="B37" s="82"/>
+      <c r="B37" s="78"/>
       <c r="C37" s="16"/>
       <c r="D37" s="17"/>
       <c r="E37" s="18"/>
@@ -30095,9 +30119,9 @@
       <c r="G37" s="19"/>
       <c r="H37" s="19"/>
     </row>
-    <row r="38" spans="1:8" s="6" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" s="6" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
-      <c r="B38" s="83"/>
+      <c r="B38" s="78"/>
       <c r="C38" s="16"/>
       <c r="D38" s="17"/>
       <c r="E38" s="18"/>
@@ -30107,7 +30131,7 @@
     </row>
     <row r="39" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
-      <c r="B39" s="84"/>
+      <c r="B39" s="79"/>
       <c r="C39" s="16"/>
       <c r="D39" s="17"/>
       <c r="E39" s="18"/>
@@ -30115,9 +30139,9 @@
       <c r="G39" s="19"/>
       <c r="H39" s="19"/>
     </row>
-    <row r="40" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" s="6" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
-      <c r="B40" s="84"/>
+      <c r="B40" s="80"/>
       <c r="C40" s="16"/>
       <c r="D40" s="17"/>
       <c r="E40" s="18"/>
@@ -30127,7 +30151,7 @@
     </row>
     <row r="41" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
-      <c r="B41" s="84"/>
+      <c r="B41" s="81"/>
       <c r="C41" s="16"/>
       <c r="D41" s="17"/>
       <c r="E41" s="18"/>
@@ -30137,7 +30161,7 @@
     </row>
     <row r="42" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
-      <c r="B42" s="85"/>
+      <c r="B42" s="81"/>
       <c r="C42" s="16"/>
       <c r="D42" s="17"/>
       <c r="E42" s="18"/>
@@ -30147,9 +30171,9 @@
     </row>
     <row r="43" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
-      <c r="B43" s="80"/>
+      <c r="B43" s="81"/>
       <c r="C43" s="16"/>
-      <c r="D43" s="20"/>
+      <c r="D43" s="17"/>
       <c r="E43" s="18"/>
       <c r="F43" s="18"/>
       <c r="G43" s="19"/>
@@ -30157,33 +30181,33 @@
     </row>
     <row r="44" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
-      <c r="B44" s="81"/>
+      <c r="B44" s="82"/>
       <c r="C44" s="16"/>
-      <c r="D44" s="20"/>
+      <c r="D44" s="17"/>
       <c r="E44" s="18"/>
       <c r="F44" s="18"/>
       <c r="G44" s="19"/>
       <c r="H44" s="19"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="77"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+    </row>
+    <row r="46" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
+      <c r="B46" s="78"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
@@ -30225,20 +30249,40 @@
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
     </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B31"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="B32:B33"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30250,13 +30294,13 @@
           <x14:formula1>
             <xm:f>'C:\Users\US\Downloads\[K22T2-Team8-MessageList-ver0.1.xlsx]Sheet4'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>D32:D44</xm:sqref>
+          <xm:sqref>D34:D46</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>'C:\Users\US\Downloads\[K22T2-Team8-MessageList-ver0.1.xlsx]Sheet4'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>D3:D4 D11:D16 D21:D31 D18:D19 D6:D9</xm:sqref>
+          <xm:sqref>D3:D4 D11:D16 D23:D33 D6:D9 D18:D21</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -30312,16 +30356,16 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="75" t="s">
-        <v>68</v>
+      <c r="A2" s="87" t="s">
+        <v>61</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="77"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="89"/>
     </row>
     <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A3" s="49">
@@ -30329,7 +30373,7 @@
       </c>
       <c r="B3" s="50"/>
       <c r="C3" s="51" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D3" s="52" t="s">
         <v>11</v>
@@ -30349,7 +30393,7 @@
       </c>
       <c r="B4" s="55"/>
       <c r="C4" s="51" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D4" s="52" t="s">
         <v>11</v>
@@ -30358,7 +30402,7 @@
         <v>34</v>
       </c>
       <c r="F4" s="53" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="G4" s="54"/>
       <c r="H4" s="54"/>
@@ -30369,31 +30413,31 @@
       </c>
       <c r="B5" s="55"/>
       <c r="C5" s="51" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D5" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="53" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F5" s="53" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G5" s="54"/>
       <c r="H5" s="54"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="75" t="s">
-        <v>86</v>
+      <c r="A6" s="87" t="s">
+        <v>79</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="77"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="89"/>
     </row>
     <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.2">
       <c r="A7" s="49">
@@ -30401,31 +30445,31 @@
       </c>
       <c r="B7" s="50"/>
       <c r="C7" s="51" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D7" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="53" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F7" s="53" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="G7" s="54"/>
       <c r="H7" s="54"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="75" t="s">
-        <v>89</v>
+      <c r="A8" s="87" t="s">
+        <v>82</v>
       </c>
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="77"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="89"/>
     </row>
     <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.2">
       <c r="A9" s="49">
@@ -30433,31 +30477,31 @@
       </c>
       <c r="B9" s="50"/>
       <c r="C9" s="51" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D9" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="53" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F9" s="53" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="G9" s="54"/>
       <c r="H9" s="54"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="75" t="s">
-        <v>66</v>
+      <c r="A10" s="87" t="s">
+        <v>59</v>
       </c>
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="77"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="89"/>
     </row>
     <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A11" s="49">
@@ -30465,16 +30509,16 @@
       </c>
       <c r="B11" s="50"/>
       <c r="C11" s="51" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D11" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="53" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F11" s="53" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G11" s="54"/>
       <c r="H11" s="54"/>
@@ -30485,16 +30529,16 @@
       </c>
       <c r="B12" s="55"/>
       <c r="C12" s="51" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D12" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="53" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F12" s="53" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G12" s="54"/>
       <c r="H12" s="54"/>
@@ -30505,16 +30549,16 @@
       </c>
       <c r="B13" s="55"/>
       <c r="C13" s="51" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D13" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="53" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F13" s="53" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G13" s="54"/>
       <c r="H13" s="54"/>
@@ -30525,16 +30569,16 @@
       </c>
       <c r="B14" s="55"/>
       <c r="C14" s="51" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D14" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="53" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F14" s="53" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G14" s="54"/>
       <c r="H14" s="54"/>
@@ -30545,31 +30589,31 @@
       </c>
       <c r="B15" s="55"/>
       <c r="C15" s="51" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D15" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="53" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F15" s="53" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="G15" s="54"/>
       <c r="H15" s="54"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="75" t="s">
-        <v>80</v>
+      <c r="A16" s="87" t="s">
+        <v>73</v>
       </c>
-      <c r="B16" s="76"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="77"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="89"/>
     </row>
     <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A17" s="49">
@@ -30577,16 +30621,16 @@
       </c>
       <c r="B17" s="56"/>
       <c r="C17" s="51" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D17" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="53" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F17" s="53" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G17" s="54"/>
       <c r="H17" s="54"/>
@@ -30597,16 +30641,16 @@
       </c>
       <c r="B18" s="57"/>
       <c r="C18" s="51" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D18" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="53" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F18" s="53" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G18" s="54"/>
       <c r="H18" s="54"/>
@@ -30617,16 +30661,16 @@
       </c>
       <c r="B19" s="57"/>
       <c r="C19" s="51" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D19" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="53" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F19" s="53" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="G19" s="54"/>
       <c r="H19" s="54"/>

--- a/Improgress/2. Artifact and Deliverable/DetailDesign & Architect/Design/DE_MessageList_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/DetailDesign & Architect/Design/DE_MessageList_Ver1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\DetailDesign &amp; Architect\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C6B12A-F72B-43D2-B89E-94470051C748}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A06C885-77BC-4B13-8DDE-00130B4E1082}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="11070" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="119">
   <si>
     <t>Project Name:</t>
   </si>
@@ -391,6 +391,18 @@
   </si>
   <si>
     <t>MS.PW.004</t>
+  </si>
+  <si>
+    <t>MS.IW.007</t>
+  </si>
+  <si>
+    <t>Thông báo sửa nhân sự</t>
+  </si>
+  <si>
+    <t>MS.IW.008</t>
+  </si>
+  <si>
+    <t>Thông báo điền đầy đủ thông tin</t>
   </si>
 </sst>
 </file>
@@ -1075,6 +1087,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1111,18 +1132,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1155,7 +1167,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Chủ đề Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -29523,10 +29535,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29569,16 +29581,16 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="6" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="89"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="77"/>
     </row>
     <row r="3" spans="1:9" s="6" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="49">
@@ -29622,16 +29634,16 @@
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" s="6" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="89"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="77"/>
     </row>
     <row r="6" spans="1:9" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="49">
@@ -29714,16 +29726,16 @@
       <c r="H9" s="54"/>
     </row>
     <row r="10" spans="1:9" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="87" t="s">
+      <c r="A10" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="89"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="77"/>
     </row>
     <row r="11" spans="1:9" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="60">
@@ -29845,173 +29857,193 @@
       <c r="G16" s="54"/>
       <c r="H16" s="54"/>
     </row>
-    <row r="17" spans="1:8" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="87" t="s">
-        <v>110</v>
-      </c>
-      <c r="B17" s="88"/>
-      <c r="C17" s="88"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="89"/>
-    </row>
-    <row r="18" spans="1:8" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="49">
+    <row r="17" spans="1:8" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="58">
         <v>13</v>
       </c>
-      <c r="B18" s="50"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+    </row>
+    <row r="18" spans="1:8" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="58">
+        <v>13</v>
+      </c>
+      <c r="B18" s="57"/>
       <c r="C18" s="51" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D18" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="53" t="s">
-        <v>37</v>
+      <c r="E18" s="59" t="s">
+        <v>118</v>
       </c>
       <c r="F18" s="53" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="G18" s="54"/>
       <c r="H18" s="54"/>
     </row>
-    <row r="19" spans="1:8" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="49">
+    <row r="19" spans="1:8" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="75" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" s="76"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="77"/>
+    </row>
+    <row r="20" spans="1:8" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="49">
         <v>14</v>
       </c>
-      <c r="B19" s="55"/>
-      <c r="C19" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="D19" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-    </row>
-    <row r="20" spans="1:8" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="49">
-        <v>15</v>
-      </c>
-      <c r="B20" s="61"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="51" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D20" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="53" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="F20" s="53" t="s">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="G20" s="54"/>
       <c r="H20" s="54"/>
     </row>
-    <row r="21" spans="1:8" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="49">
-        <v>16</v>
+        <v>15</v>
       </c>
-      <c r="B21" s="61"/>
+      <c r="B21" s="55"/>
       <c r="C21" s="51" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D21" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="59" t="s">
-        <v>94</v>
+      <c r="E21" s="53" t="s">
+        <v>39</v>
       </c>
-      <c r="F21" s="59" t="s">
-        <v>96</v>
+      <c r="F21" s="53" t="s">
+        <v>40</v>
       </c>
       <c r="G21" s="54"/>
       <c r="H21" s="54"/>
     </row>
-    <row r="22" spans="1:8" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="87" t="s">
-        <v>49</v>
+    <row r="22" spans="1:8" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="49">
+        <v>16</v>
       </c>
-      <c r="B22" s="88"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="89"/>
-    </row>
-    <row r="23" spans="1:8" s="6" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="58">
-        <v>13</v>
+      <c r="B22" s="61"/>
+      <c r="C22" s="51" t="s">
+        <v>113</v>
       </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="49" t="s">
-        <v>50</v>
+      <c r="D22" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+    </row>
+    <row r="23" spans="1:8" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="49">
+        <v>17</v>
+      </c>
+      <c r="B23" s="61"/>
+      <c r="C23" s="51" t="s">
+        <v>114</v>
       </c>
       <c r="D23" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="53" t="s">
-        <v>57</v>
+      <c r="E23" s="59" t="s">
+        <v>94</v>
       </c>
-      <c r="F23" s="53" t="s">
-        <v>58</v>
+      <c r="F23" s="59" t="s">
+        <v>96</v>
       </c>
       <c r="G23" s="54"/>
       <c r="H23" s="54"/>
     </row>
-    <row r="24" spans="1:8" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="58">
-        <v>14</v>
+    <row r="24" spans="1:8" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="75" t="s">
+        <v>49</v>
       </c>
-      <c r="B24" s="56"/>
-      <c r="C24" s="49" t="s">
+      <c r="B24" s="76"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="77"/>
+    </row>
+    <row r="25" spans="1:8" s="6" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="58">
+        <v>18</v>
+      </c>
+      <c r="B25" s="50"/>
+      <c r="C25" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+    </row>
+    <row r="26" spans="1:8" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="58">
+        <v>19</v>
+      </c>
+      <c r="B26" s="56"/>
+      <c r="C26" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="52" t="s">
+      <c r="D26" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="53" t="s">
+      <c r="E26" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="F24" s="53" t="s">
+      <c r="F26" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-    </row>
-    <row r="25" spans="1:8" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="83"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="84"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
     </row>
     <row r="27" spans="1:8" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="84"/>
+      <c r="B27" s="86"/>
       <c r="C27" s="14"/>
       <c r="D27" s="3"/>
       <c r="E27" s="4"/>
@@ -30019,9 +30051,9 @@
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="1:8" s="6" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="85"/>
+      <c r="B28" s="87"/>
       <c r="C28" s="14"/>
       <c r="D28" s="3"/>
       <c r="E28" s="4"/>
@@ -30029,29 +30061,29 @@
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="1:8" s="6" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="B29" s="86"/>
-      <c r="C29" s="15"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="14"/>
       <c r="D29" s="3"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" s="6" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="86"/>
-      <c r="C30" s="15"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="14"/>
       <c r="D30" s="3"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="1:8" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" s="6" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
-      <c r="B31" s="86"/>
+      <c r="B31" s="89"/>
       <c r="C31" s="15"/>
       <c r="D31" s="3"/>
       <c r="E31" s="4"/>
@@ -30059,11 +30091,11 @@
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="1:8" s="6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
-      <c r="B32" s="83"/>
+      <c r="B32" s="89"/>
       <c r="C32" s="15"/>
-      <c r="D32" s="8"/>
+      <c r="D32" s="3"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="5"/>
@@ -30071,47 +30103,47 @@
     </row>
     <row r="33" spans="1:8" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
-      <c r="B33" s="84"/>
+      <c r="B33" s="89"/>
       <c r="C33" s="15"/>
-      <c r="D33" s="8"/>
+      <c r="D33" s="3"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
     </row>
-    <row r="34" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" s="6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
-      <c r="B34" s="75"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="18"/>
+      <c r="B34" s="86"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="4"/>
       <c r="F34" s="4"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-    </row>
-    <row r="35" spans="1:8" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="1:8" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
-      <c r="B35" s="76"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-    </row>
-    <row r="36" spans="1:8" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="87"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
-      <c r="B36" s="77"/>
+      <c r="B36" s="78"/>
       <c r="C36" s="16"/>
       <c r="D36" s="17"/>
       <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
+      <c r="F36" s="4"/>
       <c r="G36" s="19"/>
       <c r="H36" s="19"/>
     </row>
-    <row r="37" spans="1:8" s="6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
-      <c r="B37" s="78"/>
+      <c r="B37" s="79"/>
       <c r="C37" s="16"/>
       <c r="D37" s="17"/>
       <c r="E37" s="18"/>
@@ -30119,9 +30151,9 @@
       <c r="G37" s="19"/>
       <c r="H37" s="19"/>
     </row>
-    <row r="38" spans="1:8" s="6" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
-      <c r="B38" s="78"/>
+      <c r="B38" s="80"/>
       <c r="C38" s="16"/>
       <c r="D38" s="17"/>
       <c r="E38" s="18"/>
@@ -30129,9 +30161,9 @@
       <c r="G38" s="19"/>
       <c r="H38" s="19"/>
     </row>
-    <row r="39" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" s="6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
-      <c r="B39" s="79"/>
+      <c r="B39" s="81"/>
       <c r="C39" s="16"/>
       <c r="D39" s="17"/>
       <c r="E39" s="18"/>
@@ -30139,9 +30171,9 @@
       <c r="G39" s="19"/>
       <c r="H39" s="19"/>
     </row>
-    <row r="40" spans="1:8" s="6" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" s="6" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
-      <c r="B40" s="80"/>
+      <c r="B40" s="81"/>
       <c r="C40" s="16"/>
       <c r="D40" s="17"/>
       <c r="E40" s="18"/>
@@ -30151,7 +30183,7 @@
     </row>
     <row r="41" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
-      <c r="B41" s="81"/>
+      <c r="B41" s="82"/>
       <c r="C41" s="16"/>
       <c r="D41" s="17"/>
       <c r="E41" s="18"/>
@@ -30159,9 +30191,9 @@
       <c r="G41" s="19"/>
       <c r="H41" s="19"/>
     </row>
-    <row r="42" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" s="6" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
-      <c r="B42" s="81"/>
+      <c r="B42" s="83"/>
       <c r="C42" s="16"/>
       <c r="D42" s="17"/>
       <c r="E42" s="18"/>
@@ -30171,7 +30203,7 @@
     </row>
     <row r="43" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
-      <c r="B43" s="81"/>
+      <c r="B43" s="84"/>
       <c r="C43" s="16"/>
       <c r="D43" s="17"/>
       <c r="E43" s="18"/>
@@ -30181,7 +30213,7 @@
     </row>
     <row r="44" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
-      <c r="B44" s="82"/>
+      <c r="B44" s="84"/>
       <c r="C44" s="16"/>
       <c r="D44" s="17"/>
       <c r="E44" s="18"/>
@@ -30191,9 +30223,9 @@
     </row>
     <row r="45" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
-      <c r="B45" s="77"/>
+      <c r="B45" s="84"/>
       <c r="C45" s="16"/>
-      <c r="D45" s="20"/>
+      <c r="D45" s="17"/>
       <c r="E45" s="18"/>
       <c r="F45" s="18"/>
       <c r="G45" s="19"/>
@@ -30201,33 +30233,33 @@
     </row>
     <row r="46" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
-      <c r="B46" s="78"/>
+      <c r="B46" s="85"/>
       <c r="C46" s="16"/>
-      <c r="D46" s="20"/>
+      <c r="D46" s="17"/>
       <c r="E46" s="18"/>
       <c r="F46" s="18"/>
       <c r="G46" s="19"/>
       <c r="H46" s="19"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="80"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+    </row>
+    <row r="48" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
+      <c r="B48" s="81"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
@@ -30269,20 +30301,40 @@
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
     </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B34:B35"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A24:H24"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30294,13 +30346,13 @@
           <x14:formula1>
             <xm:f>'C:\Users\US\Downloads\[K22T2-Team8-MessageList-ver0.1.xlsx]Sheet4'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>D34:D46</xm:sqref>
+          <xm:sqref>D36:D48</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>'C:\Users\US\Downloads\[K22T2-Team8-MessageList-ver0.1.xlsx]Sheet4'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>D3:D4 D11:D16 D23:D33 D6:D9 D18:D21</xm:sqref>
+          <xm:sqref>D3:D4 D20:D23 D25:D35 D11:D18 D6:D9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -30356,16 +30408,16 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="89"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="77"/>
     </row>
     <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A3" s="49">
@@ -30428,16 +30480,16 @@
       <c r="H5" s="54"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="89"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="77"/>
     </row>
     <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.2">
       <c r="A7" s="49">
@@ -30460,16 +30512,16 @@
       <c r="H7" s="54"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="87" t="s">
+      <c r="A8" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="89"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="77"/>
     </row>
     <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.2">
       <c r="A9" s="49">
@@ -30492,16 +30544,16 @@
       <c r="H9" s="54"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="87" t="s">
+      <c r="A10" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="89"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="77"/>
     </row>
     <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A11" s="49">
@@ -30604,16 +30656,16 @@
       <c r="H15" s="54"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="87" t="s">
+      <c r="A16" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="88"/>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="89"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="77"/>
     </row>
     <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A17" s="49">

--- a/Improgress/2. Artifact and Deliverable/DetailDesign & Architect/Design/DE_MessageList_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/DetailDesign & Architect/Design/DE_MessageList_Ver1.0.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\DetailDesign &amp; Architect\Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\DetailDesign &amp; Architect\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A06C885-77BC-4B13-8DDE-00130B4E1082}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="2" r:id="rId1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="117">
   <si>
     <t>Project Name:</t>
   </si>
@@ -145,9 +144,6 @@
   </si>
   <si>
     <t>Thông báo lỗi khi tên đăng nhập hoặc mật khẩu sai</t>
-  </si>
-  <si>
-    <t>Mật khẩu hoặc tên đăng nhập không chính xác.</t>
   </si>
   <si>
     <t>Thông báo lỗi khi nhập thiếu một trong hai trường thông tin tên đăng nhập hoặc mật khẩu</t>
@@ -318,9 +314,6 @@
     <t>Thông báo không tìm thấy kết quả đơn xin nghỉ phép người sử dụng nhập dữ liệu</t>
   </si>
   <si>
-    <t>Vui lòng nhập đầy đủ thông tin</t>
-  </si>
-  <si>
     <t>MS.RMW.002</t>
   </si>
   <si>
@@ -408,7 +401,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1087,15 +1080,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1132,9 +1116,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1462,7 +1455,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -29534,11 +29527,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29581,16 +29574,16 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="6" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
-        <v>42</v>
+      <c r="A2" s="87" t="s">
+        <v>41</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="77"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="89"/>
     </row>
     <row r="3" spans="1:9" s="6" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="49">
@@ -29607,7 +29600,7 @@
         <v>32</v>
       </c>
       <c r="F3" s="53" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="G3" s="54"/>
       <c r="H3" s="54"/>
@@ -29618,32 +29611,32 @@
       </c>
       <c r="B4" s="55"/>
       <c r="C4" s="51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" s="53" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G4" s="54"/>
       <c r="H4" s="54"/>
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" s="6" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75" t="s">
-        <v>41</v>
+      <c r="A5" s="87" t="s">
+        <v>40</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="77"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="89"/>
     </row>
     <row r="6" spans="1:9" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="49">
@@ -29651,16 +29644,16 @@
       </c>
       <c r="B6" s="50"/>
       <c r="C6" s="51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6" s="53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G6" s="54"/>
       <c r="H6" s="54"/>
@@ -29671,16 +29664,16 @@
       </c>
       <c r="B7" s="55"/>
       <c r="C7" s="51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="53" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" s="53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="54"/>
       <c r="H7" s="54"/>
@@ -29691,16 +29684,16 @@
       </c>
       <c r="B8" s="61"/>
       <c r="C8" s="51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="53" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F8" s="53" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G8" s="54"/>
       <c r="H8" s="54"/>
@@ -29711,31 +29704,31 @@
       </c>
       <c r="B9" s="61"/>
       <c r="C9" s="51" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D9" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="59" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F9" s="59" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G9" s="54"/>
       <c r="H9" s="54"/>
     </row>
     <row r="10" spans="1:9" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="75" t="s">
-        <v>43</v>
+      <c r="A10" s="87" t="s">
+        <v>42</v>
       </c>
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="77"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="89"/>
     </row>
     <row r="11" spans="1:9" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="60">
@@ -29743,16 +29736,16 @@
       </c>
       <c r="B11" s="61"/>
       <c r="C11" s="51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="53" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F11" s="53" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G11" s="54"/>
       <c r="H11" s="54"/>
@@ -29763,16 +29756,16 @@
       </c>
       <c r="B12" s="61"/>
       <c r="C12" s="51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D12" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="53" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F12" s="53" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G12" s="54"/>
       <c r="H12" s="54"/>
@@ -29783,16 +29776,16 @@
       </c>
       <c r="B13" s="61"/>
       <c r="C13" s="51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D13" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="53" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F13" s="53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G13" s="54"/>
       <c r="H13" s="54"/>
@@ -29803,16 +29796,16 @@
       </c>
       <c r="B14" s="56"/>
       <c r="C14" s="51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" s="53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G14" s="54"/>
       <c r="H14" s="54"/>
@@ -29823,16 +29816,16 @@
       </c>
       <c r="B15" s="57"/>
       <c r="C15" s="51" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D15" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" s="53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G15" s="54"/>
       <c r="H15" s="54"/>
@@ -29843,16 +29836,16 @@
       </c>
       <c r="B16" s="57"/>
       <c r="C16" s="51" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D16" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="59" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F16" s="59" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G16" s="54"/>
       <c r="H16" s="54"/>
@@ -29863,16 +29856,16 @@
       </c>
       <c r="B17" s="57"/>
       <c r="C17" s="51" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D17" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="59" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F17" s="59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G17" s="54"/>
       <c r="H17" s="54"/>
@@ -29883,31 +29876,31 @@
       </c>
       <c r="B18" s="57"/>
       <c r="C18" s="51" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D18" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="59" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F18" s="53" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G18" s="54"/>
       <c r="H18" s="54"/>
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="75" t="s">
-        <v>110</v>
+      <c r="A19" s="87" t="s">
+        <v>108</v>
       </c>
-      <c r="B19" s="76"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="77"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="89"/>
     </row>
     <row r="20" spans="1:8" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="49">
@@ -29915,16 +29908,16 @@
       </c>
       <c r="B20" s="50"/>
       <c r="C20" s="51" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D20" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F20" s="53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G20" s="54"/>
       <c r="H20" s="54"/>
@@ -29935,16 +29928,16 @@
       </c>
       <c r="B21" s="55"/>
       <c r="C21" s="51" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D21" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E21" s="53" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F21" s="53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G21" s="54"/>
       <c r="H21" s="54"/>
@@ -29955,16 +29948,16 @@
       </c>
       <c r="B22" s="61"/>
       <c r="C22" s="51" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D22" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="53" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F22" s="53" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G22" s="54"/>
       <c r="H22" s="54"/>
@@ -29975,31 +29968,31 @@
       </c>
       <c r="B23" s="61"/>
       <c r="C23" s="51" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D23" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E23" s="59" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F23" s="59" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G23" s="54"/>
       <c r="H23" s="54"/>
     </row>
     <row r="24" spans="1:8" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="75" t="s">
-        <v>49</v>
+      <c r="A24" s="87" t="s">
+        <v>48</v>
       </c>
-      <c r="B24" s="76"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="77"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="89"/>
     </row>
     <row r="25" spans="1:8" s="6" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="58">
@@ -30007,16 +30000,16 @@
       </c>
       <c r="B25" s="50"/>
       <c r="C25" s="49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D25" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E25" s="53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F25" s="53" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G25" s="54"/>
       <c r="H25" s="54"/>
@@ -30027,23 +30020,23 @@
       </c>
       <c r="B26" s="56"/>
       <c r="C26" s="49" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D26" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E26" s="53" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F26" s="53" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G26" s="54"/>
       <c r="H26" s="54"/>
     </row>
     <row r="27" spans="1:8" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="86"/>
+      <c r="B27" s="83"/>
       <c r="C27" s="14"/>
       <c r="D27" s="3"/>
       <c r="E27" s="4"/>
@@ -30053,7 +30046,7 @@
     </row>
     <row r="28" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="87"/>
+      <c r="B28" s="84"/>
       <c r="C28" s="14"/>
       <c r="D28" s="3"/>
       <c r="E28" s="4"/>
@@ -30063,7 +30056,7 @@
     </row>
     <row r="29" spans="1:8" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="B29" s="87"/>
+      <c r="B29" s="84"/>
       <c r="C29" s="14"/>
       <c r="D29" s="3"/>
       <c r="E29" s="4"/>
@@ -30073,7 +30066,7 @@
     </row>
     <row r="30" spans="1:8" s="6" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="88"/>
+      <c r="B30" s="85"/>
       <c r="C30" s="14"/>
       <c r="D30" s="3"/>
       <c r="E30" s="4"/>
@@ -30083,7 +30076,7 @@
     </row>
     <row r="31" spans="1:8" s="6" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
-      <c r="B31" s="89"/>
+      <c r="B31" s="86"/>
       <c r="C31" s="15"/>
       <c r="D31" s="3"/>
       <c r="E31" s="4"/>
@@ -30093,7 +30086,7 @@
     </row>
     <row r="32" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
-      <c r="B32" s="89"/>
+      <c r="B32" s="86"/>
       <c r="C32" s="15"/>
       <c r="D32" s="3"/>
       <c r="E32" s="4"/>
@@ -30103,7 +30096,7 @@
     </row>
     <row r="33" spans="1:8" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
-      <c r="B33" s="89"/>
+      <c r="B33" s="86"/>
       <c r="C33" s="15"/>
       <c r="D33" s="3"/>
       <c r="E33" s="4"/>
@@ -30113,7 +30106,7 @@
     </row>
     <row r="34" spans="1:8" s="6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
-      <c r="B34" s="86"/>
+      <c r="B34" s="83"/>
       <c r="C34" s="15"/>
       <c r="D34" s="8"/>
       <c r="E34" s="4"/>
@@ -30123,7 +30116,7 @@
     </row>
     <row r="35" spans="1:8" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
-      <c r="B35" s="87"/>
+      <c r="B35" s="84"/>
       <c r="C35" s="15"/>
       <c r="D35" s="8"/>
       <c r="E35" s="4"/>
@@ -30133,7 +30126,7 @@
     </row>
     <row r="36" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
-      <c r="B36" s="78"/>
+      <c r="B36" s="75"/>
       <c r="C36" s="16"/>
       <c r="D36" s="17"/>
       <c r="E36" s="18"/>
@@ -30143,7 +30136,7 @@
     </row>
     <row r="37" spans="1:8" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
-      <c r="B37" s="79"/>
+      <c r="B37" s="76"/>
       <c r="C37" s="16"/>
       <c r="D37" s="17"/>
       <c r="E37" s="18"/>
@@ -30153,7 +30146,7 @@
     </row>
     <row r="38" spans="1:8" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
-      <c r="B38" s="80"/>
+      <c r="B38" s="77"/>
       <c r="C38" s="16"/>
       <c r="D38" s="17"/>
       <c r="E38" s="18"/>
@@ -30163,7 +30156,7 @@
     </row>
     <row r="39" spans="1:8" s="6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
-      <c r="B39" s="81"/>
+      <c r="B39" s="78"/>
       <c r="C39" s="16"/>
       <c r="D39" s="17"/>
       <c r="E39" s="18"/>
@@ -30173,7 +30166,7 @@
     </row>
     <row r="40" spans="1:8" s="6" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
-      <c r="B40" s="81"/>
+      <c r="B40" s="78"/>
       <c r="C40" s="16"/>
       <c r="D40" s="17"/>
       <c r="E40" s="18"/>
@@ -30183,7 +30176,7 @@
     </row>
     <row r="41" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
-      <c r="B41" s="82"/>
+      <c r="B41" s="79"/>
       <c r="C41" s="16"/>
       <c r="D41" s="17"/>
       <c r="E41" s="18"/>
@@ -30193,7 +30186,7 @@
     </row>
     <row r="42" spans="1:8" s="6" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
-      <c r="B42" s="83"/>
+      <c r="B42" s="80"/>
       <c r="C42" s="16"/>
       <c r="D42" s="17"/>
       <c r="E42" s="18"/>
@@ -30203,7 +30196,7 @@
     </row>
     <row r="43" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
-      <c r="B43" s="84"/>
+      <c r="B43" s="81"/>
       <c r="C43" s="16"/>
       <c r="D43" s="17"/>
       <c r="E43" s="18"/>
@@ -30213,7 +30206,7 @@
     </row>
     <row r="44" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
-      <c r="B44" s="84"/>
+      <c r="B44" s="81"/>
       <c r="C44" s="16"/>
       <c r="D44" s="17"/>
       <c r="E44" s="18"/>
@@ -30223,7 +30216,7 @@
     </row>
     <row r="45" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
-      <c r="B45" s="84"/>
+      <c r="B45" s="81"/>
       <c r="C45" s="16"/>
       <c r="D45" s="17"/>
       <c r="E45" s="18"/>
@@ -30233,7 +30226,7 @@
     </row>
     <row r="46" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
-      <c r="B46" s="85"/>
+      <c r="B46" s="82"/>
       <c r="C46" s="16"/>
       <c r="D46" s="17"/>
       <c r="E46" s="18"/>
@@ -30243,7 +30236,7 @@
     </row>
     <row r="47" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
-      <c r="B47" s="80"/>
+      <c r="B47" s="77"/>
       <c r="C47" s="16"/>
       <c r="D47" s="20"/>
       <c r="E47" s="18"/>
@@ -30253,7 +30246,7 @@
     </row>
     <row r="48" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
-      <c r="B48" s="81"/>
+      <c r="B48" s="78"/>
       <c r="C48" s="16"/>
       <c r="D48" s="20"/>
       <c r="E48" s="18"/>
@@ -30323,6 +30316,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A24:H24"/>
     <mergeCell ref="B36:B37"/>
     <mergeCell ref="B38:B41"/>
     <mergeCell ref="B42:B46"/>
@@ -30330,11 +30328,6 @@
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B30:B33"/>
     <mergeCell ref="B34:B35"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A24:H24"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30342,15 +30335,15 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'C:\Users\US\Downloads\[K22T2-Team8-MessageList-ver0.1.xlsx]Sheet4'!#REF!</xm:f>
+            <xm:f>[1]Sheet4!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>D36:D48</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'C:\Users\US\Downloads\[K22T2-Team8-MessageList-ver0.1.xlsx]Sheet4'!#REF!</xm:f>
+            <xm:f>[1]Sheet4!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>D3:D4 D20:D23 D25:D35 D11:D18 D6:D9</xm:sqref>
         </x14:dataValidation>
@@ -30361,11 +30354,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10950550-2C91-40A6-B5DD-86EBF28A80EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -30408,16 +30401,16 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="75" t="s">
-        <v>61</v>
+      <c r="A2" s="87" t="s">
+        <v>60</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="77"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="89"/>
     </row>
     <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A3" s="49">
@@ -30425,7 +30418,7 @@
       </c>
       <c r="B3" s="50"/>
       <c r="C3" s="51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3" s="52" t="s">
         <v>11</v>
@@ -30434,7 +30427,7 @@
         <v>32</v>
       </c>
       <c r="F3" s="53" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="G3" s="54"/>
       <c r="H3" s="54"/>
@@ -30445,16 +30438,16 @@
       </c>
       <c r="B4" s="55"/>
       <c r="C4" s="51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" s="53" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G4" s="54"/>
       <c r="H4" s="54"/>
@@ -30465,31 +30458,31 @@
       </c>
       <c r="B5" s="55"/>
       <c r="C5" s="51" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D5" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="53" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F5" s="53" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G5" s="54"/>
       <c r="H5" s="54"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="75" t="s">
-        <v>79</v>
+      <c r="A6" s="87" t="s">
+        <v>78</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="77"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="89"/>
     </row>
     <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.2">
       <c r="A7" s="49">
@@ -30497,31 +30490,31 @@
       </c>
       <c r="B7" s="50"/>
       <c r="C7" s="51" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D7" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="53" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F7" s="53" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G7" s="54"/>
       <c r="H7" s="54"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="75" t="s">
-        <v>82</v>
+      <c r="A8" s="87" t="s">
+        <v>81</v>
       </c>
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="77"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="89"/>
     </row>
     <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.2">
       <c r="A9" s="49">
@@ -30529,31 +30522,31 @@
       </c>
       <c r="B9" s="50"/>
       <c r="C9" s="51" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D9" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="53" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F9" s="53" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G9" s="54"/>
       <c r="H9" s="54"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="75" t="s">
-        <v>59</v>
+      <c r="A10" s="87" t="s">
+        <v>58</v>
       </c>
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="77"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="89"/>
     </row>
     <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A11" s="49">
@@ -30561,16 +30554,16 @@
       </c>
       <c r="B11" s="50"/>
       <c r="C11" s="51" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D11" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="53" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F11" s="53" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G11" s="54"/>
       <c r="H11" s="54"/>
@@ -30581,16 +30574,16 @@
       </c>
       <c r="B12" s="55"/>
       <c r="C12" s="51" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F12" s="53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G12" s="54"/>
       <c r="H12" s="54"/>
@@ -30601,16 +30594,16 @@
       </c>
       <c r="B13" s="55"/>
       <c r="C13" s="51" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D13" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F13" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G13" s="54"/>
       <c r="H13" s="54"/>
@@ -30621,16 +30614,16 @@
       </c>
       <c r="B14" s="55"/>
       <c r="C14" s="51" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D14" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="53" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F14" s="53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G14" s="54"/>
       <c r="H14" s="54"/>
@@ -30641,31 +30634,31 @@
       </c>
       <c r="B15" s="55"/>
       <c r="C15" s="51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D15" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="53" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F15" s="53" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G15" s="54"/>
       <c r="H15" s="54"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="75" t="s">
-        <v>73</v>
+      <c r="A16" s="87" t="s">
+        <v>72</v>
       </c>
-      <c r="B16" s="76"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="77"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="89"/>
     </row>
     <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A17" s="49">
@@ -30673,16 +30666,16 @@
       </c>
       <c r="B17" s="56"/>
       <c r="C17" s="51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D17" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F17" s="53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G17" s="54"/>
       <c r="H17" s="54"/>
@@ -30693,16 +30686,16 @@
       </c>
       <c r="B18" s="57"/>
       <c r="C18" s="51" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D18" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F18" s="53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G18" s="54"/>
       <c r="H18" s="54"/>
@@ -30713,16 +30706,16 @@
       </c>
       <c r="B19" s="57"/>
       <c r="C19" s="51" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D19" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="53" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F19" s="53" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G19" s="54"/>
       <c r="H19" s="54"/>
@@ -30790,9 +30783,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DB87E3B5-F97A-4B3E-8065-790A6CC51A15}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'C:\Users\US\Downloads\[K22T2-Team8-MessageList-ver0.1.xlsx]Sheet4'!#REF!</xm:f>
+            <xm:f>[1]Sheet4!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>D9 D11:D15 D17:D24 D7 D3:D5</xm:sqref>
         </x14:dataValidation>
@@ -30803,7 +30796,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Improgress/2. Artifact and Deliverable/DetailDesign & Architect/Design/DE_MessageList_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/DetailDesign & Architect/Design/DE_MessageList_Ver1.0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="109">
   <si>
     <t>Project Name:</t>
   </si>
@@ -191,12 +191,6 @@
     <t>Xóa chính sách công ty thành công</t>
   </si>
   <si>
-    <t>Quản lý thống kê báo cáo Website Admin</t>
-  </si>
-  <si>
-    <t>MS.RMW.001</t>
-  </si>
-  <si>
     <t>MS.AMW.001</t>
   </si>
   <si>
@@ -213,12 +207,6 @@
   </si>
   <si>
     <t>MS.IW.004</t>
-  </si>
-  <si>
-    <t>Thông báo tải kết quả kinh doanh</t>
-  </si>
-  <si>
-    <t>Thêm kết quả kinh doanh thành công</t>
   </si>
   <si>
     <t>Công tác App User</t>
@@ -263,43 +251,13 @@
     <t xml:space="preserve">Thông báo cho nhân viên định vị chuyến đi công tác </t>
   </si>
   <si>
-    <t>Nghỉ việc App User</t>
-  </si>
-  <si>
-    <t>MS.QA.001</t>
-  </si>
-  <si>
-    <t>Thông báo cho nhân viên đăng ký nghỉ phép trên app</t>
-  </si>
-  <si>
-    <t>Hoàn thành gửi</t>
-  </si>
-  <si>
-    <t>MS.QA.002</t>
-  </si>
-  <si>
-    <t>Thông báo cho giám đốc, trưởng phòng ban duyệt form xin nghỉ phép</t>
-  </si>
-  <si>
-    <t>Quản lý thông tin App User</t>
-  </si>
-  <si>
     <t>MS.IA.001</t>
   </si>
   <si>
     <t>Không tìm thấy kết quả</t>
   </si>
   <si>
-    <t>Quản lý dự án bất động sản App User</t>
-  </si>
-  <si>
-    <t>MS.PA.001</t>
-  </si>
-  <si>
     <t>Thông báo không tìm thấy kết quả thông tin khi người sử dụng nhập dữ liệu</t>
-  </si>
-  <si>
-    <t>Thông báo không tìm thấy kết quả dự án khi người sử dụng nhập dữ liệu</t>
   </si>
   <si>
     <t>MS.BTA.005</t>
@@ -308,25 +266,10 @@
     <t>Thông báo không tìm thấy kết quả chuyến đi công tác khi người sử dụng nhập dữ liệu</t>
   </si>
   <si>
-    <t>MS.QA.003</t>
-  </si>
-  <si>
-    <t>Thông báo không tìm thấy kết quả đơn xin nghỉ phép người sử dụng nhập dữ liệu</t>
-  </si>
-  <si>
-    <t>MS.RMW.002</t>
-  </si>
-  <si>
-    <t>Vui lòng chọn file đúng định dạng</t>
-  </si>
-  <si>
     <t>MS.IW.005</t>
   </si>
   <si>
     <t>Thông báo khi hình ảnh tải lên bị lỗi</t>
-  </si>
-  <si>
-    <t>Thông báo khi file excel tải lên bị lỗi</t>
   </si>
   <si>
     <t>Vui lòng chọn hình ảnh đúng định dạng</t>
@@ -396,6 +339,39 @@
   </si>
   <si>
     <t>Thông báo điền đầy đủ thông tin</t>
+  </si>
+  <si>
+    <t>Thông tin App User</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thống kê - báo cáo App User </t>
+  </si>
+  <si>
+    <t>MS.SA.001</t>
+  </si>
+  <si>
+    <t>Vui lòng chọn thông tin tìm kiếm</t>
+  </si>
+  <si>
+    <t>MS.SA.002</t>
+  </si>
+  <si>
+    <t>Thông báo không lựa chọn thời gian (năm, quý, tháng) khi tìm kiếm</t>
+  </si>
+  <si>
+    <t>Vui lòng chọn thời gian tìm kiếm</t>
+  </si>
+  <si>
+    <t>Thông báo không lựa chọn thông tin hoặc điền thông tin (nhân viên, team, phòng) khi tìm kiếm</t>
+  </si>
+  <si>
+    <t>Vui lòng nhập lại mật khẩu hoặc Vui lòng nhập lại tên đăng nhập</t>
+  </si>
+  <si>
+    <t>Sai mật khẩu hoặc sai tên đăng nhập</t>
+  </si>
+  <si>
+    <t>Thông báo lỗi khi nhập thiếu một trong hai trường hoặc thiếu cả hai trường thông tin tên đăng nhập hoặc mật khẩu</t>
   </si>
 </sst>
 </file>
@@ -1080,6 +1056,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1115,15 +1100,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -29528,10 +29504,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29574,16 +29550,16 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="6" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="89"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="77"/>
     </row>
     <row r="3" spans="1:9" s="6" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="49">
@@ -29600,12 +29576,12 @@
         <v>32</v>
       </c>
       <c r="F3" s="53" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="G3" s="54"/>
       <c r="H3" s="54"/>
     </row>
-    <row r="4" spans="1:9" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="49">
         <v>2</v>
       </c>
@@ -29617,26 +29593,26 @@
         <v>11</v>
       </c>
       <c r="E4" s="53" t="s">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="F4" s="53" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="G4" s="54"/>
       <c r="H4" s="54"/>
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" s="6" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="89"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="77"/>
     </row>
     <row r="6" spans="1:9" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="49">
@@ -29644,7 +29620,7 @@
       </c>
       <c r="B6" s="50"/>
       <c r="C6" s="51" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D6" s="52" t="s">
         <v>11</v>
@@ -29664,7 +29640,7 @@
       </c>
       <c r="B7" s="55"/>
       <c r="C7" s="51" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D7" s="52" t="s">
         <v>11</v>
@@ -29690,10 +29666,10 @@
         <v>11</v>
       </c>
       <c r="E8" s="53" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="F8" s="53" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="G8" s="54"/>
       <c r="H8" s="54"/>
@@ -29704,31 +29680,31 @@
       </c>
       <c r="B9" s="61"/>
       <c r="C9" s="51" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="D9" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="59" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="F9" s="59" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="G9" s="54"/>
       <c r="H9" s="54"/>
     </row>
     <row r="10" spans="1:9" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="87" t="s">
+      <c r="A10" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="89"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="77"/>
     </row>
     <row r="11" spans="1:9" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="60">
@@ -29736,16 +29712,16 @@
       </c>
       <c r="B11" s="61"/>
       <c r="C11" s="51" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D11" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="53" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="F11" s="53" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="G11" s="54"/>
       <c r="H11" s="54"/>
@@ -29756,16 +29732,16 @@
       </c>
       <c r="B12" s="61"/>
       <c r="C12" s="51" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D12" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="53" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="F12" s="53" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="G12" s="54"/>
       <c r="H12" s="54"/>
@@ -29776,13 +29752,13 @@
       </c>
       <c r="B13" s="61"/>
       <c r="C13" s="51" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D13" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="53" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="F13" s="53" t="s">
         <v>45</v>
@@ -29796,7 +29772,7 @@
       </c>
       <c r="B14" s="56"/>
       <c r="C14" s="51" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D14" s="52" t="s">
         <v>11</v>
@@ -29816,7 +29792,7 @@
       </c>
       <c r="B15" s="57"/>
       <c r="C15" s="51" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="D15" s="52" t="s">
         <v>11</v>
@@ -29836,16 +29812,16 @@
       </c>
       <c r="B16" s="57"/>
       <c r="C16" s="51" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="D16" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="59" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="F16" s="59" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="G16" s="54"/>
       <c r="H16" s="54"/>
@@ -29856,13 +29832,13 @@
       </c>
       <c r="B17" s="57"/>
       <c r="C17" s="51" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D17" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="59" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="F17" s="59" t="s">
         <v>46</v>
@@ -29876,31 +29852,31 @@
       </c>
       <c r="B18" s="57"/>
       <c r="C18" s="51" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D18" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="59" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="F18" s="53" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="G18" s="54"/>
       <c r="H18" s="54"/>
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="87" t="s">
-        <v>108</v>
+      <c r="A19" s="75" t="s">
+        <v>89</v>
       </c>
-      <c r="B19" s="88"/>
-      <c r="C19" s="88"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="88"/>
-      <c r="H19" s="89"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="77"/>
     </row>
     <row r="20" spans="1:8" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="49">
@@ -29908,7 +29884,7 @@
       </c>
       <c r="B20" s="50"/>
       <c r="C20" s="51" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D20" s="52" t="s">
         <v>11</v>
@@ -29928,7 +29904,7 @@
       </c>
       <c r="B21" s="55"/>
       <c r="C21" s="51" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="D21" s="52" t="s">
         <v>11</v>
@@ -29948,16 +29924,16 @@
       </c>
       <c r="B22" s="61"/>
       <c r="C22" s="51" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D22" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="53" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="F22" s="53" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="G22" s="54"/>
       <c r="H22" s="54"/>
@@ -29968,75 +29944,53 @@
       </c>
       <c r="B23" s="61"/>
       <c r="C23" s="51" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="D23" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E23" s="59" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="F23" s="59" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="G23" s="54"/>
       <c r="H23" s="54"/>
     </row>
-    <row r="24" spans="1:8" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="87" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="88"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="89"/>
-    </row>
-    <row r="25" spans="1:8" s="6" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="58">
-        <v>18</v>
-      </c>
-      <c r="B25" s="50"/>
-      <c r="C25" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="F25" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
+    <row r="24" spans="1:8" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="58">
-        <v>19</v>
-      </c>
-      <c r="B26" s="56"/>
-      <c r="C26" s="49" t="s">
-        <v>89</v>
-      </c>
-      <c r="D26" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="53" t="s">
-        <v>93</v>
-      </c>
-      <c r="F26" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-    </row>
-    <row r="27" spans="1:8" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="87"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" s="6" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="83"/>
+      <c r="B27" s="88"/>
       <c r="C27" s="14"/>
       <c r="D27" s="3"/>
       <c r="E27" s="4"/>
@@ -30044,99 +29998,99 @@
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" s="6" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="84"/>
-      <c r="C28" s="14"/>
+      <c r="B28" s="89"/>
+      <c r="C28" s="15"/>
       <c r="D28" s="3"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="1:8" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="B29" s="84"/>
-      <c r="C29" s="14"/>
+      <c r="B29" s="89"/>
+      <c r="C29" s="15"/>
       <c r="D29" s="3"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="1:8" s="6" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="85"/>
-      <c r="C30" s="14"/>
+      <c r="B30" s="89"/>
+      <c r="C30" s="15"/>
       <c r="D30" s="3"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="1:8" s="6" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" s="6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="86"/>
       <c r="C31" s="15"/>
-      <c r="D31" s="3"/>
+      <c r="D31" s="8"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
-      <c r="B32" s="86"/>
+      <c r="B32" s="87"/>
       <c r="C32" s="15"/>
-      <c r="D32" s="3"/>
+      <c r="D32" s="8"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
     </row>
-    <row r="33" spans="1:8" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
-      <c r="B33" s="86"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="4"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="18"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-    </row>
-    <row r="34" spans="1:8" s="6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+    </row>
+    <row r="34" spans="1:8" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
-      <c r="B34" s="83"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-    </row>
-    <row r="35" spans="1:8" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="79"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+    </row>
+    <row r="35" spans="1:8" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
-      <c r="B35" s="84"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-    </row>
-    <row r="36" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="80"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+    </row>
+    <row r="36" spans="1:8" s="6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
-      <c r="B36" s="75"/>
+      <c r="B36" s="81"/>
       <c r="C36" s="16"/>
       <c r="D36" s="17"/>
       <c r="E36" s="18"/>
-      <c r="F36" s="4"/>
+      <c r="F36" s="18"/>
       <c r="G36" s="19"/>
       <c r="H36" s="19"/>
     </row>
-    <row r="37" spans="1:8" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" s="6" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
-      <c r="B37" s="76"/>
+      <c r="B37" s="81"/>
       <c r="C37" s="16"/>
       <c r="D37" s="17"/>
       <c r="E37" s="18"/>
@@ -30144,9 +30098,9 @@
       <c r="G37" s="19"/>
       <c r="H37" s="19"/>
     </row>
-    <row r="38" spans="1:8" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
-      <c r="B38" s="77"/>
+      <c r="B38" s="82"/>
       <c r="C38" s="16"/>
       <c r="D38" s="17"/>
       <c r="E38" s="18"/>
@@ -30154,9 +30108,9 @@
       <c r="G38" s="19"/>
       <c r="H38" s="19"/>
     </row>
-    <row r="39" spans="1:8" s="6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" s="6" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
-      <c r="B39" s="78"/>
+      <c r="B39" s="83"/>
       <c r="C39" s="16"/>
       <c r="D39" s="17"/>
       <c r="E39" s="18"/>
@@ -30164,9 +30118,9 @@
       <c r="G39" s="19"/>
       <c r="H39" s="19"/>
     </row>
-    <row r="40" spans="1:8" s="6" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
-      <c r="B40" s="78"/>
+      <c r="B40" s="84"/>
       <c r="C40" s="16"/>
       <c r="D40" s="17"/>
       <c r="E40" s="18"/>
@@ -30176,7 +30130,7 @@
     </row>
     <row r="41" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
-      <c r="B41" s="79"/>
+      <c r="B41" s="84"/>
       <c r="C41" s="16"/>
       <c r="D41" s="17"/>
       <c r="E41" s="18"/>
@@ -30184,9 +30138,9 @@
       <c r="G41" s="19"/>
       <c r="H41" s="19"/>
     </row>
-    <row r="42" spans="1:8" s="6" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
-      <c r="B42" s="80"/>
+      <c r="B42" s="84"/>
       <c r="C42" s="16"/>
       <c r="D42" s="17"/>
       <c r="E42" s="18"/>
@@ -30196,7 +30150,7 @@
     </row>
     <row r="43" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
-      <c r="B43" s="81"/>
+      <c r="B43" s="85"/>
       <c r="C43" s="16"/>
       <c r="D43" s="17"/>
       <c r="E43" s="18"/>
@@ -30206,9 +30160,9 @@
     </row>
     <row r="44" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
-      <c r="B44" s="81"/>
+      <c r="B44" s="80"/>
       <c r="C44" s="16"/>
-      <c r="D44" s="17"/>
+      <c r="D44" s="20"/>
       <c r="E44" s="18"/>
       <c r="F44" s="18"/>
       <c r="G44" s="19"/>
@@ -30218,41 +30172,41 @@
       <c r="A45" s="2"/>
       <c r="B45" s="81"/>
       <c r="C45" s="16"/>
-      <c r="D45" s="17"/>
+      <c r="D45" s="20"/>
       <c r="E45" s="18"/>
       <c r="F45" s="18"/>
       <c r="G45" s="19"/>
       <c r="H45" s="19"/>
     </row>
-    <row r="46" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
-      <c r="B46" s="82"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-    </row>
-    <row r="47" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="8"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
-      <c r="B47" s="77"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-    </row>
-    <row r="48" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="8"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
-      <c r="B48" s="78"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
@@ -30284,68 +30238,31 @@
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="11">
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="B31:B32"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B33:B34"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>[1]Sheet4!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>D36:D48</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[1]Sheet4!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>D3:D4 D20:D23 D25:D35 D11:D18 D6:D9</xm:sqref>
+          <xm:sqref>D3:D4 D20:D45 D11:D18 D6:D9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -30355,10 +30272,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -30401,16 +30318,16 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="87" t="s">
-        <v>60</v>
+      <c r="A2" s="75" t="s">
+        <v>56</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="89"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="77"/>
     </row>
     <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A3" s="49">
@@ -30418,7 +30335,7 @@
       </c>
       <c r="B3" s="50"/>
       <c r="C3" s="51" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D3" s="52" t="s">
         <v>11</v>
@@ -30427,7 +30344,7 @@
         <v>32</v>
       </c>
       <c r="F3" s="53" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="G3" s="54"/>
       <c r="H3" s="54"/>
@@ -30438,7 +30355,7 @@
       </c>
       <c r="B4" s="55"/>
       <c r="C4" s="51" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D4" s="52" t="s">
         <v>11</v>
@@ -30447,7 +30364,7 @@
         <v>33</v>
       </c>
       <c r="F4" s="53" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="G4" s="54"/>
       <c r="H4" s="54"/>
@@ -30458,272 +30375,250 @@
       </c>
       <c r="B5" s="55"/>
       <c r="C5" s="51" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="D5" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="53" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="F5" s="53" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="G5" s="54"/>
       <c r="H5" s="54"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="87" t="s">
-        <v>78</v>
+      <c r="A6" s="75" t="s">
+        <v>98</v>
       </c>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="89"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="77"/>
     </row>
     <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.2">
       <c r="A7" s="49">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" s="50"/>
       <c r="C7" s="51" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D7" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="53" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="F7" s="53" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="G7" s="54"/>
       <c r="H7" s="54"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="87" t="s">
-        <v>81</v>
+      <c r="A8" s="75" t="s">
+        <v>99</v>
       </c>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="89"/>
-    </row>
-    <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.2">
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="77"/>
+    </row>
+    <row r="9" spans="1:8" ht="75" x14ac:dyDescent="0.2">
       <c r="A9" s="49">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" s="50"/>
       <c r="C9" s="51" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="D9" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="53" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="F9" s="53" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="G9" s="54"/>
       <c r="H9" s="54"/>
     </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="87" t="s">
-        <v>58</v>
+    <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+      <c r="A10" s="49">
+        <v>6</v>
       </c>
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="89"/>
-    </row>
-    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.2">
-      <c r="A11" s="49">
+      <c r="B10" s="50"/>
+      <c r="C10" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="76"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="77"/>
+    </row>
+    <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+      <c r="A12" s="49">
         <v>5</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-    </row>
-    <row r="12" spans="1:8" ht="60" x14ac:dyDescent="0.2">
-      <c r="A12" s="49">
-        <v>6</v>
-      </c>
-      <c r="B12" s="55"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="51" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D12" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="53" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F12" s="53" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="G12" s="54"/>
       <c r="H12" s="54"/>
     </row>
     <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.2">
       <c r="A13" s="49">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" s="55"/>
       <c r="C13" s="51" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D13" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="53" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F13" s="53" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="G13" s="54"/>
       <c r="H13" s="54"/>
     </row>
-    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.2">
       <c r="A14" s="49">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="55"/>
       <c r="C14" s="51" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D14" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="53" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F14" s="53" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G14" s="54"/>
       <c r="H14" s="54"/>
     </row>
-    <row r="15" spans="1:8" ht="60" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A15" s="49">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="55"/>
       <c r="C15" s="51" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="D15" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="53" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="F15" s="53" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G15" s="54"/>
       <c r="H15" s="54"/>
     </row>
-    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="87" t="s">
+    <row r="16" spans="1:8" ht="60" x14ac:dyDescent="0.2">
+      <c r="A16" s="49">
+        <v>9</v>
+      </c>
+      <c r="B16" s="55"/>
+      <c r="C16" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="88"/>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="89"/>
-    </row>
-    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.2">
-      <c r="A17" s="49">
-        <v>10</v>
+      <c r="F16" s="53" t="s">
+        <v>69</v>
       </c>
-      <c r="B17" s="56"/>
-      <c r="C17" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="F17" s="53" t="s">
-        <v>75</v>
-      </c>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="58"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
       <c r="G17" s="54"/>
       <c r="H17" s="54"/>
     </row>
-    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.2">
-      <c r="A18" s="49">
-        <v>11</v>
-      </c>
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="58"/>
       <c r="B18" s="57"/>
-      <c r="C18" s="51" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="F18" s="53" t="s">
-        <v>64</v>
-      </c>
+      <c r="C18" s="51"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
       <c r="G18" s="54"/>
       <c r="H18" s="54"/>
     </row>
-    <row r="19" spans="1:8" ht="60" x14ac:dyDescent="0.2">
-      <c r="A19" s="49">
-        <v>12</v>
-      </c>
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="58"/>
       <c r="B19" s="57"/>
-      <c r="C19" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="53" t="s">
-        <v>88</v>
-      </c>
-      <c r="F19" s="53" t="s">
-        <v>80</v>
-      </c>
+      <c r="C19" s="51"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
       <c r="G19" s="54"/>
       <c r="H19" s="54"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A20" s="58"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="51"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="49"/>
       <c r="D20" s="52"/>
       <c r="E20" s="53"/>
       <c r="F20" s="53"/>
@@ -30732,49 +30627,18 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A21" s="58"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="51"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="49"/>
       <c r="D21" s="52"/>
       <c r="E21" s="53"/>
       <c r="F21" s="53"/>
       <c r="G21" s="54"/>
       <c r="H21" s="54"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="58"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="58"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="58"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A11:H11"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A6:H6"/>
   </mergeCells>
@@ -30787,7 +30651,7 @@
           <x14:formula1>
             <xm:f>[1]Sheet4!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>D9 D11:D15 D17:D24 D7 D3:D5</xm:sqref>
+          <xm:sqref>D9:D10 D7 D3:D5 D12:D21</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Improgress/2. Artifact and Deliverable/DetailDesign & Architect/Design/DE_MessageList_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/DetailDesign & Architect/Design/DE_MessageList_Ver1.0.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\DetailDesign &amp; Architect\Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\DetailDesign &amp; Architect\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F9E8B0-221B-4097-9769-F53161DA6C6E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="2" r:id="rId1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="122">
   <si>
     <t>Project Name:</t>
   </si>
@@ -373,12 +374,51 @@
   <si>
     <t>Thông báo lỗi khi nhập thiếu một trong hai trường hoặc thiếu cả hai trường thông tin tên đăng nhập hoặc mật khẩu</t>
   </si>
+  <si>
+    <t>Đổi mật khẩu thành công</t>
+  </si>
+  <si>
+    <t>Thông báo khi người sử dụng thay đổi mật khẩu thành công</t>
+  </si>
+  <si>
+    <t>Email không đúng</t>
+  </si>
+  <si>
+    <t>Thông báo khi người sử dụng nhập sai kí tự hoặc email không tồn tại.</t>
+  </si>
+  <si>
+    <t>MS.IA.002</t>
+  </si>
+  <si>
+    <t>MS.IA.003</t>
+  </si>
+  <si>
+    <t>MS.IW.009</t>
+  </si>
+  <si>
+    <t>MS.IW.010</t>
+  </si>
+  <si>
+    <t>Vui lòng kiểm tra email</t>
+  </si>
+  <si>
+    <t>Thông báo khi người sử dụng xác nhận quên mật khẩu</t>
+  </si>
+  <si>
+    <t>Thông báo khi admin nhập sai kí tự hoặc email không tồn tại.</t>
+  </si>
+  <si>
+    <t>Thông báo khi admin xác nhận quên mật khẩu</t>
+  </si>
+  <si>
+    <t>MS.IA.004</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -482,8 +522,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -499,6 +544,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF2F5496"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -834,7 +885,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1017,6 +1068,19 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1103,7 +1167,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1431,7 +1495,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -1448,18 +1512,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="64"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="69"/>
       <c r="K1" s="24"/>
       <c r="L1" s="24"/>
       <c r="M1" s="24"/>
@@ -1478,16 +1542,16 @@
       <c r="Z1" s="24"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="65"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="67"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="72"/>
       <c r="K2" s="24"/>
       <c r="L2" s="25"/>
       <c r="M2" s="25"/>
@@ -1506,24 +1570,24 @@
       <c r="Z2" s="24"/>
     </row>
     <row r="3" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="65"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="67"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="72"/>
       <c r="K3" s="26"/>
       <c r="L3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="71" t="s">
+      <c r="M3" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="72"/>
+      <c r="N3" s="77"/>
       <c r="O3" s="28"/>
       <c r="P3" s="24"/>
       <c r="Q3" s="24"/>
@@ -1538,24 +1602,24 @@
       <c r="Z3" s="24"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="65"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="67"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="72"/>
       <c r="K4" s="26"/>
       <c r="L4" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="71" t="s">
+      <c r="M4" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="72"/>
+      <c r="N4" s="77"/>
       <c r="O4" s="28"/>
       <c r="P4" s="24"/>
       <c r="Q4" s="24"/>
@@ -1570,24 +1634,24 @@
       <c r="Z4" s="24"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="65"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="67"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="26"/>
       <c r="L5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="71" t="s">
+      <c r="M5" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="72"/>
+      <c r="N5" s="77"/>
       <c r="O5" s="28"/>
       <c r="P5" s="24"/>
       <c r="Q5" s="24"/>
@@ -1602,24 +1666,24 @@
       <c r="Z5" s="24"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="65"/>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="67"/>
+      <c r="A6" s="70"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="72"/>
       <c r="K6" s="26"/>
       <c r="L6" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="71" t="s">
+      <c r="M6" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="72"/>
+      <c r="N6" s="77"/>
       <c r="O6" s="28"/>
       <c r="P6" s="24"/>
       <c r="Q6" s="24"/>
@@ -1634,24 +1698,24 @@
       <c r="Z6" s="24"/>
     </row>
     <row r="7" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="65"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="67"/>
+      <c r="A7" s="70"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="72"/>
       <c r="K7" s="26"/>
       <c r="L7" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="73">
+      <c r="M7" s="78">
         <v>43508</v>
       </c>
-      <c r="N7" s="74"/>
+      <c r="N7" s="79"/>
       <c r="O7" s="28"/>
       <c r="P7" s="24"/>
       <c r="Q7" s="24"/>
@@ -1666,16 +1730,16 @@
       <c r="Z7" s="24"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="65"/>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="67"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="72"/>
       <c r="K8" s="24"/>
       <c r="L8" s="28"/>
       <c r="M8" s="28"/>
@@ -1694,16 +1758,16 @@
       <c r="Z8" s="24"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="65"/>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="67"/>
+      <c r="A9" s="70"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="72"/>
       <c r="K9" s="24"/>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -1722,16 +1786,16 @@
       <c r="Z9" s="24"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="65"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="67"/>
+      <c r="A10" s="70"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="72"/>
       <c r="K10" s="24"/>
       <c r="L10" s="30"/>
       <c r="M10" s="30"/>
@@ -1750,23 +1814,23 @@
       <c r="Z10" s="24"/>
     </row>
     <row r="11" spans="1:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="65"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="67"/>
+      <c r="A11" s="70"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="72"/>
       <c r="K11" s="26"/>
-      <c r="L11" s="68" t="s">
+      <c r="L11" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="M11" s="69"/>
-      <c r="N11" s="69"/>
-      <c r="O11" s="70"/>
+      <c r="M11" s="74"/>
+      <c r="N11" s="74"/>
+      <c r="O11" s="75"/>
       <c r="P11" s="24"/>
       <c r="Q11" s="24"/>
       <c r="R11" s="24"/>
@@ -1780,16 +1844,16 @@
       <c r="Z11" s="24"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="65"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="67"/>
+      <c r="A12" s="70"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="72"/>
       <c r="K12" s="26"/>
       <c r="L12" s="31" t="s">
         <v>1</v>
@@ -1816,16 +1880,16 @@
       <c r="Z12" s="24"/>
     </row>
     <row r="13" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="65"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="67"/>
+      <c r="A13" s="70"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="72"/>
       <c r="K13" s="26"/>
       <c r="L13" s="32" t="s">
         <v>28</v>
@@ -1852,16 +1916,16 @@
       <c r="Z13" s="24"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="65"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="67"/>
+      <c r="A14" s="70"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="72"/>
       <c r="K14" s="26"/>
       <c r="L14" s="36"/>
       <c r="M14" s="37"/>
@@ -1880,16 +1944,16 @@
       <c r="Z14" s="24"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="65"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="67"/>
+      <c r="A15" s="70"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="72"/>
       <c r="K15" s="26"/>
       <c r="L15" s="36"/>
       <c r="M15" s="37"/>
@@ -1908,16 +1972,16 @@
       <c r="Z15" s="24"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="65"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="67"/>
+      <c r="A16" s="70"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="72"/>
       <c r="K16" s="26"/>
       <c r="L16" s="38"/>
       <c r="M16" s="39"/>
@@ -1936,16 +2000,16 @@
       <c r="Z16" s="24"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="65"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="67"/>
+      <c r="A17" s="70"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="72"/>
       <c r="K17" s="26"/>
       <c r="L17" s="38"/>
       <c r="M17" s="39"/>
@@ -1964,16 +2028,16 @@
       <c r="Z17" s="24"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="65"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="67"/>
+      <c r="A18" s="70"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="72"/>
       <c r="K18" s="26"/>
       <c r="L18" s="38"/>
       <c r="M18" s="39"/>
@@ -1992,16 +2056,16 @@
       <c r="Z18" s="24"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="65"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="67"/>
+      <c r="A19" s="70"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="72"/>
       <c r="K19" s="26"/>
       <c r="L19" s="38"/>
       <c r="M19" s="39"/>
@@ -2020,16 +2084,16 @@
       <c r="Z19" s="24"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="65"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="67"/>
+      <c r="A20" s="70"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="72"/>
       <c r="K20" s="26"/>
       <c r="L20" s="38"/>
       <c r="M20" s="39"/>
@@ -29503,11 +29567,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29550,16 +29614,16 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="6" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="77"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="82"/>
     </row>
     <row r="3" spans="1:9" s="6" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="49">
@@ -29603,16 +29667,16 @@
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" s="6" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="77"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="82"/>
     </row>
     <row r="6" spans="1:9" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="49">
@@ -29685,32 +29749,32 @@
       <c r="D9" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="59" t="s">
+      <c r="E9" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="59" t="s">
+      <c r="F9" s="53" t="s">
         <v>75</v>
       </c>
       <c r="G9" s="54"/>
       <c r="H9" s="54"/>
     </row>
     <row r="10" spans="1:9" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="77"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="82"/>
     </row>
     <row r="11" spans="1:9" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="60">
         <v>7</v>
       </c>
-      <c r="B11" s="61"/>
+      <c r="B11" s="57"/>
       <c r="C11" s="51" t="s">
         <v>50</v>
       </c>
@@ -29727,10 +29791,10 @@
       <c r="H11" s="54"/>
     </row>
     <row r="12" spans="1:9" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="58">
+      <c r="A12" s="66">
         <v>8</v>
       </c>
-      <c r="B12" s="61"/>
+      <c r="B12" s="57"/>
       <c r="C12" s="51" t="s">
         <v>51</v>
       </c>
@@ -29747,10 +29811,10 @@
       <c r="H12" s="54"/>
     </row>
     <row r="13" spans="1:9" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="58">
+      <c r="A13" s="66">
         <v>9</v>
       </c>
-      <c r="B13" s="61"/>
+      <c r="B13" s="57"/>
       <c r="C13" s="51" t="s">
         <v>52</v>
       </c>
@@ -29767,10 +29831,10 @@
       <c r="H13" s="54"/>
     </row>
     <row r="14" spans="1:9" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="58">
+      <c r="A14" s="66">
         <v>10</v>
       </c>
-      <c r="B14" s="56"/>
+      <c r="B14" s="57"/>
       <c r="C14" s="51" t="s">
         <v>53</v>
       </c>
@@ -29817,10 +29881,10 @@
       <c r="D16" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="59" t="s">
+      <c r="E16" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="59" t="s">
+      <c r="F16" s="53" t="s">
         <v>75</v>
       </c>
       <c r="G16" s="54"/>
@@ -29837,10 +29901,10 @@
       <c r="D17" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="59" t="s">
+      <c r="E17" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="59" t="s">
+      <c r="F17" s="53" t="s">
         <v>46</v>
       </c>
       <c r="G17" s="54"/>
@@ -29848,7 +29912,7 @@
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="58">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B18" s="57"/>
       <c r="C18" s="51" t="s">
@@ -29866,121 +29930,141 @@
       <c r="G18" s="54"/>
       <c r="H18" s="54"/>
     </row>
-    <row r="19" spans="1:8" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="75" t="s">
-        <v>89</v>
+    <row r="19" spans="1:8" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="58">
+        <v>15</v>
       </c>
-      <c r="B19" s="76"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="77"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="65" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" s="65" t="s">
+        <v>117</v>
+      </c>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
     </row>
     <row r="20" spans="1:8" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="49">
-        <v>14</v>
+      <c r="A20" s="58">
+        <v>16</v>
       </c>
-      <c r="B20" s="50"/>
+      <c r="B20" s="57"/>
       <c r="C20" s="51" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="D20" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="53" t="s">
-        <v>36</v>
+        <v>119</v>
       </c>
       <c r="F20" s="53" t="s">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="G20" s="54"/>
       <c r="H20" s="54"/>
     </row>
-    <row r="21" spans="1:8" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="49">
-        <v>15</v>
+    <row r="21" spans="1:8" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="80" t="s">
+        <v>89</v>
       </c>
-      <c r="B21" s="55"/>
-      <c r="C21" s="51" t="s">
-        <v>91</v>
+      <c r="B21" s="81"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="82"/>
+    </row>
+    <row r="22" spans="1:8" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="49">
+        <v>17</v>
       </c>
-      <c r="D21" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-    </row>
-    <row r="22" spans="1:8" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="49">
-        <v>16</v>
-      </c>
-      <c r="B22" s="61"/>
+      <c r="B22" s="57"/>
       <c r="C22" s="51" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D22" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="53" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="F22" s="53" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="G22" s="54"/>
       <c r="H22" s="54"/>
     </row>
-    <row r="23" spans="1:8" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="49">
-        <v>17</v>
+        <v>18</v>
       </c>
-      <c r="B23" s="61"/>
+      <c r="B23" s="57"/>
       <c r="C23" s="51" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D23" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="59" t="s">
-        <v>74</v>
+      <c r="E23" s="53" t="s">
+        <v>38</v>
       </c>
-      <c r="F23" s="59" t="s">
-        <v>75</v>
+      <c r="F23" s="53" t="s">
+        <v>39</v>
       </c>
       <c r="G23" s="54"/>
       <c r="H23" s="54"/>
     </row>
-    <row r="24" spans="1:8" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="86"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-    </row>
-    <row r="25" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="87"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+    <row r="24" spans="1:8" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="49">
+        <v>19</v>
+      </c>
+      <c r="B24" s="57"/>
+      <c r="C24" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+    </row>
+    <row r="25" spans="1:8" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="49">
+        <v>20</v>
+      </c>
+      <c r="B25" s="57"/>
+      <c r="C25" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
     </row>
     <row r="26" spans="1:8" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
-      <c r="B26" s="87"/>
+      <c r="B26" s="91"/>
       <c r="C26" s="14"/>
       <c r="D26" s="3"/>
       <c r="E26" s="4"/>
@@ -29988,9 +30072,9 @@
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" spans="1:8" s="6" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="88"/>
+      <c r="B27" s="92"/>
       <c r="C27" s="14"/>
       <c r="D27" s="3"/>
       <c r="E27" s="4"/>
@@ -29998,29 +30082,29 @@
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="1:8" s="6" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="89"/>
-      <c r="C28" s="15"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="14"/>
       <c r="D28" s="3"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" s="6" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="B29" s="89"/>
-      <c r="C29" s="15"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="14"/>
       <c r="D29" s="3"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="1:8" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" s="6" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="89"/>
+      <c r="B30" s="94"/>
       <c r="C30" s="15"/>
       <c r="D30" s="3"/>
       <c r="E30" s="4"/>
@@ -30028,11 +30112,11 @@
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="1:8" s="6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
-      <c r="B31" s="86"/>
+      <c r="B31" s="94"/>
       <c r="C31" s="15"/>
-      <c r="D31" s="8"/>
+      <c r="D31" s="3"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="5"/>
@@ -30040,47 +30124,47 @@
     </row>
     <row r="32" spans="1:8" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
-      <c r="B32" s="87"/>
+      <c r="B32" s="94"/>
       <c r="C32" s="15"/>
-      <c r="D32" s="8"/>
+      <c r="D32" s="3"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
     </row>
-    <row r="33" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" s="6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
-      <c r="B33" s="78"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="18"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="4"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-    </row>
-    <row r="34" spans="1:8" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="1:8" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
-      <c r="B34" s="79"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-    </row>
-    <row r="35" spans="1:8" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="92"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
-      <c r="B35" s="80"/>
+      <c r="B35" s="83"/>
       <c r="C35" s="16"/>
       <c r="D35" s="17"/>
       <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
+      <c r="F35" s="4"/>
       <c r="G35" s="19"/>
       <c r="H35" s="19"/>
     </row>
-    <row r="36" spans="1:8" s="6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
-      <c r="B36" s="81"/>
+      <c r="B36" s="84"/>
       <c r="C36" s="16"/>
       <c r="D36" s="17"/>
       <c r="E36" s="18"/>
@@ -30088,9 +30172,9 @@
       <c r="G36" s="19"/>
       <c r="H36" s="19"/>
     </row>
-    <row r="37" spans="1:8" s="6" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
-      <c r="B37" s="81"/>
+      <c r="B37" s="85"/>
       <c r="C37" s="16"/>
       <c r="D37" s="17"/>
       <c r="E37" s="18"/>
@@ -30098,9 +30182,9 @@
       <c r="G37" s="19"/>
       <c r="H37" s="19"/>
     </row>
-    <row r="38" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" s="6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
-      <c r="B38" s="82"/>
+      <c r="B38" s="86"/>
       <c r="C38" s="16"/>
       <c r="D38" s="17"/>
       <c r="E38" s="18"/>
@@ -30108,9 +30192,9 @@
       <c r="G38" s="19"/>
       <c r="H38" s="19"/>
     </row>
-    <row r="39" spans="1:8" s="6" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" s="6" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
-      <c r="B39" s="83"/>
+      <c r="B39" s="86"/>
       <c r="C39" s="16"/>
       <c r="D39" s="17"/>
       <c r="E39" s="18"/>
@@ -30120,7 +30204,7 @@
     </row>
     <row r="40" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
-      <c r="B40" s="84"/>
+      <c r="B40" s="87"/>
       <c r="C40" s="16"/>
       <c r="D40" s="17"/>
       <c r="E40" s="18"/>
@@ -30128,9 +30212,9 @@
       <c r="G40" s="19"/>
       <c r="H40" s="19"/>
     </row>
-    <row r="41" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" s="6" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
-      <c r="B41" s="84"/>
+      <c r="B41" s="88"/>
       <c r="C41" s="16"/>
       <c r="D41" s="17"/>
       <c r="E41" s="18"/>
@@ -30140,7 +30224,7 @@
     </row>
     <row r="42" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
-      <c r="B42" s="84"/>
+      <c r="B42" s="89"/>
       <c r="C42" s="16"/>
       <c r="D42" s="17"/>
       <c r="E42" s="18"/>
@@ -30150,7 +30234,7 @@
     </row>
     <row r="43" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
-      <c r="B43" s="85"/>
+      <c r="B43" s="89"/>
       <c r="C43" s="16"/>
       <c r="D43" s="17"/>
       <c r="E43" s="18"/>
@@ -30160,9 +30244,9 @@
     </row>
     <row r="44" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
-      <c r="B44" s="80"/>
+      <c r="B44" s="89"/>
       <c r="C44" s="16"/>
-      <c r="D44" s="20"/>
+      <c r="D44" s="17"/>
       <c r="E44" s="18"/>
       <c r="F44" s="18"/>
       <c r="G44" s="19"/>
@@ -30170,33 +30254,33 @@
     </row>
     <row r="45" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
-      <c r="B45" s="81"/>
+      <c r="B45" s="90"/>
       <c r="C45" s="16"/>
-      <c r="D45" s="20"/>
+      <c r="D45" s="17"/>
       <c r="E45" s="18"/>
       <c r="F45" s="18"/>
       <c r="G45" s="19"/>
       <c r="H45" s="19"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="85"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+    </row>
+    <row r="47" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
+      <c r="B47" s="86"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
@@ -30238,31 +30322,57 @@
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
     </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="B33:B34"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="B35:B36"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
-            <xm:f>[1]Sheet4!#REF!</xm:f>
+            <xm:f>'C:\Users\US\Downloads\[K22T2-Team8-MessageList-ver0.1.xlsx]Sheet4'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>D3:D4 D20:D45 D11:D18 D6:D9</xm:sqref>
+          <xm:sqref>D3:D4 D22:D47 D6:D9 D11:D18</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{730A7F9D-217B-4758-814F-D818D85CB421}">
+          <x14:formula1>
+            <xm:f>'C:\Users\US\Downloads\[K22T2-Team8-MessageList-ver0.1.xlsx]Sheet4'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>D19:D20</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -30271,11 +30381,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -30318,16 +30428,16 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="77"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="82"/>
     </row>
     <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A3" s="49">
@@ -30390,16 +30500,16 @@
       <c r="H5" s="54"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="80" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="77"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="82"/>
     </row>
     <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.2">
       <c r="A7" s="49">
@@ -30421,204 +30531,234 @@
       <c r="G7" s="54"/>
       <c r="H7" s="54"/>
     </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="75" t="s">
-        <v>99</v>
+    <row r="8" spans="1:8" s="62" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A8" s="49">
+        <v>5</v>
       </c>
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="77"/>
-    </row>
-    <row r="9" spans="1:8" ht="75" x14ac:dyDescent="0.2">
+      <c r="B8" s="64"/>
+      <c r="C8" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+    </row>
+    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A9" s="49">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" s="50"/>
       <c r="C9" s="51" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="D9" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="53" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F9" s="53" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="G9" s="54"/>
       <c r="H9" s="54"/>
     </row>
     <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A10" s="49">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" s="50"/>
       <c r="C10" s="51" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="D10" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="53" t="s">
-        <v>103</v>
+      <c r="E10" s="65" t="s">
+        <v>118</v>
       </c>
-      <c r="F10" s="53" t="s">
-        <v>104</v>
+      <c r="F10" s="65" t="s">
+        <v>117</v>
       </c>
       <c r="G10" s="54"/>
       <c r="H10" s="54"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="75" t="s">
-        <v>54</v>
+      <c r="A11" s="80" t="s">
+        <v>99</v>
       </c>
-      <c r="B11" s="76"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="77"/>
-    </row>
-    <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="82"/>
+    </row>
+    <row r="12" spans="1:8" ht="75" x14ac:dyDescent="0.2">
       <c r="A12" s="49">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B12" s="50"/>
       <c r="C12" s="51" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="D12" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="53" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="F12" s="53" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="G12" s="54"/>
       <c r="H12" s="54"/>
     </row>
-    <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A13" s="49">
-        <v>6</v>
+        <v>9</v>
       </c>
-      <c r="B13" s="55"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="51" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="D13" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="53" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="F13" s="53" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="G13" s="54"/>
       <c r="H13" s="54"/>
     </row>
-    <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.2">
-      <c r="A14" s="49">
-        <v>7</v>
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="80" t="s">
+        <v>54</v>
       </c>
-      <c r="B14" s="55"/>
-      <c r="C14" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="53" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="82"/>
     </row>
     <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A15" s="49">
-        <v>8</v>
+        <v>10</v>
       </c>
-      <c r="B15" s="55"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="51" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D15" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="53" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F15" s="53" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="G15" s="54"/>
       <c r="H15" s="54"/>
     </row>
     <row r="16" spans="1:8" ht="60" x14ac:dyDescent="0.2">
       <c r="A16" s="49">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B16" s="55"/>
       <c r="C16" s="51" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D16" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="53" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F16" s="53" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="G16" s="54"/>
       <c r="H16" s="54"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="58"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
+    <row r="17" spans="1:8" ht="60" x14ac:dyDescent="0.2">
+      <c r="A17" s="49">
+        <v>12</v>
+      </c>
+      <c r="B17" s="55"/>
+      <c r="C17" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="53" t="s">
+        <v>65</v>
+      </c>
       <c r="G17" s="54"/>
       <c r="H17" s="54"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="58"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
+    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+      <c r="A18" s="49">
+        <v>13</v>
+      </c>
+      <c r="B18" s="55"/>
+      <c r="C18" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="53" t="s">
+        <v>60</v>
+      </c>
       <c r="G18" s="54"/>
       <c r="H18" s="54"/>
     </row>
-    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="58"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
+    <row r="19" spans="1:8" ht="60" x14ac:dyDescent="0.2">
+      <c r="A19" s="49">
+        <v>14</v>
+      </c>
+      <c r="B19" s="55"/>
+      <c r="C19" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="53" t="s">
+        <v>69</v>
+      </c>
       <c r="G19" s="54"/>
       <c r="H19" s="54"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A20" s="58"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="49"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="51"/>
       <c r="D20" s="52"/>
       <c r="E20" s="53"/>
       <c r="F20" s="53"/>
@@ -30627,31 +30767,62 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A21" s="58"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="49"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="51"/>
       <c r="D21" s="52"/>
       <c r="E21" s="53"/>
       <c r="F21" s="53"/>
       <c r="G21" s="54"/>
       <c r="H21" s="54"/>
     </row>
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="58"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="58"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="58"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A8:H8"/>
     <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A14:H14"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A6:H6"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
           <x14:formula1>
-            <xm:f>[1]Sheet4!#REF!</xm:f>
+            <xm:f>'C:\Users\US\Downloads\[K22T2-Team8-MessageList-ver0.1.xlsx]Sheet4'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>D9:D10 D7 D3:D5 D12:D21</xm:sqref>
+          <xm:sqref>D12:D13 D3:D5 D15:D24 D7:D10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -30660,7 +30831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A3:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Improgress/2. Artifact and Deliverable/DetailDesign & Architect/Design/DE_MessageList_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/DetailDesign & Architect/Design/DE_MessageList_Ver1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\DetailDesign &amp; Architect\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F9E8B0-221B-4097-9769-F53161DA6C6E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B5662D-798C-41D4-8CE0-9925E67293C3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   <externalReferences>
     <externalReference r:id="rId5"/>
   </externalReferences>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="140">
   <si>
     <t>Project Name:</t>
   </si>
@@ -408,10 +408,64 @@
     <t>Thông báo khi admin nhập sai kí tự hoặc email không tồn tại.</t>
   </si>
   <si>
-    <t>Thông báo khi admin xác nhận quên mật khẩu</t>
+    <t>MS.IA.004</t>
   </si>
   <si>
-    <t>MS.IA.004</t>
+    <t>FR.02</t>
+  </si>
+  <si>
+    <t>FR.05</t>
+  </si>
+  <si>
+    <t>FR.01, 02</t>
+  </si>
+  <si>
+    <t>FR.03, 04</t>
+  </si>
+  <si>
+    <t>FR.07</t>
+  </si>
+  <si>
+    <t>FR.09</t>
+  </si>
+  <si>
+    <t>FR.07, 09</t>
+  </si>
+  <si>
+    <t>FR.10</t>
+  </si>
+  <si>
+    <t>FR.07, 09, 10, 11</t>
+  </si>
+  <si>
+    <t>FR.14</t>
+  </si>
+  <si>
+    <t>Thông báo kiểm tra và xác nhận thay đổi email</t>
+  </si>
+  <si>
+    <t>FR.17</t>
+  </si>
+  <si>
+    <t>FR.18</t>
+  </si>
+  <si>
+    <t>FR.17, 18</t>
+  </si>
+  <si>
+    <t>FR.14.2</t>
+  </si>
+  <si>
+    <t>Vui lòng nhập đúng mật khẩu hiện tại</t>
+  </si>
+  <si>
+    <t>Thông báo khi người sử dụng nhập sai mật khẩu cũ</t>
+  </si>
+  <si>
+    <t>MS.IA.005</t>
+  </si>
+  <si>
+    <t>FR.14.1</t>
   </si>
 </sst>
 </file>
@@ -885,7 +939,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1065,14 +1119,8 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1120,21 +1168,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1164,6 +1197,36 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1512,18 +1575,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="69"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="67"/>
       <c r="K1" s="24"/>
       <c r="L1" s="24"/>
       <c r="M1" s="24"/>
@@ -1542,16 +1605,16 @@
       <c r="Z1" s="24"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="70"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="72"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="70"/>
       <c r="K2" s="24"/>
       <c r="L2" s="25"/>
       <c r="M2" s="25"/>
@@ -1570,24 +1633,24 @@
       <c r="Z2" s="24"/>
     </row>
     <row r="3" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="70"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="72"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="70"/>
       <c r="K3" s="26"/>
       <c r="L3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="76" t="s">
+      <c r="M3" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="77"/>
+      <c r="N3" s="75"/>
       <c r="O3" s="28"/>
       <c r="P3" s="24"/>
       <c r="Q3" s="24"/>
@@ -1602,24 +1665,24 @@
       <c r="Z3" s="24"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="70"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="72"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
       <c r="K4" s="26"/>
       <c r="L4" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="76" t="s">
+      <c r="M4" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="77"/>
+      <c r="N4" s="75"/>
       <c r="O4" s="28"/>
       <c r="P4" s="24"/>
       <c r="Q4" s="24"/>
@@ -1634,24 +1697,24 @@
       <c r="Z4" s="24"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="70"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="72"/>
+      <c r="A5" s="68"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="26"/>
       <c r="L5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="76" t="s">
+      <c r="M5" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="77"/>
+      <c r="N5" s="75"/>
       <c r="O5" s="28"/>
       <c r="P5" s="24"/>
       <c r="Q5" s="24"/>
@@ -1666,24 +1729,24 @@
       <c r="Z5" s="24"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="70"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="72"/>
+      <c r="A6" s="68"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="70"/>
       <c r="K6" s="26"/>
       <c r="L6" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="76" t="s">
+      <c r="M6" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="77"/>
+      <c r="N6" s="75"/>
       <c r="O6" s="28"/>
       <c r="P6" s="24"/>
       <c r="Q6" s="24"/>
@@ -1698,24 +1761,24 @@
       <c r="Z6" s="24"/>
     </row>
     <row r="7" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="70"/>
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="72"/>
+      <c r="A7" s="68"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="70"/>
       <c r="K7" s="26"/>
       <c r="L7" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="78">
+      <c r="M7" s="76">
         <v>43508</v>
       </c>
-      <c r="N7" s="79"/>
+      <c r="N7" s="77"/>
       <c r="O7" s="28"/>
       <c r="P7" s="24"/>
       <c r="Q7" s="24"/>
@@ -1730,16 +1793,16 @@
       <c r="Z7" s="24"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="70"/>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="72"/>
+      <c r="A8" s="68"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="70"/>
       <c r="K8" s="24"/>
       <c r="L8" s="28"/>
       <c r="M8" s="28"/>
@@ -1758,16 +1821,16 @@
       <c r="Z8" s="24"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="70"/>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="72"/>
+      <c r="A9" s="68"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="70"/>
       <c r="K9" s="24"/>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -1786,16 +1849,16 @@
       <c r="Z9" s="24"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="70"/>
-      <c r="B10" s="71"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="72"/>
+      <c r="A10" s="68"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="70"/>
       <c r="K10" s="24"/>
       <c r="L10" s="30"/>
       <c r="M10" s="30"/>
@@ -1814,23 +1877,23 @@
       <c r="Z10" s="24"/>
     </row>
     <row r="11" spans="1:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="70"/>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="72"/>
+      <c r="A11" s="68"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="70"/>
       <c r="K11" s="26"/>
-      <c r="L11" s="73" t="s">
+      <c r="L11" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="M11" s="74"/>
-      <c r="N11" s="74"/>
-      <c r="O11" s="75"/>
+      <c r="M11" s="72"/>
+      <c r="N11" s="72"/>
+      <c r="O11" s="73"/>
       <c r="P11" s="24"/>
       <c r="Q11" s="24"/>
       <c r="R11" s="24"/>
@@ -1844,16 +1907,16 @@
       <c r="Z11" s="24"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="70"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="72"/>
+      <c r="A12" s="68"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="70"/>
       <c r="K12" s="26"/>
       <c r="L12" s="31" t="s">
         <v>1</v>
@@ -1880,16 +1943,16 @@
       <c r="Z12" s="24"/>
     </row>
     <row r="13" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="70"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="72"/>
+      <c r="A13" s="68"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="70"/>
       <c r="K13" s="26"/>
       <c r="L13" s="32" t="s">
         <v>28</v>
@@ -1916,16 +1979,16 @@
       <c r="Z13" s="24"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="70"/>
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="72"/>
+      <c r="A14" s="68"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="70"/>
       <c r="K14" s="26"/>
       <c r="L14" s="36"/>
       <c r="M14" s="37"/>
@@ -1944,16 +2007,16 @@
       <c r="Z14" s="24"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="70"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="72"/>
+      <c r="A15" s="68"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="70"/>
       <c r="K15" s="26"/>
       <c r="L15" s="36"/>
       <c r="M15" s="37"/>
@@ -1972,16 +2035,16 @@
       <c r="Z15" s="24"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="70"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="72"/>
+      <c r="A16" s="68"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="70"/>
       <c r="K16" s="26"/>
       <c r="L16" s="38"/>
       <c r="M16" s="39"/>
@@ -2000,16 +2063,16 @@
       <c r="Z16" s="24"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="70"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="72"/>
+      <c r="A17" s="68"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="70"/>
       <c r="K17" s="26"/>
       <c r="L17" s="38"/>
       <c r="M17" s="39"/>
@@ -2028,16 +2091,16 @@
       <c r="Z17" s="24"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="70"/>
-      <c r="B18" s="71"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="72"/>
+      <c r="A18" s="68"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="70"/>
       <c r="K18" s="26"/>
       <c r="L18" s="38"/>
       <c r="M18" s="39"/>
@@ -2056,16 +2119,16 @@
       <c r="Z18" s="24"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="70"/>
-      <c r="B19" s="71"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="71"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="72"/>
+      <c r="A19" s="68"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="70"/>
       <c r="K19" s="26"/>
       <c r="L19" s="38"/>
       <c r="M19" s="39"/>
@@ -2084,16 +2147,16 @@
       <c r="Z19" s="24"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="70"/>
-      <c r="B20" s="71"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="72"/>
+      <c r="A20" s="68"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="70"/>
       <c r="K20" s="26"/>
       <c r="L20" s="38"/>
       <c r="M20" s="39"/>
@@ -29570,8 +29633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19:F19"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29614,22 +29677,24 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="6" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="90"/>
     </row>
     <row r="3" spans="1:9" s="6" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="49">
         <v>1</v>
       </c>
-      <c r="B3" s="50"/>
+      <c r="B3" s="50" t="s">
+        <v>124</v>
+      </c>
       <c r="C3" s="51" t="s">
         <v>31</v>
       </c>
@@ -29649,7 +29714,9 @@
       <c r="A4" s="49">
         <v>2</v>
       </c>
-      <c r="B4" s="55"/>
+      <c r="B4" s="55" t="s">
+        <v>124</v>
+      </c>
       <c r="C4" s="51" t="s">
         <v>34</v>
       </c>
@@ -29667,22 +29734,24 @@
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" s="6" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="88" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="82"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="90"/>
     </row>
     <row r="6" spans="1:9" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="49">
         <v>3</v>
       </c>
-      <c r="B6" s="50"/>
+      <c r="B6" s="50" t="s">
+        <v>132</v>
+      </c>
       <c r="C6" s="51" t="s">
         <v>48</v>
       </c>
@@ -29702,7 +29771,9 @@
       <c r="A7" s="49">
         <v>4</v>
       </c>
-      <c r="B7" s="55"/>
+      <c r="B7" s="50" t="s">
+        <v>133</v>
+      </c>
       <c r="C7" s="51" t="s">
         <v>49</v>
       </c>
@@ -29718,11 +29789,13 @@
       <c r="G7" s="54"/>
       <c r="H7" s="54"/>
     </row>
-    <row r="8" spans="1:9" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="6" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="49">
         <v>5</v>
       </c>
-      <c r="B8" s="61"/>
+      <c r="B8" s="93" t="s">
+        <v>134</v>
+      </c>
       <c r="C8" s="51" t="s">
         <v>35</v>
       </c>
@@ -29738,11 +29811,11 @@
       <c r="G8" s="54"/>
       <c r="H8" s="54"/>
     </row>
-    <row r="9" spans="1:9" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="6" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="49">
         <v>6</v>
       </c>
-      <c r="B9" s="61"/>
+      <c r="B9" s="95"/>
       <c r="C9" s="51" t="s">
         <v>76</v>
       </c>
@@ -29759,22 +29832,24 @@
       <c r="H9" s="54"/>
     </row>
     <row r="10" spans="1:9" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="80" t="s">
+      <c r="A10" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="82"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="90"/>
     </row>
     <row r="11" spans="1:9" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="60">
         <v>7</v>
       </c>
-      <c r="B11" s="57"/>
+      <c r="B11" s="57" t="s">
+        <v>125</v>
+      </c>
       <c r="C11" s="51" t="s">
         <v>50</v>
       </c>
@@ -29791,10 +29866,12 @@
       <c r="H11" s="54"/>
     </row>
     <row r="12" spans="1:9" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="66">
+      <c r="A12" s="64">
         <v>8</v>
       </c>
-      <c r="B12" s="57"/>
+      <c r="B12" s="57" t="s">
+        <v>127</v>
+      </c>
       <c r="C12" s="51" t="s">
         <v>51</v>
       </c>
@@ -29811,10 +29888,12 @@
       <c r="H12" s="54"/>
     </row>
     <row r="13" spans="1:9" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="66">
+      <c r="A13" s="64">
         <v>9</v>
       </c>
-      <c r="B13" s="57"/>
+      <c r="B13" s="57" t="s">
+        <v>126</v>
+      </c>
       <c r="C13" s="51" t="s">
         <v>52</v>
       </c>
@@ -29831,10 +29910,12 @@
       <c r="H13" s="54"/>
     </row>
     <row r="14" spans="1:9" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="66">
+      <c r="A14" s="64">
         <v>10</v>
       </c>
-      <c r="B14" s="57"/>
+      <c r="B14" s="57" t="s">
+        <v>128</v>
+      </c>
       <c r="C14" s="51" t="s">
         <v>53</v>
       </c>
@@ -29874,7 +29955,9 @@
       <c r="A16" s="58">
         <v>12</v>
       </c>
-      <c r="B16" s="57"/>
+      <c r="B16" s="57" t="s">
+        <v>129</v>
+      </c>
       <c r="C16" s="51" t="s">
         <v>81</v>
       </c>
@@ -29934,17 +30017,19 @@
       <c r="A19" s="58">
         <v>15</v>
       </c>
-      <c r="B19" s="57"/>
+      <c r="B19" s="93" t="s">
+        <v>130</v>
+      </c>
       <c r="C19" s="51" t="s">
         <v>115</v>
       </c>
       <c r="D19" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="65" t="s">
-        <v>120</v>
+      <c r="E19" s="63" t="s">
+        <v>131</v>
       </c>
-      <c r="F19" s="65" t="s">
+      <c r="F19" s="63" t="s">
         <v>117</v>
       </c>
       <c r="G19" s="54"/>
@@ -29954,7 +30039,7 @@
       <c r="A20" s="58">
         <v>16</v>
       </c>
-      <c r="B20" s="57"/>
+      <c r="B20" s="94"/>
       <c r="C20" s="51" t="s">
         <v>116</v>
       </c>
@@ -29971,16 +30056,16 @@
       <c r="H20" s="54"/>
     </row>
     <row r="21" spans="1:8" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="80" t="s">
+      <c r="A21" s="88" t="s">
         <v>89</v>
       </c>
-      <c r="B21" s="81"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="82"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="90"/>
     </row>
     <row r="22" spans="1:8" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="49">
@@ -30064,7 +30149,7 @@
     </row>
     <row r="26" spans="1:8" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
-      <c r="B26" s="91"/>
+      <c r="B26" s="84"/>
       <c r="C26" s="14"/>
       <c r="D26" s="3"/>
       <c r="E26" s="4"/>
@@ -30074,7 +30159,7 @@
     </row>
     <row r="27" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="92"/>
+      <c r="B27" s="85"/>
       <c r="C27" s="14"/>
       <c r="D27" s="3"/>
       <c r="E27" s="4"/>
@@ -30084,7 +30169,7 @@
     </row>
     <row r="28" spans="1:8" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="92"/>
+      <c r="B28" s="85"/>
       <c r="C28" s="14"/>
       <c r="D28" s="3"/>
       <c r="E28" s="4"/>
@@ -30094,7 +30179,7 @@
     </row>
     <row r="29" spans="1:8" s="6" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="B29" s="93"/>
+      <c r="B29" s="86"/>
       <c r="C29" s="14"/>
       <c r="D29" s="3"/>
       <c r="E29" s="4"/>
@@ -30104,7 +30189,7 @@
     </row>
     <row r="30" spans="1:8" s="6" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="94"/>
+      <c r="B30" s="87"/>
       <c r="C30" s="15"/>
       <c r="D30" s="3"/>
       <c r="E30" s="4"/>
@@ -30114,7 +30199,7 @@
     </row>
     <row r="31" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
-      <c r="B31" s="94"/>
+      <c r="B31" s="87"/>
       <c r="C31" s="15"/>
       <c r="D31" s="3"/>
       <c r="E31" s="4"/>
@@ -30124,7 +30209,7 @@
     </row>
     <row r="32" spans="1:8" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
-      <c r="B32" s="94"/>
+      <c r="B32" s="87"/>
       <c r="C32" s="15"/>
       <c r="D32" s="3"/>
       <c r="E32" s="4"/>
@@ -30134,7 +30219,7 @@
     </row>
     <row r="33" spans="1:8" s="6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
-      <c r="B33" s="91"/>
+      <c r="B33" s="84"/>
       <c r="C33" s="15"/>
       <c r="D33" s="8"/>
       <c r="E33" s="4"/>
@@ -30144,7 +30229,7 @@
     </row>
     <row r="34" spans="1:8" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
-      <c r="B34" s="92"/>
+      <c r="B34" s="85"/>
       <c r="C34" s="15"/>
       <c r="D34" s="8"/>
       <c r="E34" s="4"/>
@@ -30154,7 +30239,7 @@
     </row>
     <row r="35" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
-      <c r="B35" s="83"/>
+      <c r="B35" s="91"/>
       <c r="C35" s="16"/>
       <c r="D35" s="17"/>
       <c r="E35" s="18"/>
@@ -30164,7 +30249,7 @@
     </row>
     <row r="36" spans="1:8" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
-      <c r="B36" s="84"/>
+      <c r="B36" s="92"/>
       <c r="C36" s="16"/>
       <c r="D36" s="17"/>
       <c r="E36" s="18"/>
@@ -30174,7 +30259,7 @@
     </row>
     <row r="37" spans="1:8" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
-      <c r="B37" s="85"/>
+      <c r="B37" s="78"/>
       <c r="C37" s="16"/>
       <c r="D37" s="17"/>
       <c r="E37" s="18"/>
@@ -30184,7 +30269,7 @@
     </row>
     <row r="38" spans="1:8" s="6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
-      <c r="B38" s="86"/>
+      <c r="B38" s="79"/>
       <c r="C38" s="16"/>
       <c r="D38" s="17"/>
       <c r="E38" s="18"/>
@@ -30194,7 +30279,7 @@
     </row>
     <row r="39" spans="1:8" s="6" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
-      <c r="B39" s="86"/>
+      <c r="B39" s="79"/>
       <c r="C39" s="16"/>
       <c r="D39" s="17"/>
       <c r="E39" s="18"/>
@@ -30204,7 +30289,7 @@
     </row>
     <row r="40" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
-      <c r="B40" s="87"/>
+      <c r="B40" s="80"/>
       <c r="C40" s="16"/>
       <c r="D40" s="17"/>
       <c r="E40" s="18"/>
@@ -30214,7 +30299,7 @@
     </row>
     <row r="41" spans="1:8" s="6" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
-      <c r="B41" s="88"/>
+      <c r="B41" s="81"/>
       <c r="C41" s="16"/>
       <c r="D41" s="17"/>
       <c r="E41" s="18"/>
@@ -30224,7 +30309,7 @@
     </row>
     <row r="42" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
-      <c r="B42" s="89"/>
+      <c r="B42" s="82"/>
       <c r="C42" s="16"/>
       <c r="D42" s="17"/>
       <c r="E42" s="18"/>
@@ -30234,7 +30319,7 @@
     </row>
     <row r="43" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
-      <c r="B43" s="89"/>
+      <c r="B43" s="82"/>
       <c r="C43" s="16"/>
       <c r="D43" s="17"/>
       <c r="E43" s="18"/>
@@ -30244,7 +30329,7 @@
     </row>
     <row r="44" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
-      <c r="B44" s="89"/>
+      <c r="B44" s="82"/>
       <c r="C44" s="16"/>
       <c r="D44" s="17"/>
       <c r="E44" s="18"/>
@@ -30254,7 +30339,7 @@
     </row>
     <row r="45" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
-      <c r="B45" s="90"/>
+      <c r="B45" s="83"/>
       <c r="C45" s="16"/>
       <c r="D45" s="17"/>
       <c r="E45" s="18"/>
@@ -30264,7 +30349,7 @@
     </row>
     <row r="46" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
-      <c r="B46" s="85"/>
+      <c r="B46" s="78"/>
       <c r="C46" s="16"/>
       <c r="D46" s="20"/>
       <c r="E46" s="18"/>
@@ -30274,7 +30359,7 @@
     </row>
     <row r="47" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
-      <c r="B47" s="86"/>
+      <c r="B47" s="79"/>
       <c r="C47" s="16"/>
       <c r="D47" s="20"/>
       <c r="E47" s="18"/>
@@ -30343,18 +30428,20 @@
       <c r="H53" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B8:B9"/>
     <mergeCell ref="B37:B40"/>
     <mergeCell ref="B41:B45"/>
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="B29:B32"/>
     <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="B35:B36"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30382,10 +30469,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -30428,22 +30515,24 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="90"/>
     </row>
     <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A3" s="49">
         <v>1</v>
       </c>
-      <c r="B3" s="50"/>
+      <c r="B3" s="93" t="s">
+        <v>123</v>
+      </c>
       <c r="C3" s="51" t="s">
         <v>55</v>
       </c>
@@ -30463,7 +30552,7 @@
       <c r="A4" s="49">
         <v>2</v>
       </c>
-      <c r="B4" s="55"/>
+      <c r="B4" s="94"/>
       <c r="C4" s="51" t="s">
         <v>57</v>
       </c>
@@ -30483,7 +30572,9 @@
       <c r="A5" s="49">
         <v>3</v>
       </c>
-      <c r="B5" s="55"/>
+      <c r="B5" s="55" t="s">
+        <v>121</v>
+      </c>
       <c r="C5" s="51" t="s">
         <v>83</v>
       </c>
@@ -30500,22 +30591,24 @@
       <c r="H5" s="54"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="88" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="82"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="90"/>
     </row>
     <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.2">
       <c r="A7" s="49">
         <v>4</v>
       </c>
-      <c r="B7" s="50"/>
+      <c r="B7" s="50" t="s">
+        <v>122</v>
+      </c>
       <c r="C7" s="51" t="s">
         <v>68</v>
       </c>
@@ -30531,166 +30624,170 @@
       <c r="G7" s="54"/>
       <c r="H7" s="54"/>
     </row>
-    <row r="8" spans="1:8" s="62" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A8" s="49">
         <v>5</v>
       </c>
-      <c r="B8" s="64"/>
+      <c r="B8" s="96" t="s">
+        <v>139</v>
+      </c>
       <c r="C8" s="51" t="s">
         <v>113</v>
       </c>
       <c r="D8" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="65" t="s">
-        <v>110</v>
+      <c r="E8" s="63" t="s">
+        <v>137</v>
       </c>
-      <c r="F8" s="65" t="s">
-        <v>109</v>
+      <c r="F8" s="53" t="s">
+        <v>136</v>
       </c>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-    </row>
-    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+    </row>
+    <row r="9" spans="1:8" s="61" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A9" s="49">
         <v>6</v>
       </c>
-      <c r="B9" s="50"/>
+      <c r="B9" s="97"/>
       <c r="C9" s="51" t="s">
         <v>114</v>
       </c>
       <c r="D9" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="53" t="s">
-        <v>112</v>
+      <c r="E9" s="63" t="s">
+        <v>110</v>
       </c>
-      <c r="F9" s="53" t="s">
-        <v>111</v>
+      <c r="F9" s="63" t="s">
+        <v>109</v>
       </c>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
     </row>
     <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A10" s="49">
         <v>7</v>
       </c>
-      <c r="B10" s="50"/>
+      <c r="B10" s="96" t="s">
+        <v>135</v>
+      </c>
       <c r="C10" s="51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D10" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="65" t="s">
-        <v>118</v>
+      <c r="E10" s="53" t="s">
+        <v>112</v>
       </c>
-      <c r="F10" s="65" t="s">
-        <v>117</v>
+      <c r="F10" s="53" t="s">
+        <v>111</v>
       </c>
       <c r="G10" s="54"/>
       <c r="H10" s="54"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="80" t="s">
+    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+      <c r="A11" s="49">
+        <v>8</v>
+      </c>
+      <c r="B11" s="97"/>
+      <c r="C11" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="63" t="s">
+        <v>118</v>
+      </c>
+      <c r="F11" s="63" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="88" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="82"/>
-    </row>
-    <row r="12" spans="1:8" ht="75" x14ac:dyDescent="0.2">
-      <c r="A12" s="49">
-        <v>8</v>
-      </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="D12" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="53" t="s">
-        <v>105</v>
-      </c>
-      <c r="F12" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-    </row>
-    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+      <c r="B12" s="89"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="90"/>
+    </row>
+    <row r="13" spans="1:8" ht="75" x14ac:dyDescent="0.2">
       <c r="A13" s="49">
         <v>9</v>
       </c>
       <c r="B13" s="50"/>
       <c r="C13" s="51" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D13" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="53" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F13" s="53" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G13" s="54"/>
       <c r="H13" s="54"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="80" t="s">
+    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+      <c r="A14" s="49">
+        <v>10</v>
+      </c>
+      <c r="B14" s="50"/>
+      <c r="C14" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="82"/>
-    </row>
-    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.2">
-      <c r="A15" s="49">
-        <v>10</v>
-      </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-    </row>
-    <row r="16" spans="1:8" ht="60" x14ac:dyDescent="0.2">
+      <c r="B15" s="89"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="90"/>
+    </row>
+    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A16" s="49">
         <v>11</v>
       </c>
-      <c r="B16" s="55"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="51" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D16" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F16" s="53" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="G16" s="54"/>
       <c r="H16" s="54"/>
@@ -30701,67 +30798,77 @@
       </c>
       <c r="B17" s="55"/>
       <c r="C17" s="51" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D17" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="53" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F17" s="53" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G17" s="54"/>
       <c r="H17" s="54"/>
     </row>
-    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="60" x14ac:dyDescent="0.2">
       <c r="A18" s="49">
         <v>13</v>
       </c>
       <c r="B18" s="55"/>
       <c r="C18" s="51" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D18" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="53" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F18" s="53" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G18" s="54"/>
       <c r="H18" s="54"/>
     </row>
-    <row r="19" spans="1:8" ht="60" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A19" s="49">
         <v>14</v>
       </c>
       <c r="B19" s="55"/>
       <c r="C19" s="51" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D19" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="53" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F19" s="53" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="G19" s="54"/>
       <c r="H19" s="54"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="58"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
+    <row r="20" spans="1:8" ht="60" x14ac:dyDescent="0.2">
+      <c r="A20" s="49">
+        <v>15</v>
+      </c>
+      <c r="B20" s="55"/>
+      <c r="C20" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="53" t="s">
+        <v>69</v>
+      </c>
       <c r="G20" s="54"/>
       <c r="H20" s="54"/>
     </row>
@@ -30787,8 +30894,8 @@
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A23" s="58"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="49"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="51"/>
       <c r="D23" s="52"/>
       <c r="E23" s="53"/>
       <c r="F23" s="53"/>
@@ -30797,7 +30904,7 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A24" s="58"/>
-      <c r="B24" s="56"/>
+      <c r="B24" s="50"/>
       <c r="C24" s="49"/>
       <c r="D24" s="52"/>
       <c r="E24" s="53"/>
@@ -30805,12 +30912,25 @@
       <c r="G24" s="54"/>
       <c r="H24" s="54"/>
     </row>
+    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="58"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A14:H14"/>
+  <mergeCells count="7">
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A15:H15"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A6:H6"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B8:B9"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30822,7 +30942,7 @@
           <x14:formula1>
             <xm:f>'C:\Users\US\Downloads\[K22T2-Team8-MessageList-ver0.1.xlsx]Sheet4'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>D12:D13 D3:D5 D15:D24 D7:D10</xm:sqref>
+          <xm:sqref>D13:D14 D3:D5 D16:D25 D7:D11</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Improgress/2. Artifact and Deliverable/DetailDesign & Architect/Design/DE_MessageList_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/DetailDesign & Architect/Design/DE_MessageList_Ver1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\DetailDesign &amp; Architect\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B5662D-798C-41D4-8CE0-9925E67293C3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B961CDDF-71B1-47A7-BD7F-F5D8C0CACA20}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="144">
   <si>
     <t>Project Name:</t>
   </si>
@@ -466,6 +466,18 @@
   </si>
   <si>
     <t>FR.14.1</t>
+  </si>
+  <si>
+    <t>FR.27</t>
+  </si>
+  <si>
+    <t>FR.28</t>
+  </si>
+  <si>
+    <t>FR.27, 28</t>
+  </si>
+  <si>
+    <t>FR.34, 36, 38, 40, 42, 44</t>
   </si>
 </sst>
 </file>
@@ -1168,6 +1180,30 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1196,30 +1232,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -29633,8 +29645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29677,16 +29689,16 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="6" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="90"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="80"/>
     </row>
     <row r="3" spans="1:9" s="6" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="49">
@@ -29734,16 +29746,16 @@
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" s="6" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="88" t="s">
+      <c r="A5" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="90"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="80"/>
     </row>
     <row r="6" spans="1:9" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="49">
@@ -29793,7 +29805,7 @@
       <c r="A8" s="49">
         <v>5</v>
       </c>
-      <c r="B8" s="93" t="s">
+      <c r="B8" s="83" t="s">
         <v>134</v>
       </c>
       <c r="C8" s="51" t="s">
@@ -29815,7 +29827,7 @@
       <c r="A9" s="49">
         <v>6</v>
       </c>
-      <c r="B9" s="95"/>
+      <c r="B9" s="85"/>
       <c r="C9" s="51" t="s">
         <v>76</v>
       </c>
@@ -29832,16 +29844,16 @@
       <c r="H9" s="54"/>
     </row>
     <row r="10" spans="1:9" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="88" t="s">
+      <c r="A10" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="89"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="90"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="80"/>
     </row>
     <row r="11" spans="1:9" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="60">
@@ -30017,7 +30029,7 @@
       <c r="A19" s="58">
         <v>15</v>
       </c>
-      <c r="B19" s="93" t="s">
+      <c r="B19" s="83" t="s">
         <v>130</v>
       </c>
       <c r="C19" s="51" t="s">
@@ -30039,7 +30051,7 @@
       <c r="A20" s="58">
         <v>16</v>
       </c>
-      <c r="B20" s="94"/>
+      <c r="B20" s="84"/>
       <c r="C20" s="51" t="s">
         <v>116</v>
       </c>
@@ -30056,22 +30068,24 @@
       <c r="H20" s="54"/>
     </row>
     <row r="21" spans="1:8" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="88" t="s">
+      <c r="A21" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="B21" s="89"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="90"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="80"/>
     </row>
     <row r="22" spans="1:8" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="49">
         <v>17</v>
       </c>
-      <c r="B22" s="57"/>
+      <c r="B22" s="57" t="s">
+        <v>140</v>
+      </c>
       <c r="C22" s="51" t="s">
         <v>90</v>
       </c>
@@ -30091,7 +30105,9 @@
       <c r="A23" s="49">
         <v>18</v>
       </c>
-      <c r="B23" s="57"/>
+      <c r="B23" s="57" t="s">
+        <v>141</v>
+      </c>
       <c r="C23" s="51" t="s">
         <v>91</v>
       </c>
@@ -30107,11 +30123,13 @@
       <c r="G23" s="54"/>
       <c r="H23" s="54"/>
     </row>
-    <row r="24" spans="1:8" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" s="6" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="49">
         <v>19</v>
       </c>
-      <c r="B24" s="57"/>
+      <c r="B24" s="83" t="s">
+        <v>142</v>
+      </c>
       <c r="C24" s="51" t="s">
         <v>92</v>
       </c>
@@ -30127,11 +30145,11 @@
       <c r="G24" s="54"/>
       <c r="H24" s="54"/>
     </row>
-    <row r="25" spans="1:8" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" s="6" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="49">
         <v>20</v>
       </c>
-      <c r="B25" s="57"/>
+      <c r="B25" s="85"/>
       <c r="C25" s="51" t="s">
         <v>93</v>
       </c>
@@ -30149,7 +30167,7 @@
     </row>
     <row r="26" spans="1:8" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
-      <c r="B26" s="84"/>
+      <c r="B26" s="92"/>
       <c r="C26" s="14"/>
       <c r="D26" s="3"/>
       <c r="E26" s="4"/>
@@ -30159,7 +30177,7 @@
     </row>
     <row r="27" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="85"/>
+      <c r="B27" s="93"/>
       <c r="C27" s="14"/>
       <c r="D27" s="3"/>
       <c r="E27" s="4"/>
@@ -30169,7 +30187,7 @@
     </row>
     <row r="28" spans="1:8" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="85"/>
+      <c r="B28" s="93"/>
       <c r="C28" s="14"/>
       <c r="D28" s="3"/>
       <c r="E28" s="4"/>
@@ -30179,7 +30197,7 @@
     </row>
     <row r="29" spans="1:8" s="6" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="B29" s="86"/>
+      <c r="B29" s="94"/>
       <c r="C29" s="14"/>
       <c r="D29" s="3"/>
       <c r="E29" s="4"/>
@@ -30189,7 +30207,7 @@
     </row>
     <row r="30" spans="1:8" s="6" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="87"/>
+      <c r="B30" s="95"/>
       <c r="C30" s="15"/>
       <c r="D30" s="3"/>
       <c r="E30" s="4"/>
@@ -30199,7 +30217,7 @@
     </row>
     <row r="31" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
-      <c r="B31" s="87"/>
+      <c r="B31" s="95"/>
       <c r="C31" s="15"/>
       <c r="D31" s="3"/>
       <c r="E31" s="4"/>
@@ -30209,7 +30227,7 @@
     </row>
     <row r="32" spans="1:8" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
-      <c r="B32" s="87"/>
+      <c r="B32" s="95"/>
       <c r="C32" s="15"/>
       <c r="D32" s="3"/>
       <c r="E32" s="4"/>
@@ -30219,7 +30237,7 @@
     </row>
     <row r="33" spans="1:8" s="6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
-      <c r="B33" s="84"/>
+      <c r="B33" s="92"/>
       <c r="C33" s="15"/>
       <c r="D33" s="8"/>
       <c r="E33" s="4"/>
@@ -30229,7 +30247,7 @@
     </row>
     <row r="34" spans="1:8" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
-      <c r="B34" s="85"/>
+      <c r="B34" s="93"/>
       <c r="C34" s="15"/>
       <c r="D34" s="8"/>
       <c r="E34" s="4"/>
@@ -30239,7 +30257,7 @@
     </row>
     <row r="35" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
-      <c r="B35" s="91"/>
+      <c r="B35" s="81"/>
       <c r="C35" s="16"/>
       <c r="D35" s="17"/>
       <c r="E35" s="18"/>
@@ -30249,7 +30267,7 @@
     </row>
     <row r="36" spans="1:8" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
-      <c r="B36" s="92"/>
+      <c r="B36" s="82"/>
       <c r="C36" s="16"/>
       <c r="D36" s="17"/>
       <c r="E36" s="18"/>
@@ -30259,7 +30277,7 @@
     </row>
     <row r="37" spans="1:8" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
-      <c r="B37" s="78"/>
+      <c r="B37" s="86"/>
       <c r="C37" s="16"/>
       <c r="D37" s="17"/>
       <c r="E37" s="18"/>
@@ -30269,7 +30287,7 @@
     </row>
     <row r="38" spans="1:8" s="6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
-      <c r="B38" s="79"/>
+      <c r="B38" s="87"/>
       <c r="C38" s="16"/>
       <c r="D38" s="17"/>
       <c r="E38" s="18"/>
@@ -30279,7 +30297,7 @@
     </row>
     <row r="39" spans="1:8" s="6" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
-      <c r="B39" s="79"/>
+      <c r="B39" s="87"/>
       <c r="C39" s="16"/>
       <c r="D39" s="17"/>
       <c r="E39" s="18"/>
@@ -30289,7 +30307,7 @@
     </row>
     <row r="40" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
-      <c r="B40" s="80"/>
+      <c r="B40" s="88"/>
       <c r="C40" s="16"/>
       <c r="D40" s="17"/>
       <c r="E40" s="18"/>
@@ -30299,7 +30317,7 @@
     </row>
     <row r="41" spans="1:8" s="6" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
-      <c r="B41" s="81"/>
+      <c r="B41" s="89"/>
       <c r="C41" s="16"/>
       <c r="D41" s="17"/>
       <c r="E41" s="18"/>
@@ -30309,7 +30327,7 @@
     </row>
     <row r="42" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
-      <c r="B42" s="82"/>
+      <c r="B42" s="90"/>
       <c r="C42" s="16"/>
       <c r="D42" s="17"/>
       <c r="E42" s="18"/>
@@ -30319,7 +30337,7 @@
     </row>
     <row r="43" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
-      <c r="B43" s="82"/>
+      <c r="B43" s="90"/>
       <c r="C43" s="16"/>
       <c r="D43" s="17"/>
       <c r="E43" s="18"/>
@@ -30329,7 +30347,7 @@
     </row>
     <row r="44" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
-      <c r="B44" s="82"/>
+      <c r="B44" s="90"/>
       <c r="C44" s="16"/>
       <c r="D44" s="17"/>
       <c r="E44" s="18"/>
@@ -30339,7 +30357,7 @@
     </row>
     <row r="45" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
-      <c r="B45" s="83"/>
+      <c r="B45" s="91"/>
       <c r="C45" s="16"/>
       <c r="D45" s="17"/>
       <c r="E45" s="18"/>
@@ -30349,7 +30367,7 @@
     </row>
     <row r="46" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
-      <c r="B46" s="78"/>
+      <c r="B46" s="86"/>
       <c r="C46" s="16"/>
       <c r="D46" s="20"/>
       <c r="E46" s="18"/>
@@ -30359,7 +30377,7 @@
     </row>
     <row r="47" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
-      <c r="B47" s="79"/>
+      <c r="B47" s="87"/>
       <c r="C47" s="16"/>
       <c r="D47" s="20"/>
       <c r="E47" s="18"/>
@@ -30428,7 +30446,13 @@
       <c r="H53" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="B33:B34"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="A10:H10"/>
@@ -30436,12 +30460,7 @@
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="B41:B45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B24:B25"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30471,8 +30490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -30515,22 +30534,22 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="90"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="80"/>
     </row>
     <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A3" s="49">
         <v>1</v>
       </c>
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="83" t="s">
         <v>123</v>
       </c>
       <c r="C3" s="51" t="s">
@@ -30552,7 +30571,7 @@
       <c r="A4" s="49">
         <v>2</v>
       </c>
-      <c r="B4" s="94"/>
+      <c r="B4" s="84"/>
       <c r="C4" s="51" t="s">
         <v>57</v>
       </c>
@@ -30591,16 +30610,16 @@
       <c r="H5" s="54"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="88" t="s">
+      <c r="A6" s="78" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="90"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="80"/>
     </row>
     <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.2">
       <c r="A7" s="49">
@@ -30709,22 +30728,24 @@
       <c r="H11" s="54"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="88" t="s">
+      <c r="A12" s="78" t="s">
         <v>99</v>
       </c>
-      <c r="B12" s="89"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="90"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="80"/>
     </row>
     <row r="13" spans="1:8" ht="75" x14ac:dyDescent="0.2">
       <c r="A13" s="49">
         <v>9</v>
       </c>
-      <c r="B13" s="50"/>
+      <c r="B13" s="83" t="s">
+        <v>143</v>
+      </c>
       <c r="C13" s="51" t="s">
         <v>100</v>
       </c>
@@ -30744,7 +30765,7 @@
       <c r="A14" s="49">
         <v>10</v>
       </c>
-      <c r="B14" s="50"/>
+      <c r="B14" s="85"/>
       <c r="C14" s="51" t="s">
         <v>102</v>
       </c>
@@ -30761,16 +30782,16 @@
       <c r="H14" s="54"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="89"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="90"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="80"/>
     </row>
     <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A16" s="49">
@@ -30923,7 +30944,7 @@
       <c r="H25" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A12:H12"/>
     <mergeCell ref="A15:H15"/>
     <mergeCell ref="A2:H2"/>
@@ -30931,6 +30952,7 @@
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B13:B14"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Improgress/2. Artifact and Deliverable/DetailDesign & Architect/Design/DE_MessageList_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/DetailDesign & Architect/Design/DE_MessageList_Ver1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\DetailDesign &amp; Architect\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B961CDDF-71B1-47A7-BD7F-F5D8C0CACA20}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65594F59-B3BB-4BF6-BC9A-782952FA886E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,18 +21,24 @@
   <externalReferences>
     <externalReference r:id="rId5"/>
   </externalReferences>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="152">
   <si>
     <t>Project Name:</t>
   </si>
@@ -478,6 +484,30 @@
   </si>
   <si>
     <t>FR.34, 36, 38, 40, 42, 44</t>
+  </si>
+  <si>
+    <t>Thống kê - báo cáo Website Admin</t>
+  </si>
+  <si>
+    <t>Thông báo khi tải file excel thành công</t>
+  </si>
+  <si>
+    <t>Tải file thành công</t>
+  </si>
+  <si>
+    <t>Tải file thất bại</t>
+  </si>
+  <si>
+    <t>MS.SW.001</t>
+  </si>
+  <si>
+    <t>MS.SW.002</t>
+  </si>
+  <si>
+    <t>FR.46</t>
+  </si>
+  <si>
+    <t>Thông báo khi tải file không đúng định dạng hoặc có dung lượng file trên 5MB và phải đúng các trường trong file excel</t>
   </si>
 </sst>
 </file>
@@ -951,7 +981,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1141,6 +1171,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1180,6 +1213,36 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1202,36 +1265,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1587,18 +1620,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="67"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="68"/>
       <c r="K1" s="24"/>
       <c r="L1" s="24"/>
       <c r="M1" s="24"/>
@@ -1617,16 +1650,16 @@
       <c r="Z1" s="24"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="68"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="70"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="71"/>
       <c r="K2" s="24"/>
       <c r="L2" s="25"/>
       <c r="M2" s="25"/>
@@ -1645,24 +1678,24 @@
       <c r="Z2" s="24"/>
     </row>
     <row r="3" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="68"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="70"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="71"/>
       <c r="K3" s="26"/>
       <c r="L3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="74" t="s">
+      <c r="M3" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="75"/>
+      <c r="N3" s="76"/>
       <c r="O3" s="28"/>
       <c r="P3" s="24"/>
       <c r="Q3" s="24"/>
@@ -1677,24 +1710,24 @@
       <c r="Z3" s="24"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="68"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="70"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="71"/>
       <c r="K4" s="26"/>
       <c r="L4" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="74" t="s">
+      <c r="M4" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="75"/>
+      <c r="N4" s="76"/>
       <c r="O4" s="28"/>
       <c r="P4" s="24"/>
       <c r="Q4" s="24"/>
@@ -1709,24 +1742,24 @@
       <c r="Z4" s="24"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="68"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="70"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="71"/>
       <c r="K5" s="26"/>
       <c r="L5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="74" t="s">
+      <c r="M5" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="75"/>
+      <c r="N5" s="76"/>
       <c r="O5" s="28"/>
       <c r="P5" s="24"/>
       <c r="Q5" s="24"/>
@@ -1741,24 +1774,24 @@
       <c r="Z5" s="24"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="68"/>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="70"/>
+      <c r="A6" s="69"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="71"/>
       <c r="K6" s="26"/>
       <c r="L6" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="74" t="s">
+      <c r="M6" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="75"/>
+      <c r="N6" s="76"/>
       <c r="O6" s="28"/>
       <c r="P6" s="24"/>
       <c r="Q6" s="24"/>
@@ -1773,24 +1806,24 @@
       <c r="Z6" s="24"/>
     </row>
     <row r="7" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="68"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="70"/>
+      <c r="A7" s="69"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="71"/>
       <c r="K7" s="26"/>
       <c r="L7" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="76">
+      <c r="M7" s="77">
         <v>43508</v>
       </c>
-      <c r="N7" s="77"/>
+      <c r="N7" s="78"/>
       <c r="O7" s="28"/>
       <c r="P7" s="24"/>
       <c r="Q7" s="24"/>
@@ -1805,16 +1838,16 @@
       <c r="Z7" s="24"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="68"/>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="70"/>
+      <c r="A8" s="69"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="71"/>
       <c r="K8" s="24"/>
       <c r="L8" s="28"/>
       <c r="M8" s="28"/>
@@ -1833,16 +1866,16 @@
       <c r="Z8" s="24"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="68"/>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="70"/>
+      <c r="A9" s="69"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="71"/>
       <c r="K9" s="24"/>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -1861,16 +1894,16 @@
       <c r="Z9" s="24"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="68"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="70"/>
+      <c r="A10" s="69"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="71"/>
       <c r="K10" s="24"/>
       <c r="L10" s="30"/>
       <c r="M10" s="30"/>
@@ -1889,23 +1922,23 @@
       <c r="Z10" s="24"/>
     </row>
     <row r="11" spans="1:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="68"/>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="70"/>
+      <c r="A11" s="69"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="71"/>
       <c r="K11" s="26"/>
-      <c r="L11" s="71" t="s">
+      <c r="L11" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="M11" s="72"/>
-      <c r="N11" s="72"/>
-      <c r="O11" s="73"/>
+      <c r="M11" s="73"/>
+      <c r="N11" s="73"/>
+      <c r="O11" s="74"/>
       <c r="P11" s="24"/>
       <c r="Q11" s="24"/>
       <c r="R11" s="24"/>
@@ -1919,16 +1952,16 @@
       <c r="Z11" s="24"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="68"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="70"/>
+      <c r="A12" s="69"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="71"/>
       <c r="K12" s="26"/>
       <c r="L12" s="31" t="s">
         <v>1</v>
@@ -1955,16 +1988,16 @@
       <c r="Z12" s="24"/>
     </row>
     <row r="13" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="68"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="70"/>
+      <c r="A13" s="69"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="71"/>
       <c r="K13" s="26"/>
       <c r="L13" s="32" t="s">
         <v>28</v>
@@ -1991,16 +2024,16 @@
       <c r="Z13" s="24"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="68"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="70"/>
+      <c r="A14" s="69"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="71"/>
       <c r="K14" s="26"/>
       <c r="L14" s="36"/>
       <c r="M14" s="37"/>
@@ -2019,16 +2052,16 @@
       <c r="Z14" s="24"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="68"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="70"/>
+      <c r="A15" s="69"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="71"/>
       <c r="K15" s="26"/>
       <c r="L15" s="36"/>
       <c r="M15" s="37"/>
@@ -2047,16 +2080,16 @@
       <c r="Z15" s="24"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="68"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="70"/>
+      <c r="A16" s="69"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="71"/>
       <c r="K16" s="26"/>
       <c r="L16" s="38"/>
       <c r="M16" s="39"/>
@@ -2075,16 +2108,16 @@
       <c r="Z16" s="24"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="68"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="70"/>
+      <c r="A17" s="69"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="71"/>
       <c r="K17" s="26"/>
       <c r="L17" s="38"/>
       <c r="M17" s="39"/>
@@ -2103,16 +2136,16 @@
       <c r="Z17" s="24"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="68"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="70"/>
+      <c r="A18" s="69"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="71"/>
       <c r="K18" s="26"/>
       <c r="L18" s="38"/>
       <c r="M18" s="39"/>
@@ -2131,16 +2164,16 @@
       <c r="Z18" s="24"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="68"/>
-      <c r="B19" s="69"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="70"/>
+      <c r="A19" s="69"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="71"/>
       <c r="K19" s="26"/>
       <c r="L19" s="38"/>
       <c r="M19" s="39"/>
@@ -2159,16 +2192,16 @@
       <c r="Z19" s="24"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="68"/>
-      <c r="B20" s="69"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="70"/>
+      <c r="A20" s="69"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="71"/>
       <c r="K20" s="26"/>
       <c r="L20" s="38"/>
       <c r="M20" s="39"/>
@@ -29645,8 +29678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29689,16 +29722,16 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="6" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="80"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="91"/>
     </row>
     <row r="3" spans="1:9" s="6" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="49">
@@ -29746,16 +29779,16 @@
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" s="6" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="80"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="91"/>
     </row>
     <row r="6" spans="1:9" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="49">
@@ -29805,7 +29838,7 @@
       <c r="A8" s="49">
         <v>5</v>
       </c>
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="94" t="s">
         <v>134</v>
       </c>
       <c r="C8" s="51" t="s">
@@ -29827,7 +29860,7 @@
       <c r="A9" s="49">
         <v>6</v>
       </c>
-      <c r="B9" s="85"/>
+      <c r="B9" s="96"/>
       <c r="C9" s="51" t="s">
         <v>76</v>
       </c>
@@ -29844,16 +29877,16 @@
       <c r="H9" s="54"/>
     </row>
     <row r="10" spans="1:9" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="80"/>
+      <c r="B10" s="90"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="91"/>
     </row>
     <row r="11" spans="1:9" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="60">
@@ -30029,7 +30062,7 @@
       <c r="A19" s="58">
         <v>15</v>
       </c>
-      <c r="B19" s="83" t="s">
+      <c r="B19" s="94" t="s">
         <v>130</v>
       </c>
       <c r="C19" s="51" t="s">
@@ -30051,7 +30084,7 @@
       <c r="A20" s="58">
         <v>16</v>
       </c>
-      <c r="B20" s="84"/>
+      <c r="B20" s="95"/>
       <c r="C20" s="51" t="s">
         <v>116</v>
       </c>
@@ -30068,16 +30101,16 @@
       <c r="H20" s="54"/>
     </row>
     <row r="21" spans="1:8" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="78" t="s">
+      <c r="A21" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="B21" s="79"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="80"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="91"/>
     </row>
     <row r="22" spans="1:8" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="49">
@@ -30127,7 +30160,7 @@
       <c r="A24" s="49">
         <v>19</v>
       </c>
-      <c r="B24" s="83" t="s">
+      <c r="B24" s="94" t="s">
         <v>142</v>
       </c>
       <c r="C24" s="51" t="s">
@@ -30149,7 +30182,7 @@
       <c r="A25" s="49">
         <v>20</v>
       </c>
-      <c r="B25" s="85"/>
+      <c r="B25" s="96"/>
       <c r="C25" s="51" t="s">
         <v>93</v>
       </c>
@@ -30165,39 +30198,63 @@
       <c r="G25" s="54"/>
       <c r="H25" s="54"/>
     </row>
-    <row r="26" spans="1:8" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="92"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="93"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
+    <row r="26" spans="1:8" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="89" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" s="90"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="90"/>
+      <c r="H26" s="91"/>
+    </row>
+    <row r="27" spans="1:8" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="49">
+        <v>21</v>
+      </c>
+      <c r="B27" s="94" t="s">
+        <v>150</v>
+      </c>
+      <c r="C27" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="D27" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="53" t="s">
+        <v>145</v>
+      </c>
+      <c r="F27" s="53" t="s">
+        <v>146</v>
+      </c>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="1:8" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="93"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
+    <row r="28" spans="1:8" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A28" s="49">
+        <v>22</v>
+      </c>
+      <c r="B28" s="96"/>
+      <c r="C28" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="D28" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="F28" s="53" t="s">
+        <v>147</v>
+      </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
     </row>
     <row r="29" spans="1:8" s="6" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="B29" s="94"/>
+      <c r="B29" s="85"/>
       <c r="C29" s="14"/>
       <c r="D29" s="3"/>
       <c r="E29" s="4"/>
@@ -30207,7 +30264,7 @@
     </row>
     <row r="30" spans="1:8" s="6" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="95"/>
+      <c r="B30" s="86"/>
       <c r="C30" s="15"/>
       <c r="D30" s="3"/>
       <c r="E30" s="4"/>
@@ -30217,7 +30274,7 @@
     </row>
     <row r="31" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
-      <c r="B31" s="95"/>
+      <c r="B31" s="86"/>
       <c r="C31" s="15"/>
       <c r="D31" s="3"/>
       <c r="E31" s="4"/>
@@ -30227,7 +30284,7 @@
     </row>
     <row r="32" spans="1:8" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
-      <c r="B32" s="95"/>
+      <c r="B32" s="86"/>
       <c r="C32" s="15"/>
       <c r="D32" s="3"/>
       <c r="E32" s="4"/>
@@ -30237,7 +30294,7 @@
     </row>
     <row r="33" spans="1:8" s="6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
-      <c r="B33" s="92"/>
+      <c r="B33" s="87"/>
       <c r="C33" s="15"/>
       <c r="D33" s="8"/>
       <c r="E33" s="4"/>
@@ -30247,7 +30304,7 @@
     </row>
     <row r="34" spans="1:8" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
-      <c r="B34" s="93"/>
+      <c r="B34" s="88"/>
       <c r="C34" s="15"/>
       <c r="D34" s="8"/>
       <c r="E34" s="4"/>
@@ -30257,7 +30314,7 @@
     </row>
     <row r="35" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
-      <c r="B35" s="81"/>
+      <c r="B35" s="92"/>
       <c r="C35" s="16"/>
       <c r="D35" s="17"/>
       <c r="E35" s="18"/>
@@ -30267,7 +30324,7 @@
     </row>
     <row r="36" spans="1:8" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
-      <c r="B36" s="82"/>
+      <c r="B36" s="93"/>
       <c r="C36" s="16"/>
       <c r="D36" s="17"/>
       <c r="E36" s="18"/>
@@ -30277,7 +30334,7 @@
     </row>
     <row r="37" spans="1:8" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
-      <c r="B37" s="86"/>
+      <c r="B37" s="79"/>
       <c r="C37" s="16"/>
       <c r="D37" s="17"/>
       <c r="E37" s="18"/>
@@ -30287,7 +30344,7 @@
     </row>
     <row r="38" spans="1:8" s="6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
-      <c r="B38" s="87"/>
+      <c r="B38" s="80"/>
       <c r="C38" s="16"/>
       <c r="D38" s="17"/>
       <c r="E38" s="18"/>
@@ -30297,7 +30354,7 @@
     </row>
     <row r="39" spans="1:8" s="6" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
-      <c r="B39" s="87"/>
+      <c r="B39" s="80"/>
       <c r="C39" s="16"/>
       <c r="D39" s="17"/>
       <c r="E39" s="18"/>
@@ -30307,7 +30364,7 @@
     </row>
     <row r="40" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
-      <c r="B40" s="88"/>
+      <c r="B40" s="81"/>
       <c r="C40" s="16"/>
       <c r="D40" s="17"/>
       <c r="E40" s="18"/>
@@ -30317,7 +30374,7 @@
     </row>
     <row r="41" spans="1:8" s="6" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
-      <c r="B41" s="89"/>
+      <c r="B41" s="82"/>
       <c r="C41" s="16"/>
       <c r="D41" s="17"/>
       <c r="E41" s="18"/>
@@ -30327,7 +30384,7 @@
     </row>
     <row r="42" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
-      <c r="B42" s="90"/>
+      <c r="B42" s="83"/>
       <c r="C42" s="16"/>
       <c r="D42" s="17"/>
       <c r="E42" s="18"/>
@@ -30337,7 +30394,7 @@
     </row>
     <row r="43" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
-      <c r="B43" s="90"/>
+      <c r="B43" s="83"/>
       <c r="C43" s="16"/>
       <c r="D43" s="17"/>
       <c r="E43" s="18"/>
@@ -30347,7 +30404,7 @@
     </row>
     <row r="44" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
-      <c r="B44" s="90"/>
+      <c r="B44" s="83"/>
       <c r="C44" s="16"/>
       <c r="D44" s="17"/>
       <c r="E44" s="18"/>
@@ -30357,7 +30414,7 @@
     </row>
     <row r="45" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
-      <c r="B45" s="91"/>
+      <c r="B45" s="84"/>
       <c r="C45" s="16"/>
       <c r="D45" s="17"/>
       <c r="E45" s="18"/>
@@ -30367,7 +30424,7 @@
     </row>
     <row r="46" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
-      <c r="B46" s="86"/>
+      <c r="B46" s="79"/>
       <c r="C46" s="16"/>
       <c r="D46" s="20"/>
       <c r="E46" s="18"/>
@@ -30377,7 +30434,7 @@
     </row>
     <row r="47" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
-      <c r="B47" s="87"/>
+      <c r="B47" s="80"/>
       <c r="C47" s="16"/>
       <c r="D47" s="20"/>
       <c r="E47" s="18"/>
@@ -30446,13 +30503,7 @@
       <c r="H53" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="B41:B45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="B33:B34"/>
+  <mergeCells count="15">
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="A10:H10"/>
@@ -30461,6 +30512,13 @@
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="B33:B34"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30472,7 +30530,7 @@
           <x14:formula1>
             <xm:f>'C:\Users\US\Downloads\[K22T2-Team8-MessageList-ver0.1.xlsx]Sheet4'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>D3:D4 D22:D47 D6:D9 D11:D18</xm:sqref>
+          <xm:sqref>D3:D4 D11:D18 D6:D9 D22:D25 D27:D47</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{730A7F9D-217B-4758-814F-D818D85CB421}">
           <x14:formula1>
@@ -30490,7 +30548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B13" sqref="B13:B14"/>
     </sheetView>
   </sheetViews>
@@ -30534,22 +30592,22 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="80"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="91"/>
     </row>
     <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A3" s="49">
         <v>1</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="94" t="s">
         <v>123</v>
       </c>
       <c r="C3" s="51" t="s">
@@ -30571,7 +30629,7 @@
       <c r="A4" s="49">
         <v>2</v>
       </c>
-      <c r="B4" s="84"/>
+      <c r="B4" s="95"/>
       <c r="C4" s="51" t="s">
         <v>57</v>
       </c>
@@ -30610,16 +30668,16 @@
       <c r="H5" s="54"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="89" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="80"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="91"/>
     </row>
     <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.2">
       <c r="A7" s="49">
@@ -30647,7 +30705,7 @@
       <c r="A8" s="49">
         <v>5</v>
       </c>
-      <c r="B8" s="96" t="s">
+      <c r="B8" s="97" t="s">
         <v>139</v>
       </c>
       <c r="C8" s="51" t="s">
@@ -30669,7 +30727,7 @@
       <c r="A9" s="49">
         <v>6</v>
       </c>
-      <c r="B9" s="97"/>
+      <c r="B9" s="98"/>
       <c r="C9" s="51" t="s">
         <v>114</v>
       </c>
@@ -30689,7 +30747,7 @@
       <c r="A10" s="49">
         <v>7</v>
       </c>
-      <c r="B10" s="96" t="s">
+      <c r="B10" s="97" t="s">
         <v>135</v>
       </c>
       <c r="C10" s="51" t="s">
@@ -30711,7 +30769,7 @@
       <c r="A11" s="49">
         <v>8</v>
       </c>
-      <c r="B11" s="97"/>
+      <c r="B11" s="98"/>
       <c r="C11" s="51" t="s">
         <v>138</v>
       </c>
@@ -30728,22 +30786,22 @@
       <c r="H11" s="54"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="78" t="s">
+      <c r="A12" s="89" t="s">
         <v>99</v>
       </c>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="80"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="91"/>
     </row>
     <row r="13" spans="1:8" ht="75" x14ac:dyDescent="0.2">
       <c r="A13" s="49">
         <v>9</v>
       </c>
-      <c r="B13" s="83" t="s">
+      <c r="B13" s="94" t="s">
         <v>143</v>
       </c>
       <c r="C13" s="51" t="s">
@@ -30765,7 +30823,7 @@
       <c r="A14" s="49">
         <v>10</v>
       </c>
-      <c r="B14" s="85"/>
+      <c r="B14" s="96"/>
       <c r="C14" s="51" t="s">
         <v>102</v>
       </c>
@@ -30782,16 +30840,16 @@
       <c r="H14" s="54"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="78" t="s">
+      <c r="A15" s="89" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="79"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="80"/>
+      <c r="B15" s="90"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="91"/>
     </row>
     <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A16" s="49">

--- a/Improgress/2. Artifact and Deliverable/DetailDesign & Architect/Design/DE_MessageList_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/DetailDesign & Architect/Design/DE_MessageList_Ver1.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\DetailDesign &amp; Architect\Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\DetailDesign &amp; Architect\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65594F59-B3BB-4BF6-BC9A-782952FA886E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E067991F-A43A-4F1D-A440-6BA023368CAA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="156">
   <si>
     <t>Project Name:</t>
   </si>
@@ -508,6 +508,18 @@
   </si>
   <si>
     <t>Thông báo khi tải file không đúng định dạng hoặc có dung lượng file trên 5MB và phải đúng các trường trong file excel</t>
+  </si>
+  <si>
+    <t>Quản lý tài khoản App User</t>
+  </si>
+  <si>
+    <t>MS.AA.001</t>
+  </si>
+  <si>
+    <t>Tài khoản đã bị khóa. Vui lòng liên hệ abc@gmail.com để biết thêm chi tiết</t>
+  </si>
+  <si>
+    <t>Thông báo cho nhân viên tài khoản đã bị khóa</t>
   </si>
 </sst>
 </file>
@@ -1213,6 +1225,30 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1241,30 +1277,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -29722,16 +29734,16 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="6" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="91"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="81"/>
     </row>
     <row r="3" spans="1:9" s="6" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="49">
@@ -29779,16 +29791,16 @@
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" s="6" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="90"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="91"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="81"/>
     </row>
     <row r="6" spans="1:9" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="49">
@@ -29838,7 +29850,7 @@
       <c r="A8" s="49">
         <v>5</v>
       </c>
-      <c r="B8" s="94" t="s">
+      <c r="B8" s="84" t="s">
         <v>134</v>
       </c>
       <c r="C8" s="51" t="s">
@@ -29860,7 +29872,7 @@
       <c r="A9" s="49">
         <v>6</v>
       </c>
-      <c r="B9" s="96"/>
+      <c r="B9" s="86"/>
       <c r="C9" s="51" t="s">
         <v>76</v>
       </c>
@@ -29877,16 +29889,16 @@
       <c r="H9" s="54"/>
     </row>
     <row r="10" spans="1:9" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="90"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="91"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="81"/>
     </row>
     <row r="11" spans="1:9" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="60">
@@ -30062,7 +30074,7 @@
       <c r="A19" s="58">
         <v>15</v>
       </c>
-      <c r="B19" s="94" t="s">
+      <c r="B19" s="84" t="s">
         <v>130</v>
       </c>
       <c r="C19" s="51" t="s">
@@ -30084,7 +30096,7 @@
       <c r="A20" s="58">
         <v>16</v>
       </c>
-      <c r="B20" s="95"/>
+      <c r="B20" s="85"/>
       <c r="C20" s="51" t="s">
         <v>116</v>
       </c>
@@ -30101,16 +30113,16 @@
       <c r="H20" s="54"/>
     </row>
     <row r="21" spans="1:8" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="89" t="s">
+      <c r="A21" s="79" t="s">
         <v>89</v>
       </c>
-      <c r="B21" s="90"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="91"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="81"/>
     </row>
     <row r="22" spans="1:8" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="49">
@@ -30160,7 +30172,7 @@
       <c r="A24" s="49">
         <v>19</v>
       </c>
-      <c r="B24" s="94" t="s">
+      <c r="B24" s="84" t="s">
         <v>142</v>
       </c>
       <c r="C24" s="51" t="s">
@@ -30182,7 +30194,7 @@
       <c r="A25" s="49">
         <v>20</v>
       </c>
-      <c r="B25" s="96"/>
+      <c r="B25" s="86"/>
       <c r="C25" s="51" t="s">
         <v>93</v>
       </c>
@@ -30199,22 +30211,22 @@
       <c r="H25" s="54"/>
     </row>
     <row r="26" spans="1:8" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="89" t="s">
+      <c r="A26" s="79" t="s">
         <v>144</v>
       </c>
-      <c r="B26" s="90"/>
-      <c r="C26" s="90"/>
-      <c r="D26" s="90"/>
-      <c r="E26" s="90"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="90"/>
-      <c r="H26" s="91"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="81"/>
     </row>
     <row r="27" spans="1:8" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="49">
         <v>21</v>
       </c>
-      <c r="B27" s="94" t="s">
+      <c r="B27" s="84" t="s">
         <v>150</v>
       </c>
       <c r="C27" s="49" t="s">
@@ -30236,7 +30248,7 @@
       <c r="A28" s="49">
         <v>22</v>
       </c>
-      <c r="B28" s="96"/>
+      <c r="B28" s="86"/>
       <c r="C28" s="49" t="s">
         <v>149</v>
       </c>
@@ -30254,7 +30266,7 @@
     </row>
     <row r="29" spans="1:8" s="6" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="B29" s="85"/>
+      <c r="B29" s="93"/>
       <c r="C29" s="14"/>
       <c r="D29" s="3"/>
       <c r="E29" s="4"/>
@@ -30264,7 +30276,7 @@
     </row>
     <row r="30" spans="1:8" s="6" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="86"/>
+      <c r="B30" s="94"/>
       <c r="C30" s="15"/>
       <c r="D30" s="3"/>
       <c r="E30" s="4"/>
@@ -30274,7 +30286,7 @@
     </row>
     <row r="31" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
-      <c r="B31" s="86"/>
+      <c r="B31" s="94"/>
       <c r="C31" s="15"/>
       <c r="D31" s="3"/>
       <c r="E31" s="4"/>
@@ -30284,7 +30296,7 @@
     </row>
     <row r="32" spans="1:8" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
-      <c r="B32" s="86"/>
+      <c r="B32" s="94"/>
       <c r="C32" s="15"/>
       <c r="D32" s="3"/>
       <c r="E32" s="4"/>
@@ -30294,7 +30306,7 @@
     </row>
     <row r="33" spans="1:8" s="6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
-      <c r="B33" s="87"/>
+      <c r="B33" s="95"/>
       <c r="C33" s="15"/>
       <c r="D33" s="8"/>
       <c r="E33" s="4"/>
@@ -30304,7 +30316,7 @@
     </row>
     <row r="34" spans="1:8" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
-      <c r="B34" s="88"/>
+      <c r="B34" s="96"/>
       <c r="C34" s="15"/>
       <c r="D34" s="8"/>
       <c r="E34" s="4"/>
@@ -30314,7 +30326,7 @@
     </row>
     <row r="35" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
-      <c r="B35" s="92"/>
+      <c r="B35" s="82"/>
       <c r="C35" s="16"/>
       <c r="D35" s="17"/>
       <c r="E35" s="18"/>
@@ -30324,7 +30336,7 @@
     </row>
     <row r="36" spans="1:8" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
-      <c r="B36" s="93"/>
+      <c r="B36" s="83"/>
       <c r="C36" s="16"/>
       <c r="D36" s="17"/>
       <c r="E36" s="18"/>
@@ -30334,7 +30346,7 @@
     </row>
     <row r="37" spans="1:8" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
-      <c r="B37" s="79"/>
+      <c r="B37" s="87"/>
       <c r="C37" s="16"/>
       <c r="D37" s="17"/>
       <c r="E37" s="18"/>
@@ -30344,7 +30356,7 @@
     </row>
     <row r="38" spans="1:8" s="6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
-      <c r="B38" s="80"/>
+      <c r="B38" s="88"/>
       <c r="C38" s="16"/>
       <c r="D38" s="17"/>
       <c r="E38" s="18"/>
@@ -30354,7 +30366,7 @@
     </row>
     <row r="39" spans="1:8" s="6" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
-      <c r="B39" s="80"/>
+      <c r="B39" s="88"/>
       <c r="C39" s="16"/>
       <c r="D39" s="17"/>
       <c r="E39" s="18"/>
@@ -30364,7 +30376,7 @@
     </row>
     <row r="40" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
-      <c r="B40" s="81"/>
+      <c r="B40" s="89"/>
       <c r="C40" s="16"/>
       <c r="D40" s="17"/>
       <c r="E40" s="18"/>
@@ -30374,7 +30386,7 @@
     </row>
     <row r="41" spans="1:8" s="6" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
-      <c r="B41" s="82"/>
+      <c r="B41" s="90"/>
       <c r="C41" s="16"/>
       <c r="D41" s="17"/>
       <c r="E41" s="18"/>
@@ -30384,7 +30396,7 @@
     </row>
     <row r="42" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
-      <c r="B42" s="83"/>
+      <c r="B42" s="91"/>
       <c r="C42" s="16"/>
       <c r="D42" s="17"/>
       <c r="E42" s="18"/>
@@ -30394,7 +30406,7 @@
     </row>
     <row r="43" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
-      <c r="B43" s="83"/>
+      <c r="B43" s="91"/>
       <c r="C43" s="16"/>
       <c r="D43" s="17"/>
       <c r="E43" s="18"/>
@@ -30404,7 +30416,7 @@
     </row>
     <row r="44" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
-      <c r="B44" s="83"/>
+      <c r="B44" s="91"/>
       <c r="C44" s="16"/>
       <c r="D44" s="17"/>
       <c r="E44" s="18"/>
@@ -30414,7 +30426,7 @@
     </row>
     <row r="45" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
-      <c r="B45" s="84"/>
+      <c r="B45" s="92"/>
       <c r="C45" s="16"/>
       <c r="D45" s="17"/>
       <c r="E45" s="18"/>
@@ -30424,7 +30436,7 @@
     </row>
     <row r="46" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
-      <c r="B46" s="79"/>
+      <c r="B46" s="87"/>
       <c r="C46" s="16"/>
       <c r="D46" s="20"/>
       <c r="E46" s="18"/>
@@ -30434,7 +30446,7 @@
     </row>
     <row r="47" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
-      <c r="B47" s="80"/>
+      <c r="B47" s="88"/>
       <c r="C47" s="16"/>
       <c r="D47" s="20"/>
       <c r="E47" s="18"/>
@@ -30504,6 +30516,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="B33:B34"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="A10:H10"/>
@@ -30514,11 +30531,6 @@
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="A26:H26"/>
     <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="B41:B45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="B33:B34"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30548,8 +30560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:B14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -30592,22 +30604,22 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="91"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="81"/>
     </row>
     <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A3" s="49">
         <v>1</v>
       </c>
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="84" t="s">
         <v>123</v>
       </c>
       <c r="C3" s="51" t="s">
@@ -30629,7 +30641,7 @@
       <c r="A4" s="49">
         <v>2</v>
       </c>
-      <c r="B4" s="95"/>
+      <c r="B4" s="85"/>
       <c r="C4" s="51" t="s">
         <v>57</v>
       </c>
@@ -30668,16 +30680,16 @@
       <c r="H5" s="54"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="89" t="s">
+      <c r="A6" s="79" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="90"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="91"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="81"/>
     </row>
     <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.2">
       <c r="A7" s="49">
@@ -30786,22 +30798,22 @@
       <c r="H11" s="54"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="89" t="s">
+      <c r="A12" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="B12" s="90"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="91"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="81"/>
     </row>
     <row r="13" spans="1:8" ht="75" x14ac:dyDescent="0.2">
       <c r="A13" s="49">
         <v>9</v>
       </c>
-      <c r="B13" s="94" t="s">
+      <c r="B13" s="84" t="s">
         <v>143</v>
       </c>
       <c r="C13" s="51" t="s">
@@ -30823,7 +30835,7 @@
       <c r="A14" s="49">
         <v>10</v>
       </c>
-      <c r="B14" s="96"/>
+      <c r="B14" s="86"/>
       <c r="C14" s="51" t="s">
         <v>102</v>
       </c>
@@ -30840,16 +30852,16 @@
       <c r="H14" s="54"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="89" t="s">
+      <c r="A15" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="90"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="91"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="81"/>
     </row>
     <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A16" s="49">
@@ -30952,22 +30964,34 @@
       <c r="H20" s="54"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="58"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="58"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
+      <c r="A21" s="79" t="s">
+        <v>152</v>
+      </c>
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="81"/>
+    </row>
+    <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.2">
+      <c r="A22" s="49">
+        <v>16</v>
+      </c>
+      <c r="B22" s="50"/>
+      <c r="C22" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="D22" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="53" t="s">
+        <v>155</v>
+      </c>
+      <c r="F22" s="53" t="s">
+        <v>154</v>
+      </c>
       <c r="G22" s="54"/>
       <c r="H22" s="54"/>
     </row>
@@ -31002,7 +31026,8 @@
       <c r="H25" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A21:H21"/>
     <mergeCell ref="A12:H12"/>
     <mergeCell ref="A15:H15"/>
     <mergeCell ref="A2:H2"/>
@@ -31022,7 +31047,7 @@
           <x14:formula1>
             <xm:f>'C:\Users\US\Downloads\[K22T2-Team8-MessageList-ver0.1.xlsx]Sheet4'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>D13:D14 D3:D5 D16:D25 D7:D11</xm:sqref>
+          <xm:sqref>D13:D14 D3:D5 D7:D11 D16:D20 D22:D25</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Improgress/2. Artifact and Deliverable/DetailDesign & Architect/Design/DE_MessageList_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/DetailDesign & Architect/Design/DE_MessageList_Ver1.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\DetailDesign &amp; Architect\Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\DetailDesign &amp; Architect\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B961CDDF-71B1-47A7-BD7F-F5D8C0CACA20}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E067991F-A43A-4F1D-A440-6BA023368CAA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="2" r:id="rId1"/>
@@ -21,18 +21,24 @@
   <externalReferences>
     <externalReference r:id="rId5"/>
   </externalReferences>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="156">
   <si>
     <t>Project Name:</t>
   </si>
@@ -478,6 +484,42 @@
   </si>
   <si>
     <t>FR.34, 36, 38, 40, 42, 44</t>
+  </si>
+  <si>
+    <t>Thống kê - báo cáo Website Admin</t>
+  </si>
+  <si>
+    <t>Thông báo khi tải file excel thành công</t>
+  </si>
+  <si>
+    <t>Tải file thành công</t>
+  </si>
+  <si>
+    <t>Tải file thất bại</t>
+  </si>
+  <si>
+    <t>MS.SW.001</t>
+  </si>
+  <si>
+    <t>MS.SW.002</t>
+  </si>
+  <si>
+    <t>FR.46</t>
+  </si>
+  <si>
+    <t>Thông báo khi tải file không đúng định dạng hoặc có dung lượng file trên 5MB và phải đúng các trường trong file excel</t>
+  </si>
+  <si>
+    <t>Quản lý tài khoản App User</t>
+  </si>
+  <si>
+    <t>MS.AA.001</t>
+  </si>
+  <si>
+    <t>Tài khoản đã bị khóa. Vui lòng liên hệ abc@gmail.com để biết thêm chi tiết</t>
+  </si>
+  <si>
+    <t>Thông báo cho nhân viên tài khoản đã bị khóa</t>
   </si>
 </sst>
 </file>
@@ -951,7 +993,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1141,6 +1183,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1222,16 +1267,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1587,18 +1632,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="67"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="68"/>
       <c r="K1" s="24"/>
       <c r="L1" s="24"/>
       <c r="M1" s="24"/>
@@ -1617,16 +1662,16 @@
       <c r="Z1" s="24"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="68"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="70"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="71"/>
       <c r="K2" s="24"/>
       <c r="L2" s="25"/>
       <c r="M2" s="25"/>
@@ -1645,24 +1690,24 @@
       <c r="Z2" s="24"/>
     </row>
     <row r="3" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="68"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="70"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="71"/>
       <c r="K3" s="26"/>
       <c r="L3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="74" t="s">
+      <c r="M3" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="75"/>
+      <c r="N3" s="76"/>
       <c r="O3" s="28"/>
       <c r="P3" s="24"/>
       <c r="Q3" s="24"/>
@@ -1677,24 +1722,24 @@
       <c r="Z3" s="24"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="68"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="70"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="71"/>
       <c r="K4" s="26"/>
       <c r="L4" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="74" t="s">
+      <c r="M4" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="75"/>
+      <c r="N4" s="76"/>
       <c r="O4" s="28"/>
       <c r="P4" s="24"/>
       <c r="Q4" s="24"/>
@@ -1709,24 +1754,24 @@
       <c r="Z4" s="24"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="68"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="70"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="71"/>
       <c r="K5" s="26"/>
       <c r="L5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="74" t="s">
+      <c r="M5" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="75"/>
+      <c r="N5" s="76"/>
       <c r="O5" s="28"/>
       <c r="P5" s="24"/>
       <c r="Q5" s="24"/>
@@ -1741,24 +1786,24 @@
       <c r="Z5" s="24"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="68"/>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="70"/>
+      <c r="A6" s="69"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="71"/>
       <c r="K6" s="26"/>
       <c r="L6" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="74" t="s">
+      <c r="M6" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="75"/>
+      <c r="N6" s="76"/>
       <c r="O6" s="28"/>
       <c r="P6" s="24"/>
       <c r="Q6" s="24"/>
@@ -1773,24 +1818,24 @@
       <c r="Z6" s="24"/>
     </row>
     <row r="7" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="68"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="70"/>
+      <c r="A7" s="69"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="71"/>
       <c r="K7" s="26"/>
       <c r="L7" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="76">
+      <c r="M7" s="77">
         <v>43508</v>
       </c>
-      <c r="N7" s="77"/>
+      <c r="N7" s="78"/>
       <c r="O7" s="28"/>
       <c r="P7" s="24"/>
       <c r="Q7" s="24"/>
@@ -1805,16 +1850,16 @@
       <c r="Z7" s="24"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="68"/>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="70"/>
+      <c r="A8" s="69"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="71"/>
       <c r="K8" s="24"/>
       <c r="L8" s="28"/>
       <c r="M8" s="28"/>
@@ -1833,16 +1878,16 @@
       <c r="Z8" s="24"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="68"/>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="70"/>
+      <c r="A9" s="69"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="71"/>
       <c r="K9" s="24"/>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -1861,16 +1906,16 @@
       <c r="Z9" s="24"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="68"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="70"/>
+      <c r="A10" s="69"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="71"/>
       <c r="K10" s="24"/>
       <c r="L10" s="30"/>
       <c r="M10" s="30"/>
@@ -1889,23 +1934,23 @@
       <c r="Z10" s="24"/>
     </row>
     <row r="11" spans="1:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="68"/>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="70"/>
+      <c r="A11" s="69"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="71"/>
       <c r="K11" s="26"/>
-      <c r="L11" s="71" t="s">
+      <c r="L11" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="M11" s="72"/>
-      <c r="N11" s="72"/>
-      <c r="O11" s="73"/>
+      <c r="M11" s="73"/>
+      <c r="N11" s="73"/>
+      <c r="O11" s="74"/>
       <c r="P11" s="24"/>
       <c r="Q11" s="24"/>
       <c r="R11" s="24"/>
@@ -1919,16 +1964,16 @@
       <c r="Z11" s="24"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="68"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="70"/>
+      <c r="A12" s="69"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="71"/>
       <c r="K12" s="26"/>
       <c r="L12" s="31" t="s">
         <v>1</v>
@@ -1955,16 +2000,16 @@
       <c r="Z12" s="24"/>
     </row>
     <row r="13" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="68"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="70"/>
+      <c r="A13" s="69"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="71"/>
       <c r="K13" s="26"/>
       <c r="L13" s="32" t="s">
         <v>28</v>
@@ -1991,16 +2036,16 @@
       <c r="Z13" s="24"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="68"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="70"/>
+      <c r="A14" s="69"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="71"/>
       <c r="K14" s="26"/>
       <c r="L14" s="36"/>
       <c r="M14" s="37"/>
@@ -2019,16 +2064,16 @@
       <c r="Z14" s="24"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="68"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="70"/>
+      <c r="A15" s="69"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="71"/>
       <c r="K15" s="26"/>
       <c r="L15" s="36"/>
       <c r="M15" s="37"/>
@@ -2047,16 +2092,16 @@
       <c r="Z15" s="24"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="68"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="70"/>
+      <c r="A16" s="69"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="71"/>
       <c r="K16" s="26"/>
       <c r="L16" s="38"/>
       <c r="M16" s="39"/>
@@ -2075,16 +2120,16 @@
       <c r="Z16" s="24"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="68"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="70"/>
+      <c r="A17" s="69"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="71"/>
       <c r="K17" s="26"/>
       <c r="L17" s="38"/>
       <c r="M17" s="39"/>
@@ -2103,16 +2148,16 @@
       <c r="Z17" s="24"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="68"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="70"/>
+      <c r="A18" s="69"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="71"/>
       <c r="K18" s="26"/>
       <c r="L18" s="38"/>
       <c r="M18" s="39"/>
@@ -2131,16 +2176,16 @@
       <c r="Z18" s="24"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="68"/>
-      <c r="B19" s="69"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="70"/>
+      <c r="A19" s="69"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="71"/>
       <c r="K19" s="26"/>
       <c r="L19" s="38"/>
       <c r="M19" s="39"/>
@@ -2159,16 +2204,16 @@
       <c r="Z19" s="24"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="68"/>
-      <c r="B20" s="69"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="70"/>
+      <c r="A20" s="69"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="71"/>
       <c r="K20" s="26"/>
       <c r="L20" s="38"/>
       <c r="M20" s="39"/>
@@ -29645,8 +29690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29689,16 +29734,16 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="6" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="80"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="81"/>
     </row>
     <row r="3" spans="1:9" s="6" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="49">
@@ -29746,16 +29791,16 @@
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" s="6" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="80"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="81"/>
     </row>
     <row r="6" spans="1:9" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="49">
@@ -29805,7 +29850,7 @@
       <c r="A8" s="49">
         <v>5</v>
       </c>
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="84" t="s">
         <v>134</v>
       </c>
       <c r="C8" s="51" t="s">
@@ -29827,7 +29872,7 @@
       <c r="A9" s="49">
         <v>6</v>
       </c>
-      <c r="B9" s="85"/>
+      <c r="B9" s="86"/>
       <c r="C9" s="51" t="s">
         <v>76</v>
       </c>
@@ -29844,16 +29889,16 @@
       <c r="H9" s="54"/>
     </row>
     <row r="10" spans="1:9" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="80"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="81"/>
     </row>
     <row r="11" spans="1:9" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="60">
@@ -30029,7 +30074,7 @@
       <c r="A19" s="58">
         <v>15</v>
       </c>
-      <c r="B19" s="83" t="s">
+      <c r="B19" s="84" t="s">
         <v>130</v>
       </c>
       <c r="C19" s="51" t="s">
@@ -30051,7 +30096,7 @@
       <c r="A20" s="58">
         <v>16</v>
       </c>
-      <c r="B20" s="84"/>
+      <c r="B20" s="85"/>
       <c r="C20" s="51" t="s">
         <v>116</v>
       </c>
@@ -30068,16 +30113,16 @@
       <c r="H20" s="54"/>
     </row>
     <row r="21" spans="1:8" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="78" t="s">
+      <c r="A21" s="79" t="s">
         <v>89</v>
       </c>
-      <c r="B21" s="79"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="80"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="81"/>
     </row>
     <row r="22" spans="1:8" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="49">
@@ -30127,7 +30172,7 @@
       <c r="A24" s="49">
         <v>19</v>
       </c>
-      <c r="B24" s="83" t="s">
+      <c r="B24" s="84" t="s">
         <v>142</v>
       </c>
       <c r="C24" s="51" t="s">
@@ -30149,7 +30194,7 @@
       <c r="A25" s="49">
         <v>20</v>
       </c>
-      <c r="B25" s="85"/>
+      <c r="B25" s="86"/>
       <c r="C25" s="51" t="s">
         <v>93</v>
       </c>
@@ -30165,39 +30210,63 @@
       <c r="G25" s="54"/>
       <c r="H25" s="54"/>
     </row>
-    <row r="26" spans="1:8" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="92"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="93"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
+    <row r="26" spans="1:8" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="79" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" s="80"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="81"/>
+    </row>
+    <row r="27" spans="1:8" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="49">
+        <v>21</v>
+      </c>
+      <c r="B27" s="84" t="s">
+        <v>150</v>
+      </c>
+      <c r="C27" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="D27" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="53" t="s">
+        <v>145</v>
+      </c>
+      <c r="F27" s="53" t="s">
+        <v>146</v>
+      </c>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="1:8" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="93"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
+    <row r="28" spans="1:8" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A28" s="49">
+        <v>22</v>
+      </c>
+      <c r="B28" s="86"/>
+      <c r="C28" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="D28" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="F28" s="53" t="s">
+        <v>147</v>
+      </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
     </row>
     <row r="29" spans="1:8" s="6" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="B29" s="94"/>
+      <c r="B29" s="93"/>
       <c r="C29" s="14"/>
       <c r="D29" s="3"/>
       <c r="E29" s="4"/>
@@ -30207,7 +30276,7 @@
     </row>
     <row r="30" spans="1:8" s="6" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="95"/>
+      <c r="B30" s="94"/>
       <c r="C30" s="15"/>
       <c r="D30" s="3"/>
       <c r="E30" s="4"/>
@@ -30217,7 +30286,7 @@
     </row>
     <row r="31" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
-      <c r="B31" s="95"/>
+      <c r="B31" s="94"/>
       <c r="C31" s="15"/>
       <c r="D31" s="3"/>
       <c r="E31" s="4"/>
@@ -30227,7 +30296,7 @@
     </row>
     <row r="32" spans="1:8" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
-      <c r="B32" s="95"/>
+      <c r="B32" s="94"/>
       <c r="C32" s="15"/>
       <c r="D32" s="3"/>
       <c r="E32" s="4"/>
@@ -30237,7 +30306,7 @@
     </row>
     <row r="33" spans="1:8" s="6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
-      <c r="B33" s="92"/>
+      <c r="B33" s="95"/>
       <c r="C33" s="15"/>
       <c r="D33" s="8"/>
       <c r="E33" s="4"/>
@@ -30247,7 +30316,7 @@
     </row>
     <row r="34" spans="1:8" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
-      <c r="B34" s="93"/>
+      <c r="B34" s="96"/>
       <c r="C34" s="15"/>
       <c r="D34" s="8"/>
       <c r="E34" s="4"/>
@@ -30257,7 +30326,7 @@
     </row>
     <row r="35" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
-      <c r="B35" s="81"/>
+      <c r="B35" s="82"/>
       <c r="C35" s="16"/>
       <c r="D35" s="17"/>
       <c r="E35" s="18"/>
@@ -30267,7 +30336,7 @@
     </row>
     <row r="36" spans="1:8" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
-      <c r="B36" s="82"/>
+      <c r="B36" s="83"/>
       <c r="C36" s="16"/>
       <c r="D36" s="17"/>
       <c r="E36" s="18"/>
@@ -30277,7 +30346,7 @@
     </row>
     <row r="37" spans="1:8" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
-      <c r="B37" s="86"/>
+      <c r="B37" s="87"/>
       <c r="C37" s="16"/>
       <c r="D37" s="17"/>
       <c r="E37" s="18"/>
@@ -30287,7 +30356,7 @@
     </row>
     <row r="38" spans="1:8" s="6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
-      <c r="B38" s="87"/>
+      <c r="B38" s="88"/>
       <c r="C38" s="16"/>
       <c r="D38" s="17"/>
       <c r="E38" s="18"/>
@@ -30297,7 +30366,7 @@
     </row>
     <row r="39" spans="1:8" s="6" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
-      <c r="B39" s="87"/>
+      <c r="B39" s="88"/>
       <c r="C39" s="16"/>
       <c r="D39" s="17"/>
       <c r="E39" s="18"/>
@@ -30307,7 +30376,7 @@
     </row>
     <row r="40" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
-      <c r="B40" s="88"/>
+      <c r="B40" s="89"/>
       <c r="C40" s="16"/>
       <c r="D40" s="17"/>
       <c r="E40" s="18"/>
@@ -30317,7 +30386,7 @@
     </row>
     <row r="41" spans="1:8" s="6" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
-      <c r="B41" s="89"/>
+      <c r="B41" s="90"/>
       <c r="C41" s="16"/>
       <c r="D41" s="17"/>
       <c r="E41" s="18"/>
@@ -30327,7 +30396,7 @@
     </row>
     <row r="42" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
-      <c r="B42" s="90"/>
+      <c r="B42" s="91"/>
       <c r="C42" s="16"/>
       <c r="D42" s="17"/>
       <c r="E42" s="18"/>
@@ -30337,7 +30406,7 @@
     </row>
     <row r="43" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
-      <c r="B43" s="90"/>
+      <c r="B43" s="91"/>
       <c r="C43" s="16"/>
       <c r="D43" s="17"/>
       <c r="E43" s="18"/>
@@ -30347,7 +30416,7 @@
     </row>
     <row r="44" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
-      <c r="B44" s="90"/>
+      <c r="B44" s="91"/>
       <c r="C44" s="16"/>
       <c r="D44" s="17"/>
       <c r="E44" s="18"/>
@@ -30357,7 +30426,7 @@
     </row>
     <row r="45" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
-      <c r="B45" s="91"/>
+      <c r="B45" s="92"/>
       <c r="C45" s="16"/>
       <c r="D45" s="17"/>
       <c r="E45" s="18"/>
@@ -30367,7 +30436,7 @@
     </row>
     <row r="46" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
-      <c r="B46" s="86"/>
+      <c r="B46" s="87"/>
       <c r="C46" s="16"/>
       <c r="D46" s="20"/>
       <c r="E46" s="18"/>
@@ -30377,7 +30446,7 @@
     </row>
     <row r="47" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
-      <c r="B47" s="87"/>
+      <c r="B47" s="88"/>
       <c r="C47" s="16"/>
       <c r="D47" s="20"/>
       <c r="E47" s="18"/>
@@ -30446,11 +30515,10 @@
       <c r="H53" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
     <mergeCell ref="B37:B40"/>
     <mergeCell ref="B41:B45"/>
     <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B26:B28"/>
     <mergeCell ref="B29:B32"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="A2:H2"/>
@@ -30461,6 +30529,8 @@
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="B27:B28"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30472,7 +30542,7 @@
           <x14:formula1>
             <xm:f>'C:\Users\US\Downloads\[K22T2-Team8-MessageList-ver0.1.xlsx]Sheet4'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>D3:D4 D22:D47 D6:D9 D11:D18</xm:sqref>
+          <xm:sqref>D3:D4 D11:D18 D6:D9 D22:D25 D27:D47</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{730A7F9D-217B-4758-814F-D818D85CB421}">
           <x14:formula1>
@@ -30490,8 +30560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:B14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -30534,22 +30604,22 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="80"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="81"/>
     </row>
     <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A3" s="49">
         <v>1</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="84" t="s">
         <v>123</v>
       </c>
       <c r="C3" s="51" t="s">
@@ -30571,7 +30641,7 @@
       <c r="A4" s="49">
         <v>2</v>
       </c>
-      <c r="B4" s="84"/>
+      <c r="B4" s="85"/>
       <c r="C4" s="51" t="s">
         <v>57</v>
       </c>
@@ -30610,16 +30680,16 @@
       <c r="H5" s="54"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="80"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="81"/>
     </row>
     <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.2">
       <c r="A7" s="49">
@@ -30647,7 +30717,7 @@
       <c r="A8" s="49">
         <v>5</v>
       </c>
-      <c r="B8" s="96" t="s">
+      <c r="B8" s="97" t="s">
         <v>139</v>
       </c>
       <c r="C8" s="51" t="s">
@@ -30669,7 +30739,7 @@
       <c r="A9" s="49">
         <v>6</v>
       </c>
-      <c r="B9" s="97"/>
+      <c r="B9" s="98"/>
       <c r="C9" s="51" t="s">
         <v>114</v>
       </c>
@@ -30689,7 +30759,7 @@
       <c r="A10" s="49">
         <v>7</v>
       </c>
-      <c r="B10" s="96" t="s">
+      <c r="B10" s="97" t="s">
         <v>135</v>
       </c>
       <c r="C10" s="51" t="s">
@@ -30711,7 +30781,7 @@
       <c r="A11" s="49">
         <v>8</v>
       </c>
-      <c r="B11" s="97"/>
+      <c r="B11" s="98"/>
       <c r="C11" s="51" t="s">
         <v>138</v>
       </c>
@@ -30728,22 +30798,22 @@
       <c r="H11" s="54"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="78" t="s">
+      <c r="A12" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="80"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="81"/>
     </row>
     <row r="13" spans="1:8" ht="75" x14ac:dyDescent="0.2">
       <c r="A13" s="49">
         <v>9</v>
       </c>
-      <c r="B13" s="83" t="s">
+      <c r="B13" s="84" t="s">
         <v>143</v>
       </c>
       <c r="C13" s="51" t="s">
@@ -30765,7 +30835,7 @@
       <c r="A14" s="49">
         <v>10</v>
       </c>
-      <c r="B14" s="85"/>
+      <c r="B14" s="86"/>
       <c r="C14" s="51" t="s">
         <v>102</v>
       </c>
@@ -30782,16 +30852,16 @@
       <c r="H14" s="54"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="78" t="s">
+      <c r="A15" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="79"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="80"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="81"/>
     </row>
     <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A16" s="49">
@@ -30894,22 +30964,34 @@
       <c r="H20" s="54"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="58"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="58"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
+      <c r="A21" s="79" t="s">
+        <v>152</v>
+      </c>
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="81"/>
+    </row>
+    <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.2">
+      <c r="A22" s="49">
+        <v>16</v>
+      </c>
+      <c r="B22" s="50"/>
+      <c r="C22" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="D22" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="53" t="s">
+        <v>155</v>
+      </c>
+      <c r="F22" s="53" t="s">
+        <v>154</v>
+      </c>
       <c r="G22" s="54"/>
       <c r="H22" s="54"/>
     </row>
@@ -30944,7 +31026,8 @@
       <c r="H25" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A21:H21"/>
     <mergeCell ref="A12:H12"/>
     <mergeCell ref="A15:H15"/>
     <mergeCell ref="A2:H2"/>
@@ -30964,7 +31047,7 @@
           <x14:formula1>
             <xm:f>'C:\Users\US\Downloads\[K22T2-Team8-MessageList-ver0.1.xlsx]Sheet4'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>D13:D14 D3:D5 D16:D25 D7:D11</xm:sqref>
+          <xm:sqref>D13:D14 D3:D5 D7:D11 D16:D20 D22:D25</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Improgress/2. Artifact and Deliverable/DetailDesign & Architect/Design/DE_MessageList_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/DetailDesign & Architect/Design/DE_MessageList_Ver1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\DetailDesign &amp; Architect\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3E0A49-E7D9-4856-83A2-F2ABDD4B068C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55888EBE-677C-45F6-A481-FF4833032F20}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="233">
   <si>
     <t>Project Name:</t>
   </si>
@@ -563,6 +563,195 @@
   <si>
     <t>Thông báo xóa phòng ban trong chức năng "phòng ban"</t>
   </si>
+  <si>
+    <t>Brief Description (English)</t>
+  </si>
+  <si>
+    <t>Error message when username or password is wrong</t>
+  </si>
+  <si>
+    <t>Error message when either one of the two fields is missing, or both fields are missing either a username or password</t>
+  </si>
+  <si>
+    <t>Wrong password or wrong username</t>
+  </si>
+  <si>
+    <t>Please check the information fields again</t>
+  </si>
+  <si>
+    <t>Add account successfully.</t>
+  </si>
+  <si>
+    <t>Edit account successfully.</t>
+  </si>
+  <si>
+    <t>Please check the information fields again.</t>
+  </si>
+  <si>
+    <t>Please select an image in the correct format</t>
+  </si>
+  <si>
+    <t>Notice of additional successful accounts on the admin website</t>
+  </si>
+  <si>
+    <t>Notice of successful account modification on the admin website</t>
+  </si>
+  <si>
+    <t>Notify when the information entered is wrong or missing</t>
+  </si>
+  <si>
+    <t>Notify when the uploaded image is defective</t>
+  </si>
+  <si>
+    <t>Notify when the admin adds the organization chart image</t>
+  </si>
+  <si>
+    <t>Notice when the admin adds and fixes images under 5MB</t>
+  </si>
+  <si>
+    <t>Notice when admin adds company policy image</t>
+  </si>
+  <si>
+    <t>Notice of fixing company policies</t>
+  </si>
+  <si>
+    <t>Notice of company policy removal</t>
+  </si>
+  <si>
+    <t>Notice when the admin entered the wrong character or the email does not exist.</t>
+  </si>
+  <si>
+    <t>Notification of checking and confirming email changes</t>
+  </si>
+  <si>
+    <t>The message was not found resulting in information when the user entered data</t>
+  </si>
+  <si>
+    <t>Add organizational chart successfully</t>
+  </si>
+  <si>
+    <t>Please image is less than 5MB</t>
+  </si>
+  <si>
+    <t>Add a successful company policy</t>
+  </si>
+  <si>
+    <t>Correct successful company policy</t>
+  </si>
+  <si>
+    <t>Successfully removed company policy</t>
+  </si>
+  <si>
+    <t>Email is incorrect</t>
+  </si>
+  <si>
+    <t>Please check your email</t>
+  </si>
+  <si>
+    <t>No results were found</t>
+  </si>
+  <si>
+    <t>Notice when downloading excel file successfully</t>
+  </si>
+  <si>
+    <t>Notice when the file is downloaded in the wrong format or has a file size of over 5MB and must be in the correct fields in the excel file</t>
+  </si>
+  <si>
+    <t>Notice does not leave the field information field blank in the function of adding and modifying departments</t>
+  </si>
+  <si>
+    <t>Notice when adding rooms successfully</t>
+  </si>
+  <si>
+    <t>Notice when a room repair is successful</t>
+  </si>
+  <si>
+    <t>Notice of deleting departments in "department" function</t>
+  </si>
+  <si>
+    <t>Download the file successfully</t>
+  </si>
+  <si>
+    <t>File download failed</t>
+  </si>
+  <si>
+    <t>Department name must not be blank</t>
+  </si>
+  <si>
+    <t>More successful departments</t>
+  </si>
+  <si>
+    <t>Department update successful</t>
+  </si>
+  <si>
+    <t>Successfully deleted the department</t>
+  </si>
+  <si>
+    <t>Error message when missing one of the username or password fields</t>
+  </si>
+  <si>
+    <t>Logout logout when user presses logout button on app or back button on android.</t>
+  </si>
+  <si>
+    <t>Please enter your password again or Please enter your username</t>
+  </si>
+  <si>
+    <t>Do you want to log out?</t>
+  </si>
+  <si>
+    <t>Notify when the user enters the wrong password</t>
+  </si>
+  <si>
+    <t>Notified when the user successfully changes the password</t>
+  </si>
+  <si>
+    <t>Notify when the user enters the wrong character or email does not exist.</t>
+  </si>
+  <si>
+    <t>Notify when user confirms forgotten password</t>
+  </si>
+  <si>
+    <t>Please enter correct current password</t>
+  </si>
+  <si>
+    <t>Change password successfully</t>
+  </si>
+  <si>
+    <t>Notify not select information or fill in information (staff, team, room) when searching</t>
+  </si>
+  <si>
+    <t>Notify not select time (year, quarter, month) when searching</t>
+  </si>
+  <si>
+    <t>Notify employees who register for business trips on the app</t>
+  </si>
+  <si>
+    <t>Notify the director, head of the department approving the business trip on the app</t>
+  </si>
+  <si>
+    <t>Notify the director, head of the department to cancel the business trip on the app</t>
+  </si>
+  <si>
+    <t>Notify staff of business trip location</t>
+  </si>
+  <si>
+    <t>Notification of no business trip results found when users enter data</t>
+  </si>
+  <si>
+    <t>Registered successfully</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>Successfully canceled</t>
+  </si>
+  <si>
+    <t>Notify account staff has been locked</t>
+  </si>
+  <si>
+    <t>The account has been locked. Please contact abc@gmail.com for more details</t>
+  </si>
 </sst>
 </file>
 
@@ -1035,7 +1224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1220,9 +1409,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1671,18 +1857,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="68"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="67"/>
       <c r="K1" s="22"/>
       <c r="L1" s="22"/>
       <c r="M1" s="22"/>
@@ -1701,16 +1887,16 @@
       <c r="Z1" s="22"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="69"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="71"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="70"/>
       <c r="K2" s="22"/>
       <c r="L2" s="23"/>
       <c r="M2" s="23"/>
@@ -1729,24 +1915,24 @@
       <c r="Z2" s="22"/>
     </row>
     <row r="3" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="69"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="71"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="70"/>
       <c r="K3" s="24"/>
       <c r="L3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="75" t="s">
+      <c r="M3" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="76"/>
+      <c r="N3" s="75"/>
       <c r="O3" s="26"/>
       <c r="P3" s="22"/>
       <c r="Q3" s="22"/>
@@ -1761,24 +1947,24 @@
       <c r="Z3" s="22"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="71"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
       <c r="K4" s="24"/>
       <c r="L4" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="75" t="s">
+      <c r="M4" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="76"/>
+      <c r="N4" s="75"/>
       <c r="O4" s="26"/>
       <c r="P4" s="22"/>
       <c r="Q4" s="22"/>
@@ -1793,24 +1979,24 @@
       <c r="Z4" s="22"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="69"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="71"/>
+      <c r="A5" s="68"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="24"/>
       <c r="L5" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="75" t="s">
+      <c r="M5" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="76"/>
+      <c r="N5" s="75"/>
       <c r="O5" s="26"/>
       <c r="P5" s="22"/>
       <c r="Q5" s="22"/>
@@ -1825,24 +2011,24 @@
       <c r="Z5" s="22"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="69"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="71"/>
+      <c r="A6" s="68"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="70"/>
       <c r="K6" s="24"/>
       <c r="L6" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="75" t="s">
+      <c r="M6" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="76"/>
+      <c r="N6" s="75"/>
       <c r="O6" s="26"/>
       <c r="P6" s="22"/>
       <c r="Q6" s="22"/>
@@ -1857,24 +2043,24 @@
       <c r="Z6" s="22"/>
     </row>
     <row r="7" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="69"/>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="71"/>
+      <c r="A7" s="68"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="70"/>
       <c r="K7" s="24"/>
       <c r="L7" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="77">
+      <c r="M7" s="76">
         <v>43508</v>
       </c>
-      <c r="N7" s="78"/>
+      <c r="N7" s="77"/>
       <c r="O7" s="26"/>
       <c r="P7" s="22"/>
       <c r="Q7" s="22"/>
@@ -1889,16 +2075,16 @@
       <c r="Z7" s="22"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="69"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="71"/>
+      <c r="A8" s="68"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="70"/>
       <c r="K8" s="22"/>
       <c r="L8" s="26"/>
       <c r="M8" s="26"/>
@@ -1917,16 +2103,16 @@
       <c r="Z8" s="22"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="69"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="71"/>
+      <c r="A9" s="68"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="70"/>
       <c r="K9" s="22"/>
       <c r="L9" s="26"/>
       <c r="M9" s="26"/>
@@ -1945,16 +2131,16 @@
       <c r="Z9" s="22"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="69"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="71"/>
+      <c r="A10" s="68"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="70"/>
       <c r="K10" s="22"/>
       <c r="L10" s="28"/>
       <c r="M10" s="28"/>
@@ -1973,23 +2159,23 @@
       <c r="Z10" s="22"/>
     </row>
     <row r="11" spans="1:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="69"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="71"/>
+      <c r="A11" s="68"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="70"/>
       <c r="K11" s="24"/>
-      <c r="L11" s="72" t="s">
+      <c r="L11" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="M11" s="73"/>
-      <c r="N11" s="73"/>
-      <c r="O11" s="74"/>
+      <c r="M11" s="72"/>
+      <c r="N11" s="72"/>
+      <c r="O11" s="73"/>
       <c r="P11" s="22"/>
       <c r="Q11" s="22"/>
       <c r="R11" s="22"/>
@@ -2003,16 +2189,16 @@
       <c r="Z11" s="22"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="69"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="71"/>
+      <c r="A12" s="68"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="70"/>
       <c r="K12" s="24"/>
       <c r="L12" s="29" t="s">
         <v>1</v>
@@ -2039,16 +2225,16 @@
       <c r="Z12" s="22"/>
     </row>
     <row r="13" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="69"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="71"/>
+      <c r="A13" s="68"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="70"/>
       <c r="K13" s="24"/>
       <c r="L13" s="30" t="s">
         <v>28</v>
@@ -2075,16 +2261,16 @@
       <c r="Z13" s="22"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="69"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="71"/>
+      <c r="A14" s="68"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="70"/>
       <c r="K14" s="24"/>
       <c r="L14" s="34"/>
       <c r="M14" s="35"/>
@@ -2103,16 +2289,16 @@
       <c r="Z14" s="22"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="69"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="71"/>
+      <c r="A15" s="68"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="70"/>
       <c r="K15" s="24"/>
       <c r="L15" s="34"/>
       <c r="M15" s="35"/>
@@ -2131,16 +2317,16 @@
       <c r="Z15" s="22"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="69"/>
-      <c r="B16" s="70"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="71"/>
+      <c r="A16" s="68"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="70"/>
       <c r="K16" s="24"/>
       <c r="L16" s="36"/>
       <c r="M16" s="37"/>
@@ -2159,16 +2345,16 @@
       <c r="Z16" s="22"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="69"/>
-      <c r="B17" s="70"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="71"/>
+      <c r="A17" s="68"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="70"/>
       <c r="K17" s="24"/>
       <c r="L17" s="36"/>
       <c r="M17" s="37"/>
@@ -2187,16 +2373,16 @@
       <c r="Z17" s="22"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="69"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="71"/>
+      <c r="A18" s="68"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="70"/>
       <c r="K18" s="24"/>
       <c r="L18" s="36"/>
       <c r="M18" s="37"/>
@@ -2215,16 +2401,16 @@
       <c r="Z18" s="22"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="69"/>
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="71"/>
+      <c r="A19" s="68"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="70"/>
       <c r="K19" s="24"/>
       <c r="L19" s="36"/>
       <c r="M19" s="37"/>
@@ -2243,16 +2429,16 @@
       <c r="Z19" s="22"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="69"/>
-      <c r="B20" s="70"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="71"/>
+      <c r="A20" s="68"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="70"/>
       <c r="K20" s="24"/>
       <c r="L20" s="36"/>
       <c r="M20" s="37"/>
@@ -29727,10 +29913,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29739,14 +29925,14 @@
     <col min="2" max="2" width="10.5703125" style="9" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" style="10" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="28.140625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="35.7109375" style="12" customWidth="1"/>
-    <col min="7" max="7" width="28.140625" style="12" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" style="12" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="12"/>
+    <col min="5" max="6" width="28.140625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="35.7109375" style="12" customWidth="1"/>
+    <col min="8" max="8" width="28.140625" style="12" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" style="12" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
         <v>4</v>
       </c>
@@ -29763,29 +29949,33 @@
         <v>7</v>
       </c>
       <c r="F1" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="G1" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="H1" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="I1" s="44" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+    <row r="2" spans="1:10" s="5" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="89"/>
-    </row>
-    <row r="3" spans="1:9" s="5" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="88"/>
+    </row>
+    <row r="3" spans="1:10" s="5" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="64">
         <v>1</v>
       </c>
       <c r="B3" s="48" t="s">
@@ -29801,13 +29991,18 @@
         <v>32</v>
       </c>
       <c r="F3" s="51" t="s">
+        <v>171</v>
+      </c>
+      <c r="G3" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-    </row>
-    <row r="4" spans="1:9" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="47">
+      <c r="H3" s="52" t="s">
+        <v>173</v>
+      </c>
+      <c r="I3" s="52"/>
+    </row>
+    <row r="4" spans="1:10" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="64">
         <v>2</v>
       </c>
       <c r="B4" s="53" t="s">
@@ -29823,26 +30018,32 @@
         <v>105</v>
       </c>
       <c r="F4" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="G4" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="1:9" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87" t="s">
+      <c r="H4" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="I4" s="52"/>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="89"/>
-    </row>
-    <row r="6" spans="1:9" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="47">
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="88"/>
+    </row>
+    <row r="6" spans="1:10" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="64">
         <v>3</v>
       </c>
       <c r="B6" s="48" t="s">
@@ -29858,13 +30059,18 @@
         <v>36</v>
       </c>
       <c r="F6" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="G6" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-    </row>
-    <row r="7" spans="1:9" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="47">
+      <c r="H6" s="52" t="s">
+        <v>175</v>
+      </c>
+      <c r="I6" s="52"/>
+    </row>
+    <row r="7" spans="1:10" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="64">
         <v>4</v>
       </c>
       <c r="B7" s="48" t="s">
@@ -29880,16 +30086,21 @@
         <v>38</v>
       </c>
       <c r="F7" s="51" t="s">
+        <v>180</v>
+      </c>
+      <c r="G7" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-    </row>
-    <row r="8" spans="1:9" s="5" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="47">
+      <c r="H7" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="I7" s="52"/>
+    </row>
+    <row r="8" spans="1:10" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="64">
         <v>5</v>
       </c>
-      <c r="B8" s="92" t="s">
+      <c r="B8" s="91" t="s">
         <v>128</v>
       </c>
       <c r="C8" s="49" t="s">
@@ -29902,16 +30113,21 @@
         <v>77</v>
       </c>
       <c r="F8" s="51" t="s">
+        <v>181</v>
+      </c>
+      <c r="G8" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-    </row>
-    <row r="9" spans="1:9" s="5" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="47">
+      <c r="H8" s="52" t="s">
+        <v>177</v>
+      </c>
+      <c r="I8" s="52"/>
+    </row>
+    <row r="9" spans="1:10" s="5" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="64">
         <v>6</v>
       </c>
-      <c r="B9" s="93"/>
+      <c r="B9" s="92"/>
       <c r="C9" s="49" t="s">
         <v>76</v>
       </c>
@@ -29922,24 +30138,30 @@
         <v>74</v>
       </c>
       <c r="F9" s="51" t="s">
+        <v>182</v>
+      </c>
+      <c r="G9" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-    </row>
-    <row r="10" spans="1:9" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="87" t="s">
+      <c r="H9" s="52" t="s">
+        <v>178</v>
+      </c>
+      <c r="I9" s="52"/>
+    </row>
+    <row r="10" spans="1:10" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="89"/>
-    </row>
-    <row r="11" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="87"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="88"/>
+    </row>
+    <row r="11" spans="1:10" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="58">
         <v>7</v>
       </c>
@@ -29956,12 +30178,17 @@
         <v>86</v>
       </c>
       <c r="F11" s="51" t="s">
+        <v>183</v>
+      </c>
+      <c r="G11" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-    </row>
-    <row r="12" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="I11" s="52"/>
+    </row>
+    <row r="12" spans="1:10" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="62">
         <v>8</v>
       </c>
@@ -29978,12 +30205,17 @@
         <v>152</v>
       </c>
       <c r="F12" s="51" t="s">
+        <v>184</v>
+      </c>
+      <c r="G12" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-    </row>
-    <row r="13" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="52" t="s">
+        <v>192</v>
+      </c>
+      <c r="I12" s="52"/>
+    </row>
+    <row r="13" spans="1:10" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="62">
         <v>9</v>
       </c>
@@ -30000,12 +30232,17 @@
         <v>87</v>
       </c>
       <c r="F13" s="51" t="s">
+        <v>185</v>
+      </c>
+      <c r="G13" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-    </row>
-    <row r="14" spans="1:9" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="52" t="s">
+        <v>193</v>
+      </c>
+      <c r="I13" s="52"/>
+    </row>
+    <row r="14" spans="1:10" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="62">
         <v>10</v>
       </c>
@@ -30022,12 +30259,17 @@
         <v>43</v>
       </c>
       <c r="F14" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="G14" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-    </row>
-    <row r="15" spans="1:9" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H14" s="52" t="s">
+        <v>194</v>
+      </c>
+      <c r="I14" s="52"/>
+    </row>
+    <row r="15" spans="1:10" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="56">
         <v>11</v>
       </c>
@@ -30044,12 +30286,17 @@
         <v>44</v>
       </c>
       <c r="F15" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="G15" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-    </row>
-    <row r="16" spans="1:9" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="H15" s="52" t="s">
+        <v>195</v>
+      </c>
+      <c r="I15" s="52"/>
+    </row>
+    <row r="16" spans="1:10" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="56">
         <v>12</v>
       </c>
@@ -30066,16 +30313,21 @@
         <v>74</v>
       </c>
       <c r="F16" s="51" t="s">
+        <v>182</v>
+      </c>
+      <c r="G16" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-    </row>
-    <row r="17" spans="1:8" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="H16" s="52" t="s">
+        <v>178</v>
+      </c>
+      <c r="I16" s="52"/>
+    </row>
+    <row r="17" spans="1:9" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="56">
         <v>13</v>
       </c>
-      <c r="B17" s="94" t="s">
+      <c r="B17" s="93" t="s">
         <v>124</v>
       </c>
       <c r="C17" s="49" t="s">
@@ -30088,16 +30340,21 @@
         <v>115</v>
       </c>
       <c r="F17" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="G17" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-    </row>
-    <row r="18" spans="1:8" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="H17" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="I17" s="52"/>
+    </row>
+    <row r="18" spans="1:9" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="56">
         <v>14</v>
       </c>
-      <c r="B18" s="94"/>
+      <c r="B18" s="93"/>
       <c r="C18" s="49" t="s">
         <v>94</v>
       </c>
@@ -30108,12 +30365,17 @@
         <v>125</v>
       </c>
       <c r="F18" s="61" t="s">
+        <v>189</v>
+      </c>
+      <c r="G18" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-    </row>
-    <row r="19" spans="1:8" s="46" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="H18" s="52" t="s">
+        <v>197</v>
+      </c>
+      <c r="I18" s="52"/>
+    </row>
+    <row r="19" spans="1:9" s="46" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A19" s="56">
         <v>15</v>
       </c>
@@ -30130,25 +30392,31 @@
         <v>70</v>
       </c>
       <c r="F19" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="G19" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-    </row>
-    <row r="20" spans="1:8" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="87" t="s">
+      <c r="H19" s="52" t="s">
+        <v>198</v>
+      </c>
+      <c r="I19" s="52"/>
+    </row>
+    <row r="20" spans="1:9" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="86" t="s">
         <v>88</v>
       </c>
-      <c r="B20" s="88"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="88"/>
-      <c r="H20" s="89"/>
-    </row>
-    <row r="21" spans="1:8" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="47">
+      <c r="B20" s="87"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="87"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="88"/>
+    </row>
+    <row r="21" spans="1:9" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="64">
         <v>17</v>
       </c>
       <c r="B21" s="55" t="s">
@@ -30164,13 +30432,18 @@
         <v>36</v>
       </c>
       <c r="F21" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="G21" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-    </row>
-    <row r="22" spans="1:8" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="47">
+      <c r="H21" s="52" t="s">
+        <v>175</v>
+      </c>
+      <c r="I21" s="52"/>
+    </row>
+    <row r="22" spans="1:9" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="64">
         <v>18</v>
       </c>
       <c r="B22" s="55" t="s">
@@ -30186,16 +30459,21 @@
         <v>38</v>
       </c>
       <c r="F22" s="51" t="s">
+        <v>180</v>
+      </c>
+      <c r="G22" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-    </row>
-    <row r="23" spans="1:8" s="5" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="47">
+      <c r="H22" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="I22" s="52"/>
+    </row>
+    <row r="23" spans="1:9" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="64">
         <v>19</v>
       </c>
-      <c r="B23" s="92" t="s">
+      <c r="B23" s="91" t="s">
         <v>136</v>
       </c>
       <c r="C23" s="49" t="s">
@@ -30208,51 +30486,62 @@
         <v>77</v>
       </c>
       <c r="F23" s="51" t="s">
+        <v>181</v>
+      </c>
+      <c r="G23" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-    </row>
-    <row r="24" spans="1:8" s="5" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="47">
+      <c r="H23" s="52" t="s">
+        <v>177</v>
+      </c>
+      <c r="I23" s="52"/>
+    </row>
+    <row r="24" spans="1:9" s="5" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="64">
         <v>20</v>
       </c>
-      <c r="B24" s="93"/>
+      <c r="B24" s="92"/>
       <c r="C24" s="49" t="s">
         <v>92</v>
       </c>
       <c r="D24" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="57" t="s">
+      <c r="E24" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="F24" s="57" t="s">
+      <c r="F24" s="51" t="s">
+        <v>182</v>
+      </c>
+      <c r="G24" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-    </row>
-    <row r="25" spans="1:8" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="87" t="s">
+      <c r="H24" s="52" t="s">
+        <v>178</v>
+      </c>
+      <c r="I24" s="52"/>
+    </row>
+    <row r="25" spans="1:9" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="86" t="s">
         <v>138</v>
       </c>
-      <c r="B25" s="88"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="89"/>
-    </row>
-    <row r="26" spans="1:8" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="47">
+      <c r="B25" s="87"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="87"/>
+      <c r="G25" s="87"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="88"/>
+    </row>
+    <row r="26" spans="1:9" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="64">
         <v>21</v>
       </c>
-      <c r="B26" s="92" t="s">
+      <c r="B26" s="91" t="s">
         <v>144</v>
       </c>
-      <c r="C26" s="47" t="s">
+      <c r="C26" s="64" t="s">
         <v>142</v>
       </c>
       <c r="D26" s="63" t="s">
@@ -30262,17 +30551,22 @@
         <v>139</v>
       </c>
       <c r="F26" s="51" t="s">
+        <v>199</v>
+      </c>
+      <c r="G26" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="1:8" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A27" s="47">
+      <c r="H26" s="52" t="s">
+        <v>205</v>
+      </c>
+      <c r="I26" s="52"/>
+    </row>
+    <row r="27" spans="1:9" s="5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A27" s="64">
         <v>22</v>
       </c>
-      <c r="B27" s="93"/>
-      <c r="C27" s="47" t="s">
+      <c r="B27" s="92"/>
+      <c r="C27" s="64" t="s">
         <v>143</v>
       </c>
       <c r="D27" s="63" t="s">
@@ -30282,13 +30576,18 @@
         <v>145</v>
       </c>
       <c r="F27" s="51" t="s">
+        <v>200</v>
+      </c>
+      <c r="G27" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="1:8" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="65">
+      <c r="H27" s="52" t="s">
+        <v>206</v>
+      </c>
+      <c r="I27" s="52"/>
+    </row>
+    <row r="28" spans="1:9" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A28" s="64">
         <v>23</v>
       </c>
       <c r="B28" s="55" t="s">
@@ -30304,13 +30603,18 @@
         <v>161</v>
       </c>
       <c r="F28" s="51" t="s">
+        <v>201</v>
+      </c>
+      <c r="G28" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-    </row>
-    <row r="29" spans="1:8" s="5" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="65">
+      <c r="H28" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="I28" s="52"/>
+    </row>
+    <row r="29" spans="1:9" s="5" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="64">
         <v>24</v>
       </c>
       <c r="B29" s="55" t="s">
@@ -30326,19 +30630,24 @@
         <v>158</v>
       </c>
       <c r="F29" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="G29" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-    </row>
-    <row r="30" spans="1:8" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="65">
+      <c r="H29" s="52" t="s">
+        <v>208</v>
+      </c>
+      <c r="I29" s="52"/>
+    </row>
+    <row r="30" spans="1:9" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="64">
         <v>25</v>
       </c>
       <c r="B30" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="C30" s="65" t="s">
+      <c r="C30" s="64" t="s">
         <v>163</v>
       </c>
       <c r="D30" s="63" t="s">
@@ -30348,19 +30657,24 @@
         <v>164</v>
       </c>
       <c r="F30" s="51" t="s">
+        <v>203</v>
+      </c>
+      <c r="G30" s="51" t="s">
         <v>165</v>
       </c>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-    </row>
-    <row r="31" spans="1:8" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="65">
+      <c r="H30" s="52" t="s">
+        <v>209</v>
+      </c>
+      <c r="I30" s="52"/>
+    </row>
+    <row r="31" spans="1:9" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="64">
         <v>26</v>
       </c>
       <c r="B31" s="55" t="s">
         <v>166</v>
       </c>
-      <c r="C31" s="65" t="s">
+      <c r="C31" s="64" t="s">
         <v>167</v>
       </c>
       <c r="D31" s="63" t="s">
@@ -30370,220 +30684,246 @@
         <v>169</v>
       </c>
       <c r="F31" s="51" t="s">
+        <v>204</v>
+      </c>
+      <c r="G31" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-    </row>
-    <row r="32" spans="1:8" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H31" s="52" t="s">
+        <v>210</v>
+      </c>
+      <c r="I31" s="52"/>
+    </row>
+    <row r="32" spans="1:9" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
-      <c r="B32" s="85"/>
+      <c r="B32" s="84"/>
       <c r="C32" s="13"/>
       <c r="D32" s="7"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="4"/>
+      <c r="G32" s="3"/>
       <c r="H32" s="4"/>
-    </row>
-    <row r="33" spans="1:8" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I32" s="4"/>
+    </row>
+    <row r="33" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
-      <c r="B33" s="86"/>
+      <c r="B33" s="85"/>
       <c r="C33" s="13"/>
       <c r="D33" s="7"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="4"/>
+      <c r="G33" s="3"/>
       <c r="H33" s="4"/>
-    </row>
-    <row r="34" spans="1:8" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
-      <c r="B34" s="90"/>
+      <c r="B34" s="89"/>
       <c r="C34" s="14"/>
       <c r="D34" s="15"/>
       <c r="E34" s="16"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="17"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="3"/>
       <c r="H34" s="17"/>
-    </row>
-    <row r="35" spans="1:8" s="5" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I34" s="17"/>
+    </row>
+    <row r="35" spans="1:9" s="5" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
-      <c r="B35" s="91"/>
+      <c r="B35" s="90"/>
       <c r="C35" s="14"/>
       <c r="D35" s="15"/>
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
-      <c r="G35" s="17"/>
+      <c r="G35" s="16"/>
       <c r="H35" s="17"/>
-    </row>
-    <row r="36" spans="1:8" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I35" s="17"/>
+    </row>
+    <row r="36" spans="1:9" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
-      <c r="B36" s="79"/>
+      <c r="B36" s="78"/>
       <c r="C36" s="14"/>
       <c r="D36" s="15"/>
       <c r="E36" s="16"/>
       <c r="F36" s="16"/>
-      <c r="G36" s="17"/>
+      <c r="G36" s="16"/>
       <c r="H36" s="17"/>
-    </row>
-    <row r="37" spans="1:8" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I36" s="17"/>
+    </row>
+    <row r="37" spans="1:9" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
-      <c r="B37" s="80"/>
+      <c r="B37" s="79"/>
       <c r="C37" s="14"/>
       <c r="D37" s="15"/>
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
-      <c r="G37" s="17"/>
+      <c r="G37" s="16"/>
       <c r="H37" s="17"/>
-    </row>
-    <row r="38" spans="1:8" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I37" s="17"/>
+    </row>
+    <row r="38" spans="1:9" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
-      <c r="B38" s="80"/>
+      <c r="B38" s="79"/>
       <c r="C38" s="14"/>
       <c r="D38" s="15"/>
       <c r="E38" s="16"/>
       <c r="F38" s="16"/>
-      <c r="G38" s="17"/>
+      <c r="G38" s="16"/>
       <c r="H38" s="17"/>
-    </row>
-    <row r="39" spans="1:8" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I38" s="17"/>
+    </row>
+    <row r="39" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
-      <c r="B39" s="81"/>
+      <c r="B39" s="80"/>
       <c r="C39" s="14"/>
       <c r="D39" s="15"/>
       <c r="E39" s="16"/>
       <c r="F39" s="16"/>
-      <c r="G39" s="17"/>
+      <c r="G39" s="16"/>
       <c r="H39" s="17"/>
-    </row>
-    <row r="40" spans="1:8" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I39" s="17"/>
+    </row>
+    <row r="40" spans="1:9" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
-      <c r="B40" s="82"/>
+      <c r="B40" s="81"/>
       <c r="C40" s="14"/>
       <c r="D40" s="15"/>
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
-      <c r="G40" s="17"/>
+      <c r="G40" s="16"/>
       <c r="H40" s="17"/>
-    </row>
-    <row r="41" spans="1:8" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I40" s="17"/>
+    </row>
+    <row r="41" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
-      <c r="B41" s="83"/>
+      <c r="B41" s="82"/>
       <c r="C41" s="14"/>
       <c r="D41" s="15"/>
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
-      <c r="G41" s="17"/>
+      <c r="G41" s="16"/>
       <c r="H41" s="17"/>
-    </row>
-    <row r="42" spans="1:8" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I41" s="17"/>
+    </row>
+    <row r="42" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
-      <c r="B42" s="83"/>
+      <c r="B42" s="82"/>
       <c r="C42" s="14"/>
       <c r="D42" s="15"/>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="17"/>
+      <c r="G42" s="16"/>
       <c r="H42" s="17"/>
-    </row>
-    <row r="43" spans="1:8" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I42" s="17"/>
+    </row>
+    <row r="43" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
-      <c r="B43" s="83"/>
+      <c r="B43" s="82"/>
       <c r="C43" s="14"/>
       <c r="D43" s="15"/>
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
-      <c r="G43" s="17"/>
+      <c r="G43" s="16"/>
       <c r="H43" s="17"/>
-    </row>
-    <row r="44" spans="1:8" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I43" s="17"/>
+    </row>
+    <row r="44" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
-      <c r="B44" s="84"/>
+      <c r="B44" s="83"/>
       <c r="C44" s="14"/>
       <c r="D44" s="15"/>
       <c r="E44" s="16"/>
       <c r="F44" s="16"/>
-      <c r="G44" s="17"/>
+      <c r="G44" s="16"/>
       <c r="H44" s="17"/>
-    </row>
-    <row r="45" spans="1:8" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I44" s="17"/>
+    </row>
+    <row r="45" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
-      <c r="B45" s="79"/>
+      <c r="B45" s="78"/>
       <c r="C45" s="14"/>
       <c r="D45" s="18"/>
       <c r="E45" s="16"/>
       <c r="F45" s="16"/>
-      <c r="G45" s="17"/>
+      <c r="G45" s="16"/>
       <c r="H45" s="17"/>
-    </row>
-    <row r="46" spans="1:8" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I45" s="17"/>
+    </row>
+    <row r="46" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
-      <c r="B46" s="80"/>
+      <c r="B46" s="79"/>
       <c r="C46" s="14"/>
       <c r="D46" s="18"/>
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
-      <c r="G46" s="17"/>
+      <c r="G46" s="16"/>
       <c r="H46" s="17"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I46" s="17"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="7"/>
       <c r="C47" s="19"/>
       <c r="D47" s="19"/>
       <c r="E47" s="20"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="4"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="21"/>
       <c r="H47" s="4"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I47" s="4"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="7"/>
       <c r="C48" s="19"/>
       <c r="D48" s="19"/>
       <c r="E48" s="20"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="4"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="21"/>
       <c r="H48" s="4"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I48" s="4"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="7"/>
       <c r="C49" s="19"/>
       <c r="D49" s="19"/>
       <c r="E49" s="20"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="4"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="21"/>
       <c r="H49" s="4"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I49" s="4"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="7"/>
       <c r="C50" s="19"/>
       <c r="D50" s="19"/>
       <c r="E50" s="20"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="4"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="21"/>
       <c r="H50" s="4"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I50" s="4"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="7"/>
       <c r="C51" s="19"/>
       <c r="D51" s="19"/>
       <c r="E51" s="20"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="4"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="21"/>
       <c r="H51" s="4"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I51" s="4"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="7"/>
       <c r="C52" s="19"/>
       <c r="D52" s="19"/>
       <c r="E52" s="20"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="4"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="21"/>
       <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -30591,14 +30931,14 @@
     <mergeCell ref="B40:B44"/>
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A20:I20"/>
     <mergeCell ref="B34:B35"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A25:I25"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="B17:B18"/>
   </mergeCells>
@@ -30628,10 +30968,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="H29" sqref="H28:H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -30640,14 +30980,14 @@
     <col min="2" max="2" width="14.7109375" style="46" customWidth="1"/>
     <col min="3" max="3" width="19.140625" style="46" customWidth="1"/>
     <col min="4" max="4" width="19.85546875" style="46" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" style="46" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" style="46" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" style="46" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" style="46" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="46"/>
+    <col min="5" max="6" width="26.5703125" style="46" customWidth="1"/>
+    <col min="7" max="7" width="27.85546875" style="46" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" style="46" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" style="46" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A1" s="44" t="s">
         <v>4</v>
       </c>
@@ -30664,32 +31004,36 @@
         <v>7</v>
       </c>
       <c r="F1" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="G1" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="H1" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="I1" s="44" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="87" t="s">
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="89"/>
-    </row>
-    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="88"/>
+    </row>
+    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.2">
       <c r="A3" s="47">
         <v>1</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="91" t="s">
         <v>119</v>
       </c>
       <c r="C3" s="49" t="s">
@@ -30702,16 +31046,21 @@
         <v>32</v>
       </c>
       <c r="F3" s="51" t="s">
+        <v>171</v>
+      </c>
+      <c r="G3" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-    </row>
-    <row r="4" spans="1:8" ht="75" x14ac:dyDescent="0.2">
+      <c r="H3" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="I3" s="52"/>
+    </row>
+    <row r="4" spans="1:9" ht="75" x14ac:dyDescent="0.2">
       <c r="A4" s="47">
         <v>2</v>
       </c>
-      <c r="B4" s="95"/>
+      <c r="B4" s="94"/>
       <c r="C4" s="49" t="s">
         <v>57</v>
       </c>
@@ -30722,12 +31071,17 @@
         <v>33</v>
       </c>
       <c r="F4" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="G4" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-    </row>
-    <row r="5" spans="1:8" ht="75" x14ac:dyDescent="0.2">
+      <c r="H4" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="I4" s="52"/>
+    </row>
+    <row r="5" spans="1:9" ht="75" x14ac:dyDescent="0.2">
       <c r="A5" s="47">
         <v>3</v>
       </c>
@@ -30744,24 +31098,30 @@
         <v>84</v>
       </c>
       <c r="F5" s="51" t="s">
+        <v>212</v>
+      </c>
+      <c r="G5" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="87" t="s">
+      <c r="H5" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="I5" s="52"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="86" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="89"/>
-    </row>
-    <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.2">
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="88"/>
+    </row>
+    <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.2">
       <c r="A7" s="47">
         <v>4</v>
       </c>
@@ -30778,16 +31138,21 @@
         <v>70</v>
       </c>
       <c r="F7" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="G7" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-    </row>
-    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+      <c r="H7" s="52" t="s">
+        <v>198</v>
+      </c>
+      <c r="I7" s="52"/>
+    </row>
+    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.2">
       <c r="A8" s="47">
         <v>5</v>
       </c>
-      <c r="B8" s="96" t="s">
+      <c r="B8" s="95" t="s">
         <v>133</v>
       </c>
       <c r="C8" s="49" t="s">
@@ -30799,17 +31164,22 @@
       <c r="E8" s="61" t="s">
         <v>131</v>
       </c>
-      <c r="F8" s="51" t="s">
+      <c r="F8" s="61" t="s">
+        <v>215</v>
+      </c>
+      <c r="G8" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-    </row>
-    <row r="9" spans="1:8" s="59" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="H8" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="I8" s="52"/>
+    </row>
+    <row r="9" spans="1:9" s="59" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A9" s="47">
         <v>6</v>
       </c>
-      <c r="B9" s="97"/>
+      <c r="B9" s="96"/>
       <c r="C9" s="49" t="s">
         <v>111</v>
       </c>
@@ -30820,16 +31190,21 @@
         <v>107</v>
       </c>
       <c r="F9" s="61" t="s">
+        <v>216</v>
+      </c>
+      <c r="G9" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-    </row>
-    <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+      <c r="H9" s="61" t="s">
+        <v>220</v>
+      </c>
+      <c r="I9" s="60"/>
+    </row>
+    <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.2">
       <c r="A10" s="47">
         <v>7</v>
       </c>
-      <c r="B10" s="96" t="s">
+      <c r="B10" s="95" t="s">
         <v>129</v>
       </c>
       <c r="C10" s="49" t="s">
@@ -30842,16 +31217,21 @@
         <v>109</v>
       </c>
       <c r="F10" s="51" t="s">
+        <v>217</v>
+      </c>
+      <c r="G10" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-    </row>
-    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+      <c r="H10" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="I10" s="52"/>
+    </row>
+    <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.2">
       <c r="A11" s="47">
         <v>8</v>
       </c>
-      <c r="B11" s="97"/>
+      <c r="B11" s="96"/>
       <c r="C11" s="49" t="s">
         <v>132</v>
       </c>
@@ -30862,28 +31242,34 @@
         <v>114</v>
       </c>
       <c r="F11" s="61" t="s">
+        <v>218</v>
+      </c>
+      <c r="G11" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="87" t="s">
+      <c r="H11" s="52" t="s">
+        <v>197</v>
+      </c>
+      <c r="I11" s="52"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="B12" s="88"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88"/>
-      <c r="H12" s="89"/>
-    </row>
-    <row r="13" spans="1:8" ht="75" x14ac:dyDescent="0.2">
+      <c r="B12" s="87"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="88"/>
+    </row>
+    <row r="13" spans="1:9" ht="75" x14ac:dyDescent="0.2">
       <c r="A13" s="47">
         <v>9</v>
       </c>
-      <c r="B13" s="92" t="s">
+      <c r="B13" s="91" t="s">
         <v>137</v>
       </c>
       <c r="C13" s="49" t="s">
@@ -30896,16 +31282,21 @@
         <v>102</v>
       </c>
       <c r="F13" s="51" t="s">
+        <v>221</v>
+      </c>
+      <c r="G13" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-    </row>
-    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+      <c r="H13" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="I13" s="52"/>
+    </row>
+    <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.2">
       <c r="A14" s="47">
         <v>10</v>
       </c>
-      <c r="B14" s="93"/>
+      <c r="B14" s="92"/>
       <c r="C14" s="49" t="s">
         <v>99</v>
       </c>
@@ -30916,24 +31307,30 @@
         <v>100</v>
       </c>
       <c r="F14" s="51" t="s">
+        <v>222</v>
+      </c>
+      <c r="G14" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="87" t="s">
+      <c r="H14" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="I14" s="52"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="88"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="89"/>
-    </row>
-    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+      <c r="B15" s="87"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="88"/>
+    </row>
+    <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.2">
       <c r="A16" s="47">
         <v>11</v>
       </c>
@@ -30948,12 +31345,17 @@
         <v>62</v>
       </c>
       <c r="F16" s="51" t="s">
+        <v>223</v>
+      </c>
+      <c r="G16" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-    </row>
-    <row r="17" spans="1:8" ht="60" x14ac:dyDescent="0.2">
+      <c r="H16" s="52" t="s">
+        <v>228</v>
+      </c>
+      <c r="I16" s="52"/>
+    </row>
+    <row r="17" spans="1:9" ht="60" x14ac:dyDescent="0.2">
       <c r="A17" s="47">
         <v>12</v>
       </c>
@@ -30968,12 +31370,17 @@
         <v>63</v>
       </c>
       <c r="F17" s="51" t="s">
+        <v>224</v>
+      </c>
+      <c r="G17" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-    </row>
-    <row r="18" spans="1:8" ht="60" x14ac:dyDescent="0.2">
+      <c r="H17" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="I17" s="52"/>
+    </row>
+    <row r="18" spans="1:9" ht="60" x14ac:dyDescent="0.2">
       <c r="A18" s="47">
         <v>13</v>
       </c>
@@ -30988,12 +31395,17 @@
         <v>64</v>
       </c>
       <c r="F18" s="51" t="s">
+        <v>225</v>
+      </c>
+      <c r="G18" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-    </row>
-    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+      <c r="H18" s="52" t="s">
+        <v>230</v>
+      </c>
+      <c r="I18" s="52"/>
+    </row>
+    <row r="19" spans="1:9" ht="45" x14ac:dyDescent="0.2">
       <c r="A19" s="47">
         <v>14</v>
       </c>
@@ -31008,12 +31420,17 @@
         <v>67</v>
       </c>
       <c r="F19" s="51" t="s">
+        <v>226</v>
+      </c>
+      <c r="G19" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-    </row>
-    <row r="20" spans="1:8" ht="60" x14ac:dyDescent="0.2">
+      <c r="H19" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="I19" s="52"/>
+    </row>
+    <row r="20" spans="1:9" ht="60" x14ac:dyDescent="0.2">
       <c r="A20" s="47">
         <v>15</v>
       </c>
@@ -31028,24 +31445,30 @@
         <v>72</v>
       </c>
       <c r="F20" s="51" t="s">
+        <v>227</v>
+      </c>
+      <c r="G20" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="87" t="s">
+      <c r="H20" s="52" t="s">
+        <v>198</v>
+      </c>
+      <c r="I20" s="52"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="86" t="s">
         <v>146</v>
       </c>
-      <c r="B21" s="88"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="89"/>
-    </row>
-    <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.2">
+      <c r="B21" s="87"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="88"/>
+    </row>
+    <row r="22" spans="1:9" ht="75" x14ac:dyDescent="0.2">
       <c r="A22" s="47">
         <v>16</v>
       </c>
@@ -31060,48 +31483,56 @@
         <v>149</v>
       </c>
       <c r="F22" s="51" t="s">
+        <v>231</v>
+      </c>
+      <c r="G22" s="51" t="s">
         <v>148</v>
       </c>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="H22" s="52" t="s">
+        <v>232</v>
+      </c>
+      <c r="I22" s="52"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A23" s="56"/>
       <c r="B23" s="55"/>
       <c r="C23" s="49"/>
       <c r="D23" s="50"/>
       <c r="E23" s="51"/>
       <c r="F23" s="51"/>
-      <c r="G23" s="52"/>
+      <c r="G23" s="51"/>
       <c r="H23" s="52"/>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="I23" s="52"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A24" s="56"/>
       <c r="B24" s="48"/>
       <c r="C24" s="47"/>
       <c r="D24" s="50"/>
       <c r="E24" s="51"/>
       <c r="F24" s="51"/>
-      <c r="G24" s="52"/>
+      <c r="G24" s="51"/>
       <c r="H24" s="52"/>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="I24" s="52"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A25" s="56"/>
       <c r="B25" s="54"/>
       <c r="C25" s="47"/>
       <c r="D25" s="50"/>
       <c r="E25" s="51"/>
       <c r="F25" s="51"/>
-      <c r="G25" s="52"/>
+      <c r="G25" s="51"/>
       <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A6:I6"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B8:B9"/>
@@ -31112,7 +31543,7 @@
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
           <x14:formula1>
             <xm:f>'C:\Users\US\Downloads\[K22T2-Team8-MessageList-ver0.1.xlsx]Sheet4'!#REF!</xm:f>

--- a/Improgress/2. Artifact and Deliverable/DetailDesign & Architect/Design/DE_MessageList_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/DetailDesign & Architect/Design/DE_MessageList_Ver1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\DetailDesign &amp; Architect\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0AFF02-DCC3-49DD-B575-43DA43B2AB62}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06230A9-033C-460D-A8DD-178B37965CA7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="450" windowWidth="15405" windowHeight="11070" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="358">
   <si>
     <t>Project Name:</t>
   </si>
@@ -822,9 +822,6 @@
     <t>Account locked successfully</t>
   </si>
   <si>
-    <t>Alerts hidden(locked) accounts successfully</t>
-  </si>
-  <si>
     <t>Thông báo đã bật lại tài khoản thành công</t>
   </si>
   <si>
@@ -1068,12 +1065,6 @@
     <t>Email không hợp lệ</t>
   </si>
   <si>
-    <t>Thông báo nhập email sai</t>
-  </si>
-  <si>
-    <t>Email notification is incorrect</t>
-  </si>
-  <si>
     <t>Invalid email</t>
   </si>
   <si>
@@ -1114,6 +1105,27 @@
   </si>
   <si>
     <t>Status may not be blank</t>
+  </si>
+  <si>
+    <t>Notice must not leave the email field blank</t>
+  </si>
+  <si>
+    <t>Thông báo nhập email sai trong chức năng thêm và sửa</t>
+  </si>
+  <si>
+    <t>MS.AMW.010</t>
+  </si>
+  <si>
+    <t>Notification of incorrect email entry in add and edit function</t>
+  </si>
+  <si>
+    <t>FR.19</t>
+  </si>
+  <si>
+    <t>Alerts hidden (locked) accounts successfully</t>
+  </si>
+  <si>
+    <t>FR.09, 10</t>
   </si>
 </sst>
 </file>
@@ -1758,9 +1770,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1768,13 +1777,22 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1822,6 +1840,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1855,12 +1879,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1874,13 +1892,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2229,18 +2241,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="67"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="69"/>
       <c r="K1" s="20"/>
       <c r="L1" s="20"/>
       <c r="M1" s="20"/>
@@ -2259,16 +2271,16 @@
       <c r="Z1" s="20"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="68"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="70"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="72"/>
       <c r="K2" s="20"/>
       <c r="L2" s="21"/>
       <c r="M2" s="21"/>
@@ -2287,24 +2299,24 @@
       <c r="Z2" s="20"/>
     </row>
     <row r="3" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="68"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="70"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="72"/>
       <c r="K3" s="22"/>
       <c r="L3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="74" t="s">
+      <c r="M3" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="75"/>
+      <c r="N3" s="77"/>
       <c r="O3" s="24"/>
       <c r="P3" s="20"/>
       <c r="Q3" s="20"/>
@@ -2319,24 +2331,24 @@
       <c r="Z3" s="20"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="68"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="70"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="72"/>
       <c r="K4" s="22"/>
       <c r="L4" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="74" t="s">
+      <c r="M4" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="75"/>
+      <c r="N4" s="77"/>
       <c r="O4" s="24"/>
       <c r="P4" s="20"/>
       <c r="Q4" s="20"/>
@@ -2351,24 +2363,24 @@
       <c r="Z4" s="20"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="68"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="70"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="22"/>
       <c r="L5" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="74" t="s">
+      <c r="M5" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="75"/>
+      <c r="N5" s="77"/>
       <c r="O5" s="24"/>
       <c r="P5" s="20"/>
       <c r="Q5" s="20"/>
@@ -2383,24 +2395,24 @@
       <c r="Z5" s="20"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="68"/>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="70"/>
+      <c r="A6" s="70"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="72"/>
       <c r="K6" s="22"/>
       <c r="L6" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="74" t="s">
+      <c r="M6" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="75"/>
+      <c r="N6" s="77"/>
       <c r="O6" s="24"/>
       <c r="P6" s="20"/>
       <c r="Q6" s="20"/>
@@ -2415,24 +2427,24 @@
       <c r="Z6" s="20"/>
     </row>
     <row r="7" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="68"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="70"/>
+      <c r="A7" s="70"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="72"/>
       <c r="K7" s="22"/>
       <c r="L7" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="76">
+      <c r="M7" s="78">
         <v>43508</v>
       </c>
-      <c r="N7" s="77"/>
+      <c r="N7" s="79"/>
       <c r="O7" s="24"/>
       <c r="P7" s="20"/>
       <c r="Q7" s="20"/>
@@ -2447,16 +2459,16 @@
       <c r="Z7" s="20"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="68"/>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="70"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="72"/>
       <c r="K8" s="20"/>
       <c r="L8" s="24"/>
       <c r="M8" s="24"/>
@@ -2475,16 +2487,16 @@
       <c r="Z8" s="20"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="68"/>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="70"/>
+      <c r="A9" s="70"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="72"/>
       <c r="K9" s="20"/>
       <c r="L9" s="24"/>
       <c r="M9" s="24"/>
@@ -2503,16 +2515,16 @@
       <c r="Z9" s="20"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="68"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="70"/>
+      <c r="A10" s="70"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="72"/>
       <c r="K10" s="20"/>
       <c r="L10" s="26"/>
       <c r="M10" s="26"/>
@@ -2531,23 +2543,23 @@
       <c r="Z10" s="20"/>
     </row>
     <row r="11" spans="1:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="68"/>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="70"/>
+      <c r="A11" s="70"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="72"/>
       <c r="K11" s="22"/>
-      <c r="L11" s="71" t="s">
+      <c r="L11" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="M11" s="72"/>
-      <c r="N11" s="72"/>
-      <c r="O11" s="73"/>
+      <c r="M11" s="74"/>
+      <c r="N11" s="74"/>
+      <c r="O11" s="75"/>
       <c r="P11" s="20"/>
       <c r="Q11" s="20"/>
       <c r="R11" s="20"/>
@@ -2561,16 +2573,16 @@
       <c r="Z11" s="20"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="68"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="70"/>
+      <c r="A12" s="70"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="72"/>
       <c r="K12" s="22"/>
       <c r="L12" s="27" t="s">
         <v>1</v>
@@ -2597,16 +2609,16 @@
       <c r="Z12" s="20"/>
     </row>
     <row r="13" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="68"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="70"/>
+      <c r="A13" s="70"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="72"/>
       <c r="K13" s="22"/>
       <c r="L13" s="28" t="s">
         <v>28</v>
@@ -2633,16 +2645,16 @@
       <c r="Z13" s="20"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="68"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="70"/>
+      <c r="A14" s="70"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="72"/>
       <c r="K14" s="22"/>
       <c r="L14" s="32"/>
       <c r="M14" s="33"/>
@@ -2661,16 +2673,16 @@
       <c r="Z14" s="20"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="68"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="70"/>
+      <c r="A15" s="70"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="72"/>
       <c r="K15" s="22"/>
       <c r="L15" s="32"/>
       <c r="M15" s="33"/>
@@ -2689,16 +2701,16 @@
       <c r="Z15" s="20"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="68"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="70"/>
+      <c r="A16" s="70"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="72"/>
       <c r="K16" s="22"/>
       <c r="L16" s="34"/>
       <c r="M16" s="35"/>
@@ -2717,16 +2729,16 @@
       <c r="Z16" s="20"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="68"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="70"/>
+      <c r="A17" s="70"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="72"/>
       <c r="K17" s="22"/>
       <c r="L17" s="34"/>
       <c r="M17" s="35"/>
@@ -2745,16 +2757,16 @@
       <c r="Z17" s="20"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="68"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="70"/>
+      <c r="A18" s="70"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="72"/>
       <c r="K18" s="22"/>
       <c r="L18" s="34"/>
       <c r="M18" s="35"/>
@@ -2773,16 +2785,16 @@
       <c r="Z18" s="20"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="68"/>
-      <c r="B19" s="69"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="70"/>
+      <c r="A19" s="70"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="72"/>
       <c r="K19" s="22"/>
       <c r="L19" s="34"/>
       <c r="M19" s="35"/>
@@ -2801,16 +2813,16 @@
       <c r="Z19" s="20"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="68"/>
-      <c r="B20" s="69"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="70"/>
+      <c r="A20" s="70"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="72"/>
       <c r="K20" s="22"/>
       <c r="L20" s="34"/>
       <c r="M20" s="35"/>
@@ -30285,10 +30297,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J75"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30334,23 +30346,23 @@
       </c>
     </row>
     <row r="2" spans="1:10" s="4" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="88" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="86"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="90"/>
     </row>
     <row r="3" spans="1:10" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="62">
+      <c r="A3" s="60">
         <v>1</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="80" t="s">
         <v>115</v>
       </c>
       <c r="C3" s="47" t="s">
@@ -30374,12 +30386,10 @@
       <c r="I3" s="50"/>
     </row>
     <row r="4" spans="1:10" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="63">
+      <c r="A4" s="61">
         <v>2</v>
       </c>
-      <c r="B4" s="53" t="s">
-        <v>115</v>
-      </c>
+      <c r="B4" s="94"/>
       <c r="C4" s="47" t="s">
         <v>34</v>
       </c>
@@ -30402,8 +30412,10 @@
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="63"/>
-      <c r="B5" s="53"/>
+      <c r="A5" s="65">
+        <v>3</v>
+      </c>
+      <c r="B5" s="94"/>
       <c r="C5" s="47" t="s">
         <v>232</v>
       </c>
@@ -30425,11 +30437,11 @@
       <c r="I5" s="50"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="63">
-        <v>3</v>
-      </c>
-      <c r="B6" s="51"/>
+    <row r="6" spans="1:10" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="65">
+        <v>4</v>
+      </c>
+      <c r="B6" s="81"/>
       <c r="C6" s="47" t="s">
         <v>243</v>
       </c>
@@ -30440,7 +30452,7 @@
         <v>233</v>
       </c>
       <c r="F6" s="49" t="s">
-        <v>167</v>
+        <v>351</v>
       </c>
       <c r="G6" s="49" t="s">
         <v>234</v>
@@ -30452,23 +30464,23 @@
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="85"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="86"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="90"/>
     </row>
     <row r="8" spans="1:10" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="62">
+      <c r="A8" s="60">
         <v>3</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="64" t="s">
         <v>121</v>
       </c>
       <c r="C8" s="47" t="s">
@@ -30492,10 +30504,10 @@
       <c r="I8" s="50"/>
     </row>
     <row r="9" spans="1:10" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="62">
+      <c r="A9" s="60">
         <v>4</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="64" t="s">
         <v>122</v>
       </c>
       <c r="C9" s="47" t="s">
@@ -30511,18 +30523,18 @@
         <v>173</v>
       </c>
       <c r="G9" s="49" t="s">
+        <v>262</v>
+      </c>
+      <c r="H9" s="50" t="s">
         <v>263</v>
       </c>
-      <c r="H9" s="50" t="s">
-        <v>264</v>
-      </c>
       <c r="I9" s="50"/>
     </row>
     <row r="10" spans="1:10" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="62">
+      <c r="A10" s="60">
         <v>5</v>
       </c>
-      <c r="B10" s="91" t="s">
+      <c r="B10" s="80" t="s">
         <v>123</v>
       </c>
       <c r="C10" s="47" t="s">
@@ -30546,10 +30558,10 @@
       <c r="I10" s="50"/>
     </row>
     <row r="11" spans="1:10" s="4" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="63">
+      <c r="A11" s="61">
         <v>6</v>
       </c>
-      <c r="B11" s="91"/>
+      <c r="B11" s="94"/>
       <c r="C11" s="47" t="s">
         <v>73</v>
       </c>
@@ -30571,10 +30583,10 @@
       <c r="I11" s="50"/>
     </row>
     <row r="12" spans="1:10" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="63">
+      <c r="A12" s="61">
         <v>7</v>
       </c>
-      <c r="B12" s="52"/>
+      <c r="B12" s="94"/>
       <c r="C12" s="47" t="s">
         <v>228</v>
       </c>
@@ -30587,19 +30599,19 @@
       <c r="F12" s="49" t="s">
         <v>231</v>
       </c>
-      <c r="G12" s="96" t="s">
+      <c r="G12" s="62" t="s">
         <v>230</v>
       </c>
-      <c r="H12" s="97" t="s">
+      <c r="H12" s="63" t="s">
         <v>230</v>
       </c>
       <c r="I12" s="50"/>
     </row>
     <row r="13" spans="1:10" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="63">
+      <c r="A13" s="61">
         <v>8</v>
       </c>
-      <c r="B13" s="52"/>
+      <c r="B13" s="94"/>
       <c r="C13" s="47" t="s">
         <v>244</v>
       </c>
@@ -30612,19 +30624,19 @@
       <c r="F13" s="49" t="s">
         <v>248</v>
       </c>
-      <c r="G13" s="96" t="s">
+      <c r="G13" s="49" t="s">
         <v>250</v>
       </c>
-      <c r="H13" s="97" t="s">
+      <c r="H13" s="50" t="s">
         <v>252</v>
       </c>
       <c r="I13" s="50"/>
     </row>
     <row r="14" spans="1:10" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="63">
+      <c r="A14" s="61">
         <v>9</v>
       </c>
-      <c r="B14" s="52"/>
+      <c r="B14" s="94"/>
       <c r="C14" s="47" t="s">
         <v>246</v>
       </c>
@@ -30637,107 +30649,109 @@
       <c r="F14" s="49" t="s">
         <v>249</v>
       </c>
-      <c r="G14" s="96" t="s">
-        <v>337</v>
-      </c>
-      <c r="H14" s="97" t="s">
+      <c r="G14" s="49" t="s">
+        <v>234</v>
+      </c>
+      <c r="H14" s="50" t="s">
         <v>251</v>
       </c>
       <c r="I14" s="50"/>
     </row>
-    <row r="15" spans="1:10" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="63">
-        <v>10</v>
-      </c>
-      <c r="B15" s="52"/>
+    <row r="15" spans="1:10" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="65">
+        <v>11</v>
+      </c>
+      <c r="B15" s="81"/>
       <c r="C15" s="47" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D15" s="48" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="49" t="s">
-        <v>254</v>
+        <v>352</v>
       </c>
       <c r="F15" s="49" t="s">
-        <v>256</v>
+        <v>354</v>
       </c>
       <c r="G15" s="49" t="s">
-        <v>253</v>
+        <v>336</v>
       </c>
       <c r="H15" s="50" t="s">
-        <v>255</v>
+        <v>337</v>
       </c>
       <c r="I15" s="50"/>
     </row>
-    <row r="16" spans="1:10" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="63">
-        <v>11</v>
-      </c>
-      <c r="B16" s="52"/>
+    <row r="16" spans="1:10" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="65">
+        <v>10</v>
+      </c>
+      <c r="B16" s="80" t="s">
+        <v>355</v>
+      </c>
       <c r="C16" s="47" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D16" s="48" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="49" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F16" s="49" t="s">
-        <v>258</v>
+        <v>356</v>
       </c>
       <c r="G16" s="49" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="H16" s="50" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="I16" s="50"/>
     </row>
-    <row r="17" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="63">
+    <row r="17" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="65">
         <v>11</v>
       </c>
-      <c r="B17" s="52"/>
+      <c r="B17" s="94"/>
       <c r="C17" s="47" t="s">
-        <v>262</v>
+        <v>353</v>
       </c>
       <c r="D17" s="48" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="49" t="s">
-        <v>338</v>
+        <v>256</v>
       </c>
       <c r="F17" s="49" t="s">
-        <v>339</v>
+        <v>257</v>
       </c>
       <c r="G17" s="49" t="s">
-        <v>337</v>
+        <v>258</v>
       </c>
       <c r="H17" s="50" t="s">
-        <v>340</v>
+        <v>259</v>
       </c>
       <c r="I17" s="50"/>
     </row>
     <row r="18" spans="1:9" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="84" t="s">
+      <c r="A18" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="85"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="86"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="90"/>
     </row>
     <row r="19" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="56">
-        <v>7</v>
-      </c>
-      <c r="B19" s="53" t="s">
+      <c r="A19" s="54">
+        <v>12</v>
+      </c>
+      <c r="B19" s="65" t="s">
         <v>116</v>
       </c>
       <c r="C19" s="47" t="s">
@@ -30753,18 +30767,18 @@
         <v>176</v>
       </c>
       <c r="G19" s="49" t="s">
+        <v>269</v>
+      </c>
+      <c r="H19" s="50" t="s">
         <v>270</v>
       </c>
-      <c r="H19" s="50" t="s">
-        <v>271</v>
-      </c>
       <c r="I19" s="50"/>
     </row>
     <row r="20" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="60">
-        <v>8</v>
-      </c>
-      <c r="B20" s="53" t="s">
+      <c r="A20" s="54">
+        <v>13</v>
+      </c>
+      <c r="B20" s="65" t="s">
         <v>146</v>
       </c>
       <c r="C20" s="47" t="s">
@@ -30788,10 +30802,10 @@
       <c r="I20" s="50"/>
     </row>
     <row r="21" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="60">
-        <v>9</v>
-      </c>
-      <c r="B21" s="53" t="s">
+      <c r="A21" s="54">
+        <v>14</v>
+      </c>
+      <c r="B21" s="65" t="s">
         <v>117</v>
       </c>
       <c r="C21" s="47" t="s">
@@ -30807,18 +30821,18 @@
         <v>178</v>
       </c>
       <c r="G21" s="49" t="s">
+        <v>274</v>
+      </c>
+      <c r="H21" s="50" t="s">
         <v>275</v>
       </c>
-      <c r="H21" s="50" t="s">
-        <v>276</v>
-      </c>
       <c r="I21" s="50"/>
     </row>
     <row r="22" spans="1:9" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="60">
-        <v>10</v>
-      </c>
-      <c r="B22" s="53" t="s">
+      <c r="A22" s="54">
+        <v>15</v>
+      </c>
+      <c r="B22" s="65" t="s">
         <v>118</v>
       </c>
       <c r="C22" s="47" t="s">
@@ -30834,18 +30848,18 @@
         <v>179</v>
       </c>
       <c r="G22" s="49" t="s">
+        <v>274</v>
+      </c>
+      <c r="H22" s="50" t="s">
         <v>275</v>
-      </c>
-      <c r="H22" s="50" t="s">
-        <v>276</v>
       </c>
       <c r="I22" s="50"/>
     </row>
     <row r="23" spans="1:9" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="54">
-        <v>11</v>
-      </c>
-      <c r="B23" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="65" t="s">
         <v>145</v>
       </c>
       <c r="C23" s="47" t="s">
@@ -30870,9 +30884,9 @@
     </row>
     <row r="24" spans="1:9" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="54">
-        <v>12</v>
-      </c>
-      <c r="B24" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="65" t="s">
         <v>146</v>
       </c>
       <c r="C24" s="47" t="s">
@@ -30897,9 +30911,9 @@
     </row>
     <row r="25" spans="1:9" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="54">
-        <v>13</v>
-      </c>
-      <c r="B25" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="93" t="s">
         <v>119</v>
       </c>
       <c r="C25" s="47" t="s">
@@ -30924,22 +30938,22 @@
     </row>
     <row r="26" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="54">
-        <v>14</v>
-      </c>
-      <c r="B26" s="91"/>
+        <v>19</v>
+      </c>
+      <c r="B26" s="93"/>
       <c r="C26" s="47" t="s">
         <v>90</v>
       </c>
       <c r="D26" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="59" t="s">
+      <c r="E26" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="F26" s="59" t="s">
+      <c r="F26" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="G26" s="59" t="s">
+      <c r="G26" s="58" t="s">
         <v>108</v>
       </c>
       <c r="H26" s="50" t="s">
@@ -30949,9 +30963,9 @@
     </row>
     <row r="27" spans="1:9" s="44" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A27" s="54">
-        <v>15</v>
-      </c>
-      <c r="B27" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="66" t="s">
         <v>148</v>
       </c>
       <c r="C27" s="47" t="s">
@@ -30976,43 +30990,49 @@
     </row>
     <row r="28" spans="1:9" s="44" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A28" s="54">
-        <v>15</v>
-      </c>
-      <c r="B28" s="53"/>
+        <v>21</v>
+      </c>
+      <c r="B28" s="65" t="s">
+        <v>357</v>
+      </c>
       <c r="C28" s="47" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D28" s="48" t="s">
         <v>11</v>
       </c>
       <c r="E28" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="F28" s="49" t="s">
         <v>280</v>
       </c>
-      <c r="F28" s="49" t="s">
-        <v>281</v>
-      </c>
       <c r="G28" s="49" t="s">
+        <v>272</v>
+      </c>
+      <c r="H28" s="50" t="s">
         <v>273</v>
       </c>
-      <c r="H28" s="50" t="s">
-        <v>274</v>
-      </c>
       <c r="I28" s="50"/>
     </row>
     <row r="29" spans="1:9" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A29" s="54"/>
-      <c r="B29" s="53"/>
+      <c r="A29" s="54">
+        <v>22</v>
+      </c>
+      <c r="B29" s="65" t="s">
+        <v>145</v>
+      </c>
       <c r="C29" s="47" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D29" s="48" t="s">
         <v>11</v>
       </c>
       <c r="E29" s="49" t="s">
+        <v>276</v>
+      </c>
+      <c r="F29" s="49" t="s">
         <v>277</v>
-      </c>
-      <c r="F29" s="49" t="s">
-        <v>278</v>
       </c>
       <c r="G29" s="49" t="s">
         <v>220</v>
@@ -31022,164 +31042,194 @@
       </c>
       <c r="I29" s="50"/>
     </row>
-    <row r="30" spans="1:9" s="44" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="54"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="50"/>
-    </row>
-    <row r="31" spans="1:9" s="44" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="54"/>
-      <c r="B31" s="51"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="50"/>
+    <row r="30" spans="1:9" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="88" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="89"/>
+      <c r="C30" s="89"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="89"/>
+      <c r="F30" s="89"/>
+      <c r="G30" s="89"/>
+      <c r="H30" s="89"/>
+      <c r="I30" s="90"/>
+    </row>
+    <row r="31" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="65">
+        <v>23</v>
+      </c>
+      <c r="B31" s="65" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" s="49" t="s">
+        <v>172</v>
+      </c>
+      <c r="G31" s="49" t="s">
+        <v>318</v>
+      </c>
+      <c r="H31" s="50" t="s">
+        <v>319</v>
+      </c>
       <c r="I31" s="50"/>
     </row>
-    <row r="32" spans="1:9" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="84" t="s">
-        <v>84</v>
-      </c>
-      <c r="B32" s="85"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="85"/>
-      <c r="E32" s="85"/>
-      <c r="F32" s="85"/>
-      <c r="G32" s="85"/>
-      <c r="H32" s="85"/>
-      <c r="I32" s="86"/>
-    </row>
-    <row r="33" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="62">
-        <v>17</v>
-      </c>
-      <c r="B33" s="53" t="s">
-        <v>129</v>
+    <row r="32" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="65">
+        <v>24</v>
+      </c>
+      <c r="B32" s="65" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="G32" s="49" t="s">
+        <v>320</v>
+      </c>
+      <c r="H32" s="50" t="s">
+        <v>321</v>
+      </c>
+      <c r="I32" s="50"/>
+    </row>
+    <row r="33" spans="1:9" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A33" s="65">
+        <v>25</v>
+      </c>
+      <c r="B33" s="80" t="s">
+        <v>131</v>
       </c>
       <c r="C33" s="47" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D33" s="48" t="s">
         <v>11</v>
       </c>
       <c r="E33" s="49" t="s">
-        <v>36</v>
+        <v>317</v>
       </c>
       <c r="F33" s="49" t="s">
-        <v>172</v>
+        <v>316</v>
       </c>
       <c r="G33" s="49" t="s">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="H33" s="50" t="s">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="I33" s="50"/>
     </row>
-    <row r="34" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="62">
-        <v>18</v>
-      </c>
-      <c r="B34" s="53" t="s">
-        <v>130</v>
-      </c>
+    <row r="34" spans="1:9" s="4" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="65">
+        <v>26</v>
+      </c>
+      <c r="B34" s="81"/>
       <c r="C34" s="47" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D34" s="48" t="s">
         <v>11</v>
       </c>
       <c r="E34" s="49" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="F34" s="49" t="s">
-        <v>173</v>
-      </c>
-      <c r="G34" s="49" t="s">
-        <v>321</v>
+        <v>175</v>
+      </c>
+      <c r="G34" s="55" t="s">
+        <v>314</v>
       </c>
       <c r="H34" s="50" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="I34" s="50"/>
     </row>
-    <row r="35" spans="1:9" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A35" s="62">
-        <v>19</v>
-      </c>
-      <c r="B35" s="89" t="s">
-        <v>131</v>
-      </c>
+    <row r="35" spans="1:9" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="65">
+        <v>27</v>
+      </c>
+      <c r="B35" s="66"/>
       <c r="C35" s="47" t="s">
-        <v>87</v>
+        <v>295</v>
       </c>
       <c r="D35" s="48" t="s">
         <v>11</v>
       </c>
       <c r="E35" s="49" t="s">
-        <v>318</v>
+        <v>281</v>
       </c>
       <c r="F35" s="49" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="G35" s="49" t="s">
-        <v>341</v>
+        <v>284</v>
       </c>
       <c r="H35" s="50" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="I35" s="50"/>
     </row>
-    <row r="36" spans="1:9" s="4" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="63">
-        <v>20</v>
-      </c>
-      <c r="B36" s="90"/>
+    <row r="36" spans="1:9" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" s="65">
+        <v>28</v>
+      </c>
+      <c r="B36" s="66"/>
       <c r="C36" s="47" t="s">
-        <v>88</v>
+        <v>296</v>
       </c>
       <c r="D36" s="48" t="s">
         <v>11</v>
       </c>
       <c r="E36" s="49" t="s">
-        <v>71</v>
+        <v>282</v>
       </c>
       <c r="F36" s="49" t="s">
-        <v>175</v>
-      </c>
-      <c r="G36" s="55" t="s">
-        <v>315</v>
+        <v>326</v>
+      </c>
+      <c r="G36" s="49" t="s">
+        <v>285</v>
       </c>
       <c r="H36" s="50" t="s">
-        <v>316</v>
+        <v>342</v>
       </c>
       <c r="I36" s="50"/>
     </row>
     <row r="37" spans="1:9" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" s="63"/>
-      <c r="B37" s="64"/>
+      <c r="A37" s="65">
+        <v>29</v>
+      </c>
+      <c r="B37" s="66"/>
       <c r="C37" s="47" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D37" s="48" t="s">
         <v>11</v>
       </c>
       <c r="E37" s="49" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F37" s="49" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G37" s="49" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H37" s="50" t="s">
         <v>343</v>
@@ -31187,424 +31237,442 @@
       <c r="I37" s="50"/>
     </row>
     <row r="38" spans="1:9" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A38" s="63"/>
-      <c r="B38" s="64"/>
+      <c r="A38" s="65">
+        <v>30</v>
+      </c>
+      <c r="B38" s="66"/>
       <c r="C38" s="47" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D38" s="48" t="s">
         <v>11</v>
       </c>
       <c r="E38" s="49" t="s">
-        <v>283</v>
+        <v>306</v>
       </c>
       <c r="F38" s="49" t="s">
-        <v>327</v>
-      </c>
-      <c r="G38" s="49" t="s">
-        <v>286</v>
+        <v>328</v>
+      </c>
+      <c r="G38" s="55" t="s">
+        <v>287</v>
       </c>
       <c r="H38" s="50" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="I38" s="50"/>
     </row>
     <row r="39" spans="1:9" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A39" s="63"/>
-      <c r="B39" s="64"/>
+      <c r="A39" s="65">
+        <v>31</v>
+      </c>
+      <c r="B39" s="66"/>
       <c r="C39" s="47" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D39" s="48" t="s">
         <v>11</v>
       </c>
       <c r="E39" s="49" t="s">
-        <v>284</v>
+        <v>307</v>
       </c>
       <c r="F39" s="49" t="s">
-        <v>328</v>
-      </c>
-      <c r="G39" s="49" t="s">
-        <v>287</v>
+        <v>329</v>
+      </c>
+      <c r="G39" s="55" t="s">
+        <v>288</v>
       </c>
       <c r="H39" s="50" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I39" s="50"/>
     </row>
-    <row r="40" spans="1:9" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" s="63"/>
-      <c r="B40" s="64"/>
+    <row r="40" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="65">
+        <v>32</v>
+      </c>
+      <c r="B40" s="66"/>
       <c r="C40" s="47" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D40" s="48" t="s">
         <v>11</v>
       </c>
       <c r="E40" s="49" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F40" s="49" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G40" s="55" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H40" s="50" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I40" s="50"/>
     </row>
     <row r="41" spans="1:9" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A41" s="63"/>
-      <c r="B41" s="64"/>
+      <c r="A41" s="65">
+        <v>33</v>
+      </c>
+      <c r="B41" s="66"/>
       <c r="C41" s="47" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D41" s="48" t="s">
         <v>11</v>
       </c>
       <c r="E41" s="49" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F41" s="49" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G41" s="55" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H41" s="50" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I41" s="50"/>
     </row>
-    <row r="42" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="63"/>
-      <c r="B42" s="64"/>
+    <row r="42" spans="1:9" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42" s="65">
+        <v>34</v>
+      </c>
+      <c r="B42" s="66"/>
       <c r="C42" s="47" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D42" s="48" t="s">
         <v>11</v>
       </c>
       <c r="E42" s="49" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F42" s="49" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G42" s="55" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H42" s="50" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I42" s="50"/>
     </row>
     <row r="43" spans="1:9" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A43" s="63"/>
-      <c r="B43" s="64"/>
+      <c r="A43" s="65">
+        <v>35</v>
+      </c>
+      <c r="B43" s="66"/>
       <c r="C43" s="47" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D43" s="48" t="s">
         <v>11</v>
       </c>
       <c r="E43" s="49" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F43" s="49" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G43" s="55" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H43" s="50" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I43" s="50"/>
     </row>
     <row r="44" spans="1:9" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A44" s="63"/>
-      <c r="B44" s="64"/>
+      <c r="A44" s="65">
+        <v>36</v>
+      </c>
+      <c r="B44" s="66"/>
       <c r="C44" s="47" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D44" s="48" t="s">
         <v>11</v>
       </c>
       <c r="E44" s="49" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F44" s="49" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G44" s="55" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H44" s="50" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I44" s="50"/>
     </row>
     <row r="45" spans="1:9" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A45" s="63"/>
-      <c r="B45" s="64"/>
+      <c r="A45" s="65">
+        <v>37</v>
+      </c>
+      <c r="B45" s="66"/>
       <c r="C45" s="47" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D45" s="48" t="s">
         <v>11</v>
       </c>
       <c r="E45" s="49" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F45" s="49" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G45" s="55" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H45" s="50" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I45" s="50"/>
     </row>
-    <row r="46" spans="1:9" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A46" s="63"/>
-      <c r="B46" s="64"/>
-      <c r="C46" s="47" t="s">
-        <v>305</v>
-      </c>
-      <c r="D46" s="48" t="s">
+    <row r="46" spans="1:9" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="88" t="s">
+        <v>133</v>
+      </c>
+      <c r="B46" s="89"/>
+      <c r="C46" s="89"/>
+      <c r="D46" s="89"/>
+      <c r="E46" s="89"/>
+      <c r="F46" s="89"/>
+      <c r="G46" s="89"/>
+      <c r="H46" s="89"/>
+      <c r="I46" s="90"/>
+    </row>
+    <row r="47" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="65">
+        <v>38</v>
+      </c>
+      <c r="B47" s="80" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47" s="60" t="s">
+        <v>137</v>
+      </c>
+      <c r="D47" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="E46" s="49" t="s">
-        <v>313</v>
-      </c>
-      <c r="F46" s="49" t="s">
-        <v>335</v>
-      </c>
-      <c r="G46" s="55" t="s">
-        <v>294</v>
-      </c>
-      <c r="H46" s="50" t="s">
-        <v>352</v>
-      </c>
-      <c r="I46" s="50"/>
-    </row>
-    <row r="47" spans="1:9" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A47" s="63"/>
-      <c r="B47" s="51"/>
-      <c r="C47" s="47" t="s">
-        <v>306</v>
-      </c>
-      <c r="D47" s="48" t="s">
+      <c r="E47" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="F47" s="49" t="s">
+        <v>189</v>
+      </c>
+      <c r="G47" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="H47" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="I47" s="50"/>
+    </row>
+    <row r="48" spans="1:9" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A48" s="65">
+        <v>39</v>
+      </c>
+      <c r="B48" s="81"/>
+      <c r="C48" s="60" t="s">
+        <v>138</v>
+      </c>
+      <c r="D48" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="E47" s="49" t="s">
-        <v>314</v>
-      </c>
-      <c r="F47" s="49" t="s">
-        <v>336</v>
-      </c>
-      <c r="G47" s="55" t="s">
-        <v>295</v>
-      </c>
-      <c r="H47" s="50" t="s">
-        <v>353</v>
-      </c>
-      <c r="I47" s="50"/>
-    </row>
-    <row r="48" spans="1:9" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="84" t="s">
-        <v>133</v>
-      </c>
-      <c r="B48" s="85"/>
-      <c r="C48" s="85"/>
-      <c r="D48" s="85"/>
-      <c r="E48" s="85"/>
-      <c r="F48" s="85"/>
-      <c r="G48" s="85"/>
-      <c r="H48" s="85"/>
-      <c r="I48" s="86"/>
-    </row>
-    <row r="49" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="62">
-        <v>21</v>
-      </c>
-      <c r="B49" s="89" t="s">
-        <v>139</v>
-      </c>
-      <c r="C49" s="62" t="s">
-        <v>137</v>
-      </c>
-      <c r="D49" s="61" t="s">
+      <c r="E48" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="F48" s="49" t="s">
+        <v>190</v>
+      </c>
+      <c r="G48" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="H48" s="50" t="s">
+        <v>194</v>
+      </c>
+      <c r="I48" s="50"/>
+    </row>
+    <row r="49" spans="1:9" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A49" s="65">
+        <v>40</v>
+      </c>
+      <c r="B49" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="C49" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="D49" s="59" t="s">
         <v>11</v>
       </c>
       <c r="E49" s="49" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="F49" s="49" t="s">
-        <v>189</v>
+        <v>225</v>
       </c>
       <c r="G49" s="49" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="H49" s="50" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="I49" s="50"/>
     </row>
-    <row r="50" spans="1:9" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A50" s="62">
-        <v>22</v>
-      </c>
-      <c r="B50" s="90"/>
-      <c r="C50" s="62" t="s">
-        <v>138</v>
-      </c>
-      <c r="D50" s="61" t="s">
+    <row r="50" spans="1:9" s="4" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="65">
+        <v>41</v>
+      </c>
+      <c r="B50" s="65" t="s">
+        <v>152</v>
+      </c>
+      <c r="C50" s="60" t="s">
+        <v>150</v>
+      </c>
+      <c r="D50" s="59" t="s">
         <v>11</v>
       </c>
       <c r="E50" s="49" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="F50" s="49" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G50" s="49" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="H50" s="50" t="s">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="I50" s="50"/>
     </row>
-    <row r="51" spans="1:9" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A51" s="62">
-        <v>23</v>
-      </c>
-      <c r="B51" s="53" t="s">
-        <v>157</v>
-      </c>
-      <c r="C51" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="D51" s="61" t="s">
+    <row r="51" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="65">
+        <v>42</v>
+      </c>
+      <c r="B51" s="65" t="s">
+        <v>155</v>
+      </c>
+      <c r="C51" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="D51" s="59" t="s">
         <v>11</v>
       </c>
       <c r="E51" s="49" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F51" s="49" t="s">
-        <v>225</v>
+        <v>192</v>
       </c>
       <c r="G51" s="49" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="H51" s="50" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="I51" s="50"/>
     </row>
-    <row r="52" spans="1:9" s="4" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="62">
-        <v>24</v>
-      </c>
-      <c r="B52" s="53" t="s">
-        <v>152</v>
-      </c>
-      <c r="C52" s="62" t="s">
-        <v>150</v>
-      </c>
-      <c r="D52" s="61" t="s">
+    <row r="52" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="65">
+        <v>43</v>
+      </c>
+      <c r="B52" s="80" t="s">
+        <v>161</v>
+      </c>
+      <c r="C52" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="D52" s="59" t="s">
         <v>11</v>
       </c>
       <c r="E52" s="49" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="F52" s="49" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="G52" s="49" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="H52" s="50" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I52" s="50"/>
     </row>
     <row r="53" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="62">
-        <v>25</v>
-      </c>
-      <c r="B53" s="53" t="s">
-        <v>155</v>
-      </c>
-      <c r="C53" s="62" t="s">
-        <v>158</v>
-      </c>
-      <c r="D53" s="61" t="s">
+      <c r="A53" s="65">
+        <v>44</v>
+      </c>
+      <c r="B53" s="81"/>
+      <c r="C53" s="61" t="s">
+        <v>219</v>
+      </c>
+      <c r="D53" s="59" t="s">
         <v>11</v>
       </c>
       <c r="E53" s="49" t="s">
-        <v>159</v>
+        <v>218</v>
       </c>
       <c r="F53" s="49" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="G53" s="49" t="s">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="H53" s="50" t="s">
-        <v>195</v>
-      </c>
-      <c r="I53" s="50"/>
-    </row>
-    <row r="54" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="62">
-        <v>26</v>
-      </c>
-      <c r="B54" s="89" t="s">
-        <v>161</v>
-      </c>
-      <c r="C54" s="62" t="s">
-        <v>162</v>
-      </c>
-      <c r="D54" s="61" t="s">
+        <v>221</v>
+      </c>
+      <c r="I53" s="3"/>
+    </row>
+    <row r="54" spans="1:9" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A54" s="65">
+        <v>45</v>
+      </c>
+      <c r="B54" s="97"/>
+      <c r="C54" s="61" t="s">
+        <v>268</v>
+      </c>
+      <c r="D54" s="59" t="s">
         <v>11</v>
       </c>
       <c r="E54" s="49" t="s">
-        <v>164</v>
+        <v>266</v>
       </c>
       <c r="F54" s="49" t="s">
-        <v>226</v>
+        <v>267</v>
       </c>
       <c r="G54" s="49" t="s">
-        <v>163</v>
+        <v>264</v>
       </c>
       <c r="H54" s="50" t="s">
-        <v>224</v>
-      </c>
-      <c r="I54" s="50"/>
+        <v>265</v>
+      </c>
+      <c r="I54" s="3"/>
     </row>
     <row r="55" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="63">
-        <v>27</v>
-      </c>
-      <c r="B55" s="90"/>
-      <c r="C55" s="63" t="s">
-        <v>219</v>
-      </c>
-      <c r="D55" s="61" t="s">
-        <v>11</v>
-      </c>
+      <c r="A55" s="65">
+        <v>46</v>
+      </c>
+      <c r="B55" s="91"/>
+      <c r="C55" s="61" t="s">
+        <v>322</v>
+      </c>
+      <c r="D55" s="13"/>
       <c r="E55" s="49" t="s">
-        <v>218</v>
+        <v>323</v>
       </c>
       <c r="F55" s="49" t="s">
-        <v>227</v>
+        <v>324</v>
       </c>
       <c r="G55" s="49" t="s">
         <v>220</v>
@@ -31612,55 +31680,33 @@
       <c r="H55" s="50" t="s">
         <v>221</v>
       </c>
-      <c r="I55" s="3"/>
-    </row>
-    <row r="56" spans="1:9" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="I55" s="15"/>
+    </row>
+    <row r="56" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
-      <c r="B56" s="95"/>
-      <c r="C56" s="63" t="s">
-        <v>269</v>
-      </c>
-      <c r="D56" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="F56" s="49" t="s">
-        <v>268</v>
-      </c>
-      <c r="G56" s="49" t="s">
-        <v>265</v>
-      </c>
-      <c r="H56" s="50" t="s">
-        <v>266</v>
-      </c>
-      <c r="I56" s="3"/>
-    </row>
-    <row r="57" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B56" s="92"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+    </row>
+    <row r="57" spans="1:9" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
-      <c r="B57" s="87"/>
-      <c r="C57" s="63" t="s">
-        <v>323</v>
-      </c>
+      <c r="B57" s="82"/>
+      <c r="C57" s="12"/>
       <c r="D57" s="13"/>
-      <c r="E57" s="49" t="s">
-        <v>324</v>
-      </c>
-      <c r="F57" s="49" t="s">
-        <v>325</v>
-      </c>
-      <c r="G57" s="49" t="s">
-        <v>220</v>
-      </c>
-      <c r="H57" s="50" t="s">
-        <v>221</v>
-      </c>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="15"/>
       <c r="I57" s="15"/>
     </row>
-    <row r="58" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
-      <c r="B58" s="88"/>
+      <c r="B58" s="83"/>
       <c r="C58" s="12"/>
       <c r="D58" s="13"/>
       <c r="E58" s="14"/>
@@ -31669,9 +31715,9 @@
       <c r="H58" s="15"/>
       <c r="I58" s="15"/>
     </row>
-    <row r="59" spans="1:9" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
-      <c r="B59" s="78"/>
+      <c r="B59" s="83"/>
       <c r="C59" s="12"/>
       <c r="D59" s="13"/>
       <c r="E59" s="14"/>
@@ -31680,9 +31726,9 @@
       <c r="H59" s="15"/>
       <c r="I59" s="15"/>
     </row>
-    <row r="60" spans="1:9" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
-      <c r="B60" s="79"/>
+      <c r="B60" s="84"/>
       <c r="C60" s="12"/>
       <c r="D60" s="13"/>
       <c r="E60" s="14"/>
@@ -31691,9 +31737,9 @@
       <c r="H60" s="15"/>
       <c r="I60" s="15"/>
     </row>
-    <row r="61" spans="1:9" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
-      <c r="B61" s="79"/>
+      <c r="B61" s="85"/>
       <c r="C61" s="12"/>
       <c r="D61" s="13"/>
       <c r="E61" s="14"/>
@@ -31704,7 +31750,7 @@
     </row>
     <row r="62" spans="1:9" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
-      <c r="B62" s="80"/>
+      <c r="B62" s="86"/>
       <c r="C62" s="12"/>
       <c r="D62" s="13"/>
       <c r="E62" s="14"/>
@@ -31713,9 +31759,9 @@
       <c r="H62" s="15"/>
       <c r="I62" s="15"/>
     </row>
-    <row r="63" spans="1:9" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
-      <c r="B63" s="81"/>
+      <c r="B63" s="86"/>
       <c r="C63" s="12"/>
       <c r="D63" s="13"/>
       <c r="E63" s="14"/>
@@ -31726,7 +31772,7 @@
     </row>
     <row r="64" spans="1:9" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
-      <c r="B64" s="82"/>
+      <c r="B64" s="86"/>
       <c r="C64" s="12"/>
       <c r="D64" s="13"/>
       <c r="E64" s="14"/>
@@ -31737,7 +31783,7 @@
     </row>
     <row r="65" spans="1:9" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
-      <c r="B65" s="82"/>
+      <c r="B65" s="87"/>
       <c r="C65" s="12"/>
       <c r="D65" s="13"/>
       <c r="E65" s="14"/>
@@ -31750,7 +31796,7 @@
       <c r="A66" s="2"/>
       <c r="B66" s="82"/>
       <c r="C66" s="12"/>
-      <c r="D66" s="13"/>
+      <c r="D66" s="16"/>
       <c r="E66" s="14"/>
       <c r="F66" s="14"/>
       <c r="G66" s="14"/>
@@ -31761,34 +31807,34 @@
       <c r="A67" s="2"/>
       <c r="B67" s="83"/>
       <c r="C67" s="12"/>
-      <c r="D67" s="13"/>
+      <c r="D67" s="16"/>
       <c r="E67" s="14"/>
       <c r="F67" s="14"/>
       <c r="G67" s="14"/>
       <c r="H67" s="15"/>
       <c r="I67" s="15"/>
     </row>
-    <row r="68" spans="1:9" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
-      <c r="B68" s="78"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-    </row>
-    <row r="69" spans="1:9" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="6"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
-      <c r="B69" s="79"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="14"/>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
@@ -31834,44 +31880,24 @@
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="2"/>
-      <c r="B74" s="6"/>
-      <c r="C74" s="17"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="19"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="2"/>
-      <c r="B75" s="6"/>
-      <c r="C75" s="17"/>
-      <c r="D75" s="17"/>
-      <c r="E75" s="18"/>
-      <c r="F75" s="18"/>
-      <c r="G75" s="19"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-    </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="B68:B69"/>
+  <mergeCells count="16">
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="B61:B65"/>
+    <mergeCell ref="B66:B67"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A7:I7"/>
     <mergeCell ref="A18:I18"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="A48:I48"/>
-    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A30:I30"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="A46:I46"/>
+    <mergeCell ref="B47:B48"/>
     <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B10:B15"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31883,13 +31909,13 @@
           <x14:formula1>
             <xm:f>'C:\Users\US\Downloads\[K22T2-Team8-MessageList-ver0.1.xlsx]Sheet4'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>D3:D6 D33:D47 D49:D69 D19:D24 D8:D17</xm:sqref>
+          <xm:sqref>D3:D6 D31:D45 D47:D67 D19:D24 D8:D17</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{730A7F9D-217B-4758-814F-D818D85CB421}">
           <x14:formula1>
             <xm:f>'C:\Users\US\Downloads\[K22T2-Team8-MessageList-ver0.1.xlsx]Sheet4'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>D25:D31</xm:sqref>
+          <xm:sqref>D25:D29</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -31948,23 +31974,23 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="86"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="90"/>
     </row>
     <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.2">
       <c r="A3" s="45">
         <v>1</v>
       </c>
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="80" t="s">
         <v>114</v>
       </c>
       <c r="C3" s="47" t="s">
@@ -31991,7 +32017,7 @@
       <c r="A4" s="45">
         <v>2</v>
       </c>
-      <c r="B4" s="92"/>
+      <c r="B4" s="94"/>
       <c r="C4" s="47" t="s">
         <v>54</v>
       </c>
@@ -32040,17 +32066,17 @@
       <c r="I5" s="50"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="88" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="85"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="86"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="90"/>
     </row>
     <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.2">
       <c r="A7" s="45">
@@ -32083,7 +32109,7 @@
       <c r="A8" s="45">
         <v>5</v>
       </c>
-      <c r="B8" s="93" t="s">
+      <c r="B8" s="95" t="s">
         <v>128</v>
       </c>
       <c r="C8" s="47" t="s">
@@ -32092,10 +32118,10 @@
       <c r="D8" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="59" t="s">
+      <c r="E8" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="F8" s="59" t="s">
+      <c r="F8" s="58" t="s">
         <v>200</v>
       </c>
       <c r="G8" s="49" t="s">
@@ -32106,36 +32132,36 @@
       </c>
       <c r="I8" s="50"/>
     </row>
-    <row r="9" spans="1:9" s="57" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" s="56" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A9" s="45">
         <v>6</v>
       </c>
-      <c r="B9" s="94"/>
+      <c r="B9" s="96"/>
       <c r="C9" s="47" t="s">
         <v>106</v>
       </c>
       <c r="D9" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="59" t="s">
+      <c r="E9" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="F9" s="59" t="s">
+      <c r="F9" s="58" t="s">
         <v>201</v>
       </c>
-      <c r="G9" s="59" t="s">
+      <c r="G9" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="H9" s="59" t="s">
+      <c r="H9" s="58" t="s">
         <v>205</v>
       </c>
-      <c r="I9" s="58"/>
+      <c r="I9" s="57"/>
     </row>
     <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.2">
       <c r="A10" s="45">
         <v>7</v>
       </c>
-      <c r="B10" s="93" t="s">
+      <c r="B10" s="95" t="s">
         <v>124</v>
       </c>
       <c r="C10" s="47" t="s">
@@ -32162,20 +32188,20 @@
       <c r="A11" s="45">
         <v>8</v>
       </c>
-      <c r="B11" s="94"/>
+      <c r="B11" s="96"/>
       <c r="C11" s="47" t="s">
         <v>127</v>
       </c>
       <c r="D11" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="59" t="s">
+      <c r="E11" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="59" t="s">
+      <c r="F11" s="58" t="s">
         <v>203</v>
       </c>
-      <c r="G11" s="59" t="s">
+      <c r="G11" s="58" t="s">
         <v>108</v>
       </c>
       <c r="H11" s="50" t="s">
@@ -32184,23 +32210,23 @@
       <c r="I11" s="50"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="84" t="s">
+      <c r="A12" s="88" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="85"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="86"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="90"/>
     </row>
     <row r="13" spans="1:9" ht="75" x14ac:dyDescent="0.2">
       <c r="A13" s="45">
         <v>9</v>
       </c>
-      <c r="B13" s="89" t="s">
+      <c r="B13" s="80" t="s">
         <v>132</v>
       </c>
       <c r="C13" s="47" t="s">
@@ -32227,7 +32253,7 @@
       <c r="A14" s="45">
         <v>10</v>
       </c>
-      <c r="B14" s="90"/>
+      <c r="B14" s="81"/>
       <c r="C14" s="47" t="s">
         <v>95</v>
       </c>
@@ -32249,17 +32275,17 @@
       <c r="I14" s="50"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="84" t="s">
+      <c r="A15" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="85"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="86"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="90"/>
     </row>
     <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.2">
       <c r="A16" s="45">
@@ -32387,17 +32413,17 @@
       <c r="I20" s="50"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="84" t="s">
+      <c r="A21" s="88" t="s">
         <v>141</v>
       </c>
-      <c r="B21" s="85"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="85"/>
-      <c r="I21" s="86"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="90"/>
     </row>
     <row r="22" spans="1:9" ht="75" x14ac:dyDescent="0.2">
       <c r="A22" s="45">

--- a/Improgress/2. Artifact and Deliverable/DetailDesign & Architect/Design/DE_MessageList_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/DetailDesign & Architect/Design/DE_MessageList_Ver1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\DetailDesign &amp; Architect\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06230A9-033C-460D-A8DD-178B37965CA7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710E2D82-C445-477C-9B3E-718A1A2C89E9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="450" windowWidth="15405" windowHeight="11070" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="0" windowWidth="15405" windowHeight="11070" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="358">
   <si>
     <t>Project Name:</t>
   </si>
@@ -471,9 +471,6 @@
     <t>MS.SW.002</t>
   </si>
   <si>
-    <t>FR.46</t>
-  </si>
-  <si>
     <t>Thông báo khi tải file không đúng định dạng hoặc có dung lượng file trên 5MB và phải đúng các trường trong file excel</t>
   </si>
   <si>
@@ -1053,9 +1050,6 @@
     <t>Notice does not leave CSBH information field for NV when adding and editing</t>
   </si>
   <si>
-    <t>Notice does not leave CSBH information field for customers when adding and editing</t>
-  </si>
-  <si>
     <t>The message does not leave the prochure information field blank when adding and editing</t>
   </si>
   <si>
@@ -1126,6 +1120,12 @@
   </si>
   <si>
     <t>FR.09, 10</t>
+  </si>
+  <si>
+    <t>Notice does not leave CSBH information field for KH when adding and editing</t>
+  </si>
+  <si>
+    <t>FR.45</t>
   </si>
 </sst>
 </file>
@@ -1274,7 +1274,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1365,28 +1365,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1605,7 +1583,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1664,70 +1642,70 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1767,7 +1745,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1801,46 +1779,52 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1861,28 +1845,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1890,9 +1865,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2241,18 +2213,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="69"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="70"/>
       <c r="K1" s="20"/>
       <c r="L1" s="20"/>
       <c r="M1" s="20"/>
@@ -2271,16 +2243,16 @@
       <c r="Z1" s="20"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="70"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="72"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="73"/>
       <c r="K2" s="20"/>
       <c r="L2" s="21"/>
       <c r="M2" s="21"/>
@@ -2299,24 +2271,24 @@
       <c r="Z2" s="20"/>
     </row>
     <row r="3" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="70"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="72"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="73"/>
       <c r="K3" s="22"/>
       <c r="L3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="76" t="s">
+      <c r="M3" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="77"/>
+      <c r="N3" s="78"/>
       <c r="O3" s="24"/>
       <c r="P3" s="20"/>
       <c r="Q3" s="20"/>
@@ -2331,24 +2303,24 @@
       <c r="Z3" s="20"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="70"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="72"/>
+      <c r="A4" s="71"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="73"/>
       <c r="K4" s="22"/>
       <c r="L4" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="76" t="s">
+      <c r="M4" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="77"/>
+      <c r="N4" s="78"/>
       <c r="O4" s="24"/>
       <c r="P4" s="20"/>
       <c r="Q4" s="20"/>
@@ -2363,24 +2335,24 @@
       <c r="Z4" s="20"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="70"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="72"/>
+      <c r="A5" s="71"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="22"/>
       <c r="L5" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="76" t="s">
+      <c r="M5" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="77"/>
+      <c r="N5" s="78"/>
       <c r="O5" s="24"/>
       <c r="P5" s="20"/>
       <c r="Q5" s="20"/>
@@ -2395,24 +2367,24 @@
       <c r="Z5" s="20"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="70"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="72"/>
+      <c r="A6" s="71"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="73"/>
       <c r="K6" s="22"/>
       <c r="L6" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="76" t="s">
+      <c r="M6" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="77"/>
+      <c r="N6" s="78"/>
       <c r="O6" s="24"/>
       <c r="P6" s="20"/>
       <c r="Q6" s="20"/>
@@ -2427,24 +2399,24 @@
       <c r="Z6" s="20"/>
     </row>
     <row r="7" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="70"/>
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="72"/>
+      <c r="A7" s="71"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="73"/>
       <c r="K7" s="22"/>
       <c r="L7" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="78">
+      <c r="M7" s="79">
         <v>43508</v>
       </c>
-      <c r="N7" s="79"/>
+      <c r="N7" s="80"/>
       <c r="O7" s="24"/>
       <c r="P7" s="20"/>
       <c r="Q7" s="20"/>
@@ -2459,16 +2431,16 @@
       <c r="Z7" s="20"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="70"/>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="72"/>
+      <c r="A8" s="71"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="73"/>
       <c r="K8" s="20"/>
       <c r="L8" s="24"/>
       <c r="M8" s="24"/>
@@ -2487,16 +2459,16 @@
       <c r="Z8" s="20"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="70"/>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="72"/>
+      <c r="A9" s="71"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="73"/>
       <c r="K9" s="20"/>
       <c r="L9" s="24"/>
       <c r="M9" s="24"/>
@@ -2515,16 +2487,16 @@
       <c r="Z9" s="20"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="70"/>
-      <c r="B10" s="71"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="72"/>
+      <c r="A10" s="71"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="73"/>
       <c r="K10" s="20"/>
       <c r="L10" s="26"/>
       <c r="M10" s="26"/>
@@ -2543,23 +2515,23 @@
       <c r="Z10" s="20"/>
     </row>
     <row r="11" spans="1:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="70"/>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="72"/>
+      <c r="A11" s="71"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="73"/>
       <c r="K11" s="22"/>
-      <c r="L11" s="73" t="s">
+      <c r="L11" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="M11" s="74"/>
-      <c r="N11" s="74"/>
-      <c r="O11" s="75"/>
+      <c r="M11" s="75"/>
+      <c r="N11" s="75"/>
+      <c r="O11" s="76"/>
       <c r="P11" s="20"/>
       <c r="Q11" s="20"/>
       <c r="R11" s="20"/>
@@ -2573,16 +2545,16 @@
       <c r="Z11" s="20"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="70"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="72"/>
+      <c r="A12" s="71"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="73"/>
       <c r="K12" s="22"/>
       <c r="L12" s="27" t="s">
         <v>1</v>
@@ -2609,16 +2581,16 @@
       <c r="Z12" s="20"/>
     </row>
     <row r="13" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="70"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="72"/>
+      <c r="A13" s="71"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="73"/>
       <c r="K13" s="22"/>
       <c r="L13" s="28" t="s">
         <v>28</v>
@@ -2645,16 +2617,16 @@
       <c r="Z13" s="20"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="70"/>
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="72"/>
+      <c r="A14" s="71"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="73"/>
       <c r="K14" s="22"/>
       <c r="L14" s="32"/>
       <c r="M14" s="33"/>
@@ -2673,16 +2645,16 @@
       <c r="Z14" s="20"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="70"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="72"/>
+      <c r="A15" s="71"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="73"/>
       <c r="K15" s="22"/>
       <c r="L15" s="32"/>
       <c r="M15" s="33"/>
@@ -2701,16 +2673,16 @@
       <c r="Z15" s="20"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="70"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="72"/>
+      <c r="A16" s="71"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="73"/>
       <c r="K16" s="22"/>
       <c r="L16" s="34"/>
       <c r="M16" s="35"/>
@@ -2729,16 +2701,16 @@
       <c r="Z16" s="20"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="70"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="72"/>
+      <c r="A17" s="71"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="73"/>
       <c r="K17" s="22"/>
       <c r="L17" s="34"/>
       <c r="M17" s="35"/>
@@ -2757,16 +2729,16 @@
       <c r="Z17" s="20"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="70"/>
-      <c r="B18" s="71"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="72"/>
+      <c r="A18" s="71"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="73"/>
       <c r="K18" s="22"/>
       <c r="L18" s="34"/>
       <c r="M18" s="35"/>
@@ -2785,16 +2757,16 @@
       <c r="Z18" s="20"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="70"/>
-      <c r="B19" s="71"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="71"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="72"/>
+      <c r="A19" s="71"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="73"/>
       <c r="K19" s="22"/>
       <c r="L19" s="34"/>
       <c r="M19" s="35"/>
@@ -2813,16 +2785,16 @@
       <c r="Z19" s="20"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="70"/>
-      <c r="B20" s="71"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="72"/>
+      <c r="A20" s="71"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="73"/>
       <c r="K20" s="22"/>
       <c r="L20" s="34"/>
       <c r="M20" s="35"/>
@@ -30299,8 +30271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30333,7 +30305,7 @@
         <v>7</v>
       </c>
       <c r="F1" s="42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1" s="42" t="s">
         <v>8</v>
@@ -30346,23 +30318,23 @@
       </c>
     </row>
     <row r="2" spans="1:10" s="4" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="90"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="92"/>
     </row>
     <row r="3" spans="1:10" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="60">
         <v>1</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="81" t="s">
         <v>115</v>
       </c>
       <c r="C3" s="47" t="s">
@@ -30375,13 +30347,13 @@
         <v>32</v>
       </c>
       <c r="F3" s="49" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G3" s="49" t="s">
+        <v>236</v>
+      </c>
+      <c r="H3" s="50" t="s">
         <v>237</v>
-      </c>
-      <c r="H3" s="50" t="s">
-        <v>238</v>
       </c>
       <c r="I3" s="50"/>
     </row>
@@ -30389,7 +30361,7 @@
       <c r="A4" s="61">
         <v>2</v>
       </c>
-      <c r="B4" s="94"/>
+      <c r="B4" s="82"/>
       <c r="C4" s="47" t="s">
         <v>34</v>
       </c>
@@ -30400,13 +30372,13 @@
         <v>100</v>
       </c>
       <c r="F4" s="49" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G4" s="49" t="s">
+        <v>234</v>
+      </c>
+      <c r="H4" s="50" t="s">
         <v>235</v>
-      </c>
-      <c r="H4" s="50" t="s">
-        <v>236</v>
       </c>
       <c r="I4" s="50"/>
       <c r="J4" s="5"/>
@@ -30415,24 +30387,24 @@
       <c r="A5" s="65">
         <v>3</v>
       </c>
-      <c r="B5" s="94"/>
+      <c r="B5" s="82"/>
       <c r="C5" s="47" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D5" s="48" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="49" t="s">
+        <v>239</v>
+      </c>
+      <c r="F5" s="49" t="s">
         <v>240</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="G5" s="49" t="s">
+        <v>238</v>
+      </c>
+      <c r="H5" s="50" t="s">
         <v>241</v>
-      </c>
-      <c r="G5" s="49" t="s">
-        <v>239</v>
-      </c>
-      <c r="H5" s="50" t="s">
-        <v>242</v>
       </c>
       <c r="I5" s="50"/>
       <c r="J5" s="5"/>
@@ -30441,40 +30413,40 @@
       <c r="A6" s="65">
         <v>4</v>
       </c>
-      <c r="B6" s="81"/>
+      <c r="B6" s="83"/>
       <c r="C6" s="47" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D6" s="48" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="49" t="s">
+        <v>232</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>349</v>
+      </c>
+      <c r="G6" s="49" t="s">
         <v>233</v>
       </c>
-      <c r="F6" s="49" t="s">
-        <v>351</v>
-      </c>
-      <c r="G6" s="49" t="s">
-        <v>234</v>
-      </c>
       <c r="H6" s="50" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I6" s="50"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="90"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="92"/>
     </row>
     <row r="8" spans="1:10" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="60">
@@ -30493,13 +30465,13 @@
         <v>36</v>
       </c>
       <c r="F8" s="49" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G8" s="49" t="s">
         <v>37</v>
       </c>
       <c r="H8" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I8" s="50"/>
     </row>
@@ -30520,13 +30492,13 @@
         <v>38</v>
       </c>
       <c r="F9" s="49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G9" s="49" t="s">
+        <v>261</v>
+      </c>
+      <c r="H9" s="50" t="s">
         <v>262</v>
-      </c>
-      <c r="H9" s="50" t="s">
-        <v>263</v>
       </c>
       <c r="I9" s="50"/>
     </row>
@@ -30534,7 +30506,7 @@
       <c r="A10" s="60">
         <v>5</v>
       </c>
-      <c r="B10" s="80" t="s">
+      <c r="B10" s="81" t="s">
         <v>123</v>
       </c>
       <c r="C10" s="47" t="s">
@@ -30547,13 +30519,13 @@
         <v>74</v>
       </c>
       <c r="F10" s="49" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G10" s="49" t="s">
         <v>75</v>
       </c>
       <c r="H10" s="50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I10" s="50"/>
     </row>
@@ -30561,7 +30533,7 @@
       <c r="A11" s="61">
         <v>6</v>
       </c>
-      <c r="B11" s="94"/>
+      <c r="B11" s="82"/>
       <c r="C11" s="47" t="s">
         <v>73</v>
       </c>
@@ -30572,13 +30544,13 @@
         <v>71</v>
       </c>
       <c r="F11" s="49" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G11" s="49" t="s">
         <v>72</v>
       </c>
       <c r="H11" s="50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I11" s="50"/>
     </row>
@@ -30586,24 +30558,24 @@
       <c r="A12" s="61">
         <v>7</v>
       </c>
-      <c r="B12" s="94"/>
+      <c r="B12" s="82"/>
       <c r="C12" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D12" s="48" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="F12" s="49" t="s">
+        <v>230</v>
+      </c>
+      <c r="G12" s="62" t="s">
         <v>229</v>
       </c>
-      <c r="F12" s="49" t="s">
-        <v>231</v>
-      </c>
-      <c r="G12" s="62" t="s">
-        <v>230</v>
-      </c>
       <c r="H12" s="63" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I12" s="50"/>
     </row>
@@ -30611,24 +30583,24 @@
       <c r="A13" s="61">
         <v>8</v>
       </c>
-      <c r="B13" s="94"/>
+      <c r="B13" s="82"/>
       <c r="C13" s="47" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D13" s="48" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="49" t="s">
+        <v>246</v>
+      </c>
+      <c r="F13" s="49" t="s">
         <v>247</v>
       </c>
-      <c r="F13" s="49" t="s">
-        <v>248</v>
-      </c>
       <c r="G13" s="49" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H13" s="50" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I13" s="50"/>
     </row>
@@ -30636,24 +30608,24 @@
       <c r="A14" s="61">
         <v>9</v>
       </c>
-      <c r="B14" s="94"/>
+      <c r="B14" s="82"/>
       <c r="C14" s="47" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D14" s="48" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="49" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F14" s="49" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G14" s="49" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H14" s="50" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I14" s="50"/>
     </row>
@@ -30661,24 +30633,24 @@
       <c r="A15" s="65">
         <v>11</v>
       </c>
-      <c r="B15" s="81"/>
+      <c r="B15" s="83"/>
       <c r="C15" s="47" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D15" s="48" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="49" t="s">
+        <v>350</v>
+      </c>
+      <c r="F15" s="49" t="s">
         <v>352</v>
       </c>
-      <c r="F15" s="49" t="s">
-        <v>354</v>
-      </c>
       <c r="G15" s="49" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H15" s="50" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="I15" s="50"/>
     </row>
@@ -30686,26 +30658,26 @@
       <c r="A16" s="65">
         <v>10</v>
       </c>
-      <c r="B16" s="80" t="s">
-        <v>355</v>
+      <c r="B16" s="81" t="s">
+        <v>353</v>
       </c>
       <c r="C16" s="47" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D16" s="48" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="49" t="s">
+        <v>253</v>
+      </c>
+      <c r="F16" s="49" t="s">
+        <v>354</v>
+      </c>
+      <c r="G16" s="49" t="s">
+        <v>252</v>
+      </c>
+      <c r="H16" s="50" t="s">
         <v>254</v>
-      </c>
-      <c r="F16" s="49" t="s">
-        <v>356</v>
-      </c>
-      <c r="G16" s="49" t="s">
-        <v>253</v>
-      </c>
-      <c r="H16" s="50" t="s">
-        <v>255</v>
       </c>
       <c r="I16" s="50"/>
     </row>
@@ -30713,39 +30685,39 @@
       <c r="A17" s="65">
         <v>11</v>
       </c>
-      <c r="B17" s="94"/>
+      <c r="B17" s="82"/>
       <c r="C17" s="47" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D17" s="48" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="49" t="s">
+        <v>255</v>
+      </c>
+      <c r="F17" s="49" t="s">
         <v>256</v>
       </c>
-      <c r="F17" s="49" t="s">
+      <c r="G17" s="49" t="s">
         <v>257</v>
       </c>
-      <c r="G17" s="49" t="s">
+      <c r="H17" s="50" t="s">
         <v>258</v>
       </c>
-      <c r="H17" s="50" t="s">
-        <v>259</v>
-      </c>
       <c r="I17" s="50"/>
     </row>
     <row r="18" spans="1:9" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="88" t="s">
+      <c r="A18" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="89"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="89"/>
-      <c r="I18" s="90"/>
+      <c r="B18" s="91"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="91"/>
+      <c r="I18" s="92"/>
     </row>
     <row r="19" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="54">
@@ -30764,13 +30736,13 @@
         <v>82</v>
       </c>
       <c r="F19" s="49" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G19" s="49" t="s">
+        <v>268</v>
+      </c>
+      <c r="H19" s="50" t="s">
         <v>269</v>
-      </c>
-      <c r="H19" s="50" t="s">
-        <v>270</v>
       </c>
       <c r="I19" s="50"/>
     </row>
@@ -30779,7 +30751,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C20" s="47" t="s">
         <v>48</v>
@@ -30788,16 +30760,16 @@
         <v>11</v>
       </c>
       <c r="E20" s="49" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F20" s="49" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G20" s="49" t="s">
         <v>77</v>
       </c>
       <c r="H20" s="50" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I20" s="50"/>
     </row>
@@ -30818,13 +30790,13 @@
         <v>83</v>
       </c>
       <c r="F21" s="49" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G21" s="49" t="s">
+        <v>273</v>
+      </c>
+      <c r="H21" s="50" t="s">
         <v>274</v>
-      </c>
-      <c r="H21" s="50" t="s">
-        <v>275</v>
       </c>
       <c r="I21" s="50"/>
     </row>
@@ -30845,13 +30817,13 @@
         <v>42</v>
       </c>
       <c r="F22" s="49" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G22" s="49" t="s">
+        <v>273</v>
+      </c>
+      <c r="H22" s="50" t="s">
         <v>274</v>
-      </c>
-      <c r="H22" s="50" t="s">
-        <v>275</v>
       </c>
       <c r="I22" s="50"/>
     </row>
@@ -30860,7 +30832,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="65" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C23" s="47" t="s">
         <v>70</v>
@@ -30872,13 +30844,13 @@
         <v>43</v>
       </c>
       <c r="F23" s="49" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G23" s="49" t="s">
         <v>44</v>
       </c>
       <c r="H23" s="50" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I23" s="50"/>
     </row>
@@ -30887,7 +30859,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C24" s="47" t="s">
         <v>78</v>
@@ -30899,13 +30871,13 @@
         <v>71</v>
       </c>
       <c r="F24" s="49" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G24" s="49" t="s">
         <v>72</v>
       </c>
       <c r="H24" s="50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I24" s="50"/>
     </row>
@@ -30926,13 +30898,13 @@
         <v>110</v>
       </c>
       <c r="F25" s="49" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G25" s="49" t="s">
         <v>103</v>
       </c>
       <c r="H25" s="50" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I25" s="50"/>
     </row>
@@ -30951,13 +30923,13 @@
         <v>120</v>
       </c>
       <c r="F26" s="58" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G26" s="58" t="s">
         <v>108</v>
       </c>
       <c r="H26" s="50" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I26" s="50"/>
     </row>
@@ -30966,7 +30938,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="66" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C27" s="47" t="s">
         <v>107</v>
@@ -30978,13 +30950,13 @@
         <v>67</v>
       </c>
       <c r="F27" s="49" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G27" s="49" t="s">
         <v>66</v>
       </c>
       <c r="H27" s="50" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I27" s="50"/>
     </row>
@@ -30993,25 +30965,25 @@
         <v>21</v>
       </c>
       <c r="B28" s="65" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C28" s="47" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D28" s="48" t="s">
         <v>11</v>
       </c>
       <c r="E28" s="49" t="s">
+        <v>278</v>
+      </c>
+      <c r="F28" s="49" t="s">
         <v>279</v>
       </c>
-      <c r="F28" s="49" t="s">
-        <v>280</v>
-      </c>
       <c r="G28" s="49" t="s">
+        <v>271</v>
+      </c>
+      <c r="H28" s="50" t="s">
         <v>272</v>
-      </c>
-      <c r="H28" s="50" t="s">
-        <v>273</v>
       </c>
       <c r="I28" s="50"/>
     </row>
@@ -31020,40 +30992,40 @@
         <v>22</v>
       </c>
       <c r="B29" s="65" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C29" s="47" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D29" s="48" t="s">
         <v>11</v>
       </c>
       <c r="E29" s="49" t="s">
+        <v>275</v>
+      </c>
+      <c r="F29" s="49" t="s">
         <v>276</v>
       </c>
-      <c r="F29" s="49" t="s">
-        <v>277</v>
-      </c>
       <c r="G29" s="49" t="s">
+        <v>219</v>
+      </c>
+      <c r="H29" s="50" t="s">
         <v>220</v>
       </c>
-      <c r="H29" s="50" t="s">
-        <v>221</v>
-      </c>
       <c r="I29" s="50"/>
     </row>
     <row r="30" spans="1:9" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="88" t="s">
+      <c r="A30" s="90" t="s">
         <v>84</v>
       </c>
-      <c r="B30" s="89"/>
-      <c r="C30" s="89"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="89"/>
-      <c r="G30" s="89"/>
-      <c r="H30" s="89"/>
-      <c r="I30" s="90"/>
+      <c r="B30" s="91"/>
+      <c r="C30" s="91"/>
+      <c r="D30" s="91"/>
+      <c r="E30" s="91"/>
+      <c r="F30" s="91"/>
+      <c r="G30" s="91"/>
+      <c r="H30" s="91"/>
+      <c r="I30" s="92"/>
     </row>
     <row r="31" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="65">
@@ -31072,13 +31044,13 @@
         <v>36</v>
       </c>
       <c r="F31" s="49" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G31" s="49" t="s">
+        <v>317</v>
+      </c>
+      <c r="H31" s="50" t="s">
         <v>318</v>
-      </c>
-      <c r="H31" s="50" t="s">
-        <v>319</v>
       </c>
       <c r="I31" s="50"/>
     </row>
@@ -31099,13 +31071,13 @@
         <v>38</v>
       </c>
       <c r="F32" s="49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G32" s="49" t="s">
+        <v>319</v>
+      </c>
+      <c r="H32" s="50" t="s">
         <v>320</v>
-      </c>
-      <c r="H32" s="50" t="s">
-        <v>321</v>
       </c>
       <c r="I32" s="50"/>
     </row>
@@ -31113,7 +31085,7 @@
       <c r="A33" s="65">
         <v>25</v>
       </c>
-      <c r="B33" s="80" t="s">
+      <c r="B33" s="81" t="s">
         <v>131</v>
       </c>
       <c r="C33" s="47" t="s">
@@ -31123,16 +31095,16 @@
         <v>11</v>
       </c>
       <c r="E33" s="49" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F33" s="49" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G33" s="49" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H33" s="50" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I33" s="50"/>
     </row>
@@ -31140,7 +31112,7 @@
       <c r="A34" s="65">
         <v>26</v>
       </c>
-      <c r="B34" s="81"/>
+      <c r="B34" s="82"/>
       <c r="C34" s="47" t="s">
         <v>88</v>
       </c>
@@ -31151,13 +31123,13 @@
         <v>71</v>
       </c>
       <c r="F34" s="49" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G34" s="55" t="s">
+        <v>313</v>
+      </c>
+      <c r="H34" s="50" t="s">
         <v>314</v>
-      </c>
-      <c r="H34" s="50" t="s">
-        <v>315</v>
       </c>
       <c r="I34" s="50"/>
     </row>
@@ -31165,24 +31137,24 @@
       <c r="A35" s="65">
         <v>27</v>
       </c>
-      <c r="B35" s="66"/>
+      <c r="B35" s="82"/>
       <c r="C35" s="47" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D35" s="48" t="s">
         <v>11</v>
       </c>
       <c r="E35" s="49" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F35" s="49" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G35" s="49" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H35" s="50" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I35" s="50"/>
     </row>
@@ -31190,24 +31162,24 @@
       <c r="A36" s="65">
         <v>28</v>
       </c>
-      <c r="B36" s="66"/>
+      <c r="B36" s="82"/>
       <c r="C36" s="47" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D36" s="48" t="s">
         <v>11</v>
       </c>
       <c r="E36" s="49" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F36" s="49" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G36" s="49" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H36" s="50" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="I36" s="50"/>
     </row>
@@ -31215,24 +31187,24 @@
       <c r="A37" s="65">
         <v>29</v>
       </c>
-      <c r="B37" s="66"/>
+      <c r="B37" s="82"/>
       <c r="C37" s="47" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D37" s="48" t="s">
         <v>11</v>
       </c>
       <c r="E37" s="49" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F37" s="49" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G37" s="49" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H37" s="50" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I37" s="50"/>
     </row>
@@ -31240,24 +31212,24 @@
       <c r="A38" s="65">
         <v>30</v>
       </c>
-      <c r="B38" s="66"/>
+      <c r="B38" s="82"/>
       <c r="C38" s="47" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D38" s="48" t="s">
         <v>11</v>
       </c>
       <c r="E38" s="49" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F38" s="49" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G38" s="55" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H38" s="50" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="I38" s="50"/>
     </row>
@@ -31265,24 +31237,24 @@
       <c r="A39" s="65">
         <v>31</v>
       </c>
-      <c r="B39" s="66"/>
+      <c r="B39" s="82"/>
       <c r="C39" s="47" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D39" s="48" t="s">
         <v>11</v>
       </c>
       <c r="E39" s="49" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F39" s="49" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G39" s="55" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H39" s="50" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="I39" s="50"/>
     </row>
@@ -31290,24 +31262,24 @@
       <c r="A40" s="65">
         <v>32</v>
       </c>
-      <c r="B40" s="66"/>
+      <c r="B40" s="82"/>
       <c r="C40" s="47" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D40" s="48" t="s">
         <v>11</v>
       </c>
       <c r="E40" s="49" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F40" s="49" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G40" s="55" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H40" s="50" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I40" s="50"/>
     </row>
@@ -31315,24 +31287,24 @@
       <c r="A41" s="65">
         <v>33</v>
       </c>
-      <c r="B41" s="66"/>
+      <c r="B41" s="82"/>
       <c r="C41" s="47" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D41" s="48" t="s">
         <v>11</v>
       </c>
       <c r="E41" s="49" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F41" s="49" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G41" s="55" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H41" s="50" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I41" s="50"/>
     </row>
@@ -31340,24 +31312,24 @@
       <c r="A42" s="65">
         <v>34</v>
       </c>
-      <c r="B42" s="66"/>
+      <c r="B42" s="82"/>
       <c r="C42" s="47" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D42" s="48" t="s">
         <v>11</v>
       </c>
       <c r="E42" s="49" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F42" s="49" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G42" s="55" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H42" s="50" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="I42" s="50"/>
     </row>
@@ -31365,24 +31337,24 @@
       <c r="A43" s="65">
         <v>35</v>
       </c>
-      <c r="B43" s="66"/>
+      <c r="B43" s="82"/>
       <c r="C43" s="47" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D43" s="48" t="s">
         <v>11</v>
       </c>
       <c r="E43" s="49" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F43" s="49" t="s">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="G43" s="55" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H43" s="50" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I43" s="50"/>
     </row>
@@ -31390,24 +31362,24 @@
       <c r="A44" s="65">
         <v>36</v>
       </c>
-      <c r="B44" s="66"/>
+      <c r="B44" s="82"/>
       <c r="C44" s="47" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D44" s="48" t="s">
         <v>11</v>
       </c>
       <c r="E44" s="49" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F44" s="49" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G44" s="55" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H44" s="50" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="I44" s="50"/>
     </row>
@@ -31415,46 +31387,46 @@
       <c r="A45" s="65">
         <v>37</v>
       </c>
-      <c r="B45" s="66"/>
+      <c r="B45" s="83"/>
       <c r="C45" s="47" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D45" s="48" t="s">
         <v>11</v>
       </c>
       <c r="E45" s="49" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F45" s="49" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G45" s="55" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H45" s="50" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I45" s="50"/>
     </row>
     <row r="46" spans="1:9" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="88" t="s">
+      <c r="A46" s="90" t="s">
         <v>133</v>
       </c>
-      <c r="B46" s="89"/>
-      <c r="C46" s="89"/>
-      <c r="D46" s="89"/>
-      <c r="E46" s="89"/>
-      <c r="F46" s="89"/>
-      <c r="G46" s="89"/>
-      <c r="H46" s="89"/>
-      <c r="I46" s="90"/>
+      <c r="B46" s="91"/>
+      <c r="C46" s="91"/>
+      <c r="D46" s="91"/>
+      <c r="E46" s="91"/>
+      <c r="F46" s="91"/>
+      <c r="G46" s="91"/>
+      <c r="H46" s="91"/>
+      <c r="I46" s="92"/>
     </row>
     <row r="47" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="65">
         <v>38</v>
       </c>
-      <c r="B47" s="80" t="s">
-        <v>139</v>
+      <c r="B47" s="81" t="s">
+        <v>357</v>
       </c>
       <c r="C47" s="60" t="s">
         <v>137</v>
@@ -31466,13 +31438,13 @@
         <v>134</v>
       </c>
       <c r="F47" s="49" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G47" s="49" t="s">
         <v>135</v>
       </c>
       <c r="H47" s="50" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I47" s="50"/>
     </row>
@@ -31480,7 +31452,7 @@
       <c r="A48" s="65">
         <v>39</v>
       </c>
-      <c r="B48" s="81"/>
+      <c r="B48" s="83"/>
       <c r="C48" s="60" t="s">
         <v>138</v>
       </c>
@@ -31488,16 +31460,16 @@
         <v>11</v>
       </c>
       <c r="E48" s="49" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F48" s="49" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G48" s="49" t="s">
         <v>136</v>
       </c>
       <c r="H48" s="50" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I48" s="50"/>
     </row>
@@ -31506,25 +31478,25 @@
         <v>40</v>
       </c>
       <c r="B49" s="65" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C49" s="60" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D49" s="59" t="s">
         <v>11</v>
       </c>
       <c r="E49" s="49" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F49" s="49" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G49" s="49" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H49" s="50" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I49" s="50"/>
     </row>
@@ -31533,25 +31505,25 @@
         <v>41</v>
       </c>
       <c r="B50" s="65" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C50" s="60" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D50" s="59" t="s">
         <v>11</v>
       </c>
       <c r="E50" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="F50" s="49" t="s">
+        <v>190</v>
+      </c>
+      <c r="G50" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="F50" s="49" t="s">
-        <v>191</v>
-      </c>
-      <c r="G50" s="49" t="s">
-        <v>154</v>
-      </c>
       <c r="H50" s="50" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I50" s="50"/>
     </row>
@@ -31560,25 +31532,25 @@
         <v>42</v>
       </c>
       <c r="B51" s="65" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C51" s="60" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D51" s="59" t="s">
         <v>11</v>
       </c>
       <c r="E51" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="F51" s="49" t="s">
+        <v>191</v>
+      </c>
+      <c r="G51" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="F51" s="49" t="s">
-        <v>192</v>
-      </c>
-      <c r="G51" s="49" t="s">
-        <v>160</v>
-      </c>
       <c r="H51" s="50" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I51" s="50"/>
     </row>
@@ -31586,26 +31558,26 @@
       <c r="A52" s="65">
         <v>43</v>
       </c>
-      <c r="B52" s="80" t="s">
+      <c r="B52" s="81" t="s">
+        <v>160</v>
+      </c>
+      <c r="C52" s="60" t="s">
         <v>161</v>
-      </c>
-      <c r="C52" s="60" t="s">
-        <v>162</v>
       </c>
       <c r="D52" s="59" t="s">
         <v>11</v>
       </c>
       <c r="E52" s="49" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F52" s="49" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G52" s="49" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H52" s="50" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I52" s="50"/>
     </row>
@@ -31613,24 +31585,24 @@
       <c r="A53" s="65">
         <v>44</v>
       </c>
-      <c r="B53" s="81"/>
+      <c r="B53" s="83"/>
       <c r="C53" s="61" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D53" s="59" t="s">
         <v>11</v>
       </c>
       <c r="E53" s="49" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F53" s="49" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G53" s="49" t="s">
+        <v>219</v>
+      </c>
+      <c r="H53" s="50" t="s">
         <v>220</v>
-      </c>
-      <c r="H53" s="50" t="s">
-        <v>221</v>
       </c>
       <c r="I53" s="3"/>
     </row>
@@ -31638,24 +31610,26 @@
       <c r="A54" s="65">
         <v>45</v>
       </c>
-      <c r="B54" s="97"/>
+      <c r="B54" s="67" t="s">
+        <v>156</v>
+      </c>
       <c r="C54" s="61" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D54" s="59" t="s">
         <v>11</v>
       </c>
       <c r="E54" s="49" t="s">
+        <v>265</v>
+      </c>
+      <c r="F54" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="F54" s="49" t="s">
-        <v>267</v>
-      </c>
       <c r="G54" s="49" t="s">
+        <v>263</v>
+      </c>
+      <c r="H54" s="50" t="s">
         <v>264</v>
-      </c>
-      <c r="H54" s="50" t="s">
-        <v>265</v>
       </c>
       <c r="I54" s="3"/>
     </row>
@@ -31663,28 +31637,32 @@
       <c r="A55" s="65">
         <v>46</v>
       </c>
-      <c r="B55" s="91"/>
+      <c r="B55" s="46" t="s">
+        <v>357</v>
+      </c>
       <c r="C55" s="61" t="s">
+        <v>321</v>
+      </c>
+      <c r="D55" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="49" t="s">
         <v>322</v>
       </c>
-      <c r="D55" s="13"/>
-      <c r="E55" s="49" t="s">
+      <c r="F55" s="49" t="s">
         <v>323</v>
       </c>
-      <c r="F55" s="49" t="s">
-        <v>324</v>
-      </c>
       <c r="G55" s="49" t="s">
+        <v>219</v>
+      </c>
+      <c r="H55" s="50" t="s">
         <v>220</v>
-      </c>
-      <c r="H55" s="50" t="s">
-        <v>221</v>
       </c>
       <c r="I55" s="15"/>
     </row>
     <row r="56" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
-      <c r="B56" s="92"/>
+      <c r="B56" s="53"/>
       <c r="C56" s="12"/>
       <c r="D56" s="13"/>
       <c r="E56" s="14"/>
@@ -31695,7 +31673,7 @@
     </row>
     <row r="57" spans="1:9" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
-      <c r="B57" s="82"/>
+      <c r="B57" s="84"/>
       <c r="C57" s="12"/>
       <c r="D57" s="13"/>
       <c r="E57" s="14"/>
@@ -31706,7 +31684,7 @@
     </row>
     <row r="58" spans="1:9" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
-      <c r="B58" s="83"/>
+      <c r="B58" s="85"/>
       <c r="C58" s="12"/>
       <c r="D58" s="13"/>
       <c r="E58" s="14"/>
@@ -31717,7 +31695,7 @@
     </row>
     <row r="59" spans="1:9" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
-      <c r="B59" s="83"/>
+      <c r="B59" s="85"/>
       <c r="C59" s="12"/>
       <c r="D59" s="13"/>
       <c r="E59" s="14"/>
@@ -31728,7 +31706,7 @@
     </row>
     <row r="60" spans="1:9" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
-      <c r="B60" s="84"/>
+      <c r="B60" s="86"/>
       <c r="C60" s="12"/>
       <c r="D60" s="13"/>
       <c r="E60" s="14"/>
@@ -31739,7 +31717,7 @@
     </row>
     <row r="61" spans="1:9" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
-      <c r="B61" s="85"/>
+      <c r="B61" s="87"/>
       <c r="C61" s="12"/>
       <c r="D61" s="13"/>
       <c r="E61" s="14"/>
@@ -31750,7 +31728,7 @@
     </row>
     <row r="62" spans="1:9" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
-      <c r="B62" s="86"/>
+      <c r="B62" s="88"/>
       <c r="C62" s="12"/>
       <c r="D62" s="13"/>
       <c r="E62" s="14"/>
@@ -31761,7 +31739,7 @@
     </row>
     <row r="63" spans="1:9" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
-      <c r="B63" s="86"/>
+      <c r="B63" s="88"/>
       <c r="C63" s="12"/>
       <c r="D63" s="13"/>
       <c r="E63" s="14"/>
@@ -31772,7 +31750,7 @@
     </row>
     <row r="64" spans="1:9" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
-      <c r="B64" s="86"/>
+      <c r="B64" s="88"/>
       <c r="C64" s="12"/>
       <c r="D64" s="13"/>
       <c r="E64" s="14"/>
@@ -31783,7 +31761,7 @@
     </row>
     <row r="65" spans="1:9" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
-      <c r="B65" s="87"/>
+      <c r="B65" s="89"/>
       <c r="C65" s="12"/>
       <c r="D65" s="13"/>
       <c r="E65" s="14"/>
@@ -31794,7 +31772,7 @@
     </row>
     <row r="66" spans="1:9" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
-      <c r="B66" s="82"/>
+      <c r="B66" s="84"/>
       <c r="C66" s="12"/>
       <c r="D66" s="16"/>
       <c r="E66" s="14"/>
@@ -31805,7 +31783,7 @@
     </row>
     <row r="67" spans="1:9" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
-      <c r="B67" s="83"/>
+      <c r="B67" s="85"/>
       <c r="C67" s="12"/>
       <c r="D67" s="16"/>
       <c r="E67" s="14"/>
@@ -31881,23 +31859,22 @@
       <c r="I73" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="B61:B65"/>
-    <mergeCell ref="B66:B67"/>
+  <mergeCells count="15">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A7:I7"/>
     <mergeCell ref="A18:I18"/>
     <mergeCell ref="A30:I30"/>
-    <mergeCell ref="B55:B56"/>
     <mergeCell ref="A46:I46"/>
     <mergeCell ref="B47:B48"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="B52:B53"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="B10:B15"/>
+    <mergeCell ref="B33:B45"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="B61:B65"/>
+    <mergeCell ref="B66:B67"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31909,7 +31886,7 @@
           <x14:formula1>
             <xm:f>'C:\Users\US\Downloads\[K22T2-Team8-MessageList-ver0.1.xlsx]Sheet4'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>D3:D6 D31:D45 D47:D67 D19:D24 D8:D17</xm:sqref>
+          <xm:sqref>D3:D6 D31:D45 D8:D17 D19:D24 D47:D67</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{730A7F9D-217B-4758-814F-D818D85CB421}">
           <x14:formula1>
@@ -31961,7 +31938,7 @@
         <v>7</v>
       </c>
       <c r="F1" s="42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G1" s="42" t="s">
         <v>8</v>
@@ -31974,23 +31951,23 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="90"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="92"/>
     </row>
     <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.2">
       <c r="A3" s="45">
         <v>1</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="81" t="s">
         <v>114</v>
       </c>
       <c r="C3" s="47" t="s">
@@ -32003,13 +31980,13 @@
         <v>32</v>
       </c>
       <c r="F3" s="49" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G3" s="49" t="s">
         <v>75</v>
       </c>
       <c r="H3" s="50" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I3" s="50"/>
     </row>
@@ -32017,7 +31994,7 @@
       <c r="A4" s="45">
         <v>2</v>
       </c>
-      <c r="B4" s="94"/>
+      <c r="B4" s="82"/>
       <c r="C4" s="47" t="s">
         <v>54</v>
       </c>
@@ -32028,13 +32005,13 @@
         <v>33</v>
       </c>
       <c r="F4" s="49" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G4" s="49" t="s">
         <v>99</v>
       </c>
       <c r="H4" s="50" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I4" s="50"/>
     </row>
@@ -32055,28 +32032,28 @@
         <v>81</v>
       </c>
       <c r="F5" s="49" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G5" s="49" t="s">
         <v>80</v>
       </c>
       <c r="H5" s="50" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I5" s="50"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="88" t="s">
+      <c r="A6" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="90"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="92"/>
     </row>
     <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.2">
       <c r="A7" s="45">
@@ -32095,13 +32072,13 @@
         <v>67</v>
       </c>
       <c r="F7" s="49" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G7" s="49" t="s">
         <v>66</v>
       </c>
       <c r="H7" s="50" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I7" s="50"/>
     </row>
@@ -32109,7 +32086,7 @@
       <c r="A8" s="45">
         <v>5</v>
       </c>
-      <c r="B8" s="95" t="s">
+      <c r="B8" s="94" t="s">
         <v>128</v>
       </c>
       <c r="C8" s="47" t="s">
@@ -32122,13 +32099,13 @@
         <v>126</v>
       </c>
       <c r="F8" s="58" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G8" s="49" t="s">
         <v>125</v>
       </c>
       <c r="H8" s="50" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I8" s="50"/>
     </row>
@@ -32136,7 +32113,7 @@
       <c r="A9" s="45">
         <v>6</v>
       </c>
-      <c r="B9" s="96"/>
+      <c r="B9" s="95"/>
       <c r="C9" s="47" t="s">
         <v>106</v>
       </c>
@@ -32147,13 +32124,13 @@
         <v>102</v>
       </c>
       <c r="F9" s="58" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G9" s="58" t="s">
         <v>101</v>
       </c>
       <c r="H9" s="58" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I9" s="57"/>
     </row>
@@ -32161,7 +32138,7 @@
       <c r="A10" s="45">
         <v>7</v>
       </c>
-      <c r="B10" s="95" t="s">
+      <c r="B10" s="94" t="s">
         <v>124</v>
       </c>
       <c r="C10" s="47" t="s">
@@ -32174,13 +32151,13 @@
         <v>104</v>
       </c>
       <c r="F10" s="49" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G10" s="49" t="s">
         <v>103</v>
       </c>
       <c r="H10" s="50" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I10" s="50"/>
     </row>
@@ -32188,7 +32165,7 @@
       <c r="A11" s="45">
         <v>8</v>
       </c>
-      <c r="B11" s="96"/>
+      <c r="B11" s="95"/>
       <c r="C11" s="47" t="s">
         <v>127</v>
       </c>
@@ -32199,34 +32176,34 @@
         <v>109</v>
       </c>
       <c r="F11" s="58" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G11" s="58" t="s">
         <v>108</v>
       </c>
       <c r="H11" s="50" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I11" s="50"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="88" t="s">
+      <c r="A12" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="89"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="90"/>
+      <c r="B12" s="91"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="92"/>
     </row>
     <row r="13" spans="1:9" ht="75" x14ac:dyDescent="0.2">
       <c r="A13" s="45">
         <v>9</v>
       </c>
-      <c r="B13" s="80" t="s">
+      <c r="B13" s="81" t="s">
         <v>132</v>
       </c>
       <c r="C13" s="47" t="s">
@@ -32239,7 +32216,7 @@
         <v>98</v>
       </c>
       <c r="F13" s="49" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G13" s="49" t="s">
         <v>94</v>
@@ -32253,7 +32230,7 @@
       <c r="A14" s="45">
         <v>10</v>
       </c>
-      <c r="B14" s="81"/>
+      <c r="B14" s="83"/>
       <c r="C14" s="47" t="s">
         <v>95</v>
       </c>
@@ -32264,7 +32241,7 @@
         <v>96</v>
       </c>
       <c r="F14" s="49" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G14" s="49" t="s">
         <v>97</v>
@@ -32275,17 +32252,17 @@
       <c r="I14" s="50"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="90" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="89"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="89"/>
-      <c r="I15" s="90"/>
+      <c r="B15" s="91"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="92"/>
     </row>
     <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.2">
       <c r="A16" s="45">
@@ -32302,13 +32279,13 @@
         <v>59</v>
       </c>
       <c r="F16" s="49" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G16" s="49" t="s">
         <v>76</v>
       </c>
       <c r="H16" s="50" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I16" s="50"/>
     </row>
@@ -32327,13 +32304,13 @@
         <v>60</v>
       </c>
       <c r="F17" s="49" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G17" s="49" t="s">
         <v>57</v>
       </c>
       <c r="H17" s="50" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I17" s="50"/>
     </row>
@@ -32352,13 +32329,13 @@
         <v>61</v>
       </c>
       <c r="F18" s="49" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G18" s="49" t="s">
         <v>62</v>
       </c>
       <c r="H18" s="50" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I18" s="50"/>
     </row>
@@ -32377,13 +32354,13 @@
         <v>64</v>
       </c>
       <c r="F19" s="49" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G19" s="49" t="s">
         <v>57</v>
       </c>
       <c r="H19" s="50" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I19" s="50"/>
     </row>
@@ -32402,28 +32379,28 @@
         <v>69</v>
       </c>
       <c r="F20" s="49" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G20" s="49" t="s">
         <v>66</v>
       </c>
       <c r="H20" s="50" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I20" s="50"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="88" t="s">
-        <v>141</v>
-      </c>
-      <c r="B21" s="89"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="90"/>
+      <c r="A21" s="90" t="s">
+        <v>140</v>
+      </c>
+      <c r="B21" s="91"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="92"/>
     </row>
     <row r="22" spans="1:9" ht="75" x14ac:dyDescent="0.2">
       <c r="A22" s="45">
@@ -32431,22 +32408,22 @@
       </c>
       <c r="B22" s="46"/>
       <c r="C22" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D22" s="48" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F22" s="49" t="s">
+        <v>215</v>
+      </c>
+      <c r="G22" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="H22" s="50" t="s">
         <v>216</v>
-      </c>
-      <c r="G22" s="49" t="s">
-        <v>143</v>
-      </c>
-      <c r="H22" s="50" t="s">
-        <v>217</v>
       </c>
       <c r="I22" s="50"/>
     </row>

--- a/Improgress/2. Artifact and Deliverable/DetailDesign & Architect/Design/DE_MessageList_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/DetailDesign & Architect/Design/DE_MessageList_Ver1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\DetailDesign &amp; Architect\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710E2D82-C445-477C-9B3E-718A1A2C89E9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA78402D-18C1-49EE-AE54-992577C0F8DB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="0" windowWidth="15405" windowHeight="11070" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="2" r:id="rId1"/>
@@ -1583,7 +1583,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1674,9 +1674,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1821,15 +1818,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1848,6 +1836,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1856,9 +1856,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2199,8 +2196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O13" sqref="L11:O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2213,18 +2210,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="70"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="69"/>
       <c r="K1" s="20"/>
       <c r="L1" s="20"/>
       <c r="M1" s="20"/>
@@ -2243,16 +2240,16 @@
       <c r="Z1" s="20"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="71"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="73"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="72"/>
       <c r="K2" s="20"/>
       <c r="L2" s="21"/>
       <c r="M2" s="21"/>
@@ -2271,24 +2268,24 @@
       <c r="Z2" s="20"/>
     </row>
     <row r="3" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="71"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="73"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="72"/>
       <c r="K3" s="22"/>
       <c r="L3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="77" t="s">
+      <c r="M3" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="78"/>
+      <c r="N3" s="77"/>
       <c r="O3" s="24"/>
       <c r="P3" s="20"/>
       <c r="Q3" s="20"/>
@@ -2303,24 +2300,24 @@
       <c r="Z3" s="20"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="71"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="73"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="72"/>
       <c r="K4" s="22"/>
       <c r="L4" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="77" t="s">
+      <c r="M4" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="78"/>
+      <c r="N4" s="77"/>
       <c r="O4" s="24"/>
       <c r="P4" s="20"/>
       <c r="Q4" s="20"/>
@@ -2335,24 +2332,24 @@
       <c r="Z4" s="20"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="71"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="73"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="22"/>
       <c r="L5" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="77" t="s">
+      <c r="M5" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="78"/>
+      <c r="N5" s="77"/>
       <c r="O5" s="24"/>
       <c r="P5" s="20"/>
       <c r="Q5" s="20"/>
@@ -2367,24 +2364,24 @@
       <c r="Z5" s="20"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="71"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="73"/>
+      <c r="A6" s="70"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="72"/>
       <c r="K6" s="22"/>
       <c r="L6" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="77" t="s">
+      <c r="M6" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="78"/>
+      <c r="N6" s="77"/>
       <c r="O6" s="24"/>
       <c r="P6" s="20"/>
       <c r="Q6" s="20"/>
@@ -2399,24 +2396,24 @@
       <c r="Z6" s="20"/>
     </row>
     <row r="7" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="71"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="73"/>
+      <c r="A7" s="70"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="72"/>
       <c r="K7" s="22"/>
       <c r="L7" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="79">
-        <v>43508</v>
-      </c>
-      <c r="N7" s="80"/>
+      <c r="M7" s="78">
+        <v>43873</v>
+      </c>
+      <c r="N7" s="79"/>
       <c r="O7" s="24"/>
       <c r="P7" s="20"/>
       <c r="Q7" s="20"/>
@@ -2431,16 +2428,16 @@
       <c r="Z7" s="20"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="71"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="73"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="72"/>
       <c r="K8" s="20"/>
       <c r="L8" s="24"/>
       <c r="M8" s="24"/>
@@ -2459,16 +2456,16 @@
       <c r="Z8" s="20"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="71"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="73"/>
+      <c r="A9" s="70"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="72"/>
       <c r="K9" s="20"/>
       <c r="L9" s="24"/>
       <c r="M9" s="24"/>
@@ -2487,16 +2484,16 @@
       <c r="Z9" s="20"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="71"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="73"/>
+      <c r="A10" s="70"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="72"/>
       <c r="K10" s="20"/>
       <c r="L10" s="26"/>
       <c r="M10" s="26"/>
@@ -2515,23 +2512,23 @@
       <c r="Z10" s="20"/>
     </row>
     <row r="11" spans="1:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="71"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="73"/>
+      <c r="A11" s="70"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="72"/>
       <c r="K11" s="22"/>
-      <c r="L11" s="74" t="s">
+      <c r="L11" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="M11" s="75"/>
-      <c r="N11" s="75"/>
-      <c r="O11" s="76"/>
+      <c r="M11" s="74"/>
+      <c r="N11" s="74"/>
+      <c r="O11" s="75"/>
       <c r="P11" s="20"/>
       <c r="Q11" s="20"/>
       <c r="R11" s="20"/>
@@ -2545,16 +2542,16 @@
       <c r="Z11" s="20"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="71"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="73"/>
+      <c r="A12" s="70"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="72"/>
       <c r="K12" s="22"/>
       <c r="L12" s="27" t="s">
         <v>1</v>
@@ -2581,27 +2578,27 @@
       <c r="Z12" s="20"/>
     </row>
     <row r="13" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="71"/>
-      <c r="B13" s="72"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="73"/>
+      <c r="A13" s="70"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="72"/>
       <c r="K13" s="22"/>
       <c r="L13" s="28" t="s">
         <v>28</v>
       </c>
       <c r="M13" s="29">
-        <v>43508</v>
+        <v>43873</v>
       </c>
       <c r="N13" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="O13" s="31" t="s">
+      <c r="O13" s="28" t="s">
         <v>30</v>
       </c>
       <c r="P13" s="20"/>
@@ -2617,21 +2614,21 @@
       <c r="Z13" s="20"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="71"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="73"/>
+      <c r="A14" s="70"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="72"/>
       <c r="K14" s="22"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
       <c r="P14" s="20"/>
       <c r="Q14" s="20"/>
       <c r="R14" s="20"/>
@@ -2645,21 +2642,21 @@
       <c r="Z14" s="20"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="71"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="73"/>
+      <c r="A15" s="70"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="72"/>
       <c r="K15" s="22"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
       <c r="P15" s="20"/>
       <c r="Q15" s="20"/>
       <c r="R15" s="20"/>
@@ -2673,21 +2670,21 @@
       <c r="Z15" s="20"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="71"/>
-      <c r="B16" s="72"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="73"/>
+      <c r="A16" s="70"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="72"/>
       <c r="K16" s="22"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
       <c r="P16" s="20"/>
       <c r="Q16" s="20"/>
       <c r="R16" s="20"/>
@@ -2701,21 +2698,21 @@
       <c r="Z16" s="20"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="71"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="73"/>
+      <c r="A17" s="70"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="72"/>
       <c r="K17" s="22"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
       <c r="P17" s="20"/>
       <c r="Q17" s="20"/>
       <c r="R17" s="20"/>
@@ -2729,21 +2726,21 @@
       <c r="Z17" s="20"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="71"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="73"/>
+      <c r="A18" s="70"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="72"/>
       <c r="K18" s="22"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
       <c r="P18" s="20"/>
       <c r="Q18" s="20"/>
       <c r="R18" s="20"/>
@@ -2757,21 +2754,21 @@
       <c r="Z18" s="20"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="71"/>
-      <c r="B19" s="72"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="73"/>
+      <c r="A19" s="70"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="72"/>
       <c r="K19" s="22"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
       <c r="P19" s="20"/>
       <c r="Q19" s="20"/>
       <c r="R19" s="20"/>
@@ -2785,21 +2782,21 @@
       <c r="Z19" s="20"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="71"/>
-      <c r="B20" s="72"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="73"/>
+      <c r="A20" s="70"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="72"/>
       <c r="K20" s="22"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
       <c r="P20" s="20"/>
       <c r="Q20" s="20"/>
       <c r="R20" s="20"/>
@@ -2813,16 +2810,16 @@
       <c r="Z20" s="20"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="36"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="38"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="37"/>
       <c r="K21" s="20"/>
       <c r="L21" s="20"/>
       <c r="M21" s="20"/>
@@ -2841,16 +2838,16 @@
       <c r="Z21" s="20"/>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="36"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="38"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="37"/>
       <c r="K22" s="20"/>
       <c r="L22" s="20"/>
       <c r="M22" s="20"/>
@@ -2869,16 +2866,16 @@
       <c r="Z22" s="20"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="36"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="38"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="37"/>
       <c r="K23" s="20"/>
       <c r="L23" s="20"/>
       <c r="M23" s="20"/>
@@ -2897,16 +2894,16 @@
       <c r="Z23" s="20"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="36"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="38"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="37"/>
       <c r="K24" s="20"/>
       <c r="L24" s="20"/>
       <c r="M24" s="20"/>
@@ -2925,16 +2922,16 @@
       <c r="Z24" s="20"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="36"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="38"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="37"/>
       <c r="K25" s="20"/>
       <c r="L25" s="20"/>
       <c r="M25" s="20"/>
@@ -2953,16 +2950,16 @@
       <c r="Z25" s="20"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="36"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="38"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="37"/>
       <c r="K26" s="20"/>
       <c r="L26" s="20"/>
       <c r="M26" s="20"/>
@@ -2981,16 +2978,16 @@
       <c r="Z26" s="20"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="36"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="38"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="37"/>
       <c r="K27" s="20"/>
       <c r="L27" s="20"/>
       <c r="M27" s="20"/>
@@ -3009,16 +3006,16 @@
       <c r="Z27" s="20"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="36"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="38"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="37"/>
       <c r="K28" s="20"/>
       <c r="L28" s="20"/>
       <c r="M28" s="20"/>
@@ -3037,16 +3034,16 @@
       <c r="Z28" s="20"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="36"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="38"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="37"/>
       <c r="K29" s="20"/>
       <c r="L29" s="20"/>
       <c r="M29" s="20"/>
@@ -3065,16 +3062,16 @@
       <c r="Z29" s="20"/>
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="36"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="38"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="37"/>
       <c r="K30" s="20"/>
       <c r="L30" s="20"/>
       <c r="M30" s="20"/>
@@ -3093,16 +3090,16 @@
       <c r="Z30" s="20"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="36"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="38"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="37"/>
       <c r="K31" s="20"/>
       <c r="L31" s="20"/>
       <c r="M31" s="20"/>
@@ -3121,16 +3118,16 @@
       <c r="Z31" s="20"/>
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="39"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="41"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="40"/>
       <c r="K32" s="20"/>
       <c r="L32" s="20"/>
       <c r="M32" s="20"/>
@@ -30271,7 +30268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
@@ -30289,31 +30286,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="41" t="s">
         <v>164</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="41" t="s">
         <v>10</v>
       </c>
     </row>
@@ -30331,108 +30328,108 @@
       <c r="I2" s="92"/>
     </row>
     <row r="3" spans="1:10" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="60">
+      <c r="A3" s="59">
         <v>1</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="86" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="49" t="s">
+      <c r="E3" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="G3" s="48" t="s">
         <v>236</v>
       </c>
-      <c r="H3" s="50" t="s">
+      <c r="H3" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="I3" s="50"/>
+      <c r="I3" s="49"/>
     </row>
     <row r="4" spans="1:10" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="61">
+      <c r="A4" s="60">
         <v>2</v>
       </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="47" t="s">
+      <c r="B4" s="89"/>
+      <c r="C4" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="48" t="s">
         <v>166</v>
       </c>
-      <c r="G4" s="49" t="s">
+      <c r="G4" s="48" t="s">
         <v>234</v>
       </c>
-      <c r="H4" s="50" t="s">
+      <c r="H4" s="49" t="s">
         <v>235</v>
       </c>
-      <c r="I4" s="50"/>
+      <c r="I4" s="49"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="65">
+      <c r="A5" s="64">
         <v>3</v>
       </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="47" t="s">
+      <c r="B5" s="89"/>
+      <c r="C5" s="46" t="s">
         <v>231</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="48" t="s">
         <v>239</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="48" t="s">
         <v>240</v>
       </c>
-      <c r="G5" s="49" t="s">
+      <c r="G5" s="48" t="s">
         <v>238</v>
       </c>
-      <c r="H5" s="50" t="s">
+      <c r="H5" s="49" t="s">
         <v>241</v>
       </c>
-      <c r="I5" s="50"/>
+      <c r="I5" s="49"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="65">
+      <c r="A6" s="64">
         <v>4</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="47" t="s">
+      <c r="B6" s="87"/>
+      <c r="C6" s="46" t="s">
         <v>242</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="48" t="s">
         <v>232</v>
       </c>
-      <c r="F6" s="49" t="s">
+      <c r="F6" s="48" t="s">
         <v>349</v>
       </c>
-      <c r="G6" s="49" t="s">
+      <c r="G6" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="H6" s="50" t="s">
+      <c r="H6" s="49" t="s">
         <v>250</v>
       </c>
-      <c r="I6" s="50"/>
+      <c r="I6" s="49"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -30449,262 +30446,262 @@
       <c r="I7" s="92"/>
     </row>
     <row r="8" spans="1:10" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="60">
+      <c r="A8" s="59">
         <v>3</v>
       </c>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="49" t="s">
+      <c r="E8" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="49" t="s">
+      <c r="F8" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="G8" s="49" t="s">
+      <c r="G8" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="50" t="s">
+      <c r="H8" s="49" t="s">
         <v>168</v>
       </c>
-      <c r="I8" s="50"/>
+      <c r="I8" s="49"/>
     </row>
     <row r="9" spans="1:10" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="60">
+      <c r="A9" s="59">
         <v>4</v>
       </c>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="D9" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="49" t="s">
+      <c r="E9" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="49" t="s">
+      <c r="F9" s="48" t="s">
         <v>172</v>
       </c>
-      <c r="G9" s="49" t="s">
+      <c r="G9" s="48" t="s">
         <v>261</v>
       </c>
-      <c r="H9" s="50" t="s">
+      <c r="H9" s="49" t="s">
         <v>262</v>
       </c>
-      <c r="I9" s="50"/>
+      <c r="I9" s="49"/>
     </row>
     <row r="10" spans="1:10" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="60">
+      <c r="A10" s="59">
         <v>5</v>
       </c>
-      <c r="B10" s="81" t="s">
+      <c r="B10" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="D10" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="49" t="s">
+      <c r="E10" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="49" t="s">
+      <c r="F10" s="48" t="s">
         <v>173</v>
       </c>
-      <c r="G10" s="49" t="s">
+      <c r="G10" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="H10" s="50" t="s">
+      <c r="H10" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="I10" s="50"/>
+      <c r="I10" s="49"/>
     </row>
     <row r="11" spans="1:10" s="4" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="61">
+      <c r="A11" s="60">
         <v>6</v>
       </c>
-      <c r="B11" s="82"/>
-      <c r="C11" s="47" t="s">
+      <c r="B11" s="89"/>
+      <c r="C11" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="48" t="s">
+      <c r="D11" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="49" t="s">
+      <c r="E11" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="49" t="s">
+      <c r="F11" s="48" t="s">
         <v>174</v>
       </c>
-      <c r="G11" s="49" t="s">
+      <c r="G11" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="H11" s="50" t="s">
+      <c r="H11" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="I11" s="50"/>
+      <c r="I11" s="49"/>
     </row>
     <row r="12" spans="1:10" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="61">
+      <c r="A12" s="60">
         <v>7</v>
       </c>
-      <c r="B12" s="82"/>
-      <c r="C12" s="47" t="s">
+      <c r="B12" s="89"/>
+      <c r="C12" s="46" t="s">
         <v>227</v>
       </c>
-      <c r="D12" s="48" t="s">
+      <c r="D12" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="49" t="s">
+      <c r="E12" s="48" t="s">
         <v>228</v>
       </c>
-      <c r="F12" s="49" t="s">
+      <c r="F12" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="G12" s="62" t="s">
+      <c r="G12" s="61" t="s">
         <v>229</v>
       </c>
-      <c r="H12" s="63" t="s">
+      <c r="H12" s="62" t="s">
         <v>229</v>
       </c>
-      <c r="I12" s="50"/>
+      <c r="I12" s="49"/>
     </row>
     <row r="13" spans="1:10" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="61">
+      <c r="A13" s="60">
         <v>8</v>
       </c>
-      <c r="B13" s="82"/>
-      <c r="C13" s="47" t="s">
+      <c r="B13" s="89"/>
+      <c r="C13" s="46" t="s">
         <v>243</v>
       </c>
-      <c r="D13" s="48" t="s">
+      <c r="D13" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="49" t="s">
+      <c r="E13" s="48" t="s">
         <v>246</v>
       </c>
-      <c r="F13" s="49" t="s">
+      <c r="F13" s="48" t="s">
         <v>247</v>
       </c>
-      <c r="G13" s="49" t="s">
+      <c r="G13" s="48" t="s">
         <v>249</v>
       </c>
-      <c r="H13" s="50" t="s">
+      <c r="H13" s="49" t="s">
         <v>251</v>
       </c>
-      <c r="I13" s="50"/>
+      <c r="I13" s="49"/>
     </row>
     <row r="14" spans="1:10" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="61">
+      <c r="A14" s="60">
         <v>9</v>
       </c>
-      <c r="B14" s="82"/>
-      <c r="C14" s="47" t="s">
+      <c r="B14" s="89"/>
+      <c r="C14" s="46" t="s">
         <v>245</v>
       </c>
-      <c r="D14" s="48" t="s">
+      <c r="D14" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="49" t="s">
+      <c r="E14" s="48" t="s">
         <v>244</v>
       </c>
-      <c r="F14" s="49" t="s">
+      <c r="F14" s="48" t="s">
         <v>248</v>
       </c>
-      <c r="G14" s="49" t="s">
+      <c r="G14" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="H14" s="50" t="s">
+      <c r="H14" s="49" t="s">
         <v>250</v>
       </c>
-      <c r="I14" s="50"/>
+      <c r="I14" s="49"/>
     </row>
     <row r="15" spans="1:10" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="65">
+      <c r="A15" s="64">
         <v>11</v>
       </c>
-      <c r="B15" s="83"/>
-      <c r="C15" s="47" t="s">
+      <c r="B15" s="87"/>
+      <c r="C15" s="46" t="s">
         <v>259</v>
       </c>
-      <c r="D15" s="48" t="s">
+      <c r="D15" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="49" t="s">
+      <c r="E15" s="48" t="s">
         <v>350</v>
       </c>
-      <c r="F15" s="49" t="s">
+      <c r="F15" s="48" t="s">
         <v>352</v>
       </c>
-      <c r="G15" s="49" t="s">
+      <c r="G15" s="48" t="s">
         <v>334</v>
       </c>
-      <c r="H15" s="50" t="s">
+      <c r="H15" s="49" t="s">
         <v>335</v>
       </c>
-      <c r="I15" s="50"/>
+      <c r="I15" s="49"/>
     </row>
     <row r="16" spans="1:10" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="65">
+      <c r="A16" s="64">
         <v>10</v>
       </c>
-      <c r="B16" s="81" t="s">
+      <c r="B16" s="86" t="s">
         <v>353</v>
       </c>
-      <c r="C16" s="47" t="s">
+      <c r="C16" s="46" t="s">
         <v>260</v>
       </c>
-      <c r="D16" s="48" t="s">
+      <c r="D16" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="49" t="s">
+      <c r="E16" s="48" t="s">
         <v>253</v>
       </c>
-      <c r="F16" s="49" t="s">
+      <c r="F16" s="48" t="s">
         <v>354</v>
       </c>
-      <c r="G16" s="49" t="s">
+      <c r="G16" s="48" t="s">
         <v>252</v>
       </c>
-      <c r="H16" s="50" t="s">
+      <c r="H16" s="49" t="s">
         <v>254</v>
       </c>
-      <c r="I16" s="50"/>
+      <c r="I16" s="49"/>
     </row>
     <row r="17" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="65">
+      <c r="A17" s="64">
         <v>11</v>
       </c>
-      <c r="B17" s="82"/>
-      <c r="C17" s="47" t="s">
+      <c r="B17" s="89"/>
+      <c r="C17" s="46" t="s">
         <v>351</v>
       </c>
-      <c r="D17" s="48" t="s">
+      <c r="D17" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="49" t="s">
+      <c r="E17" s="48" t="s">
         <v>255</v>
       </c>
-      <c r="F17" s="49" t="s">
+      <c r="F17" s="48" t="s">
         <v>256</v>
       </c>
-      <c r="G17" s="49" t="s">
+      <c r="G17" s="48" t="s">
         <v>257</v>
       </c>
-      <c r="H17" s="50" t="s">
+      <c r="H17" s="49" t="s">
         <v>258</v>
       </c>
-      <c r="I17" s="50"/>
+      <c r="I17" s="49"/>
     </row>
     <row r="18" spans="1:9" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="90" t="s">
@@ -30720,299 +30717,299 @@
       <c r="I18" s="92"/>
     </row>
     <row r="19" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="54">
+      <c r="A19" s="53">
         <v>12</v>
       </c>
-      <c r="B19" s="65" t="s">
+      <c r="B19" s="64" t="s">
         <v>116</v>
       </c>
-      <c r="C19" s="47" t="s">
+      <c r="C19" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="48" t="s">
+      <c r="D19" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="49" t="s">
+      <c r="E19" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="F19" s="49" t="s">
+      <c r="F19" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="G19" s="49" t="s">
+      <c r="G19" s="48" t="s">
         <v>268</v>
       </c>
-      <c r="H19" s="50" t="s">
+      <c r="H19" s="49" t="s">
         <v>269</v>
       </c>
-      <c r="I19" s="50"/>
+      <c r="I19" s="49"/>
     </row>
     <row r="20" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="54">
+      <c r="A20" s="53">
         <v>13</v>
       </c>
-      <c r="B20" s="65" t="s">
+      <c r="B20" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="C20" s="47" t="s">
+      <c r="C20" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="48" t="s">
+      <c r="D20" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="49" t="s">
+      <c r="E20" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="F20" s="49" t="s">
+      <c r="F20" s="48" t="s">
         <v>176</v>
       </c>
-      <c r="G20" s="49" t="s">
+      <c r="G20" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="H20" s="50" t="s">
+      <c r="H20" s="49" t="s">
         <v>183</v>
       </c>
-      <c r="I20" s="50"/>
+      <c r="I20" s="49"/>
     </row>
     <row r="21" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="54">
+      <c r="A21" s="53">
         <v>14</v>
       </c>
-      <c r="B21" s="65" t="s">
+      <c r="B21" s="64" t="s">
         <v>117</v>
       </c>
-      <c r="C21" s="47" t="s">
+      <c r="C21" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="48" t="s">
+      <c r="D21" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="49" t="s">
+      <c r="E21" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="F21" s="49" t="s">
+      <c r="F21" s="48" t="s">
         <v>177</v>
       </c>
-      <c r="G21" s="49" t="s">
+      <c r="G21" s="48" t="s">
         <v>273</v>
       </c>
-      <c r="H21" s="50" t="s">
+      <c r="H21" s="49" t="s">
         <v>274</v>
       </c>
-      <c r="I21" s="50"/>
+      <c r="I21" s="49"/>
     </row>
     <row r="22" spans="1:9" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="54">
+      <c r="A22" s="53">
         <v>15</v>
       </c>
-      <c r="B22" s="65" t="s">
+      <c r="B22" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="C22" s="47" t="s">
+      <c r="C22" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="48" t="s">
+      <c r="D22" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="49" t="s">
+      <c r="E22" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="49" t="s">
+      <c r="F22" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="G22" s="49" t="s">
+      <c r="G22" s="48" t="s">
         <v>273</v>
       </c>
-      <c r="H22" s="50" t="s">
+      <c r="H22" s="49" t="s">
         <v>274</v>
       </c>
-      <c r="I22" s="50"/>
+      <c r="I22" s="49"/>
     </row>
     <row r="23" spans="1:9" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="54">
+      <c r="A23" s="53">
         <v>16</v>
       </c>
-      <c r="B23" s="65" t="s">
+      <c r="B23" s="64" t="s">
         <v>144</v>
       </c>
-      <c r="C23" s="47" t="s">
+      <c r="C23" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="48" t="s">
+      <c r="D23" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="49" t="s">
+      <c r="E23" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="F23" s="49" t="s">
+      <c r="F23" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="G23" s="49" t="s">
+      <c r="G23" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="H23" s="50" t="s">
+      <c r="H23" s="49" t="s">
         <v>184</v>
       </c>
-      <c r="I23" s="50"/>
+      <c r="I23" s="49"/>
     </row>
     <row r="24" spans="1:9" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="54">
+      <c r="A24" s="53">
         <v>17</v>
       </c>
-      <c r="B24" s="65" t="s">
+      <c r="B24" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="C24" s="47" t="s">
+      <c r="C24" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="D24" s="48" t="s">
+      <c r="D24" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="49" t="s">
+      <c r="E24" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="F24" s="49" t="s">
+      <c r="F24" s="48" t="s">
         <v>174</v>
       </c>
-      <c r="G24" s="49" t="s">
+      <c r="G24" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="H24" s="50" t="s">
+      <c r="H24" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="I24" s="50"/>
+      <c r="I24" s="49"/>
     </row>
     <row r="25" spans="1:9" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="54">
+      <c r="A25" s="53">
         <v>18</v>
       </c>
-      <c r="B25" s="93" t="s">
+      <c r="B25" s="88" t="s">
         <v>119</v>
       </c>
-      <c r="C25" s="47" t="s">
+      <c r="C25" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="D25" s="48" t="s">
+      <c r="D25" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="49" t="s">
+      <c r="E25" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="F25" s="49" t="s">
+      <c r="F25" s="48" t="s">
         <v>180</v>
       </c>
-      <c r="G25" s="49" t="s">
+      <c r="G25" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="H25" s="50" t="s">
+      <c r="H25" s="49" t="s">
         <v>185</v>
       </c>
-      <c r="I25" s="50"/>
+      <c r="I25" s="49"/>
     </row>
     <row r="26" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="54">
+      <c r="A26" s="53">
         <v>19</v>
       </c>
-      <c r="B26" s="93"/>
-      <c r="C26" s="47" t="s">
+      <c r="B26" s="88"/>
+      <c r="C26" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="D26" s="48" t="s">
+      <c r="D26" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="58" t="s">
+      <c r="E26" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="F26" s="58" t="s">
+      <c r="F26" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="G26" s="58" t="s">
+      <c r="G26" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="H26" s="50" t="s">
+      <c r="H26" s="49" t="s">
         <v>186</v>
       </c>
-      <c r="I26" s="50"/>
-    </row>
-    <row r="27" spans="1:9" s="44" customFormat="1" ht="60" x14ac:dyDescent="0.2">
-      <c r="A27" s="54">
+      <c r="I26" s="49"/>
+    </row>
+    <row r="27" spans="1:9" s="43" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A27" s="53">
         <v>20</v>
       </c>
-      <c r="B27" s="66" t="s">
+      <c r="B27" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="C27" s="47" t="s">
+      <c r="C27" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="D27" s="48" t="s">
+      <c r="D27" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="49" t="s">
+      <c r="E27" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="F27" s="49" t="s">
+      <c r="F27" s="48" t="s">
         <v>182</v>
       </c>
-      <c r="G27" s="49" t="s">
+      <c r="G27" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="H27" s="50" t="s">
+      <c r="H27" s="49" t="s">
         <v>187</v>
       </c>
-      <c r="I27" s="50"/>
-    </row>
-    <row r="28" spans="1:9" s="44" customFormat="1" ht="60" x14ac:dyDescent="0.2">
-      <c r="A28" s="54">
+      <c r="I27" s="49"/>
+    </row>
+    <row r="28" spans="1:9" s="43" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A28" s="53">
         <v>21</v>
       </c>
-      <c r="B28" s="65" t="s">
+      <c r="B28" s="64" t="s">
         <v>355</v>
       </c>
-      <c r="C28" s="47" t="s">
+      <c r="C28" s="46" t="s">
         <v>270</v>
       </c>
-      <c r="D28" s="48" t="s">
+      <c r="D28" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="49" t="s">
+      <c r="E28" s="48" t="s">
         <v>278</v>
       </c>
-      <c r="F28" s="49" t="s">
+      <c r="F28" s="48" t="s">
         <v>279</v>
       </c>
-      <c r="G28" s="49" t="s">
+      <c r="G28" s="48" t="s">
         <v>271</v>
       </c>
-      <c r="H28" s="50" t="s">
+      <c r="H28" s="49" t="s">
         <v>272</v>
       </c>
-      <c r="I28" s="50"/>
-    </row>
-    <row r="29" spans="1:9" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A29" s="54">
+      <c r="I28" s="49"/>
+    </row>
+    <row r="29" spans="1:9" s="43" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A29" s="53">
         <v>22</v>
       </c>
-      <c r="B29" s="65" t="s">
+      <c r="B29" s="64" t="s">
         <v>144</v>
       </c>
-      <c r="C29" s="47" t="s">
+      <c r="C29" s="46" t="s">
         <v>277</v>
       </c>
-      <c r="D29" s="48" t="s">
+      <c r="D29" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="49" t="s">
+      <c r="E29" s="48" t="s">
         <v>275</v>
       </c>
-      <c r="F29" s="49" t="s">
+      <c r="F29" s="48" t="s">
         <v>276</v>
       </c>
-      <c r="G29" s="49" t="s">
+      <c r="G29" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="H29" s="50" t="s">
+      <c r="H29" s="49" t="s">
         <v>220</v>
       </c>
-      <c r="I29" s="50"/>
+      <c r="I29" s="49"/>
     </row>
     <row r="30" spans="1:9" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="90" t="s">
@@ -31028,385 +31025,385 @@
       <c r="I30" s="92"/>
     </row>
     <row r="31" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="65">
+      <c r="A31" s="64">
         <v>23</v>
       </c>
-      <c r="B31" s="65" t="s">
+      <c r="B31" s="64" t="s">
         <v>129</v>
       </c>
-      <c r="C31" s="47" t="s">
+      <c r="C31" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="D31" s="48" t="s">
+      <c r="D31" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E31" s="49" t="s">
+      <c r="E31" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="F31" s="49" t="s">
+      <c r="F31" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="G31" s="49" t="s">
+      <c r="G31" s="48" t="s">
         <v>317</v>
       </c>
-      <c r="H31" s="50" t="s">
+      <c r="H31" s="49" t="s">
         <v>318</v>
       </c>
-      <c r="I31" s="50"/>
+      <c r="I31" s="49"/>
     </row>
     <row r="32" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="65">
+      <c r="A32" s="64">
         <v>24</v>
       </c>
-      <c r="B32" s="65" t="s">
+      <c r="B32" s="64" t="s">
         <v>130</v>
       </c>
-      <c r="C32" s="47" t="s">
+      <c r="C32" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="D32" s="48" t="s">
+      <c r="D32" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="49" t="s">
+      <c r="E32" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="F32" s="49" t="s">
+      <c r="F32" s="48" t="s">
         <v>172</v>
       </c>
-      <c r="G32" s="49" t="s">
+      <c r="G32" s="48" t="s">
         <v>319</v>
       </c>
-      <c r="H32" s="50" t="s">
+      <c r="H32" s="49" t="s">
         <v>320</v>
       </c>
-      <c r="I32" s="50"/>
+      <c r="I32" s="49"/>
     </row>
     <row r="33" spans="1:9" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A33" s="65">
+      <c r="A33" s="64">
         <v>25</v>
       </c>
-      <c r="B33" s="81" t="s">
+      <c r="B33" s="86" t="s">
         <v>131</v>
       </c>
-      <c r="C33" s="47" t="s">
+      <c r="C33" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="D33" s="48" t="s">
+      <c r="D33" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E33" s="49" t="s">
+      <c r="E33" s="48" t="s">
         <v>316</v>
       </c>
-      <c r="F33" s="49" t="s">
+      <c r="F33" s="48" t="s">
         <v>315</v>
       </c>
-      <c r="G33" s="49" t="s">
+      <c r="G33" s="48" t="s">
         <v>336</v>
       </c>
-      <c r="H33" s="50" t="s">
+      <c r="H33" s="49" t="s">
         <v>337</v>
       </c>
-      <c r="I33" s="50"/>
+      <c r="I33" s="49"/>
     </row>
     <row r="34" spans="1:9" s="4" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="65">
+      <c r="A34" s="64">
         <v>26</v>
       </c>
-      <c r="B34" s="82"/>
-      <c r="C34" s="47" t="s">
+      <c r="B34" s="89"/>
+      <c r="C34" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="D34" s="48" t="s">
+      <c r="D34" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="49" t="s">
+      <c r="E34" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="F34" s="49" t="s">
+      <c r="F34" s="48" t="s">
         <v>174</v>
       </c>
-      <c r="G34" s="55" t="s">
+      <c r="G34" s="54" t="s">
         <v>313</v>
       </c>
-      <c r="H34" s="50" t="s">
+      <c r="H34" s="49" t="s">
         <v>314</v>
       </c>
-      <c r="I34" s="50"/>
+      <c r="I34" s="49"/>
     </row>
     <row r="35" spans="1:9" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A35" s="65">
+      <c r="A35" s="64">
         <v>27</v>
       </c>
-      <c r="B35" s="82"/>
-      <c r="C35" s="47" t="s">
+      <c r="B35" s="89"/>
+      <c r="C35" s="46" t="s">
         <v>294</v>
       </c>
-      <c r="D35" s="48" t="s">
+      <c r="D35" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E35" s="49" t="s">
+      <c r="E35" s="48" t="s">
         <v>280</v>
       </c>
-      <c r="F35" s="49" t="s">
+      <c r="F35" s="48" t="s">
         <v>324</v>
       </c>
-      <c r="G35" s="49" t="s">
+      <c r="G35" s="48" t="s">
         <v>283</v>
       </c>
-      <c r="H35" s="50" t="s">
+      <c r="H35" s="49" t="s">
         <v>338</v>
       </c>
-      <c r="I35" s="50"/>
+      <c r="I35" s="49"/>
     </row>
     <row r="36" spans="1:9" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="65">
+      <c r="A36" s="64">
         <v>28</v>
       </c>
-      <c r="B36" s="82"/>
-      <c r="C36" s="47" t="s">
+      <c r="B36" s="89"/>
+      <c r="C36" s="46" t="s">
         <v>295</v>
       </c>
-      <c r="D36" s="48" t="s">
+      <c r="D36" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="49" t="s">
+      <c r="E36" s="48" t="s">
         <v>281</v>
       </c>
-      <c r="F36" s="49" t="s">
+      <c r="F36" s="48" t="s">
         <v>325</v>
       </c>
-      <c r="G36" s="49" t="s">
+      <c r="G36" s="48" t="s">
         <v>284</v>
       </c>
-      <c r="H36" s="50" t="s">
+      <c r="H36" s="49" t="s">
         <v>340</v>
       </c>
-      <c r="I36" s="50"/>
+      <c r="I36" s="49"/>
     </row>
     <row r="37" spans="1:9" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" s="65">
+      <c r="A37" s="64">
         <v>29</v>
       </c>
-      <c r="B37" s="82"/>
-      <c r="C37" s="47" t="s">
+      <c r="B37" s="89"/>
+      <c r="C37" s="46" t="s">
         <v>296</v>
       </c>
-      <c r="D37" s="48" t="s">
+      <c r="D37" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="49" t="s">
+      <c r="E37" s="48" t="s">
         <v>282</v>
       </c>
-      <c r="F37" s="49" t="s">
+      <c r="F37" s="48" t="s">
         <v>326</v>
       </c>
-      <c r="G37" s="49" t="s">
+      <c r="G37" s="48" t="s">
         <v>285</v>
       </c>
-      <c r="H37" s="50" t="s">
+      <c r="H37" s="49" t="s">
         <v>341</v>
       </c>
-      <c r="I37" s="50"/>
+      <c r="I37" s="49"/>
     </row>
     <row r="38" spans="1:9" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A38" s="65">
+      <c r="A38" s="64">
         <v>30</v>
       </c>
-      <c r="B38" s="82"/>
-      <c r="C38" s="47" t="s">
+      <c r="B38" s="89"/>
+      <c r="C38" s="46" t="s">
         <v>297</v>
       </c>
-      <c r="D38" s="48" t="s">
+      <c r="D38" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="49" t="s">
+      <c r="E38" s="48" t="s">
         <v>305</v>
       </c>
-      <c r="F38" s="49" t="s">
+      <c r="F38" s="48" t="s">
         <v>327</v>
       </c>
-      <c r="G38" s="55" t="s">
+      <c r="G38" s="54" t="s">
         <v>286</v>
       </c>
-      <c r="H38" s="50" t="s">
+      <c r="H38" s="49" t="s">
         <v>339</v>
       </c>
-      <c r="I38" s="50"/>
+      <c r="I38" s="49"/>
     </row>
     <row r="39" spans="1:9" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A39" s="65">
+      <c r="A39" s="64">
         <v>31</v>
       </c>
-      <c r="B39" s="82"/>
-      <c r="C39" s="47" t="s">
+      <c r="B39" s="89"/>
+      <c r="C39" s="46" t="s">
         <v>298</v>
       </c>
-      <c r="D39" s="48" t="s">
+      <c r="D39" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E39" s="49" t="s">
+      <c r="E39" s="48" t="s">
         <v>306</v>
       </c>
-      <c r="F39" s="49" t="s">
+      <c r="F39" s="48" t="s">
         <v>328</v>
       </c>
-      <c r="G39" s="55" t="s">
+      <c r="G39" s="54" t="s">
         <v>287</v>
       </c>
-      <c r="H39" s="50" t="s">
+      <c r="H39" s="49" t="s">
         <v>342</v>
       </c>
-      <c r="I39" s="50"/>
+      <c r="I39" s="49"/>
     </row>
     <row r="40" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="65">
+      <c r="A40" s="64">
         <v>32</v>
       </c>
-      <c r="B40" s="82"/>
-      <c r="C40" s="47" t="s">
+      <c r="B40" s="89"/>
+      <c r="C40" s="46" t="s">
         <v>299</v>
       </c>
-      <c r="D40" s="48" t="s">
+      <c r="D40" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E40" s="49" t="s">
+      <c r="E40" s="48" t="s">
         <v>307</v>
       </c>
-      <c r="F40" s="49" t="s">
+      <c r="F40" s="48" t="s">
         <v>329</v>
       </c>
-      <c r="G40" s="55" t="s">
+      <c r="G40" s="54" t="s">
         <v>288</v>
       </c>
-      <c r="H40" s="50" t="s">
+      <c r="H40" s="49" t="s">
         <v>343</v>
       </c>
-      <c r="I40" s="50"/>
+      <c r="I40" s="49"/>
     </row>
     <row r="41" spans="1:9" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A41" s="65">
+      <c r="A41" s="64">
         <v>33</v>
       </c>
-      <c r="B41" s="82"/>
-      <c r="C41" s="47" t="s">
+      <c r="B41" s="89"/>
+      <c r="C41" s="46" t="s">
         <v>300</v>
       </c>
-      <c r="D41" s="48" t="s">
+      <c r="D41" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E41" s="49" t="s">
+      <c r="E41" s="48" t="s">
         <v>308</v>
       </c>
-      <c r="F41" s="49" t="s">
+      <c r="F41" s="48" t="s">
         <v>330</v>
       </c>
-      <c r="G41" s="55" t="s">
+      <c r="G41" s="54" t="s">
         <v>289</v>
       </c>
-      <c r="H41" s="50" t="s">
+      <c r="H41" s="49" t="s">
         <v>344</v>
       </c>
-      <c r="I41" s="50"/>
+      <c r="I41" s="49"/>
     </row>
     <row r="42" spans="1:9" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A42" s="65">
+      <c r="A42" s="64">
         <v>34</v>
       </c>
-      <c r="B42" s="82"/>
-      <c r="C42" s="47" t="s">
+      <c r="B42" s="89"/>
+      <c r="C42" s="46" t="s">
         <v>301</v>
       </c>
-      <c r="D42" s="48" t="s">
+      <c r="D42" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E42" s="49" t="s">
+      <c r="E42" s="48" t="s">
         <v>309</v>
       </c>
-      <c r="F42" s="49" t="s">
+      <c r="F42" s="48" t="s">
         <v>331</v>
       </c>
-      <c r="G42" s="55" t="s">
+      <c r="G42" s="54" t="s">
         <v>290</v>
       </c>
-      <c r="H42" s="50" t="s">
+      <c r="H42" s="49" t="s">
         <v>345</v>
       </c>
-      <c r="I42" s="50"/>
+      <c r="I42" s="49"/>
     </row>
     <row r="43" spans="1:9" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A43" s="65">
+      <c r="A43" s="64">
         <v>35</v>
       </c>
-      <c r="B43" s="82"/>
-      <c r="C43" s="47" t="s">
+      <c r="B43" s="89"/>
+      <c r="C43" s="46" t="s">
         <v>302</v>
       </c>
-      <c r="D43" s="48" t="s">
+      <c r="D43" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E43" s="49" t="s">
+      <c r="E43" s="48" t="s">
         <v>310</v>
       </c>
-      <c r="F43" s="49" t="s">
+      <c r="F43" s="48" t="s">
         <v>356</v>
       </c>
-      <c r="G43" s="55" t="s">
+      <c r="G43" s="54" t="s">
         <v>291</v>
       </c>
-      <c r="H43" s="50" t="s">
+      <c r="H43" s="49" t="s">
         <v>346</v>
       </c>
-      <c r="I43" s="50"/>
+      <c r="I43" s="49"/>
     </row>
     <row r="44" spans="1:9" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A44" s="65">
+      <c r="A44" s="64">
         <v>36</v>
       </c>
-      <c r="B44" s="82"/>
-      <c r="C44" s="47" t="s">
+      <c r="B44" s="89"/>
+      <c r="C44" s="46" t="s">
         <v>303</v>
       </c>
-      <c r="D44" s="48" t="s">
+      <c r="D44" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E44" s="49" t="s">
+      <c r="E44" s="48" t="s">
         <v>311</v>
       </c>
-      <c r="F44" s="49" t="s">
+      <c r="F44" s="48" t="s">
         <v>332</v>
       </c>
-      <c r="G44" s="55" t="s">
+      <c r="G44" s="54" t="s">
         <v>292</v>
       </c>
-      <c r="H44" s="50" t="s">
+      <c r="H44" s="49" t="s">
         <v>347</v>
       </c>
-      <c r="I44" s="50"/>
+      <c r="I44" s="49"/>
     </row>
     <row r="45" spans="1:9" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A45" s="65">
+      <c r="A45" s="64">
         <v>37</v>
       </c>
-      <c r="B45" s="83"/>
-      <c r="C45" s="47" t="s">
+      <c r="B45" s="87"/>
+      <c r="C45" s="46" t="s">
         <v>304</v>
       </c>
-      <c r="D45" s="48" t="s">
+      <c r="D45" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E45" s="49" t="s">
+      <c r="E45" s="48" t="s">
         <v>312</v>
       </c>
-      <c r="F45" s="49" t="s">
+      <c r="F45" s="48" t="s">
         <v>333</v>
       </c>
-      <c r="G45" s="55" t="s">
+      <c r="G45" s="54" t="s">
         <v>293</v>
       </c>
-      <c r="H45" s="50" t="s">
+      <c r="H45" s="49" t="s">
         <v>348</v>
       </c>
-      <c r="I45" s="50"/>
+      <c r="I45" s="49"/>
     </row>
     <row r="46" spans="1:9" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="90" t="s">
@@ -31422,247 +31419,247 @@
       <c r="I46" s="92"/>
     </row>
     <row r="47" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="65">
+      <c r="A47" s="64">
         <v>38</v>
       </c>
-      <c r="B47" s="81" t="s">
+      <c r="B47" s="86" t="s">
         <v>357</v>
       </c>
-      <c r="C47" s="60" t="s">
+      <c r="C47" s="59" t="s">
         <v>137</v>
       </c>
-      <c r="D47" s="59" t="s">
+      <c r="D47" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="E47" s="49" t="s">
+      <c r="E47" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="F47" s="49" t="s">
+      <c r="F47" s="48" t="s">
         <v>188</v>
       </c>
-      <c r="G47" s="49" t="s">
+      <c r="G47" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="H47" s="50" t="s">
+      <c r="H47" s="49" t="s">
         <v>192</v>
       </c>
-      <c r="I47" s="50"/>
+      <c r="I47" s="49"/>
     </row>
     <row r="48" spans="1:9" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A48" s="65">
+      <c r="A48" s="64">
         <v>39</v>
       </c>
-      <c r="B48" s="83"/>
-      <c r="C48" s="60" t="s">
+      <c r="B48" s="87"/>
+      <c r="C48" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="D48" s="59" t="s">
+      <c r="D48" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="E48" s="49" t="s">
+      <c r="E48" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="F48" s="49" t="s">
+      <c r="F48" s="48" t="s">
         <v>189</v>
       </c>
-      <c r="G48" s="49" t="s">
+      <c r="G48" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="H48" s="50" t="s">
+      <c r="H48" s="49" t="s">
         <v>193</v>
       </c>
-      <c r="I48" s="50"/>
-    </row>
-    <row r="49" spans="1:9" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A49" s="65">
+      <c r="I48" s="49"/>
+    </row>
+    <row r="49" spans="1:9" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A49" s="64">
         <v>40</v>
       </c>
-      <c r="B49" s="65" t="s">
+      <c r="B49" s="64" t="s">
         <v>156</v>
       </c>
-      <c r="C49" s="60" t="s">
+      <c r="C49" s="59" t="s">
         <v>148</v>
       </c>
-      <c r="D49" s="59" t="s">
+      <c r="D49" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="E49" s="49" t="s">
+      <c r="E49" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="F49" s="49" t="s">
+      <c r="F49" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="G49" s="49" t="s">
+      <c r="G49" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="H49" s="50" t="s">
+      <c r="H49" s="49" t="s">
         <v>221</v>
       </c>
-      <c r="I49" s="50"/>
+      <c r="I49" s="49"/>
     </row>
     <row r="50" spans="1:9" s="4" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="65">
+      <c r="A50" s="64">
         <v>41</v>
       </c>
-      <c r="B50" s="65" t="s">
+      <c r="B50" s="64" t="s">
         <v>151</v>
       </c>
-      <c r="C50" s="60" t="s">
+      <c r="C50" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="D50" s="59" t="s">
+      <c r="D50" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="E50" s="49" t="s">
+      <c r="E50" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="F50" s="49" t="s">
+      <c r="F50" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="G50" s="49" t="s">
+      <c r="G50" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="H50" s="50" t="s">
+      <c r="H50" s="49" t="s">
         <v>222</v>
       </c>
-      <c r="I50" s="50"/>
+      <c r="I50" s="49"/>
     </row>
     <row r="51" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="65">
+      <c r="A51" s="64">
         <v>42</v>
       </c>
-      <c r="B51" s="65" t="s">
+      <c r="B51" s="64" t="s">
         <v>154</v>
       </c>
-      <c r="C51" s="60" t="s">
+      <c r="C51" s="59" t="s">
         <v>157</v>
       </c>
-      <c r="D51" s="59" t="s">
+      <c r="D51" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="E51" s="49" t="s">
+      <c r="E51" s="48" t="s">
         <v>158</v>
       </c>
-      <c r="F51" s="49" t="s">
+      <c r="F51" s="48" t="s">
         <v>191</v>
       </c>
-      <c r="G51" s="49" t="s">
+      <c r="G51" s="48" t="s">
         <v>159</v>
       </c>
-      <c r="H51" s="50" t="s">
+      <c r="H51" s="49" t="s">
         <v>194</v>
       </c>
-      <c r="I51" s="50"/>
+      <c r="I51" s="49"/>
     </row>
     <row r="52" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="65">
+      <c r="A52" s="64">
         <v>43</v>
       </c>
-      <c r="B52" s="81" t="s">
+      <c r="B52" s="86" t="s">
         <v>160</v>
       </c>
-      <c r="C52" s="60" t="s">
+      <c r="C52" s="59" t="s">
         <v>161</v>
       </c>
-      <c r="D52" s="59" t="s">
+      <c r="D52" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="E52" s="49" t="s">
+      <c r="E52" s="48" t="s">
         <v>163</v>
       </c>
-      <c r="F52" s="49" t="s">
+      <c r="F52" s="48" t="s">
         <v>225</v>
       </c>
-      <c r="G52" s="49" t="s">
+      <c r="G52" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="H52" s="50" t="s">
+      <c r="H52" s="49" t="s">
         <v>223</v>
       </c>
-      <c r="I52" s="50"/>
+      <c r="I52" s="49"/>
     </row>
     <row r="53" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="65">
+      <c r="A53" s="64">
         <v>44</v>
       </c>
-      <c r="B53" s="83"/>
-      <c r="C53" s="61" t="s">
+      <c r="B53" s="87"/>
+      <c r="C53" s="60" t="s">
         <v>218</v>
       </c>
-      <c r="D53" s="59" t="s">
+      <c r="D53" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="E53" s="49" t="s">
+      <c r="E53" s="48" t="s">
         <v>217</v>
       </c>
-      <c r="F53" s="49" t="s">
+      <c r="F53" s="48" t="s">
         <v>226</v>
       </c>
-      <c r="G53" s="49" t="s">
+      <c r="G53" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="H53" s="50" t="s">
+      <c r="H53" s="49" t="s">
         <v>220</v>
       </c>
       <c r="I53" s="3"/>
     </row>
-    <row r="54" spans="1:9" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A54" s="65">
+    <row r="54" spans="1:9" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A54" s="64">
         <v>45</v>
       </c>
-      <c r="B54" s="67" t="s">
+      <c r="B54" s="66" t="s">
         <v>156</v>
       </c>
-      <c r="C54" s="61" t="s">
+      <c r="C54" s="60" t="s">
         <v>267</v>
       </c>
-      <c r="D54" s="59" t="s">
+      <c r="D54" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="E54" s="49" t="s">
+      <c r="E54" s="48" t="s">
         <v>265</v>
       </c>
-      <c r="F54" s="49" t="s">
+      <c r="F54" s="48" t="s">
         <v>266</v>
       </c>
-      <c r="G54" s="49" t="s">
+      <c r="G54" s="48" t="s">
         <v>263</v>
       </c>
-      <c r="H54" s="50" t="s">
+      <c r="H54" s="49" t="s">
         <v>264</v>
       </c>
       <c r="I54" s="3"/>
     </row>
     <row r="55" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="65">
+      <c r="A55" s="64">
         <v>46</v>
       </c>
-      <c r="B55" s="46" t="s">
+      <c r="B55" s="45" t="s">
         <v>357</v>
       </c>
-      <c r="C55" s="61" t="s">
+      <c r="C55" s="60" t="s">
         <v>321</v>
       </c>
-      <c r="D55" s="59" t="s">
+      <c r="D55" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="E55" s="49" t="s">
+      <c r="E55" s="48" t="s">
         <v>322</v>
       </c>
-      <c r="F55" s="49" t="s">
+      <c r="F55" s="48" t="s">
         <v>323</v>
       </c>
-      <c r="G55" s="49" t="s">
+      <c r="G55" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="H55" s="50" t="s">
+      <c r="H55" s="49" t="s">
         <v>220</v>
       </c>
       <c r="I55" s="15"/>
     </row>
     <row r="56" spans="1:9" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
-      <c r="B56" s="53"/>
+      <c r="B56" s="52"/>
       <c r="C56" s="12"/>
       <c r="D56" s="13"/>
       <c r="E56" s="14"/>
@@ -31673,7 +31670,7 @@
     </row>
     <row r="57" spans="1:9" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
-      <c r="B57" s="84"/>
+      <c r="B57" s="80"/>
       <c r="C57" s="12"/>
       <c r="D57" s="13"/>
       <c r="E57" s="14"/>
@@ -31684,7 +31681,7 @@
     </row>
     <row r="58" spans="1:9" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
-      <c r="B58" s="85"/>
+      <c r="B58" s="81"/>
       <c r="C58" s="12"/>
       <c r="D58" s="13"/>
       <c r="E58" s="14"/>
@@ -31695,7 +31692,7 @@
     </row>
     <row r="59" spans="1:9" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
-      <c r="B59" s="85"/>
+      <c r="B59" s="81"/>
       <c r="C59" s="12"/>
       <c r="D59" s="13"/>
       <c r="E59" s="14"/>
@@ -31706,7 +31703,7 @@
     </row>
     <row r="60" spans="1:9" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
-      <c r="B60" s="86"/>
+      <c r="B60" s="82"/>
       <c r="C60" s="12"/>
       <c r="D60" s="13"/>
       <c r="E60" s="14"/>
@@ -31717,7 +31714,7 @@
     </row>
     <row r="61" spans="1:9" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
-      <c r="B61" s="87"/>
+      <c r="B61" s="83"/>
       <c r="C61" s="12"/>
       <c r="D61" s="13"/>
       <c r="E61" s="14"/>
@@ -31728,7 +31725,7 @@
     </row>
     <row r="62" spans="1:9" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
-      <c r="B62" s="88"/>
+      <c r="B62" s="84"/>
       <c r="C62" s="12"/>
       <c r="D62" s="13"/>
       <c r="E62" s="14"/>
@@ -31739,7 +31736,7 @@
     </row>
     <row r="63" spans="1:9" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
-      <c r="B63" s="88"/>
+      <c r="B63" s="84"/>
       <c r="C63" s="12"/>
       <c r="D63" s="13"/>
       <c r="E63" s="14"/>
@@ -31750,7 +31747,7 @@
     </row>
     <row r="64" spans="1:9" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
-      <c r="B64" s="88"/>
+      <c r="B64" s="84"/>
       <c r="C64" s="12"/>
       <c r="D64" s="13"/>
       <c r="E64" s="14"/>
@@ -31761,7 +31758,7 @@
     </row>
     <row r="65" spans="1:9" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
-      <c r="B65" s="89"/>
+      <c r="B65" s="85"/>
       <c r="C65" s="12"/>
       <c r="D65" s="13"/>
       <c r="E65" s="14"/>
@@ -31772,7 +31769,7 @@
     </row>
     <row r="66" spans="1:9" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
-      <c r="B66" s="84"/>
+      <c r="B66" s="80"/>
       <c r="C66" s="12"/>
       <c r="D66" s="16"/>
       <c r="E66" s="14"/>
@@ -31783,7 +31780,7 @@
     </row>
     <row r="67" spans="1:9" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
-      <c r="B67" s="85"/>
+      <c r="B67" s="81"/>
       <c r="C67" s="12"/>
       <c r="D67" s="16"/>
       <c r="E67" s="14"/>
@@ -31860,21 +31857,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="B33:B45"/>
+    <mergeCell ref="B16:B17"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A7:I7"/>
     <mergeCell ref="A18:I18"/>
     <mergeCell ref="A30:I30"/>
-    <mergeCell ref="A46:I46"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="B61:B65"/>
+    <mergeCell ref="B66:B67"/>
     <mergeCell ref="B47:B48"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="B33:B45"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="B61:B65"/>
-    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="A46:I46"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31910,43 +31907,43 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="44"/>
-    <col min="2" max="2" width="14.7109375" style="44" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" style="44" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="44" customWidth="1"/>
-    <col min="5" max="6" width="26.5703125" style="44" customWidth="1"/>
-    <col min="7" max="7" width="27.85546875" style="44" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" style="44" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" style="44" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="44"/>
+    <col min="1" max="1" width="9.140625" style="43"/>
+    <col min="2" max="2" width="14.7109375" style="43" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="43" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="43" customWidth="1"/>
+    <col min="5" max="6" width="26.5703125" style="43" customWidth="1"/>
+    <col min="7" max="7" width="27.85546875" style="43" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" style="43" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" style="43" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="41" t="s">
         <v>164</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="41" t="s">
         <v>10</v>
       </c>
     </row>
@@ -31964,83 +31961,83 @@
       <c r="I2" s="92"/>
     </row>
     <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="A3" s="45">
+      <c r="A3" s="44">
         <v>1</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="86" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="49" t="s">
+      <c r="E3" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="G3" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="H3" s="50" t="s">
+      <c r="H3" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="I3" s="50"/>
+      <c r="I3" s="49"/>
     </row>
     <row r="4" spans="1:9" ht="75" x14ac:dyDescent="0.2">
-      <c r="A4" s="45">
+      <c r="A4" s="44">
         <v>2</v>
       </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="47" t="s">
+      <c r="B4" s="89"/>
+      <c r="C4" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="48" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="49" t="s">
+      <c r="G4" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="H4" s="50" t="s">
+      <c r="H4" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="I4" s="50"/>
+      <c r="I4" s="49"/>
     </row>
     <row r="5" spans="1:9" ht="75" x14ac:dyDescent="0.2">
-      <c r="A5" s="45">
+      <c r="A5" s="44">
         <v>3</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="48" t="s">
         <v>196</v>
       </c>
-      <c r="G5" s="49" t="s">
+      <c r="G5" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="H5" s="50" t="s">
+      <c r="H5" s="49" t="s">
         <v>198</v>
       </c>
-      <c r="I5" s="50"/>
+      <c r="I5" s="49"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="90" t="s">
@@ -32056,135 +32053,135 @@
       <c r="I6" s="92"/>
     </row>
     <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="A7" s="45">
+      <c r="A7" s="44">
         <v>4</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="49" t="s">
+      <c r="F7" s="48" t="s">
         <v>182</v>
       </c>
-      <c r="G7" s="49" t="s">
+      <c r="G7" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="50" t="s">
+      <c r="H7" s="49" t="s">
         <v>187</v>
       </c>
-      <c r="I7" s="50"/>
+      <c r="I7" s="49"/>
     </row>
     <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="A8" s="45">
+      <c r="A8" s="44">
         <v>5</v>
       </c>
-      <c r="B8" s="94" t="s">
+      <c r="B8" s="93" t="s">
         <v>128</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="58" t="s">
+      <c r="E8" s="57" t="s">
         <v>126</v>
       </c>
-      <c r="F8" s="58" t="s">
+      <c r="F8" s="57" t="s">
         <v>199</v>
       </c>
-      <c r="G8" s="49" t="s">
+      <c r="G8" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="H8" s="50" t="s">
+      <c r="H8" s="49" t="s">
         <v>203</v>
       </c>
-      <c r="I8" s="50"/>
-    </row>
-    <row r="9" spans="1:9" s="56" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A9" s="45">
+      <c r="I8" s="49"/>
+    </row>
+    <row r="9" spans="1:9" s="55" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A9" s="44">
         <v>6</v>
       </c>
-      <c r="B9" s="95"/>
-      <c r="C9" s="47" t="s">
+      <c r="B9" s="94"/>
+      <c r="C9" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="D9" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="58" t="s">
+      <c r="E9" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="F9" s="58" t="s">
+      <c r="F9" s="57" t="s">
         <v>200</v>
       </c>
-      <c r="G9" s="58" t="s">
+      <c r="G9" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="H9" s="58" t="s">
+      <c r="H9" s="57" t="s">
         <v>204</v>
       </c>
-      <c r="I9" s="57"/>
+      <c r="I9" s="56"/>
     </row>
     <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="A10" s="45">
+      <c r="A10" s="44">
         <v>7</v>
       </c>
-      <c r="B10" s="94" t="s">
+      <c r="B10" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="D10" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="49" t="s">
+      <c r="E10" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F10" s="49" t="s">
+      <c r="F10" s="48" t="s">
         <v>201</v>
       </c>
-      <c r="G10" s="49" t="s">
+      <c r="G10" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="H10" s="50" t="s">
+      <c r="H10" s="49" t="s">
         <v>185</v>
       </c>
-      <c r="I10" s="50"/>
+      <c r="I10" s="49"/>
     </row>
     <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="A11" s="45">
+      <c r="A11" s="44">
         <v>8</v>
       </c>
-      <c r="B11" s="95"/>
-      <c r="C11" s="47" t="s">
+      <c r="B11" s="94"/>
+      <c r="C11" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="D11" s="48" t="s">
+      <c r="D11" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="58" t="s">
+      <c r="E11" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="58" t="s">
+      <c r="F11" s="57" t="s">
         <v>202</v>
       </c>
-      <c r="G11" s="58" t="s">
+      <c r="G11" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="H11" s="50" t="s">
+      <c r="H11" s="49" t="s">
         <v>186</v>
       </c>
-      <c r="I11" s="50"/>
+      <c r="I11" s="49"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A12" s="90" t="s">
@@ -32200,56 +32197,56 @@
       <c r="I12" s="92"/>
     </row>
     <row r="13" spans="1:9" ht="75" x14ac:dyDescent="0.2">
-      <c r="A13" s="45">
+      <c r="A13" s="44">
         <v>9</v>
       </c>
-      <c r="B13" s="81" t="s">
+      <c r="B13" s="86" t="s">
         <v>132</v>
       </c>
-      <c r="C13" s="47" t="s">
+      <c r="C13" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="D13" s="48" t="s">
+      <c r="D13" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="49" t="s">
+      <c r="E13" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="F13" s="49" t="s">
+      <c r="F13" s="48" t="s">
         <v>205</v>
       </c>
-      <c r="G13" s="49" t="s">
+      <c r="G13" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="H13" s="50" t="s">
+      <c r="H13" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="I13" s="50"/>
+      <c r="I13" s="49"/>
     </row>
     <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="A14" s="45">
+      <c r="A14" s="44">
         <v>10</v>
       </c>
-      <c r="B14" s="83"/>
-      <c r="C14" s="47" t="s">
+      <c r="B14" s="87"/>
+      <c r="C14" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="D14" s="48" t="s">
+      <c r="D14" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="49" t="s">
+      <c r="E14" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="49" t="s">
+      <c r="F14" s="48" t="s">
         <v>206</v>
       </c>
-      <c r="G14" s="49" t="s">
+      <c r="G14" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="H14" s="50" t="s">
+      <c r="H14" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="I14" s="50"/>
+      <c r="I14" s="49"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A15" s="90" t="s">
@@ -32265,129 +32262,129 @@
       <c r="I15" s="92"/>
     </row>
     <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="A16" s="45">
+      <c r="A16" s="44">
         <v>11</v>
       </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="47" t="s">
+      <c r="B16" s="45"/>
+      <c r="C16" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="48" t="s">
+      <c r="D16" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="49" t="s">
+      <c r="E16" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="49" t="s">
+      <c r="F16" s="48" t="s">
         <v>207</v>
       </c>
-      <c r="G16" s="49" t="s">
+      <c r="G16" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="H16" s="50" t="s">
+      <c r="H16" s="49" t="s">
         <v>212</v>
       </c>
-      <c r="I16" s="50"/>
+      <c r="I16" s="49"/>
     </row>
     <row r="17" spans="1:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="A17" s="45">
+      <c r="A17" s="44">
         <v>12</v>
       </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="47" t="s">
+      <c r="B17" s="50"/>
+      <c r="C17" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="48" t="s">
+      <c r="D17" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="49" t="s">
+      <c r="E17" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="49" t="s">
+      <c r="F17" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="G17" s="49" t="s">
+      <c r="G17" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="H17" s="50" t="s">
+      <c r="H17" s="49" t="s">
         <v>213</v>
       </c>
-      <c r="I17" s="50"/>
+      <c r="I17" s="49"/>
     </row>
     <row r="18" spans="1:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="A18" s="45">
+      <c r="A18" s="44">
         <v>13</v>
       </c>
-      <c r="B18" s="51"/>
-      <c r="C18" s="47" t="s">
+      <c r="B18" s="50"/>
+      <c r="C18" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="48" t="s">
+      <c r="D18" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="49" t="s">
+      <c r="E18" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="F18" s="49" t="s">
+      <c r="F18" s="48" t="s">
         <v>209</v>
       </c>
-      <c r="G18" s="49" t="s">
+      <c r="G18" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="H18" s="50" t="s">
+      <c r="H18" s="49" t="s">
         <v>214</v>
       </c>
-      <c r="I18" s="50"/>
+      <c r="I18" s="49"/>
     </row>
     <row r="19" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="A19" s="45">
+      <c r="A19" s="44">
         <v>14</v>
       </c>
-      <c r="B19" s="51"/>
-      <c r="C19" s="47" t="s">
+      <c r="B19" s="50"/>
+      <c r="C19" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="48" t="s">
+      <c r="D19" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="49" t="s">
+      <c r="E19" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="F19" s="49" t="s">
+      <c r="F19" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="G19" s="49" t="s">
+      <c r="G19" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="H19" s="50" t="s">
+      <c r="H19" s="49" t="s">
         <v>213</v>
       </c>
-      <c r="I19" s="50"/>
+      <c r="I19" s="49"/>
     </row>
     <row r="20" spans="1:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="A20" s="45">
+      <c r="A20" s="44">
         <v>15</v>
       </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="47" t="s">
+      <c r="B20" s="50"/>
+      <c r="C20" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="48" t="s">
+      <c r="D20" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="49" t="s">
+      <c r="E20" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="F20" s="49" t="s">
+      <c r="F20" s="48" t="s">
         <v>211</v>
       </c>
-      <c r="G20" s="49" t="s">
+      <c r="G20" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="H20" s="50" t="s">
+      <c r="H20" s="49" t="s">
         <v>187</v>
       </c>
-      <c r="I20" s="50"/>
+      <c r="I20" s="49"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A21" s="90" t="s">
@@ -32403,62 +32400,62 @@
       <c r="I21" s="92"/>
     </row>
     <row r="22" spans="1:9" ht="75" x14ac:dyDescent="0.2">
-      <c r="A22" s="45">
+      <c r="A22" s="44">
         <v>16</v>
       </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="47" t="s">
+      <c r="B22" s="45"/>
+      <c r="C22" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="D22" s="48" t="s">
+      <c r="D22" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="49" t="s">
+      <c r="E22" s="48" t="s">
         <v>143</v>
       </c>
-      <c r="F22" s="49" t="s">
+      <c r="F22" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="G22" s="49" t="s">
+      <c r="G22" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="H22" s="50" t="s">
+      <c r="H22" s="49" t="s">
         <v>216</v>
       </c>
-      <c r="I22" s="50"/>
+      <c r="I22" s="49"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="54"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
+      <c r="A23" s="53"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="54"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
+      <c r="A24" s="53"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="54"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
+      <c r="A25" s="53"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/Improgress/2. Artifact and Deliverable/DetailDesign & Architect/Design/DE_MessageList_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/DetailDesign & Architect/Design/DE_MessageList_Ver1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\DetailDesign &amp; Architect\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA78402D-18C1-49EE-AE54-992577C0F8DB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74C1C37-A48A-4D30-8BCF-0949CBF5C983}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="363">
   <si>
     <t>Project Name:</t>
   </si>
@@ -357,9 +357,6 @@
     <t>Thông báo lỗi khi nhập thiếu một trong hai trường hoặc thiếu cả hai trường thông tin tên đăng nhập hoặc mật khẩu</t>
   </si>
   <si>
-    <t>Đổi mật khẩu thành công</t>
-  </si>
-  <si>
     <t>Thông báo khi người sử dụng thay đổi mật khẩu thành công</t>
   </si>
   <si>
@@ -429,9 +426,6 @@
     <t>FR.14.2</t>
   </si>
   <si>
-    <t>Vui lòng nhập đúng mật khẩu hiện tại</t>
-  </si>
-  <si>
     <t>Thông báo khi người sử dụng nhập sai mật khẩu cũ</t>
   </si>
   <si>
@@ -663,9 +657,6 @@
     <t>Notify when user confirms forgotten password</t>
   </si>
   <si>
-    <t>Please enter correct current password</t>
-  </si>
-  <si>
     <t>Change password successfully</t>
   </si>
   <si>
@@ -1126,6 +1117,30 @@
   </si>
   <si>
     <t>FR.45</t>
+  </si>
+  <si>
+    <t>Mật khẩu hiện tại không đúng</t>
+  </si>
+  <si>
+    <t>The current password is incorrect</t>
+  </si>
+  <si>
+    <t>Thay đổi mật khẩu thành công</t>
+  </si>
+  <si>
+    <t>Thông báo khi người sử dụng nhập mật khẩu mới có ít hơn 6 ký tự</t>
+  </si>
+  <si>
+    <t>Notify when user enters a new password with less than 6 characters</t>
+  </si>
+  <si>
+    <t>MS.IA.006</t>
+  </si>
+  <si>
+    <t>New password is at least 6 characters</t>
+  </si>
+  <si>
+    <t>Mật khẩu mới tối thiểu 6 ký tự</t>
   </si>
 </sst>
 </file>
@@ -1583,7 +1598,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1779,6 +1794,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1818,6 +1836,24 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1836,26 +1872,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2196,7 +2214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="O13" sqref="L11:O13"/>
     </sheetView>
   </sheetViews>
@@ -2210,18 +2228,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="69"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="70"/>
       <c r="K1" s="20"/>
       <c r="L1" s="20"/>
       <c r="M1" s="20"/>
@@ -2240,16 +2258,16 @@
       <c r="Z1" s="20"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="70"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="72"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="73"/>
       <c r="K2" s="20"/>
       <c r="L2" s="21"/>
       <c r="M2" s="21"/>
@@ -2268,24 +2286,24 @@
       <c r="Z2" s="20"/>
     </row>
     <row r="3" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="70"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="72"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="73"/>
       <c r="K3" s="22"/>
       <c r="L3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="76" t="s">
+      <c r="M3" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="77"/>
+      <c r="N3" s="78"/>
       <c r="O3" s="24"/>
       <c r="P3" s="20"/>
       <c r="Q3" s="20"/>
@@ -2300,24 +2318,24 @@
       <c r="Z3" s="20"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="70"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="72"/>
+      <c r="A4" s="71"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="73"/>
       <c r="K4" s="22"/>
       <c r="L4" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="76" t="s">
+      <c r="M4" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="77"/>
+      <c r="N4" s="78"/>
       <c r="O4" s="24"/>
       <c r="P4" s="20"/>
       <c r="Q4" s="20"/>
@@ -2332,24 +2350,24 @@
       <c r="Z4" s="20"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="70"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="72"/>
+      <c r="A5" s="71"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="73"/>
       <c r="K5" s="22"/>
       <c r="L5" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="76" t="s">
+      <c r="M5" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="77"/>
+      <c r="N5" s="78"/>
       <c r="O5" s="24"/>
       <c r="P5" s="20"/>
       <c r="Q5" s="20"/>
@@ -2364,24 +2382,24 @@
       <c r="Z5" s="20"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="70"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="72"/>
+      <c r="A6" s="71"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="73"/>
       <c r="K6" s="22"/>
       <c r="L6" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="76" t="s">
+      <c r="M6" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="77"/>
+      <c r="N6" s="78"/>
       <c r="O6" s="24"/>
       <c r="P6" s="20"/>
       <c r="Q6" s="20"/>
@@ -2396,24 +2414,24 @@
       <c r="Z6" s="20"/>
     </row>
     <row r="7" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="70"/>
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="72"/>
+      <c r="A7" s="71"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="73"/>
       <c r="K7" s="22"/>
       <c r="L7" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="78">
+      <c r="M7" s="79">
         <v>43873</v>
       </c>
-      <c r="N7" s="79"/>
+      <c r="N7" s="80"/>
       <c r="O7" s="24"/>
       <c r="P7" s="20"/>
       <c r="Q7" s="20"/>
@@ -2428,16 +2446,16 @@
       <c r="Z7" s="20"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="70"/>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="72"/>
+      <c r="A8" s="71"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="73"/>
       <c r="K8" s="20"/>
       <c r="L8" s="24"/>
       <c r="M8" s="24"/>
@@ -2456,16 +2474,16 @@
       <c r="Z8" s="20"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="70"/>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="72"/>
+      <c r="A9" s="71"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="73"/>
       <c r="K9" s="20"/>
       <c r="L9" s="24"/>
       <c r="M9" s="24"/>
@@ -2484,16 +2502,16 @@
       <c r="Z9" s="20"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="70"/>
-      <c r="B10" s="71"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="72"/>
+      <c r="A10" s="71"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="73"/>
       <c r="K10" s="20"/>
       <c r="L10" s="26"/>
       <c r="M10" s="26"/>
@@ -2512,23 +2530,23 @@
       <c r="Z10" s="20"/>
     </row>
     <row r="11" spans="1:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="70"/>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="72"/>
+      <c r="A11" s="71"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="73"/>
       <c r="K11" s="22"/>
-      <c r="L11" s="73" t="s">
+      <c r="L11" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="M11" s="74"/>
-      <c r="N11" s="74"/>
-      <c r="O11" s="75"/>
+      <c r="M11" s="75"/>
+      <c r="N11" s="75"/>
+      <c r="O11" s="76"/>
       <c r="P11" s="20"/>
       <c r="Q11" s="20"/>
       <c r="R11" s="20"/>
@@ -2542,16 +2560,16 @@
       <c r="Z11" s="20"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="70"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="72"/>
+      <c r="A12" s="71"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="73"/>
       <c r="K12" s="22"/>
       <c r="L12" s="27" t="s">
         <v>1</v>
@@ -2578,16 +2596,16 @@
       <c r="Z12" s="20"/>
     </row>
     <row r="13" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="70"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="72"/>
+      <c r="A13" s="71"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="73"/>
       <c r="K13" s="22"/>
       <c r="L13" s="28" t="s">
         <v>28</v>
@@ -2614,16 +2632,16 @@
       <c r="Z13" s="20"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="70"/>
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="72"/>
+      <c r="A14" s="71"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="73"/>
       <c r="K14" s="22"/>
       <c r="L14" s="31"/>
       <c r="M14" s="32"/>
@@ -2642,16 +2660,16 @@
       <c r="Z14" s="20"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="70"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="72"/>
+      <c r="A15" s="71"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="73"/>
       <c r="K15" s="22"/>
       <c r="L15" s="31"/>
       <c r="M15" s="32"/>
@@ -2670,16 +2688,16 @@
       <c r="Z15" s="20"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="70"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="72"/>
+      <c r="A16" s="71"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="73"/>
       <c r="K16" s="22"/>
       <c r="L16" s="33"/>
       <c r="M16" s="34"/>
@@ -2698,16 +2716,16 @@
       <c r="Z16" s="20"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="70"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="72"/>
+      <c r="A17" s="71"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="73"/>
       <c r="K17" s="22"/>
       <c r="L17" s="33"/>
       <c r="M17" s="34"/>
@@ -2726,16 +2744,16 @@
       <c r="Z17" s="20"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="70"/>
-      <c r="B18" s="71"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="72"/>
+      <c r="A18" s="71"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="73"/>
       <c r="K18" s="22"/>
       <c r="L18" s="33"/>
       <c r="M18" s="34"/>
@@ -2754,16 +2772,16 @@
       <c r="Z18" s="20"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="70"/>
-      <c r="B19" s="71"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="71"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="72"/>
+      <c r="A19" s="71"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="73"/>
       <c r="K19" s="22"/>
       <c r="L19" s="33"/>
       <c r="M19" s="34"/>
@@ -2782,16 +2800,16 @@
       <c r="Z19" s="20"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="70"/>
-      <c r="B20" s="71"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="72"/>
+      <c r="A20" s="71"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="73"/>
       <c r="K20" s="22"/>
       <c r="L20" s="33"/>
       <c r="M20" s="34"/>
@@ -30302,7 +30320,7 @@
         <v>7</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G1" s="41" t="s">
         <v>8</v>
@@ -30315,24 +30333,24 @@
       </c>
     </row>
     <row r="2" spans="1:10" s="4" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="92"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="86"/>
     </row>
     <row r="3" spans="1:10" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="59">
         <v>1</v>
       </c>
-      <c r="B3" s="86" t="s">
-        <v>115</v>
+      <c r="B3" s="81" t="s">
+        <v>114</v>
       </c>
       <c r="C3" s="46" t="s">
         <v>31</v>
@@ -30344,13 +30362,13 @@
         <v>32</v>
       </c>
       <c r="F3" s="48" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G3" s="48" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H3" s="49" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="I3" s="49"/>
     </row>
@@ -30358,7 +30376,7 @@
       <c r="A4" s="60">
         <v>2</v>
       </c>
-      <c r="B4" s="89"/>
+      <c r="B4" s="82"/>
       <c r="C4" s="46" t="s">
         <v>34</v>
       </c>
@@ -30369,13 +30387,13 @@
         <v>100</v>
       </c>
       <c r="F4" s="48" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G4" s="48" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H4" s="49" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="I4" s="49"/>
       <c r="J4" s="5"/>
@@ -30384,24 +30402,24 @@
       <c r="A5" s="64">
         <v>3</v>
       </c>
-      <c r="B5" s="89"/>
+      <c r="B5" s="82"/>
       <c r="C5" s="46" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D5" s="47" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="48" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F5" s="48" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G5" s="48" t="s">
+        <v>235</v>
+      </c>
+      <c r="H5" s="49" t="s">
         <v>238</v>
-      </c>
-      <c r="H5" s="49" t="s">
-        <v>241</v>
       </c>
       <c r="I5" s="49"/>
       <c r="J5" s="5"/>
@@ -30410,47 +30428,47 @@
       <c r="A6" s="64">
         <v>4</v>
       </c>
-      <c r="B6" s="87"/>
+      <c r="B6" s="83"/>
       <c r="C6" s="46" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D6" s="47" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="48" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F6" s="48" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G6" s="48" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H6" s="49" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I6" s="49"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="90" t="s">
+      <c r="A7" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="91"/>
-      <c r="G7" s="91"/>
-      <c r="H7" s="91"/>
-      <c r="I7" s="92"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="86"/>
     </row>
     <row r="8" spans="1:10" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="59">
         <v>3</v>
       </c>
       <c r="B8" s="63" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C8" s="46" t="s">
         <v>45</v>
@@ -30462,13 +30480,13 @@
         <v>36</v>
       </c>
       <c r="F8" s="48" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G8" s="48" t="s">
         <v>37</v>
       </c>
       <c r="H8" s="49" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I8" s="49"/>
     </row>
@@ -30477,7 +30495,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="63" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C9" s="46" t="s">
         <v>46</v>
@@ -30489,13 +30507,13 @@
         <v>38</v>
       </c>
       <c r="F9" s="48" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G9" s="48" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H9" s="49" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="I9" s="49"/>
     </row>
@@ -30503,8 +30521,8 @@
       <c r="A10" s="59">
         <v>5</v>
       </c>
-      <c r="B10" s="86" t="s">
-        <v>123</v>
+      <c r="B10" s="81" t="s">
+        <v>122</v>
       </c>
       <c r="C10" s="46" t="s">
         <v>35</v>
@@ -30516,13 +30534,13 @@
         <v>74</v>
       </c>
       <c r="F10" s="48" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G10" s="48" t="s">
         <v>75</v>
       </c>
       <c r="H10" s="49" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I10" s="49"/>
     </row>
@@ -30530,7 +30548,7 @@
       <c r="A11" s="60">
         <v>6</v>
       </c>
-      <c r="B11" s="89"/>
+      <c r="B11" s="82"/>
       <c r="C11" s="46" t="s">
         <v>73</v>
       </c>
@@ -30541,13 +30559,13 @@
         <v>71</v>
       </c>
       <c r="F11" s="48" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G11" s="48" t="s">
         <v>72</v>
       </c>
       <c r="H11" s="49" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I11" s="49"/>
     </row>
@@ -30555,24 +30573,24 @@
       <c r="A12" s="60">
         <v>7</v>
       </c>
-      <c r="B12" s="89"/>
+      <c r="B12" s="82"/>
       <c r="C12" s="46" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D12" s="47" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="48" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F12" s="48" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G12" s="61" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H12" s="62" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I12" s="49"/>
     </row>
@@ -30580,24 +30598,24 @@
       <c r="A13" s="60">
         <v>8</v>
       </c>
-      <c r="B13" s="89"/>
+      <c r="B13" s="82"/>
       <c r="C13" s="46" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D13" s="47" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="48" t="s">
+        <v>243</v>
+      </c>
+      <c r="F13" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="G13" s="48" t="s">
         <v>246</v>
       </c>
-      <c r="F13" s="48" t="s">
-        <v>247</v>
-      </c>
-      <c r="G13" s="48" t="s">
-        <v>249</v>
-      </c>
       <c r="H13" s="49" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="I13" s="49"/>
     </row>
@@ -30605,24 +30623,24 @@
       <c r="A14" s="60">
         <v>9</v>
       </c>
-      <c r="B14" s="89"/>
+      <c r="B14" s="82"/>
       <c r="C14" s="46" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D14" s="47" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="48" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F14" s="48" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H14" s="49" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I14" s="49"/>
     </row>
@@ -30630,24 +30648,24 @@
       <c r="A15" s="64">
         <v>11</v>
       </c>
-      <c r="B15" s="87"/>
+      <c r="B15" s="83"/>
       <c r="C15" s="46" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D15" s="47" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="48" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F15" s="48" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G15" s="48" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H15" s="49" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="I15" s="49"/>
     </row>
@@ -30655,26 +30673,26 @@
       <c r="A16" s="64">
         <v>10</v>
       </c>
-      <c r="B16" s="86" t="s">
-        <v>353</v>
+      <c r="B16" s="81" t="s">
+        <v>350</v>
       </c>
       <c r="C16" s="46" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D16" s="47" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="48" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F16" s="48" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G16" s="48" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H16" s="49" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="I16" s="49"/>
     </row>
@@ -30682,46 +30700,46 @@
       <c r="A17" s="64">
         <v>11</v>
       </c>
-      <c r="B17" s="89"/>
+      <c r="B17" s="82"/>
       <c r="C17" s="46" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D17" s="47" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="48" t="s">
+        <v>252</v>
+      </c>
+      <c r="F17" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="G17" s="48" t="s">
+        <v>254</v>
+      </c>
+      <c r="H17" s="49" t="s">
         <v>255</v>
       </c>
-      <c r="F17" s="48" t="s">
-        <v>256</v>
-      </c>
-      <c r="G17" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="H17" s="49" t="s">
-        <v>258</v>
-      </c>
       <c r="I17" s="49"/>
     </row>
     <row r="18" spans="1:9" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="90" t="s">
+      <c r="A18" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="91"/>
-      <c r="C18" s="91"/>
-      <c r="D18" s="91"/>
-      <c r="E18" s="91"/>
-      <c r="F18" s="91"/>
-      <c r="G18" s="91"/>
-      <c r="H18" s="91"/>
-      <c r="I18" s="92"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="85"/>
+      <c r="I18" s="86"/>
     </row>
     <row r="19" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="53">
         <v>12</v>
       </c>
       <c r="B19" s="64" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C19" s="46" t="s">
         <v>47</v>
@@ -30733,13 +30751,13 @@
         <v>82</v>
       </c>
       <c r="F19" s="48" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G19" s="48" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H19" s="49" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="I19" s="49"/>
     </row>
@@ -30748,7 +30766,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="64" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C20" s="46" t="s">
         <v>48</v>
@@ -30757,16 +30775,16 @@
         <v>11</v>
       </c>
       <c r="E20" s="48" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F20" s="48" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G20" s="48" t="s">
         <v>77</v>
       </c>
       <c r="H20" s="49" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I20" s="49"/>
     </row>
@@ -30775,7 +30793,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="64" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C21" s="46" t="s">
         <v>49</v>
@@ -30787,13 +30805,13 @@
         <v>83</v>
       </c>
       <c r="F21" s="48" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G21" s="48" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H21" s="49" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="I21" s="49"/>
     </row>
@@ -30802,7 +30820,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="64" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C22" s="46" t="s">
         <v>50</v>
@@ -30814,13 +30832,13 @@
         <v>42</v>
       </c>
       <c r="F22" s="48" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G22" s="48" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H22" s="49" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="I22" s="49"/>
     </row>
@@ -30829,7 +30847,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="64" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C23" s="46" t="s">
         <v>70</v>
@@ -30841,13 +30859,13 @@
         <v>43</v>
       </c>
       <c r="F23" s="48" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G23" s="48" t="s">
         <v>44</v>
       </c>
       <c r="H23" s="49" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I23" s="49"/>
     </row>
@@ -30856,7 +30874,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="64" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C24" s="46" t="s">
         <v>78</v>
@@ -30868,13 +30886,13 @@
         <v>71</v>
       </c>
       <c r="F24" s="48" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G24" s="48" t="s">
         <v>72</v>
       </c>
       <c r="H24" s="49" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I24" s="49"/>
     </row>
@@ -30882,8 +30900,8 @@
       <c r="A25" s="53">
         <v>18</v>
       </c>
-      <c r="B25" s="88" t="s">
-        <v>119</v>
+      <c r="B25" s="93" t="s">
+        <v>118</v>
       </c>
       <c r="C25" s="46" t="s">
         <v>89</v>
@@ -30892,16 +30910,16 @@
         <v>11</v>
       </c>
       <c r="E25" s="48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F25" s="48" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G25" s="48" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H25" s="49" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I25" s="49"/>
     </row>
@@ -30909,7 +30927,7 @@
       <c r="A26" s="53">
         <v>19</v>
       </c>
-      <c r="B26" s="88"/>
+      <c r="B26" s="93"/>
       <c r="C26" s="46" t="s">
         <v>90</v>
       </c>
@@ -30917,16 +30935,16 @@
         <v>11</v>
       </c>
       <c r="E26" s="57" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F26" s="57" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G26" s="57" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H26" s="49" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I26" s="49"/>
     </row>
@@ -30935,10 +30953,10 @@
         <v>20</v>
       </c>
       <c r="B27" s="65" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C27" s="46" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D27" s="47" t="s">
         <v>11</v>
@@ -30947,13 +30965,13 @@
         <v>67</v>
       </c>
       <c r="F27" s="48" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G27" s="48" t="s">
         <v>66</v>
       </c>
       <c r="H27" s="49" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I27" s="49"/>
     </row>
@@ -30962,25 +30980,25 @@
         <v>21</v>
       </c>
       <c r="B28" s="64" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C28" s="46" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D28" s="47" t="s">
         <v>11</v>
       </c>
       <c r="E28" s="48" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F28" s="48" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G28" s="48" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H28" s="49" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="I28" s="49"/>
     </row>
@@ -30989,47 +31007,47 @@
         <v>22</v>
       </c>
       <c r="B29" s="64" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C29" s="46" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D29" s="47" t="s">
         <v>11</v>
       </c>
       <c r="E29" s="48" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F29" s="48" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G29" s="48" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H29" s="49" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="I29" s="49"/>
     </row>
     <row r="30" spans="1:9" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="90" t="s">
+      <c r="A30" s="84" t="s">
         <v>84</v>
       </c>
-      <c r="B30" s="91"/>
-      <c r="C30" s="91"/>
-      <c r="D30" s="91"/>
-      <c r="E30" s="91"/>
-      <c r="F30" s="91"/>
-      <c r="G30" s="91"/>
-      <c r="H30" s="91"/>
-      <c r="I30" s="92"/>
+      <c r="B30" s="85"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="85"/>
+      <c r="I30" s="86"/>
     </row>
     <row r="31" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="64">
         <v>23</v>
       </c>
       <c r="B31" s="64" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C31" s="46" t="s">
         <v>85</v>
@@ -31041,13 +31059,13 @@
         <v>36</v>
       </c>
       <c r="F31" s="48" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G31" s="48" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H31" s="49" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="I31" s="49"/>
     </row>
@@ -31056,7 +31074,7 @@
         <v>24</v>
       </c>
       <c r="B32" s="64" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C32" s="46" t="s">
         <v>86</v>
@@ -31068,13 +31086,13 @@
         <v>38</v>
       </c>
       <c r="F32" s="48" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G32" s="48" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H32" s="49" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="I32" s="49"/>
     </row>
@@ -31082,8 +31100,8 @@
       <c r="A33" s="64">
         <v>25</v>
       </c>
-      <c r="B33" s="86" t="s">
-        <v>131</v>
+      <c r="B33" s="81" t="s">
+        <v>129</v>
       </c>
       <c r="C33" s="46" t="s">
         <v>87</v>
@@ -31092,16 +31110,16 @@
         <v>11</v>
       </c>
       <c r="E33" s="48" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F33" s="48" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G33" s="48" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H33" s="49" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="I33" s="49"/>
     </row>
@@ -31109,7 +31127,7 @@
       <c r="A34" s="64">
         <v>26</v>
       </c>
-      <c r="B34" s="89"/>
+      <c r="B34" s="82"/>
       <c r="C34" s="46" t="s">
         <v>88</v>
       </c>
@@ -31120,13 +31138,13 @@
         <v>71</v>
       </c>
       <c r="F34" s="48" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G34" s="54" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="H34" s="49" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="I34" s="49"/>
     </row>
@@ -31134,24 +31152,24 @@
       <c r="A35" s="64">
         <v>27</v>
       </c>
-      <c r="B35" s="89"/>
+      <c r="B35" s="82"/>
       <c r="C35" s="46" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D35" s="47" t="s">
         <v>11</v>
       </c>
       <c r="E35" s="48" t="s">
+        <v>277</v>
+      </c>
+      <c r="F35" s="48" t="s">
+        <v>321</v>
+      </c>
+      <c r="G35" s="48" t="s">
         <v>280</v>
       </c>
-      <c r="F35" s="48" t="s">
-        <v>324</v>
-      </c>
-      <c r="G35" s="48" t="s">
-        <v>283</v>
-      </c>
       <c r="H35" s="49" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="I35" s="49"/>
     </row>
@@ -31159,24 +31177,24 @@
       <c r="A36" s="64">
         <v>28</v>
       </c>
-      <c r="B36" s="89"/>
+      <c r="B36" s="82"/>
       <c r="C36" s="46" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D36" s="47" t="s">
         <v>11</v>
       </c>
       <c r="E36" s="48" t="s">
+        <v>278</v>
+      </c>
+      <c r="F36" s="48" t="s">
+        <v>322</v>
+      </c>
+      <c r="G36" s="48" t="s">
         <v>281</v>
       </c>
-      <c r="F36" s="48" t="s">
-        <v>325</v>
-      </c>
-      <c r="G36" s="48" t="s">
-        <v>284</v>
-      </c>
       <c r="H36" s="49" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="I36" s="49"/>
     </row>
@@ -31184,24 +31202,24 @@
       <c r="A37" s="64">
         <v>29</v>
       </c>
-      <c r="B37" s="89"/>
+      <c r="B37" s="82"/>
       <c r="C37" s="46" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D37" s="47" t="s">
         <v>11</v>
       </c>
       <c r="E37" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="F37" s="48" t="s">
+        <v>323</v>
+      </c>
+      <c r="G37" s="48" t="s">
         <v>282</v>
       </c>
-      <c r="F37" s="48" t="s">
-        <v>326</v>
-      </c>
-      <c r="G37" s="48" t="s">
-        <v>285</v>
-      </c>
       <c r="H37" s="49" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="I37" s="49"/>
     </row>
@@ -31209,24 +31227,24 @@
       <c r="A38" s="64">
         <v>30</v>
       </c>
-      <c r="B38" s="89"/>
+      <c r="B38" s="82"/>
       <c r="C38" s="46" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D38" s="47" t="s">
         <v>11</v>
       </c>
       <c r="E38" s="48" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F38" s="48" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G38" s="54" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H38" s="49" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="I38" s="49"/>
     </row>
@@ -31234,24 +31252,24 @@
       <c r="A39" s="64">
         <v>31</v>
       </c>
-      <c r="B39" s="89"/>
+      <c r="B39" s="82"/>
       <c r="C39" s="46" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D39" s="47" t="s">
         <v>11</v>
       </c>
       <c r="E39" s="48" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F39" s="48" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G39" s="54" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H39" s="49" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="I39" s="49"/>
     </row>
@@ -31259,24 +31277,24 @@
       <c r="A40" s="64">
         <v>32</v>
       </c>
-      <c r="B40" s="89"/>
+      <c r="B40" s="82"/>
       <c r="C40" s="46" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D40" s="47" t="s">
         <v>11</v>
       </c>
       <c r="E40" s="48" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F40" s="48" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G40" s="54" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H40" s="49" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="I40" s="49"/>
     </row>
@@ -31284,24 +31302,24 @@
       <c r="A41" s="64">
         <v>33</v>
       </c>
-      <c r="B41" s="89"/>
+      <c r="B41" s="82"/>
       <c r="C41" s="46" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D41" s="47" t="s">
         <v>11</v>
       </c>
       <c r="E41" s="48" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F41" s="48" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G41" s="54" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H41" s="49" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="I41" s="49"/>
     </row>
@@ -31309,24 +31327,24 @@
       <c r="A42" s="64">
         <v>34</v>
       </c>
-      <c r="B42" s="89"/>
+      <c r="B42" s="82"/>
       <c r="C42" s="46" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D42" s="47" t="s">
         <v>11</v>
       </c>
       <c r="E42" s="48" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F42" s="48" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G42" s="54" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H42" s="49" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="I42" s="49"/>
     </row>
@@ -31334,24 +31352,24 @@
       <c r="A43" s="64">
         <v>35</v>
       </c>
-      <c r="B43" s="89"/>
+      <c r="B43" s="82"/>
       <c r="C43" s="46" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D43" s="47" t="s">
         <v>11</v>
       </c>
       <c r="E43" s="48" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F43" s="48" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G43" s="54" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H43" s="49" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="I43" s="49"/>
     </row>
@@ -31359,24 +31377,24 @@
       <c r="A44" s="64">
         <v>36</v>
       </c>
-      <c r="B44" s="89"/>
+      <c r="B44" s="82"/>
       <c r="C44" s="46" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D44" s="47" t="s">
         <v>11</v>
       </c>
       <c r="E44" s="48" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F44" s="48" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G44" s="54" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H44" s="49" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="I44" s="49"/>
     </row>
@@ -31384,64 +31402,64 @@
       <c r="A45" s="64">
         <v>37</v>
       </c>
-      <c r="B45" s="87"/>
+      <c r="B45" s="83"/>
       <c r="C45" s="46" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D45" s="47" t="s">
         <v>11</v>
       </c>
       <c r="E45" s="48" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F45" s="48" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G45" s="54" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="H45" s="49" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="I45" s="49"/>
     </row>
     <row r="46" spans="1:9" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="90" t="s">
-        <v>133</v>
-      </c>
-      <c r="B46" s="91"/>
-      <c r="C46" s="91"/>
-      <c r="D46" s="91"/>
-      <c r="E46" s="91"/>
-      <c r="F46" s="91"/>
-      <c r="G46" s="91"/>
-      <c r="H46" s="91"/>
-      <c r="I46" s="92"/>
+      <c r="A46" s="84" t="s">
+        <v>131</v>
+      </c>
+      <c r="B46" s="85"/>
+      <c r="C46" s="85"/>
+      <c r="D46" s="85"/>
+      <c r="E46" s="85"/>
+      <c r="F46" s="85"/>
+      <c r="G46" s="85"/>
+      <c r="H46" s="85"/>
+      <c r="I46" s="86"/>
     </row>
     <row r="47" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="64">
         <v>38</v>
       </c>
-      <c r="B47" s="86" t="s">
-        <v>357</v>
+      <c r="B47" s="81" t="s">
+        <v>354</v>
       </c>
       <c r="C47" s="59" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D47" s="58" t="s">
         <v>11</v>
       </c>
       <c r="E47" s="48" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F47" s="48" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G47" s="48" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H47" s="49" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I47" s="49"/>
     </row>
@@ -31449,51 +31467,51 @@
       <c r="A48" s="64">
         <v>39</v>
       </c>
-      <c r="B48" s="87"/>
+      <c r="B48" s="83"/>
       <c r="C48" s="59" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D48" s="58" t="s">
         <v>11</v>
       </c>
       <c r="E48" s="48" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F48" s="48" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G48" s="48" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H48" s="49" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I48" s="49"/>
     </row>
-    <row r="49" spans="1:9" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="64">
         <v>40</v>
       </c>
       <c r="B49" s="64" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C49" s="59" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D49" s="58" t="s">
         <v>11</v>
       </c>
       <c r="E49" s="48" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F49" s="48" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G49" s="48" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H49" s="49" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="I49" s="49"/>
     </row>
@@ -31502,25 +31520,25 @@
         <v>41</v>
       </c>
       <c r="B50" s="64" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C50" s="59" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D50" s="58" t="s">
         <v>11</v>
       </c>
       <c r="E50" s="48" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F50" s="48" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G50" s="48" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H50" s="49" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I50" s="49"/>
     </row>
@@ -31529,25 +31547,25 @@
         <v>42</v>
       </c>
       <c r="B51" s="64" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C51" s="59" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D51" s="58" t="s">
         <v>11</v>
       </c>
       <c r="E51" s="48" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F51" s="48" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G51" s="48" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H51" s="49" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I51" s="49"/>
     </row>
@@ -31555,26 +31573,26 @@
       <c r="A52" s="64">
         <v>43</v>
       </c>
-      <c r="B52" s="86" t="s">
-        <v>160</v>
+      <c r="B52" s="81" t="s">
+        <v>158</v>
       </c>
       <c r="C52" s="59" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D52" s="58" t="s">
         <v>11</v>
       </c>
       <c r="E52" s="48" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F52" s="48" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G52" s="48" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H52" s="49" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="I52" s="49"/>
     </row>
@@ -31582,51 +31600,51 @@
       <c r="A53" s="64">
         <v>44</v>
       </c>
-      <c r="B53" s="87"/>
+      <c r="B53" s="83"/>
       <c r="C53" s="60" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D53" s="58" t="s">
         <v>11</v>
       </c>
       <c r="E53" s="48" t="s">
+        <v>214</v>
+      </c>
+      <c r="F53" s="48" t="s">
+        <v>223</v>
+      </c>
+      <c r="G53" s="48" t="s">
+        <v>216</v>
+      </c>
+      <c r="H53" s="49" t="s">
         <v>217</v>
       </c>
-      <c r="F53" s="48" t="s">
-        <v>226</v>
-      </c>
-      <c r="G53" s="48" t="s">
-        <v>219</v>
-      </c>
-      <c r="H53" s="49" t="s">
-        <v>220</v>
-      </c>
       <c r="I53" s="3"/>
     </row>
-    <row r="54" spans="1:9" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A54" s="64">
         <v>45</v>
       </c>
       <c r="B54" s="66" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C54" s="60" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D54" s="58" t="s">
         <v>11</v>
       </c>
       <c r="E54" s="48" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F54" s="48" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G54" s="48" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H54" s="49" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="I54" s="3"/>
     </row>
@@ -31635,25 +31653,25 @@
         <v>46</v>
       </c>
       <c r="B55" s="45" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C55" s="60" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D55" s="58" t="s">
         <v>11</v>
       </c>
       <c r="E55" s="48" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F55" s="48" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G55" s="48" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H55" s="49" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="I55" s="15"/>
     </row>
@@ -31670,7 +31688,7 @@
     </row>
     <row r="57" spans="1:9" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
-      <c r="B57" s="80"/>
+      <c r="B57" s="87"/>
       <c r="C57" s="12"/>
       <c r="D57" s="13"/>
       <c r="E57" s="14"/>
@@ -31681,7 +31699,7 @@
     </row>
     <row r="58" spans="1:9" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
-      <c r="B58" s="81"/>
+      <c r="B58" s="88"/>
       <c r="C58" s="12"/>
       <c r="D58" s="13"/>
       <c r="E58" s="14"/>
@@ -31692,7 +31710,7 @@
     </row>
     <row r="59" spans="1:9" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
-      <c r="B59" s="81"/>
+      <c r="B59" s="88"/>
       <c r="C59" s="12"/>
       <c r="D59" s="13"/>
       <c r="E59" s="14"/>
@@ -31703,7 +31721,7 @@
     </row>
     <row r="60" spans="1:9" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
-      <c r="B60" s="82"/>
+      <c r="B60" s="89"/>
       <c r="C60" s="12"/>
       <c r="D60" s="13"/>
       <c r="E60" s="14"/>
@@ -31714,7 +31732,7 @@
     </row>
     <row r="61" spans="1:9" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
-      <c r="B61" s="83"/>
+      <c r="B61" s="90"/>
       <c r="C61" s="12"/>
       <c r="D61" s="13"/>
       <c r="E61" s="14"/>
@@ -31725,7 +31743,7 @@
     </row>
     <row r="62" spans="1:9" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
-      <c r="B62" s="84"/>
+      <c r="B62" s="91"/>
       <c r="C62" s="12"/>
       <c r="D62" s="13"/>
       <c r="E62" s="14"/>
@@ -31736,7 +31754,7 @@
     </row>
     <row r="63" spans="1:9" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
-      <c r="B63" s="84"/>
+      <c r="B63" s="91"/>
       <c r="C63" s="12"/>
       <c r="D63" s="13"/>
       <c r="E63" s="14"/>
@@ -31747,7 +31765,7 @@
     </row>
     <row r="64" spans="1:9" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
-      <c r="B64" s="84"/>
+      <c r="B64" s="91"/>
       <c r="C64" s="12"/>
       <c r="D64" s="13"/>
       <c r="E64" s="14"/>
@@ -31758,7 +31776,7 @@
     </row>
     <row r="65" spans="1:9" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
-      <c r="B65" s="85"/>
+      <c r="B65" s="92"/>
       <c r="C65" s="12"/>
       <c r="D65" s="13"/>
       <c r="E65" s="14"/>
@@ -31769,7 +31787,7 @@
     </row>
     <row r="66" spans="1:9" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
-      <c r="B66" s="80"/>
+      <c r="B66" s="87"/>
       <c r="C66" s="12"/>
       <c r="D66" s="16"/>
       <c r="E66" s="14"/>
@@ -31780,7 +31798,7 @@
     </row>
     <row r="67" spans="1:9" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
-      <c r="B67" s="81"/>
+      <c r="B67" s="88"/>
       <c r="C67" s="12"/>
       <c r="D67" s="16"/>
       <c r="E67" s="14"/>
@@ -31857,6 +31875,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="B61:B65"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="A46:I46"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="B10:B15"/>
     <mergeCell ref="B33:B45"/>
@@ -31865,13 +31890,6 @@
     <mergeCell ref="A7:I7"/>
     <mergeCell ref="A18:I18"/>
     <mergeCell ref="A30:I30"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="B61:B65"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="A46:I46"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31899,10 +31917,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H28:H29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -31935,7 +31953,7 @@
         <v>7</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G1" s="41" t="s">
         <v>8</v>
@@ -31948,24 +31966,24 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="92"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="86"/>
     </row>
     <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.2">
       <c r="A3" s="44">
         <v>1</v>
       </c>
-      <c r="B3" s="86" t="s">
-        <v>114</v>
+      <c r="B3" s="81" t="s">
+        <v>113</v>
       </c>
       <c r="C3" s="46" t="s">
         <v>52</v>
@@ -31977,13 +31995,13 @@
         <v>32</v>
       </c>
       <c r="F3" s="48" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G3" s="48" t="s">
         <v>75</v>
       </c>
       <c r="H3" s="49" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I3" s="49"/>
     </row>
@@ -31991,7 +32009,7 @@
       <c r="A4" s="44">
         <v>2</v>
       </c>
-      <c r="B4" s="89"/>
+      <c r="B4" s="82"/>
       <c r="C4" s="46" t="s">
         <v>54</v>
       </c>
@@ -32002,13 +32020,13 @@
         <v>33</v>
       </c>
       <c r="F4" s="48" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G4" s="48" t="s">
         <v>99</v>
       </c>
       <c r="H4" s="49" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I4" s="49"/>
     </row>
@@ -32017,7 +32035,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="50" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C5" s="46" t="s">
         <v>79</v>
@@ -32029,35 +32047,35 @@
         <v>81</v>
       </c>
       <c r="F5" s="48" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G5" s="48" t="s">
         <v>80</v>
       </c>
       <c r="H5" s="49" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I5" s="49"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="90" t="s">
+      <c r="A6" s="84" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="91"/>
-      <c r="I6" s="92"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="86"/>
     </row>
     <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.2">
       <c r="A7" s="44">
         <v>4</v>
       </c>
       <c r="B7" s="45" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C7" s="46" t="s">
         <v>65</v>
@@ -32069,13 +32087,13 @@
         <v>67</v>
       </c>
       <c r="F7" s="48" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G7" s="48" t="s">
         <v>66</v>
       </c>
       <c r="H7" s="49" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I7" s="49"/>
     </row>
@@ -32083,26 +32101,26 @@
       <c r="A8" s="44">
         <v>5</v>
       </c>
-      <c r="B8" s="93" t="s">
-        <v>128</v>
+      <c r="B8" s="94" t="s">
+        <v>126</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D8" s="47" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="57" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F8" s="57" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G8" s="48" t="s">
-        <v>125</v>
+        <v>355</v>
       </c>
       <c r="H8" s="49" t="s">
-        <v>203</v>
+        <v>356</v>
       </c>
       <c r="I8" s="49"/>
     </row>
@@ -32110,335 +32128,351 @@
       <c r="A9" s="44">
         <v>6</v>
       </c>
-      <c r="B9" s="94"/>
+      <c r="B9" s="95"/>
       <c r="C9" s="46" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D9" s="47" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="57" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F9" s="57" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G9" s="57" t="s">
-        <v>101</v>
+        <v>357</v>
       </c>
       <c r="H9" s="57" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I9" s="56"/>
     </row>
     <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="A10" s="44">
+      <c r="A10" s="67">
         <v>7</v>
       </c>
       <c r="B10" s="93" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C10" s="46" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D10" s="47" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F10" s="48" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G10" s="48" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H10" s="49" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I10" s="49"/>
     </row>
     <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="A11" s="44">
+      <c r="A11" s="67">
         <v>8</v>
       </c>
-      <c r="B11" s="94"/>
+      <c r="B11" s="93"/>
       <c r="C11" s="46" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D11" s="47" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="57" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F11" s="57" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G11" s="57" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H11" s="49" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I11" s="49"/>
     </row>
-    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="90" t="s">
+    <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="A12" s="67">
+        <v>9</v>
+      </c>
+      <c r="B12" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="57" t="s">
+        <v>358</v>
+      </c>
+      <c r="F12" s="57" t="s">
+        <v>359</v>
+      </c>
+      <c r="G12" s="57" t="s">
+        <v>362</v>
+      </c>
+      <c r="H12" s="49" t="s">
+        <v>361</v>
+      </c>
+      <c r="I12" s="49"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="84" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="91"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="92"/>
-    </row>
-    <row r="13" spans="1:9" ht="75" x14ac:dyDescent="0.2">
-      <c r="A13" s="44">
-        <v>9</v>
-      </c>
-      <c r="B13" s="86" t="s">
-        <v>132</v>
-      </c>
-      <c r="C13" s="46" t="s">
+      <c r="B13" s="85"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="86"/>
+    </row>
+    <row r="14" spans="1:9" ht="75" x14ac:dyDescent="0.2">
+      <c r="A14" s="67">
+        <v>10</v>
+      </c>
+      <c r="B14" s="81" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="46" t="s">
         <v>93</v>
-      </c>
-      <c r="D13" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="48" t="s">
-        <v>98</v>
-      </c>
-      <c r="F13" s="48" t="s">
-        <v>205</v>
-      </c>
-      <c r="G13" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="H13" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="I13" s="49"/>
-    </row>
-    <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="A14" s="44">
-        <v>10</v>
-      </c>
-      <c r="B14" s="87"/>
-      <c r="C14" s="46" t="s">
-        <v>95</v>
       </c>
       <c r="D14" s="47" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" s="48" t="s">
+        <v>202</v>
+      </c>
+      <c r="G14" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="H14" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="I14" s="49"/>
+    </row>
+    <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="A15" s="67">
+        <v>11</v>
+      </c>
+      <c r="B15" s="83"/>
+      <c r="C15" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="48" t="s">
-        <v>206</v>
-      </c>
-      <c r="G14" s="48" t="s">
+      <c r="F15" s="48" t="s">
+        <v>203</v>
+      </c>
+      <c r="G15" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="H14" s="49" t="s">
+      <c r="H15" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="I14" s="49"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="90" t="s">
+      <c r="I15" s="49"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="91"/>
-      <c r="C15" s="91"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="92"/>
-    </row>
-    <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="A16" s="44">
+      <c r="B16" s="85"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="86"/>
+    </row>
+    <row r="17" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="A17" s="44">
         <v>11</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="46" t="s">
+      <c r="B17" s="45"/>
+      <c r="C17" s="46" t="s">
         <v>55</v>
-      </c>
-      <c r="D16" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="F16" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="G16" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="H16" s="49" t="s">
-        <v>212</v>
-      </c>
-      <c r="I16" s="49"/>
-    </row>
-    <row r="17" spans="1:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="A17" s="44">
-        <v>12</v>
-      </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="46" t="s">
-        <v>56</v>
       </c>
       <c r="D17" s="47" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F17" s="48" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G17" s="48" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="H17" s="49" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I17" s="49"/>
     </row>
     <row r="18" spans="1:9" ht="60" x14ac:dyDescent="0.2">
       <c r="A18" s="44">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" s="50"/>
       <c r="C18" s="46" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D18" s="47" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F18" s="48" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G18" s="48" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H18" s="49" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="I18" s="49"/>
     </row>
-    <row r="19" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="60" x14ac:dyDescent="0.2">
       <c r="A19" s="44">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" s="50"/>
       <c r="C19" s="46" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D19" s="47" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="48" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F19" s="48" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G19" s="48" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H19" s="49" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I19" s="49"/>
     </row>
-    <row r="20" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.2">
       <c r="A20" s="44">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" s="50"/>
       <c r="C20" s="46" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D20" s="47" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="48" t="s">
+        <v>207</v>
+      </c>
+      <c r="G20" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" s="49" t="s">
+        <v>210</v>
+      </c>
+      <c r="I20" s="49"/>
+    </row>
+    <row r="21" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+      <c r="A21" s="44">
+        <v>15</v>
+      </c>
+      <c r="B21" s="50"/>
+      <c r="C21" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="F20" s="48" t="s">
-        <v>211</v>
-      </c>
-      <c r="G20" s="48" t="s">
+      <c r="F21" s="48" t="s">
+        <v>208</v>
+      </c>
+      <c r="G21" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="H20" s="49" t="s">
-        <v>187</v>
-      </c>
-      <c r="I20" s="49"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="90" t="s">
+      <c r="H21" s="49" t="s">
+        <v>185</v>
+      </c>
+      <c r="I21" s="49"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="84" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" s="85"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="86"/>
+    </row>
+    <row r="23" spans="1:9" ht="75" x14ac:dyDescent="0.2">
+      <c r="A23" s="44">
+        <v>16</v>
+      </c>
+      <c r="B23" s="45"/>
+      <c r="C23" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="D23" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="F23" s="48" t="s">
+        <v>212</v>
+      </c>
+      <c r="G23" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="92"/>
-    </row>
-    <row r="22" spans="1:9" ht="75" x14ac:dyDescent="0.2">
-      <c r="A22" s="44">
-        <v>16</v>
-      </c>
-      <c r="B22" s="45"/>
-      <c r="C22" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="D22" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="48" t="s">
-        <v>143</v>
-      </c>
-      <c r="F22" s="48" t="s">
-        <v>215</v>
-      </c>
-      <c r="G22" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="H22" s="49" t="s">
-        <v>216</v>
-      </c>
-      <c r="I22" s="49"/>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="53"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="49"/>
+      <c r="H23" s="49" t="s">
+        <v>213</v>
+      </c>
       <c r="I23" s="49"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A24" s="53"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="44"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="46"/>
       <c r="D24" s="47"/>
       <c r="E24" s="48"/>
       <c r="F24" s="48"/>
@@ -32448,7 +32482,7 @@
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A25" s="53"/>
-      <c r="B25" s="51"/>
+      <c r="B25" s="45"/>
       <c r="C25" s="44"/>
       <c r="D25" s="47"/>
       <c r="E25" s="48"/>
@@ -32457,17 +32491,28 @@
       <c r="H25" s="49"/>
       <c r="I25" s="49"/>
     </row>
+    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="53"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+    </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A16:I16"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A6:I6"/>
     <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B14:B15"/>
     <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B13:B14"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32479,7 +32524,7 @@
           <x14:formula1>
             <xm:f>'C:\Users\US\Downloads\[K22T2-Team8-MessageList-ver0.1.xlsx]Sheet4'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>D13:D14 D3:D5 D7:D11 D16:D20 D22:D25</xm:sqref>
+          <xm:sqref>D14:D15 D3:D5 D23:D26 D17:D21 D7:D12</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Improgress/2. Artifact and Deliverable/DetailDesign & Architect/Design/DE_MessageList_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/DetailDesign & Architect/Design/DE_MessageList_Ver1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\DetailDesign &amp; Architect\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74C1C37-A48A-4D30-8BCF-0949CBF5C983}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA38DE52-67C0-451F-993B-689F89547774}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="370">
   <si>
     <t>Project Name:</t>
   </si>
@@ -1141,6 +1141,27 @@
   </si>
   <si>
     <t>Mật khẩu mới tối thiểu 6 ký tự</t>
+  </si>
+  <si>
+    <t>Sai định dạng email</t>
+  </si>
+  <si>
+    <t>Wrong email format</t>
+  </si>
+  <si>
+    <t>MS.IA.007</t>
+  </si>
+  <si>
+    <t>Thông báo người dùng nhập email không tồn tại</t>
+  </si>
+  <si>
+    <t>không tìm thấy email trùng khớp</t>
+  </si>
+  <si>
+    <t>Notice the user entered email does not exist</t>
+  </si>
+  <si>
+    <t>No matching emails found</t>
   </si>
 </sst>
 </file>
@@ -1598,7 +1619,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1797,6 +1818,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1836,24 +1860,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1872,7 +1878,25 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2228,18 +2252,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="70"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="71"/>
       <c r="K1" s="20"/>
       <c r="L1" s="20"/>
       <c r="M1" s="20"/>
@@ -2258,16 +2282,16 @@
       <c r="Z1" s="20"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="71"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="73"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="74"/>
       <c r="K2" s="20"/>
       <c r="L2" s="21"/>
       <c r="M2" s="21"/>
@@ -2286,24 +2310,24 @@
       <c r="Z2" s="20"/>
     </row>
     <row r="3" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="71"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="73"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="74"/>
       <c r="K3" s="22"/>
       <c r="L3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="77" t="s">
+      <c r="M3" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="78"/>
+      <c r="N3" s="79"/>
       <c r="O3" s="24"/>
       <c r="P3" s="20"/>
       <c r="Q3" s="20"/>
@@ -2318,24 +2342,24 @@
       <c r="Z3" s="20"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="71"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="73"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="74"/>
       <c r="K4" s="22"/>
       <c r="L4" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="77" t="s">
+      <c r="M4" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="78"/>
+      <c r="N4" s="79"/>
       <c r="O4" s="24"/>
       <c r="P4" s="20"/>
       <c r="Q4" s="20"/>
@@ -2350,24 +2374,24 @@
       <c r="Z4" s="20"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="71"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="73"/>
+      <c r="A5" s="72"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="22"/>
       <c r="L5" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="77" t="s">
+      <c r="M5" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="78"/>
+      <c r="N5" s="79"/>
       <c r="O5" s="24"/>
       <c r="P5" s="20"/>
       <c r="Q5" s="20"/>
@@ -2382,24 +2406,24 @@
       <c r="Z5" s="20"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="71"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="73"/>
+      <c r="A6" s="72"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="74"/>
       <c r="K6" s="22"/>
       <c r="L6" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="77" t="s">
+      <c r="M6" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="78"/>
+      <c r="N6" s="79"/>
       <c r="O6" s="24"/>
       <c r="P6" s="20"/>
       <c r="Q6" s="20"/>
@@ -2414,24 +2438,24 @@
       <c r="Z6" s="20"/>
     </row>
     <row r="7" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="71"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="73"/>
+      <c r="A7" s="72"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="74"/>
       <c r="K7" s="22"/>
       <c r="L7" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="79">
+      <c r="M7" s="80">
         <v>43873</v>
       </c>
-      <c r="N7" s="80"/>
+      <c r="N7" s="81"/>
       <c r="O7" s="24"/>
       <c r="P7" s="20"/>
       <c r="Q7" s="20"/>
@@ -2446,16 +2470,16 @@
       <c r="Z7" s="20"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="71"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="73"/>
+      <c r="A8" s="72"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="74"/>
       <c r="K8" s="20"/>
       <c r="L8" s="24"/>
       <c r="M8" s="24"/>
@@ -2474,16 +2498,16 @@
       <c r="Z8" s="20"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="71"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="73"/>
+      <c r="A9" s="72"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="74"/>
       <c r="K9" s="20"/>
       <c r="L9" s="24"/>
       <c r="M9" s="24"/>
@@ -2502,16 +2526,16 @@
       <c r="Z9" s="20"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="71"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="73"/>
+      <c r="A10" s="72"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="74"/>
       <c r="K10" s="20"/>
       <c r="L10" s="26"/>
       <c r="M10" s="26"/>
@@ -2530,23 +2554,23 @@
       <c r="Z10" s="20"/>
     </row>
     <row r="11" spans="1:26" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="71"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="73"/>
+      <c r="A11" s="72"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="74"/>
       <c r="K11" s="22"/>
-      <c r="L11" s="74" t="s">
+      <c r="L11" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="M11" s="75"/>
-      <c r="N11" s="75"/>
-      <c r="O11" s="76"/>
+      <c r="M11" s="76"/>
+      <c r="N11" s="76"/>
+      <c r="O11" s="77"/>
       <c r="P11" s="20"/>
       <c r="Q11" s="20"/>
       <c r="R11" s="20"/>
@@ -2560,16 +2584,16 @@
       <c r="Z11" s="20"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="71"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="73"/>
+      <c r="A12" s="72"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="74"/>
       <c r="K12" s="22"/>
       <c r="L12" s="27" t="s">
         <v>1</v>
@@ -2596,16 +2620,16 @@
       <c r="Z12" s="20"/>
     </row>
     <row r="13" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="71"/>
-      <c r="B13" s="72"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="73"/>
+      <c r="A13" s="72"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="74"/>
       <c r="K13" s="22"/>
       <c r="L13" s="28" t="s">
         <v>28</v>
@@ -2632,16 +2656,16 @@
       <c r="Z13" s="20"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="71"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="73"/>
+      <c r="A14" s="72"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="74"/>
       <c r="K14" s="22"/>
       <c r="L14" s="31"/>
       <c r="M14" s="32"/>
@@ -2660,16 +2684,16 @@
       <c r="Z14" s="20"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="71"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="73"/>
+      <c r="A15" s="72"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="74"/>
       <c r="K15" s="22"/>
       <c r="L15" s="31"/>
       <c r="M15" s="32"/>
@@ -2688,16 +2712,16 @@
       <c r="Z15" s="20"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="71"/>
-      <c r="B16" s="72"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="73"/>
+      <c r="A16" s="72"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="74"/>
       <c r="K16" s="22"/>
       <c r="L16" s="33"/>
       <c r="M16" s="34"/>
@@ -2716,16 +2740,16 @@
       <c r="Z16" s="20"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="71"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="73"/>
+      <c r="A17" s="72"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="74"/>
       <c r="K17" s="22"/>
       <c r="L17" s="33"/>
       <c r="M17" s="34"/>
@@ -2744,16 +2768,16 @@
       <c r="Z17" s="20"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="71"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="73"/>
+      <c r="A18" s="72"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="74"/>
       <c r="K18" s="22"/>
       <c r="L18" s="33"/>
       <c r="M18" s="34"/>
@@ -2772,16 +2796,16 @@
       <c r="Z18" s="20"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="71"/>
-      <c r="B19" s="72"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="73"/>
+      <c r="A19" s="72"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="74"/>
       <c r="K19" s="22"/>
       <c r="L19" s="33"/>
       <c r="M19" s="34"/>
@@ -2800,16 +2824,16 @@
       <c r="Z19" s="20"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="71"/>
-      <c r="B20" s="72"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="73"/>
+      <c r="A20" s="72"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="74"/>
       <c r="K20" s="22"/>
       <c r="L20" s="33"/>
       <c r="M20" s="34"/>
@@ -30333,23 +30357,23 @@
       </c>
     </row>
     <row r="2" spans="1:10" s="4" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="86"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="93"/>
     </row>
     <row r="3" spans="1:10" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="59">
         <v>1</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="88" t="s">
         <v>114</v>
       </c>
       <c r="C3" s="46" t="s">
@@ -30376,7 +30400,7 @@
       <c r="A4" s="60">
         <v>2</v>
       </c>
-      <c r="B4" s="82"/>
+      <c r="B4" s="94"/>
       <c r="C4" s="46" t="s">
         <v>34</v>
       </c>
@@ -30402,7 +30426,7 @@
       <c r="A5" s="64">
         <v>3</v>
       </c>
-      <c r="B5" s="82"/>
+      <c r="B5" s="94"/>
       <c r="C5" s="46" t="s">
         <v>228</v>
       </c>
@@ -30428,7 +30452,7 @@
       <c r="A6" s="64">
         <v>4</v>
       </c>
-      <c r="B6" s="83"/>
+      <c r="B6" s="89"/>
       <c r="C6" s="46" t="s">
         <v>239</v>
       </c>
@@ -30451,17 +30475,17 @@
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="85"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="86"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="93"/>
     </row>
     <row r="8" spans="1:10" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="59">
@@ -30521,7 +30545,7 @@
       <c r="A10" s="59">
         <v>5</v>
       </c>
-      <c r="B10" s="81" t="s">
+      <c r="B10" s="88" t="s">
         <v>122</v>
       </c>
       <c r="C10" s="46" t="s">
@@ -30548,7 +30572,7 @@
       <c r="A11" s="60">
         <v>6</v>
       </c>
-      <c r="B11" s="82"/>
+      <c r="B11" s="94"/>
       <c r="C11" s="46" t="s">
         <v>73</v>
       </c>
@@ -30573,7 +30597,7 @@
       <c r="A12" s="60">
         <v>7</v>
       </c>
-      <c r="B12" s="82"/>
+      <c r="B12" s="94"/>
       <c r="C12" s="46" t="s">
         <v>224</v>
       </c>
@@ -30598,7 +30622,7 @@
       <c r="A13" s="60">
         <v>8</v>
       </c>
-      <c r="B13" s="82"/>
+      <c r="B13" s="94"/>
       <c r="C13" s="46" t="s">
         <v>240</v>
       </c>
@@ -30623,7 +30647,7 @@
       <c r="A14" s="60">
         <v>9</v>
       </c>
-      <c r="B14" s="82"/>
+      <c r="B14" s="94"/>
       <c r="C14" s="46" t="s">
         <v>242</v>
       </c>
@@ -30648,7 +30672,7 @@
       <c r="A15" s="64">
         <v>11</v>
       </c>
-      <c r="B15" s="83"/>
+      <c r="B15" s="89"/>
       <c r="C15" s="46" t="s">
         <v>256</v>
       </c>
@@ -30673,7 +30697,7 @@
       <c r="A16" s="64">
         <v>10</v>
       </c>
-      <c r="B16" s="81" t="s">
+      <c r="B16" s="88" t="s">
         <v>350</v>
       </c>
       <c r="C16" s="46" t="s">
@@ -30700,7 +30724,7 @@
       <c r="A17" s="64">
         <v>11</v>
       </c>
-      <c r="B17" s="82"/>
+      <c r="B17" s="94"/>
       <c r="C17" s="46" t="s">
         <v>348</v>
       </c>
@@ -30722,17 +30746,17 @@
       <c r="I17" s="49"/>
     </row>
     <row r="18" spans="1:9" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="84" t="s">
+      <c r="A18" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="85"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="86"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="93"/>
     </row>
     <row r="19" spans="1:9" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="53">
@@ -30900,7 +30924,7 @@
       <c r="A25" s="53">
         <v>18</v>
       </c>
-      <c r="B25" s="93" t="s">
+      <c r="B25" s="90" t="s">
         <v>118</v>
       </c>
       <c r="C25" s="46" t="s">
@@ -30927,7 +30951,7 @@
       <c r="A26" s="53">
         <v>19</v>
       </c>
-      <c r="B26" s="93"/>
+      <c r="B26" s="90"/>
       <c r="C26" s="46" t="s">
         <v>90</v>
       </c>
@@ -31030,17 +31054,17 @@
       <c r="I29" s="49"/>
     </row>
     <row r="30" spans="1:9" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="84" t="s">
+      <c r="A30" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="B30" s="85"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="85"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="85"/>
-      <c r="I30" s="86"/>
+      <c r="B30" s="92"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="92"/>
+      <c r="G30" s="92"/>
+      <c r="H30" s="92"/>
+      <c r="I30" s="93"/>
     </row>
     <row r="31" spans="1:9" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="64">
@@ -31100,7 +31124,7 @@
       <c r="A33" s="64">
         <v>25</v>
       </c>
-      <c r="B33" s="81" t="s">
+      <c r="B33" s="88" t="s">
         <v>129</v>
       </c>
       <c r="C33" s="46" t="s">
@@ -31127,7 +31151,7 @@
       <c r="A34" s="64">
         <v>26</v>
       </c>
-      <c r="B34" s="82"/>
+      <c r="B34" s="94"/>
       <c r="C34" s="46" t="s">
         <v>88</v>
       </c>
@@ -31152,7 +31176,7 @@
       <c r="A35" s="64">
         <v>27</v>
       </c>
-      <c r="B35" s="82"/>
+      <c r="B35" s="94"/>
       <c r="C35" s="46" t="s">
         <v>291</v>
       </c>
@@ -31177,7 +31201,7 @@
       <c r="A36" s="64">
         <v>28</v>
       </c>
-      <c r="B36" s="82"/>
+      <c r="B36" s="94"/>
       <c r="C36" s="46" t="s">
         <v>292</v>
       </c>
@@ -31202,7 +31226,7 @@
       <c r="A37" s="64">
         <v>29</v>
       </c>
-      <c r="B37" s="82"/>
+      <c r="B37" s="94"/>
       <c r="C37" s="46" t="s">
         <v>293</v>
       </c>
@@ -31227,7 +31251,7 @@
       <c r="A38" s="64">
         <v>30</v>
       </c>
-      <c r="B38" s="82"/>
+      <c r="B38" s="94"/>
       <c r="C38" s="46" t="s">
         <v>294</v>
       </c>
@@ -31252,7 +31276,7 @@
       <c r="A39" s="64">
         <v>31</v>
       </c>
-      <c r="B39" s="82"/>
+      <c r="B39" s="94"/>
       <c r="C39" s="46" t="s">
         <v>295</v>
       </c>
@@ -31277,7 +31301,7 @@
       <c r="A40" s="64">
         <v>32</v>
       </c>
-      <c r="B40" s="82"/>
+      <c r="B40" s="94"/>
       <c r="C40" s="46" t="s">
         <v>296</v>
       </c>
@@ -31302,7 +31326,7 @@
       <c r="A41" s="64">
         <v>33</v>
       </c>
-      <c r="B41" s="82"/>
+      <c r="B41" s="94"/>
       <c r="C41" s="46" t="s">
         <v>297</v>
       </c>
@@ -31327,7 +31351,7 @@
       <c r="A42" s="64">
         <v>34</v>
       </c>
-      <c r="B42" s="82"/>
+      <c r="B42" s="94"/>
       <c r="C42" s="46" t="s">
         <v>298</v>
       </c>
@@ -31352,7 +31376,7 @@
       <c r="A43" s="64">
         <v>35</v>
       </c>
-      <c r="B43" s="82"/>
+      <c r="B43" s="94"/>
       <c r="C43" s="46" t="s">
         <v>299</v>
       </c>
@@ -31377,7 +31401,7 @@
       <c r="A44" s="64">
         <v>36</v>
       </c>
-      <c r="B44" s="82"/>
+      <c r="B44" s="94"/>
       <c r="C44" s="46" t="s">
         <v>300</v>
       </c>
@@ -31402,7 +31426,7 @@
       <c r="A45" s="64">
         <v>37</v>
       </c>
-      <c r="B45" s="83"/>
+      <c r="B45" s="89"/>
       <c r="C45" s="46" t="s">
         <v>301</v>
       </c>
@@ -31424,23 +31448,23 @@
       <c r="I45" s="49"/>
     </row>
     <row r="46" spans="1:9" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="84" t="s">
+      <c r="A46" s="91" t="s">
         <v>131</v>
       </c>
-      <c r="B46" s="85"/>
-      <c r="C46" s="85"/>
-      <c r="D46" s="85"/>
-      <c r="E46" s="85"/>
-      <c r="F46" s="85"/>
-      <c r="G46" s="85"/>
-      <c r="H46" s="85"/>
-      <c r="I46" s="86"/>
+      <c r="B46" s="92"/>
+      <c r="C46" s="92"/>
+      <c r="D46" s="92"/>
+      <c r="E46" s="92"/>
+      <c r="F46" s="92"/>
+      <c r="G46" s="92"/>
+      <c r="H46" s="92"/>
+      <c r="I46" s="93"/>
     </row>
     <row r="47" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="64">
         <v>38</v>
       </c>
-      <c r="B47" s="81" t="s">
+      <c r="B47" s="88" t="s">
         <v>354</v>
       </c>
       <c r="C47" s="59" t="s">
@@ -31467,7 +31491,7 @@
       <c r="A48" s="64">
         <v>39</v>
       </c>
-      <c r="B48" s="83"/>
+      <c r="B48" s="89"/>
       <c r="C48" s="59" t="s">
         <v>136</v>
       </c>
@@ -31573,7 +31597,7 @@
       <c r="A52" s="64">
         <v>43</v>
       </c>
-      <c r="B52" s="81" t="s">
+      <c r="B52" s="88" t="s">
         <v>158</v>
       </c>
       <c r="C52" s="59" t="s">
@@ -31600,7 +31624,7 @@
       <c r="A53" s="64">
         <v>44</v>
       </c>
-      <c r="B53" s="83"/>
+      <c r="B53" s="89"/>
       <c r="C53" s="60" t="s">
         <v>215</v>
       </c>
@@ -31688,7 +31712,7 @@
     </row>
     <row r="57" spans="1:9" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
-      <c r="B57" s="87"/>
+      <c r="B57" s="82"/>
       <c r="C57" s="12"/>
       <c r="D57" s="13"/>
       <c r="E57" s="14"/>
@@ -31699,7 +31723,7 @@
     </row>
     <row r="58" spans="1:9" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
-      <c r="B58" s="88"/>
+      <c r="B58" s="83"/>
       <c r="C58" s="12"/>
       <c r="D58" s="13"/>
       <c r="E58" s="14"/>
@@ -31710,7 +31734,7 @@
     </row>
     <row r="59" spans="1:9" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
-      <c r="B59" s="88"/>
+      <c r="B59" s="83"/>
       <c r="C59" s="12"/>
       <c r="D59" s="13"/>
       <c r="E59" s="14"/>
@@ -31721,7 +31745,7 @@
     </row>
     <row r="60" spans="1:9" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
-      <c r="B60" s="89"/>
+      <c r="B60" s="84"/>
       <c r="C60" s="12"/>
       <c r="D60" s="13"/>
       <c r="E60" s="14"/>
@@ -31732,7 +31756,7 @@
     </row>
     <row r="61" spans="1:9" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
-      <c r="B61" s="90"/>
+      <c r="B61" s="85"/>
       <c r="C61" s="12"/>
       <c r="D61" s="13"/>
       <c r="E61" s="14"/>
@@ -31743,7 +31767,7 @@
     </row>
     <row r="62" spans="1:9" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
-      <c r="B62" s="91"/>
+      <c r="B62" s="86"/>
       <c r="C62" s="12"/>
       <c r="D62" s="13"/>
       <c r="E62" s="14"/>
@@ -31754,7 +31778,7 @@
     </row>
     <row r="63" spans="1:9" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
-      <c r="B63" s="91"/>
+      <c r="B63" s="86"/>
       <c r="C63" s="12"/>
       <c r="D63" s="13"/>
       <c r="E63" s="14"/>
@@ -31765,7 +31789,7 @@
     </row>
     <row r="64" spans="1:9" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
-      <c r="B64" s="91"/>
+      <c r="B64" s="86"/>
       <c r="C64" s="12"/>
       <c r="D64" s="13"/>
       <c r="E64" s="14"/>
@@ -31776,7 +31800,7 @@
     </row>
     <row r="65" spans="1:9" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
-      <c r="B65" s="92"/>
+      <c r="B65" s="87"/>
       <c r="C65" s="12"/>
       <c r="D65" s="13"/>
       <c r="E65" s="14"/>
@@ -31787,7 +31811,7 @@
     </row>
     <row r="66" spans="1:9" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
-      <c r="B66" s="87"/>
+      <c r="B66" s="82"/>
       <c r="C66" s="12"/>
       <c r="D66" s="16"/>
       <c r="E66" s="14"/>
@@ -31798,7 +31822,7 @@
     </row>
     <row r="67" spans="1:9" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
-      <c r="B67" s="88"/>
+      <c r="B67" s="83"/>
       <c r="C67" s="12"/>
       <c r="D67" s="16"/>
       <c r="E67" s="14"/>
@@ -31875,13 +31899,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="B61:B65"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="A46:I46"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="B10:B15"/>
     <mergeCell ref="B33:B45"/>
@@ -31890,6 +31907,13 @@
     <mergeCell ref="A7:I7"/>
     <mergeCell ref="A18:I18"/>
     <mergeCell ref="A30:I30"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="B61:B65"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="A46:I46"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31917,10 +31941,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -31966,23 +31990,23 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="91" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="86"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="93"/>
     </row>
     <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.2">
       <c r="A3" s="44">
         <v>1</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="88" t="s">
         <v>113</v>
       </c>
       <c r="C3" s="46" t="s">
@@ -32009,7 +32033,7 @@
       <c r="A4" s="44">
         <v>2</v>
       </c>
-      <c r="B4" s="82"/>
+      <c r="B4" s="94"/>
       <c r="C4" s="46" t="s">
         <v>54</v>
       </c>
@@ -32058,17 +32082,17 @@
       <c r="I5" s="49"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="91" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="85"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="86"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="93"/>
     </row>
     <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.2">
       <c r="A7" s="44">
@@ -32101,7 +32125,7 @@
       <c r="A8" s="44">
         <v>5</v>
       </c>
-      <c r="B8" s="94" t="s">
+      <c r="B8" s="95" t="s">
         <v>126</v>
       </c>
       <c r="C8" s="46" t="s">
@@ -32128,7 +32152,7 @@
       <c r="A9" s="44">
         <v>6</v>
       </c>
-      <c r="B9" s="95"/>
+      <c r="B9" s="96"/>
       <c r="C9" s="46" t="s">
         <v>105</v>
       </c>
@@ -32153,7 +32177,7 @@
       <c r="A10" s="67">
         <v>7</v>
       </c>
-      <c r="B10" s="93" t="s">
+      <c r="B10" s="90" t="s">
         <v>123</v>
       </c>
       <c r="C10" s="46" t="s">
@@ -32169,10 +32193,10 @@
         <v>199</v>
       </c>
       <c r="G10" s="48" t="s">
-        <v>102</v>
+        <v>363</v>
       </c>
       <c r="H10" s="49" t="s">
-        <v>183</v>
+        <v>364</v>
       </c>
       <c r="I10" s="49"/>
     </row>
@@ -32180,7 +32204,7 @@
       <c r="A11" s="67">
         <v>8</v>
       </c>
-      <c r="B11" s="93"/>
+      <c r="B11" s="90"/>
       <c r="C11" s="46" t="s">
         <v>125</v>
       </c>
@@ -32202,7 +32226,7 @@
       <c r="I11" s="49"/>
     </row>
     <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="A12" s="67">
+      <c r="A12" s="68">
         <v>9</v>
       </c>
       <c r="B12" s="52" t="s">
@@ -32228,262 +32252,278 @@
       </c>
       <c r="I12" s="49"/>
     </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="84" t="s">
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A13" s="68">
+        <v>10</v>
+      </c>
+      <c r="B13" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>365</v>
+      </c>
+      <c r="D13" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="57" t="s">
+        <v>366</v>
+      </c>
+      <c r="F13" s="57" t="s">
+        <v>368</v>
+      </c>
+      <c r="G13" s="57" t="s">
+        <v>367</v>
+      </c>
+      <c r="H13" s="49" t="s">
+        <v>369</v>
+      </c>
+      <c r="I13" s="49"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="91" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="85"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="85"/>
-      <c r="I13" s="86"/>
-    </row>
-    <row r="14" spans="1:9" ht="75" x14ac:dyDescent="0.2">
-      <c r="A14" s="67">
+      <c r="B14" s="92"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="93"/>
+    </row>
+    <row r="15" spans="1:9" ht="75" x14ac:dyDescent="0.2">
+      <c r="A15" s="67">
         <v>10</v>
       </c>
-      <c r="B14" s="81" t="s">
+      <c r="B15" s="88" t="s">
         <v>130</v>
       </c>
-      <c r="C14" s="46" t="s">
+      <c r="C15" s="46" t="s">
         <v>93</v>
-      </c>
-      <c r="D14" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="48" t="s">
-        <v>98</v>
-      </c>
-      <c r="F14" s="48" t="s">
-        <v>202</v>
-      </c>
-      <c r="G14" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="H14" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="I14" s="49"/>
-    </row>
-    <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="A15" s="67">
-        <v>11</v>
-      </c>
-      <c r="B15" s="83"/>
-      <c r="C15" s="46" t="s">
-        <v>95</v>
       </c>
       <c r="D15" s="47" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" s="48" t="s">
+        <v>202</v>
+      </c>
+      <c r="G15" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="H15" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="I15" s="49"/>
+    </row>
+    <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="A16" s="67">
+        <v>11</v>
+      </c>
+      <c r="B16" s="89"/>
+      <c r="C16" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="F15" s="48" t="s">
+      <c r="F16" s="48" t="s">
         <v>203</v>
       </c>
-      <c r="G15" s="48" t="s">
+      <c r="G16" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="H15" s="49" t="s">
+      <c r="H16" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="I15" s="49"/>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="84" t="s">
+      <c r="I16" s="49"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="91" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="85"/>
-      <c r="C16" s="85"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="85"/>
-      <c r="I16" s="86"/>
-    </row>
-    <row r="17" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="A17" s="44">
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="93"/>
+    </row>
+    <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="A18" s="44">
         <v>11</v>
       </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="46" t="s">
+      <c r="B18" s="45"/>
+      <c r="C18" s="46" t="s">
         <v>55</v>
-      </c>
-      <c r="D17" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" s="48" t="s">
-        <v>204</v>
-      </c>
-      <c r="G17" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="H17" s="49" t="s">
-        <v>209</v>
-      </c>
-      <c r="I17" s="49"/>
-    </row>
-    <row r="18" spans="1:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="A18" s="44">
-        <v>12</v>
-      </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="46" t="s">
-        <v>56</v>
       </c>
       <c r="D18" s="47" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F18" s="48" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G18" s="48" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="H18" s="49" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I18" s="49"/>
     </row>
     <row r="19" spans="1:9" ht="60" x14ac:dyDescent="0.2">
       <c r="A19" s="44">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" s="50"/>
       <c r="C19" s="46" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D19" s="47" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F19" s="48" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G19" s="48" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H19" s="49" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I19" s="49"/>
     </row>
-    <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="60" x14ac:dyDescent="0.2">
       <c r="A20" s="44">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" s="50"/>
       <c r="C20" s="46" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D20" s="47" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="48" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F20" s="48" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G20" s="48" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H20" s="49" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I20" s="49"/>
     </row>
-    <row r="21" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="45" x14ac:dyDescent="0.2">
       <c r="A21" s="44">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" s="50"/>
       <c r="C21" s="46" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D21" s="47" t="s">
         <v>11</v>
       </c>
       <c r="E21" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="48" t="s">
+        <v>207</v>
+      </c>
+      <c r="G21" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="49" t="s">
+        <v>210</v>
+      </c>
+      <c r="I21" s="49"/>
+    </row>
+    <row r="22" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+      <c r="A22" s="44">
+        <v>15</v>
+      </c>
+      <c r="B22" s="50"/>
+      <c r="C22" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="48" t="s">
+      <c r="F22" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="G21" s="48" t="s">
+      <c r="G22" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="H21" s="49" t="s">
+      <c r="H22" s="49" t="s">
         <v>185</v>
       </c>
-      <c r="I21" s="49"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="84" t="s">
+      <c r="I22" s="49"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="B22" s="85"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="85"/>
-      <c r="I22" s="86"/>
-    </row>
-    <row r="23" spans="1:9" ht="75" x14ac:dyDescent="0.2">
-      <c r="A23" s="44">
+      <c r="B23" s="92"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="93"/>
+    </row>
+    <row r="24" spans="1:9" ht="75" x14ac:dyDescent="0.2">
+      <c r="A24" s="44">
         <v>16</v>
       </c>
-      <c r="B23" s="45"/>
-      <c r="C23" s="46" t="s">
+      <c r="B24" s="45"/>
+      <c r="C24" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="D23" s="47" t="s">
+      <c r="D24" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="48" t="s">
+      <c r="E24" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="F23" s="48" t="s">
+      <c r="F24" s="48" t="s">
         <v>212</v>
       </c>
-      <c r="G23" s="48" t="s">
+      <c r="G24" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="H23" s="49" t="s">
+      <c r="H24" s="49" t="s">
         <v>213</v>
       </c>
-      <c r="I23" s="49"/>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="53"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="49"/>
       <c r="I24" s="49"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A25" s="53"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="44"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="46"/>
       <c r="D25" s="47"/>
       <c r="E25" s="48"/>
       <c r="F25" s="48"/>
@@ -32493,7 +32533,7 @@
     </row>
     <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A26" s="53"/>
-      <c r="B26" s="51"/>
+      <c r="B26" s="45"/>
       <c r="C26" s="44"/>
       <c r="D26" s="47"/>
       <c r="E26" s="48"/>
@@ -32502,16 +32542,27 @@
       <c r="H26" s="49"/>
       <c r="I26" s="49"/>
     </row>
+    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="53"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+    </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A17:I17"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A6:I6"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B15:B16"/>
     <mergeCell ref="B10:B11"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -32519,12 +32570,12 @@
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
           <x14:formula1>
             <xm:f>'C:\Users\US\Downloads\[K22T2-Team8-MessageList-ver0.1.xlsx]Sheet4'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>D14:D15 D3:D5 D23:D26 D17:D21 D7:D12</xm:sqref>
+          <xm:sqref>D15:D16 D3:D5 D24:D27 D18:D22 D7:D13</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
